--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1192,13 +1187,88 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,86 +1322,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,7 +1606,7 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="AA1" sqref="AA1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1637,38 +1632,38 @@
     <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="52">
-        <f>_metadata!B1</f>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="96">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
@@ -1678,129 +1673,129 @@
       <c r="AJ1" s="4"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="57"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="82"/>
     </row>
     <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="70" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="70" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="70" t="s">
+      <c r="N3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="63" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="66" t="s">
+      <c r="R3" s="89"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="60" t="s">
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="69"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="72" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="58" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1810,9 +1805,9 @@
       <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="58" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -1866,25 +1861,25 @@
       <c r="AF4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="74" t="s">
+      <c r="AG4" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="74" t="s">
+      <c r="AH4" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="74" t="s">
+      <c r="AI4" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="75" t="s">
+      <c r="AJ4" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1912,7 +1907,7 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="73"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="37" t="s">
         <v>38</v>
       </c>
@@ -1964,10 +1959,10 @@
       <c r="AF5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="76"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="51"/>
     </row>
     <row r="6" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -4984,10 +4979,10 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="86"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -5063,10 +5058,10 @@
       <c r="AJ27" s="49"/>
     </row>
     <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -5193,10 +5188,10 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="29">
         <v>1</v>
       </c>
@@ -5238,8 +5233,8 @@
       <c r="AJ29" s="31"/>
     </row>
     <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="33">
         <v>2</v>
       </c>
@@ -5281,8 +5276,8 @@
       <c r="AJ30" s="31"/>
     </row>
     <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="33">
         <v>3</v>
       </c>
@@ -5324,8 +5319,8 @@
       <c r="AJ31" s="31"/>
     </row>
     <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="27">
         <v>4</v>
       </c>
@@ -5368,18 +5363,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="A29:B32"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
     <mergeCell ref="C1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="C2:S2"/>
@@ -5396,6 +5379,18 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="出铁作业日报表" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>出铁作业日报表</t>
   </si>
@@ -516,19 +516,22 @@
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +542,7 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -551,7 +554,7 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -561,12 +564,12 @@
     <font>
       <sz val="16"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -577,7 +580,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -586,19 +589,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="20"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +754,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1034,16 +1361,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1052,17 +1621,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1070,7 +1684,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,6 +1720,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,7 +1735,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1750,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,8 +1765,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,18 +1783,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,6 +1843,27 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1187,159 +1882,62 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1597,19 +2195,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
@@ -1629,41 +2227,41 @@
     <col min="27" max="36" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="32.25" spans="1:36">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="96">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="79">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
@@ -1672,3694 +2270,3694 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="2" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="82"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="81"/>
     </row>
-    <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="62" t="s">
+    <row r="3" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="62" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="88" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91" t="s">
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="85" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="94"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="82"/>
     </row>
-    <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="58" t="s">
+    <row r="4" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="58" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="95" t="s">
+      <c r="AG4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="95" t="s">
+      <c r="AH4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="95" t="s">
+      <c r="AI4" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="11" t="s">
+    <row r="5" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="37" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="51"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="85"/>
     </row>
-    <row r="6" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" ht="29.25" hidden="1" customHeight="1" spans="1:36">
+      <c r="A6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13" t="s">
+      <c r="S6" s="28"/>
+      <c r="T6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="44"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="86"/>
     </row>
-    <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="str">
+    <row r="7" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A7" s="29" t="str">
         <f>IF(_tap_day_all!B2="","",_tap_day_all!B2)</f>
         <v/>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="30" t="str">
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="30" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="31" t="str">
         <f>IF(_tap_day_all!H2="","",_tap_day_all!H2)</f>
         <v/>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="31" t="str">
         <f>IF(_tap_day_all!I2="","",_tap_day_all!I2)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="32" t="str">
         <f t="shared" ref="F7:F19" si="0">IFERROR((E7-D7)*60*24,"")</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="33" t="str">
         <f>IF(_tap_day_all!R2="","",_tap_day_all!R2)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="33" t="str">
         <f>IF(_tap_day_all!AL2="","",_tap_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="33" t="str">
         <f>IF(_tap_day_all!U2="","",_tap_day_all!U2)</f>
         <v/>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="33" t="str">
         <f>IF(_tap_day_all!BO2="","",_tap_day_all!BO2)</f>
         <v/>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="33" t="str">
         <f>IF(_tap_day_all!P2="","",_tap_day_all!P2)</f>
         <v/>
       </c>
-      <c r="L7" s="38" t="str">
+      <c r="L7" s="66" t="str">
         <f t="shared" ref="L7:L19" si="1">IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="M7" s="38" t="str">
+      <c r="M7" s="66" t="str">
         <f>IF(_tap_day_all!AF2="","",_tap_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="N7" s="18" t="str">
+      <c r="N7" s="33" t="str">
         <f>IF(_tap_day_all!Q2="","",_tap_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="O7" s="16" t="str">
+      <c r="O7" s="31" t="str">
         <f>IF(_tap_day_all!J2="","",_tap_day_all!J2)</f>
         <v/>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="32" t="str">
         <f t="shared" ref="P7:P26" si="2">IFERROR((E7-O7)*60*24,"")</f>
         <v/>
       </c>
-      <c r="Q7" s="18" t="str">
+      <c r="Q7" s="33" t="str">
         <f>IF(_tap_day_all!BP2="","",_tap_day_all!BP2)</f>
         <v/>
       </c>
-      <c r="R7" s="18" t="str">
+      <c r="R7" s="33" t="str">
         <f>IF(_tap_day_all!S2="","",_tap_day_all!S2)</f>
         <v/>
       </c>
-      <c r="S7" s="40" t="str">
+      <c r="S7" s="75" t="str">
         <f>IFERROR(Q7-R7,"")</f>
         <v/>
       </c>
-      <c r="T7" s="40" t="str">
+      <c r="T7" s="75" t="str">
         <f>IF(_tap_day_all!CB2="","",_tap_day_all!CB2)</f>
         <v/>
       </c>
-      <c r="U7" s="40" t="str">
+      <c r="U7" s="75" t="str">
         <f>IF(_tap_day_all!CH2="","",_tap_day_all!CH2)</f>
         <v/>
       </c>
-      <c r="V7" s="40" t="str">
+      <c r="V7" s="75" t="str">
         <f>IF(_tap_day_all!BZ2="","",_tap_day_all!BZ2)</f>
         <v/>
       </c>
-      <c r="W7" s="40" t="str">
+      <c r="W7" s="75" t="str">
         <f>IF(_tap_day_all!CA2="","",_tap_day_all!CA2)</f>
         <v/>
       </c>
-      <c r="X7" s="40" t="str">
+      <c r="X7" s="75" t="str">
         <f>IF(_tap_day_all!CC2="","",_tap_day_all!CC2)</f>
         <v/>
       </c>
-      <c r="Y7" s="40" t="str">
+      <c r="Y7" s="75" t="str">
         <f>IF(_tap_day_all!CF2="","",_tap_day_all!CF2)</f>
         <v/>
       </c>
-      <c r="Z7" s="40" t="str">
+      <c r="Z7" s="75" t="str">
         <f>IF(_tap_day_all!CI2="","",_tap_day_all!CI2)</f>
         <v/>
       </c>
-      <c r="AA7" s="40" t="str">
+      <c r="AA7" s="75" t="str">
         <f>IF(_tap_day_all!CK2="","",_tap_day_all!CK2)</f>
         <v/>
       </c>
-      <c r="AB7" s="40" t="str">
+      <c r="AB7" s="75" t="str">
         <f>IF(_tap_day_all!CJ2="","",_tap_day_all!CJ2)</f>
         <v/>
       </c>
-      <c r="AC7" s="40" t="str">
+      <c r="AC7" s="75" t="str">
         <f>IF(_tap_day_all!CU2="","",_tap_day_all!CU2)</f>
         <v/>
       </c>
-      <c r="AD7" s="40" t="str">
+      <c r="AD7" s="75" t="str">
         <f>IF(_tap_day_all!CL2="","",_tap_day_all!CL2)</f>
         <v/>
       </c>
-      <c r="AE7" s="40" t="str">
+      <c r="AE7" s="75" t="str">
         <f>IF(_tap_day_all!CN2="","",_tap_day_all!CN2)</f>
         <v/>
       </c>
-      <c r="AF7" s="40" t="str">
+      <c r="AF7" s="75" t="str">
         <f>IF(_tap_day_all!CT2="","",_tap_day_all!CT2)</f>
         <v/>
       </c>
-      <c r="AG7" s="45" t="str">
+      <c r="AG7" s="87" t="str">
         <f t="shared" ref="AG7:AG26" si="3">IFERROR(AA7/AB7,"")</f>
         <v/>
       </c>
-      <c r="AH7" s="45" t="str">
+      <c r="AH7" s="87" t="str">
         <f t="shared" ref="AH7:AH26" si="4">IFERROR((AA7+AC7)/AB7,"")</f>
         <v/>
       </c>
-      <c r="AI7" s="45" t="str">
+      <c r="AI7" s="87" t="str">
         <f t="shared" ref="AI7:AI26" si="5">IFERROR((AA7+AC7)/(AB7+AD7),"")</f>
         <v/>
       </c>
-      <c r="AJ7" s="46" t="str">
+      <c r="AJ7" s="88" t="str">
         <f t="shared" ref="AJ7:AJ26" si="6">IFERROR(AC7/AD7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="str">
+    <row r="8" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A8" s="29" t="str">
         <f>IF(_tap_day_all!B3="","",_tap_day_all!B3)</f>
         <v/>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="30" t="str">
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="30" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="31" t="str">
         <f>IF(_tap_day_all!H3="","",_tap_day_all!H3)</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(_tap_day_all!I3="","",_tap_day_all!I3)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="18" t="str">
+      <c r="G8" s="33" t="str">
         <f>IF(_tap_day_all!R3="","",_tap_day_all!R3)</f>
         <v/>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="H8" s="33" t="str">
         <f>IF(_tap_day_all!AL3="","",_tap_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="33" t="str">
         <f>IF(_tap_day_all!U3="","",_tap_day_all!U3)</f>
         <v/>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="33" t="str">
         <f>IF(_tap_day_all!BO3="","",_tap_day_all!BO3)</f>
         <v/>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="33" t="str">
         <f>IF(_tap_day_all!P3="","",_tap_day_all!P3)</f>
         <v/>
       </c>
-      <c r="L8" s="38" t="str">
+      <c r="L8" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="38" t="str">
+      <c r="M8" s="66" t="str">
         <f>IF(_tap_day_all!AF3="","",_tap_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="N8" s="18" t="str">
+      <c r="N8" s="33" t="str">
         <f>IF(_tap_day_all!Q3="","",_tap_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="31" t="str">
         <f>IF(_tap_day_all!J3="","",_tap_day_all!J3)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q8" s="18" t="str">
+      <c r="Q8" s="33" t="str">
         <f>IF(_tap_day_all!BP3="","",_tap_day_all!BP3)</f>
         <v/>
       </c>
-      <c r="R8" s="18" t="str">
+      <c r="R8" s="33" t="str">
         <f>IF(_tap_day_all!S3="","",_tap_day_all!S3)</f>
         <v/>
       </c>
-      <c r="S8" s="40" t="str">
+      <c r="S8" s="75" t="str">
         <f t="shared" ref="S8:S26" si="7">IFERROR(Q8-R8,"")</f>
         <v/>
       </c>
-      <c r="T8" s="40" t="str">
+      <c r="T8" s="75" t="str">
         <f>IF(_tap_day_all!CB3="","",_tap_day_all!CB3)</f>
         <v/>
       </c>
-      <c r="U8" s="40" t="str">
+      <c r="U8" s="75" t="str">
         <f>IF(_tap_day_all!CH3="","",_tap_day_all!CH3)</f>
         <v/>
       </c>
-      <c r="V8" s="40" t="str">
+      <c r="V8" s="75" t="str">
         <f>IF(_tap_day_all!BZ3="","",_tap_day_all!BZ3)</f>
         <v/>
       </c>
-      <c r="W8" s="40" t="str">
+      <c r="W8" s="75" t="str">
         <f>IF(_tap_day_all!CA3="","",_tap_day_all!CA3)</f>
         <v/>
       </c>
-      <c r="X8" s="40" t="str">
+      <c r="X8" s="75" t="str">
         <f>IF(_tap_day_all!CC3="","",_tap_day_all!CC3)</f>
         <v/>
       </c>
-      <c r="Y8" s="40" t="str">
+      <c r="Y8" s="75" t="str">
         <f>IF(_tap_day_all!CF3="","",_tap_day_all!CF3)</f>
         <v/>
       </c>
-      <c r="Z8" s="40" t="str">
+      <c r="Z8" s="75" t="str">
         <f>IF(_tap_day_all!CI3="","",_tap_day_all!CI3)</f>
         <v/>
       </c>
-      <c r="AA8" s="40" t="str">
+      <c r="AA8" s="75" t="str">
         <f>IF(_tap_day_all!CK3="","",_tap_day_all!CK3)</f>
         <v/>
       </c>
-      <c r="AB8" s="40" t="str">
+      <c r="AB8" s="75" t="str">
         <f>IF(_tap_day_all!CJ3="","",_tap_day_all!CJ3)</f>
         <v/>
       </c>
-      <c r="AC8" s="40" t="str">
+      <c r="AC8" s="75" t="str">
         <f>IF(_tap_day_all!CU3="","",_tap_day_all!CU3)</f>
         <v/>
       </c>
-      <c r="AD8" s="40" t="str">
+      <c r="AD8" s="75" t="str">
         <f>IF(_tap_day_all!CL3="","",_tap_day_all!CL3)</f>
         <v/>
       </c>
-      <c r="AE8" s="40" t="str">
+      <c r="AE8" s="75" t="str">
         <f>IF(_tap_day_all!CN3="","",_tap_day_all!CN3)</f>
         <v/>
       </c>
-      <c r="AF8" s="40" t="str">
+      <c r="AF8" s="75" t="str">
         <f>IF(_tap_day_all!CT3="","",_tap_day_all!CT3)</f>
         <v/>
       </c>
-      <c r="AG8" s="45" t="str">
+      <c r="AG8" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH8" s="45" t="str">
+      <c r="AH8" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI8" s="45" t="str">
+      <c r="AI8" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ8" s="46" t="str">
+      <c r="AJ8" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="str">
+    <row r="9" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A9" s="29" t="str">
         <f>IF(_tap_day_all!B4="","",_tap_day_all!B4)</f>
         <v/>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="30" t="str">
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="30" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="31" t="str">
         <f>IF(_tap_day_all!H4="","",_tap_day_all!H4)</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="31" t="str">
         <f>IF(_tap_day_all!I4="","",_tap_day_all!I4)</f>
         <v/>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="18" t="str">
+      <c r="G9" s="33" t="str">
         <f>IF(_tap_day_all!R4="","",_tap_day_all!R4)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="33" t="str">
         <f>IF(_tap_day_all!AL4="","",_tap_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="33" t="str">
         <f>IF(_tap_day_all!U4="","",_tap_day_all!U4)</f>
         <v/>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="33" t="str">
         <f>IF(_tap_day_all!BO4="","",_tap_day_all!BO4)</f>
         <v/>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="33" t="str">
         <f>IF(_tap_day_all!P4="","",_tap_day_all!P4)</f>
         <v/>
       </c>
-      <c r="L9" s="38" t="str">
+      <c r="L9" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M9" s="38" t="str">
+      <c r="M9" s="66" t="str">
         <f>IF(_tap_day_all!AF4="","",_tap_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="33" t="str">
         <f>IF(_tap_day_all!Q4="","",_tap_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="31" t="str">
         <f>IF(_tap_day_all!J4="","",_tap_day_all!J4)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q9" s="18" t="str">
+      <c r="Q9" s="33" t="str">
         <f>IF(_tap_day_all!BP4="","",_tap_day_all!BP4)</f>
         <v/>
       </c>
-      <c r="R9" s="18" t="str">
+      <c r="R9" s="33" t="str">
         <f>IF(_tap_day_all!S4="","",_tap_day_all!S4)</f>
         <v/>
       </c>
-      <c r="S9" s="40" t="str">
+      <c r="S9" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T9" s="40" t="str">
+      <c r="T9" s="75" t="str">
         <f>IF(_tap_day_all!CB4="","",_tap_day_all!CB4)</f>
         <v/>
       </c>
-      <c r="U9" s="40" t="str">
+      <c r="U9" s="75" t="str">
         <f>IF(_tap_day_all!CH4="","",_tap_day_all!CH4)</f>
         <v/>
       </c>
-      <c r="V9" s="40" t="str">
+      <c r="V9" s="75" t="str">
         <f>IF(_tap_day_all!BZ4="","",_tap_day_all!BZ4)</f>
         <v/>
       </c>
-      <c r="W9" s="40" t="str">
+      <c r="W9" s="75" t="str">
         <f>IF(_tap_day_all!CA4="","",_tap_day_all!CA4)</f>
         <v/>
       </c>
-      <c r="X9" s="40" t="str">
+      <c r="X9" s="75" t="str">
         <f>IF(_tap_day_all!CC4="","",_tap_day_all!CC4)</f>
         <v/>
       </c>
-      <c r="Y9" s="40" t="str">
+      <c r="Y9" s="75" t="str">
         <f>IF(_tap_day_all!CF4="","",_tap_day_all!CF4)</f>
         <v/>
       </c>
-      <c r="Z9" s="40" t="str">
+      <c r="Z9" s="75" t="str">
         <f>IF(_tap_day_all!CI4="","",_tap_day_all!CI4)</f>
         <v/>
       </c>
-      <c r="AA9" s="40" t="str">
+      <c r="AA9" s="75" t="str">
         <f>IF(_tap_day_all!CK4="","",_tap_day_all!CK4)</f>
         <v/>
       </c>
-      <c r="AB9" s="40" t="str">
+      <c r="AB9" s="75" t="str">
         <f>IF(_tap_day_all!CJ4="","",_tap_day_all!CJ4)</f>
         <v/>
       </c>
-      <c r="AC9" s="40" t="str">
+      <c r="AC9" s="75" t="str">
         <f>IF(_tap_day_all!CU4="","",_tap_day_all!CU4)</f>
         <v/>
       </c>
-      <c r="AD9" s="40" t="str">
+      <c r="AD9" s="75" t="str">
         <f>IF(_tap_day_all!CL4="","",_tap_day_all!CL4)</f>
         <v/>
       </c>
-      <c r="AE9" s="40" t="str">
+      <c r="AE9" s="75" t="str">
         <f>IF(_tap_day_all!CN4="","",_tap_day_all!CN4)</f>
         <v/>
       </c>
-      <c r="AF9" s="40" t="str">
+      <c r="AF9" s="75" t="str">
         <f>IF(_tap_day_all!CT4="","",_tap_day_all!CT4)</f>
         <v/>
       </c>
-      <c r="AG9" s="45" t="str">
+      <c r="AG9" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH9" s="45" t="str">
+      <c r="AH9" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI9" s="45" t="str">
+      <c r="AI9" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ9" s="46" t="str">
+      <c r="AJ9" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="str">
+    <row r="10" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A10" s="29" t="str">
         <f>IF(_tap_day_all!B5="","",_tap_day_all!B5)</f>
         <v/>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="30" t="str">
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="30" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="31" t="str">
         <f>IF(_tap_day_all!H5="","",_tap_day_all!H5)</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="31" t="str">
         <f>IF(_tap_day_all!I5="","",_tap_day_all!I5)</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="18" t="str">
+      <c r="G10" s="33" t="str">
         <f>IF(_tap_day_all!R5="","",_tap_day_all!R5)</f>
         <v/>
       </c>
-      <c r="H10" s="18" t="str">
+      <c r="H10" s="33" t="str">
         <f>IF(_tap_day_all!AL5="","",_tap_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="I10" s="18" t="str">
+      <c r="I10" s="33" t="str">
         <f>IF(_tap_day_all!U5="","",_tap_day_all!U5)</f>
         <v/>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="33" t="str">
         <f>IF(_tap_day_all!BO5="","",_tap_day_all!BO5)</f>
         <v/>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="33" t="str">
         <f>IF(_tap_day_all!P5="","",_tap_day_all!P5)</f>
         <v/>
       </c>
-      <c r="L10" s="38" t="str">
+      <c r="L10" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="38" t="str">
+      <c r="M10" s="66" t="str">
         <f>IF(_tap_day_all!AF5="","",_tap_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="N10" s="18" t="str">
+      <c r="N10" s="33" t="str">
         <f>IF(_tap_day_all!Q5="","",_tap_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="31" t="str">
         <f>IF(_tap_day_all!J5="","",_tap_day_all!J5)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q10" s="18" t="str">
+      <c r="Q10" s="33" t="str">
         <f>IF(_tap_day_all!BP5="","",_tap_day_all!BP5)</f>
         <v/>
       </c>
-      <c r="R10" s="18" t="str">
+      <c r="R10" s="33" t="str">
         <f>IF(_tap_day_all!S5="","",_tap_day_all!S5)</f>
         <v/>
       </c>
-      <c r="S10" s="40" t="str">
+      <c r="S10" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T10" s="40" t="str">
+      <c r="T10" s="75" t="str">
         <f>IF(_tap_day_all!CB5="","",_tap_day_all!CB5)</f>
         <v/>
       </c>
-      <c r="U10" s="40" t="str">
+      <c r="U10" s="75" t="str">
         <f>IF(_tap_day_all!CH5="","",_tap_day_all!CH5)</f>
         <v/>
       </c>
-      <c r="V10" s="40" t="str">
+      <c r="V10" s="75" t="str">
         <f>IF(_tap_day_all!BZ5="","",_tap_day_all!BZ5)</f>
         <v/>
       </c>
-      <c r="W10" s="40" t="str">
+      <c r="W10" s="75" t="str">
         <f>IF(_tap_day_all!CA5="","",_tap_day_all!CA5)</f>
         <v/>
       </c>
-      <c r="X10" s="40" t="str">
+      <c r="X10" s="75" t="str">
         <f>IF(_tap_day_all!CC5="","",_tap_day_all!CC5)</f>
         <v/>
       </c>
-      <c r="Y10" s="40" t="str">
+      <c r="Y10" s="75" t="str">
         <f>IF(_tap_day_all!CF5="","",_tap_day_all!CF5)</f>
         <v/>
       </c>
-      <c r="Z10" s="40" t="str">
+      <c r="Z10" s="75" t="str">
         <f>IF(_tap_day_all!CI5="","",_tap_day_all!CI5)</f>
         <v/>
       </c>
-      <c r="AA10" s="40" t="str">
+      <c r="AA10" s="75" t="str">
         <f>IF(_tap_day_all!CK5="","",_tap_day_all!CK5)</f>
         <v/>
       </c>
-      <c r="AB10" s="40" t="str">
+      <c r="AB10" s="75" t="str">
         <f>IF(_tap_day_all!CJ5="","",_tap_day_all!CJ5)</f>
         <v/>
       </c>
-      <c r="AC10" s="40" t="str">
+      <c r="AC10" s="75" t="str">
         <f>IF(_tap_day_all!CU5="","",_tap_day_all!CU5)</f>
         <v/>
       </c>
-      <c r="AD10" s="40" t="str">
+      <c r="AD10" s="75" t="str">
         <f>IF(_tap_day_all!CL5="","",_tap_day_all!CL5)</f>
         <v/>
       </c>
-      <c r="AE10" s="40" t="str">
+      <c r="AE10" s="75" t="str">
         <f>IF(_tap_day_all!CN5="","",_tap_day_all!CN5)</f>
         <v/>
       </c>
-      <c r="AF10" s="40" t="str">
+      <c r="AF10" s="75" t="str">
         <f>IF(_tap_day_all!CT5="","",_tap_day_all!CT5)</f>
         <v/>
       </c>
-      <c r="AG10" s="45" t="str">
+      <c r="AG10" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH10" s="45" t="str">
+      <c r="AH10" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI10" s="45" t="str">
+      <c r="AI10" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ10" s="46" t="str">
+      <c r="AJ10" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="str">
+    <row r="11" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A11" s="29" t="str">
         <f>IF(_tap_day_all!B6="","",_tap_day_all!B6)</f>
         <v/>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="30" t="str">
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="30" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="31" t="str">
         <f>IF(_tap_day_all!H6="","",_tap_day_all!H6)</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="31" t="str">
         <f>IF(_tap_day_all!I6="","",_tap_day_all!I6)</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="18" t="str">
+      <c r="G11" s="33" t="str">
         <f>IF(_tap_day_all!R6="","",_tap_day_all!R6)</f>
         <v/>
       </c>
-      <c r="H11" s="18" t="str">
+      <c r="H11" s="33" t="str">
         <f>IF(_tap_day_all!AL6="","",_tap_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="33" t="str">
         <f>IF(_tap_day_all!U6="","",_tap_day_all!U6)</f>
         <v/>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="33" t="str">
         <f>IF(_tap_day_all!BO6="","",_tap_day_all!BO6)</f>
         <v/>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="33" t="str">
         <f>IF(_tap_day_all!P6="","",_tap_day_all!P6)</f>
         <v/>
       </c>
-      <c r="L11" s="38" t="str">
+      <c r="L11" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M11" s="38" t="str">
+      <c r="M11" s="66" t="str">
         <f>IF(_tap_day_all!AF6="","",_tap_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="N11" s="18" t="str">
+      <c r="N11" s="33" t="str">
         <f>IF(_tap_day_all!Q6="","",_tap_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="31" t="str">
         <f>IF(_tap_day_all!J6="","",_tap_day_all!J6)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q11" s="18" t="str">
+      <c r="Q11" s="33" t="str">
         <f>IF(_tap_day_all!BP6="","",_tap_day_all!BP6)</f>
         <v/>
       </c>
-      <c r="R11" s="18" t="str">
+      <c r="R11" s="33" t="str">
         <f>IF(_tap_day_all!S6="","",_tap_day_all!S6)</f>
         <v/>
       </c>
-      <c r="S11" s="40" t="str">
+      <c r="S11" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T11" s="40" t="str">
+      <c r="T11" s="75" t="str">
         <f>IF(_tap_day_all!CB6="","",_tap_day_all!CB6)</f>
         <v/>
       </c>
-      <c r="U11" s="40" t="str">
+      <c r="U11" s="75" t="str">
         <f>IF(_tap_day_all!CH6="","",_tap_day_all!CH6)</f>
         <v/>
       </c>
-      <c r="V11" s="40" t="str">
+      <c r="V11" s="75" t="str">
         <f>IF(_tap_day_all!BZ6="","",_tap_day_all!BZ6)</f>
         <v/>
       </c>
-      <c r="W11" s="40" t="str">
+      <c r="W11" s="75" t="str">
         <f>IF(_tap_day_all!CA6="","",_tap_day_all!CA6)</f>
         <v/>
       </c>
-      <c r="X11" s="40" t="str">
+      <c r="X11" s="75" t="str">
         <f>IF(_tap_day_all!CC6="","",_tap_day_all!CC6)</f>
         <v/>
       </c>
-      <c r="Y11" s="40" t="str">
+      <c r="Y11" s="75" t="str">
         <f>IF(_tap_day_all!CF6="","",_tap_day_all!CF6)</f>
         <v/>
       </c>
-      <c r="Z11" s="40" t="str">
+      <c r="Z11" s="75" t="str">
         <f>IF(_tap_day_all!CI6="","",_tap_day_all!CI6)</f>
         <v/>
       </c>
-      <c r="AA11" s="40" t="str">
+      <c r="AA11" s="75" t="str">
         <f>IF(_tap_day_all!CK6="","",_tap_day_all!CK6)</f>
         <v/>
       </c>
-      <c r="AB11" s="40" t="str">
+      <c r="AB11" s="75" t="str">
         <f>IF(_tap_day_all!CJ6="","",_tap_day_all!CJ6)</f>
         <v/>
       </c>
-      <c r="AC11" s="40" t="str">
+      <c r="AC11" s="75" t="str">
         <f>IF(_tap_day_all!CU6="","",_tap_day_all!CU6)</f>
         <v/>
       </c>
-      <c r="AD11" s="40" t="str">
+      <c r="AD11" s="75" t="str">
         <f>IF(_tap_day_all!CL6="","",_tap_day_all!CL6)</f>
         <v/>
       </c>
-      <c r="AE11" s="40" t="str">
+      <c r="AE11" s="75" t="str">
         <f>IF(_tap_day_all!CN6="","",_tap_day_all!CN6)</f>
         <v/>
       </c>
-      <c r="AF11" s="40" t="str">
+      <c r="AF11" s="75" t="str">
         <f>IF(_tap_day_all!CT6="","",_tap_day_all!CT6)</f>
         <v/>
       </c>
-      <c r="AG11" s="45" t="str">
+      <c r="AG11" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH11" s="45" t="str">
+      <c r="AH11" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI11" s="45" t="str">
+      <c r="AI11" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ11" s="46" t="str">
+      <c r="AJ11" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="str">
+    <row r="12" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A12" s="29" t="str">
         <f>IF(_tap_day_all!B7="","",_tap_day_all!B7)</f>
         <v/>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="30" t="str">
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="30" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="31" t="str">
         <f>IF(_tap_day_all!H7="","",_tap_day_all!H7)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="31" t="str">
         <f>IF(_tap_day_all!I7="","",_tap_day_all!I7)</f>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="18" t="str">
+      <c r="G12" s="33" t="str">
         <f>IF(_tap_day_all!R7="","",_tap_day_all!R7)</f>
         <v/>
       </c>
-      <c r="H12" s="18" t="str">
+      <c r="H12" s="33" t="str">
         <f>IF(_tap_day_all!AL7="","",_tap_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="33" t="str">
         <f>IF(_tap_day_all!U7="","",_tap_day_all!U7)</f>
         <v/>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="33" t="str">
         <f>IF(_tap_day_all!BO7="","",_tap_day_all!BO7)</f>
         <v/>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="K12" s="33" t="str">
         <f>IF(_tap_day_all!P7="","",_tap_day_all!P7)</f>
         <v/>
       </c>
-      <c r="L12" s="38" t="str">
+      <c r="L12" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="38" t="str">
+      <c r="M12" s="66" t="str">
         <f>IF(_tap_day_all!AF7="","",_tap_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="N12" s="18" t="str">
+      <c r="N12" s="33" t="str">
         <f>IF(_tap_day_all!Q7="","",_tap_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="31" t="str">
         <f>IF(_tap_day_all!J7="","",_tap_day_all!J7)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q12" s="18" t="str">
+      <c r="Q12" s="33" t="str">
         <f>IF(_tap_day_all!BP7="","",_tap_day_all!BP7)</f>
         <v/>
       </c>
-      <c r="R12" s="18" t="str">
+      <c r="R12" s="33" t="str">
         <f>IF(_tap_day_all!S7="","",_tap_day_all!S7)</f>
         <v/>
       </c>
-      <c r="S12" s="40" t="str">
+      <c r="S12" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T12" s="40" t="str">
+      <c r="T12" s="75" t="str">
         <f>IF(_tap_day_all!CB7="","",_tap_day_all!CB7)</f>
         <v/>
       </c>
-      <c r="U12" s="40" t="str">
+      <c r="U12" s="75" t="str">
         <f>IF(_tap_day_all!CH7="","",_tap_day_all!CH7)</f>
         <v/>
       </c>
-      <c r="V12" s="40" t="str">
+      <c r="V12" s="75" t="str">
         <f>IF(_tap_day_all!BZ7="","",_tap_day_all!BZ7)</f>
         <v/>
       </c>
-      <c r="W12" s="40" t="str">
+      <c r="W12" s="75" t="str">
         <f>IF(_tap_day_all!CA7="","",_tap_day_all!CA7)</f>
         <v/>
       </c>
-      <c r="X12" s="40" t="str">
+      <c r="X12" s="75" t="str">
         <f>IF(_tap_day_all!CC7="","",_tap_day_all!CC7)</f>
         <v/>
       </c>
-      <c r="Y12" s="40" t="str">
+      <c r="Y12" s="75" t="str">
         <f>IF(_tap_day_all!CF7="","",_tap_day_all!CF7)</f>
         <v/>
       </c>
-      <c r="Z12" s="40" t="str">
+      <c r="Z12" s="75" t="str">
         <f>IF(_tap_day_all!CI7="","",_tap_day_all!CI7)</f>
         <v/>
       </c>
-      <c r="AA12" s="40" t="str">
+      <c r="AA12" s="75" t="str">
         <f>IF(_tap_day_all!CK7="","",_tap_day_all!CK7)</f>
         <v/>
       </c>
-      <c r="AB12" s="40" t="str">
+      <c r="AB12" s="75" t="str">
         <f>IF(_tap_day_all!CJ7="","",_tap_day_all!CJ7)</f>
         <v/>
       </c>
-      <c r="AC12" s="40" t="str">
+      <c r="AC12" s="75" t="str">
         <f>IF(_tap_day_all!CU7="","",_tap_day_all!CU7)</f>
         <v/>
       </c>
-      <c r="AD12" s="40" t="str">
+      <c r="AD12" s="75" t="str">
         <f>IF(_tap_day_all!CL7="","",_tap_day_all!CL7)</f>
         <v/>
       </c>
-      <c r="AE12" s="40" t="str">
+      <c r="AE12" s="75" t="str">
         <f>IF(_tap_day_all!CN7="","",_tap_day_all!CN7)</f>
         <v/>
       </c>
-      <c r="AF12" s="40" t="str">
+      <c r="AF12" s="75" t="str">
         <f>IF(_tap_day_all!CT7="","",_tap_day_all!CT7)</f>
         <v/>
       </c>
-      <c r="AG12" s="45" t="str">
+      <c r="AG12" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH12" s="45" t="str">
+      <c r="AH12" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI12" s="45" t="str">
+      <c r="AI12" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ12" s="46" t="str">
+      <c r="AJ12" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
+    <row r="13" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A13" s="29" t="str">
         <f>IF(_tap_day_all!B8="","",_tap_day_all!B8)</f>
         <v/>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="30" t="str">
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="30" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="31" t="str">
         <f>IF(_tap_day_all!H8="","",_tap_day_all!H8)</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="31" t="str">
         <f>IF(_tap_day_all!I8="","",_tap_day_all!I8)</f>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="18" t="str">
+      <c r="G13" s="33" t="str">
         <f>IF(_tap_day_all!R8="","",_tap_day_all!R8)</f>
         <v/>
       </c>
-      <c r="H13" s="18" t="str">
+      <c r="H13" s="33" t="str">
         <f>IF(_tap_day_all!AL8="","",_tap_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="I13" s="33" t="str">
         <f>IF(_tap_day_all!U8="","",_tap_day_all!U8)</f>
         <v/>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="33" t="str">
         <f>IF(_tap_day_all!BO8="","",_tap_day_all!BO8)</f>
         <v/>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="33" t="str">
         <f>IF(_tap_day_all!P8="","",_tap_day_all!P8)</f>
         <v/>
       </c>
-      <c r="L13" s="38" t="str">
+      <c r="L13" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M13" s="38" t="str">
+      <c r="M13" s="66" t="str">
         <f>IF(_tap_day_all!AF8="","",_tap_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="N13" s="18" t="str">
+      <c r="N13" s="33" t="str">
         <f>IF(_tap_day_all!Q8="","",_tap_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="O13" s="16" t="str">
+      <c r="O13" s="31" t="str">
         <f>IF(_tap_day_all!J8="","",_tap_day_all!J8)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q13" s="18" t="str">
+      <c r="Q13" s="33" t="str">
         <f>IF(_tap_day_all!BP8="","",_tap_day_all!BP8)</f>
         <v/>
       </c>
-      <c r="R13" s="18" t="str">
+      <c r="R13" s="33" t="str">
         <f>IF(_tap_day_all!S8="","",_tap_day_all!S8)</f>
         <v/>
       </c>
-      <c r="S13" s="40" t="str">
+      <c r="S13" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T13" s="40" t="str">
+      <c r="T13" s="75" t="str">
         <f>IF(_tap_day_all!CB8="","",_tap_day_all!CB8)</f>
         <v/>
       </c>
-      <c r="U13" s="40" t="str">
+      <c r="U13" s="75" t="str">
         <f>IF(_tap_day_all!CH8="","",_tap_day_all!CH8)</f>
         <v/>
       </c>
-      <c r="V13" s="40" t="str">
+      <c r="V13" s="75" t="str">
         <f>IF(_tap_day_all!BZ8="","",_tap_day_all!BZ8)</f>
         <v/>
       </c>
-      <c r="W13" s="40" t="str">
+      <c r="W13" s="75" t="str">
         <f>IF(_tap_day_all!CA8="","",_tap_day_all!CA8)</f>
         <v/>
       </c>
-      <c r="X13" s="40" t="str">
+      <c r="X13" s="75" t="str">
         <f>IF(_tap_day_all!CC8="","",_tap_day_all!CC8)</f>
         <v/>
       </c>
-      <c r="Y13" s="40" t="str">
+      <c r="Y13" s="75" t="str">
         <f>IF(_tap_day_all!CF8="","",_tap_day_all!CF8)</f>
         <v/>
       </c>
-      <c r="Z13" s="40" t="str">
+      <c r="Z13" s="75" t="str">
         <f>IF(_tap_day_all!CI8="","",_tap_day_all!CI8)</f>
         <v/>
       </c>
-      <c r="AA13" s="40" t="str">
+      <c r="AA13" s="75" t="str">
         <f>IF(_tap_day_all!CK8="","",_tap_day_all!CK8)</f>
         <v/>
       </c>
-      <c r="AB13" s="40" t="str">
+      <c r="AB13" s="75" t="str">
         <f>IF(_tap_day_all!CJ8="","",_tap_day_all!CJ8)</f>
         <v/>
       </c>
-      <c r="AC13" s="40" t="str">
+      <c r="AC13" s="75" t="str">
         <f>IF(_tap_day_all!CU8="","",_tap_day_all!CU8)</f>
         <v/>
       </c>
-      <c r="AD13" s="40" t="str">
+      <c r="AD13" s="75" t="str">
         <f>IF(_tap_day_all!CL8="","",_tap_day_all!CL8)</f>
         <v/>
       </c>
-      <c r="AE13" s="40" t="str">
+      <c r="AE13" s="75" t="str">
         <f>IF(_tap_day_all!CN8="","",_tap_day_all!CN8)</f>
         <v/>
       </c>
-      <c r="AF13" s="40" t="str">
+      <c r="AF13" s="75" t="str">
         <f>IF(_tap_day_all!CT8="","",_tap_day_all!CT8)</f>
         <v/>
       </c>
-      <c r="AG13" s="45" t="str">
+      <c r="AG13" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH13" s="45" t="str">
+      <c r="AH13" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI13" s="45" t="str">
+      <c r="AI13" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ13" s="46" t="str">
+      <c r="AJ13" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="str">
+    <row r="14" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A14" s="29" t="str">
         <f>IF(_tap_day_all!B9="","",_tap_day_all!B9)</f>
         <v/>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="30" t="str">
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_tap_day_all!H9="","",_tap_day_all!H9)</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_tap_day_all!I9="","",_tap_day_all!I9)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="18" t="str">
+      <c r="G14" s="33" t="str">
         <f>IF(_tap_day_all!R9="","",_tap_day_all!R9)</f>
         <v/>
       </c>
-      <c r="H14" s="18" t="str">
+      <c r="H14" s="33" t="str">
         <f>IF(_tap_day_all!AL9="","",_tap_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="33" t="str">
         <f>IF(_tap_day_all!U9="","",_tap_day_all!U9)</f>
         <v/>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="33" t="str">
         <f>IF(_tap_day_all!BO9="","",_tap_day_all!BO9)</f>
         <v/>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="33" t="str">
         <f>IF(_tap_day_all!P9="","",_tap_day_all!P9)</f>
         <v/>
       </c>
-      <c r="L14" s="38" t="str">
+      <c r="L14" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M14" s="38" t="str">
+      <c r="M14" s="66" t="str">
         <f>IF(_tap_day_all!AF9="","",_tap_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="N14" s="18" t="str">
+      <c r="N14" s="33" t="str">
         <f>IF(_tap_day_all!Q9="","",_tap_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="31" t="str">
         <f>IF(_tap_day_all!J9="","",_tap_day_all!J9)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q14" s="18" t="str">
+      <c r="Q14" s="33" t="str">
         <f>IF(_tap_day_all!BP9="","",_tap_day_all!BP9)</f>
         <v/>
       </c>
-      <c r="R14" s="18" t="str">
+      <c r="R14" s="33" t="str">
         <f>IF(_tap_day_all!S9="","",_tap_day_all!S9)</f>
         <v/>
       </c>
-      <c r="S14" s="40" t="str">
+      <c r="S14" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T14" s="40" t="str">
+      <c r="T14" s="75" t="str">
         <f>IF(_tap_day_all!CB9="","",_tap_day_all!CB9)</f>
         <v/>
       </c>
-      <c r="U14" s="40" t="str">
+      <c r="U14" s="75" t="str">
         <f>IF(_tap_day_all!CH9="","",_tap_day_all!CH9)</f>
         <v/>
       </c>
-      <c r="V14" s="40" t="str">
+      <c r="V14" s="75" t="str">
         <f>IF(_tap_day_all!BZ9="","",_tap_day_all!BZ9)</f>
         <v/>
       </c>
-      <c r="W14" s="40" t="str">
+      <c r="W14" s="75" t="str">
         <f>IF(_tap_day_all!CA9="","",_tap_day_all!CA9)</f>
         <v/>
       </c>
-      <c r="X14" s="40" t="str">
+      <c r="X14" s="75" t="str">
         <f>IF(_tap_day_all!CC9="","",_tap_day_all!CC9)</f>
         <v/>
       </c>
-      <c r="Y14" s="40" t="str">
+      <c r="Y14" s="75" t="str">
         <f>IF(_tap_day_all!CF9="","",_tap_day_all!CF9)</f>
         <v/>
       </c>
-      <c r="Z14" s="40" t="str">
+      <c r="Z14" s="75" t="str">
         <f>IF(_tap_day_all!CI9="","",_tap_day_all!CI9)</f>
         <v/>
       </c>
-      <c r="AA14" s="40" t="str">
+      <c r="AA14" s="75" t="str">
         <f>IF(_tap_day_all!CK9="","",_tap_day_all!CK9)</f>
         <v/>
       </c>
-      <c r="AB14" s="40" t="str">
+      <c r="AB14" s="75" t="str">
         <f>IF(_tap_day_all!CJ9="","",_tap_day_all!CJ9)</f>
         <v/>
       </c>
-      <c r="AC14" s="40" t="str">
+      <c r="AC14" s="75" t="str">
         <f>IF(_tap_day_all!CU9="","",_tap_day_all!CU9)</f>
         <v/>
       </c>
-      <c r="AD14" s="40" t="str">
+      <c r="AD14" s="75" t="str">
         <f>IF(_tap_day_all!CL9="","",_tap_day_all!CL9)</f>
         <v/>
       </c>
-      <c r="AE14" s="40" t="str">
+      <c r="AE14" s="75" t="str">
         <f>IF(_tap_day_all!CN9="","",_tap_day_all!CN9)</f>
         <v/>
       </c>
-      <c r="AF14" s="40" t="str">
+      <c r="AF14" s="75" t="str">
         <f>IF(_tap_day_all!CT9="","",_tap_day_all!CT9)</f>
         <v/>
       </c>
-      <c r="AG14" s="45" t="str">
+      <c r="AG14" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH14" s="45" t="str">
+      <c r="AH14" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI14" s="45" t="str">
+      <c r="AI14" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ14" s="46" t="str">
+      <c r="AJ14" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
+    <row r="15" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A15" s="29" t="str">
         <f>IF(_tap_day_all!B10="","",_tap_day_all!B10)</f>
         <v/>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="30" t="str">
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="30" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="31" t="str">
         <f>IF(_tap_day_all!H10="","",_tap_day_all!H10)</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="31" t="str">
         <f>IF(_tap_day_all!I10="","",_tap_day_all!I10)</f>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="18" t="str">
+      <c r="G15" s="33" t="str">
         <f>IF(_tap_day_all!R10="","",_tap_day_all!R10)</f>
         <v/>
       </c>
-      <c r="H15" s="18" t="str">
+      <c r="H15" s="33" t="str">
         <f>IF(_tap_day_all!AL10="","",_tap_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="33" t="str">
         <f>IF(_tap_day_all!U10="","",_tap_day_all!U10)</f>
         <v/>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="33" t="str">
         <f>IF(_tap_day_all!BO10="","",_tap_day_all!BO10)</f>
         <v/>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="33" t="str">
         <f>IF(_tap_day_all!P10="","",_tap_day_all!P10)</f>
         <v/>
       </c>
-      <c r="L15" s="38" t="str">
+      <c r="L15" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M15" s="38" t="str">
+      <c r="M15" s="66" t="str">
         <f>IF(_tap_day_all!AF10="","",_tap_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="N15" s="18" t="str">
+      <c r="N15" s="33" t="str">
         <f>IF(_tap_day_all!Q10="","",_tap_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="31" t="str">
         <f>IF(_tap_day_all!J10="","",_tap_day_all!J10)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q15" s="18" t="str">
+      <c r="Q15" s="33" t="str">
         <f>IF(_tap_day_all!BP10="","",_tap_day_all!BP10)</f>
         <v/>
       </c>
-      <c r="R15" s="18" t="str">
+      <c r="R15" s="33" t="str">
         <f>IF(_tap_day_all!S10="","",_tap_day_all!S10)</f>
         <v/>
       </c>
-      <c r="S15" s="40" t="str">
+      <c r="S15" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T15" s="40" t="str">
+      <c r="T15" s="75" t="str">
         <f>IF(_tap_day_all!CB10="","",_tap_day_all!CB10)</f>
         <v/>
       </c>
-      <c r="U15" s="40" t="str">
+      <c r="U15" s="75" t="str">
         <f>IF(_tap_day_all!CH10="","",_tap_day_all!CH10)</f>
         <v/>
       </c>
-      <c r="V15" s="40" t="str">
+      <c r="V15" s="75" t="str">
         <f>IF(_tap_day_all!BZ10="","",_tap_day_all!BZ10)</f>
         <v/>
       </c>
-      <c r="W15" s="40" t="str">
+      <c r="W15" s="75" t="str">
         <f>IF(_tap_day_all!CA10="","",_tap_day_all!CA10)</f>
         <v/>
       </c>
-      <c r="X15" s="40" t="str">
+      <c r="X15" s="75" t="str">
         <f>IF(_tap_day_all!CC10="","",_tap_day_all!CC10)</f>
         <v/>
       </c>
-      <c r="Y15" s="40" t="str">
+      <c r="Y15" s="75" t="str">
         <f>IF(_tap_day_all!CF10="","",_tap_day_all!CF10)</f>
         <v/>
       </c>
-      <c r="Z15" s="40" t="str">
+      <c r="Z15" s="75" t="str">
         <f>IF(_tap_day_all!CI10="","",_tap_day_all!CI10)</f>
         <v/>
       </c>
-      <c r="AA15" s="40" t="str">
+      <c r="AA15" s="75" t="str">
         <f>IF(_tap_day_all!CK10="","",_tap_day_all!CK10)</f>
         <v/>
       </c>
-      <c r="AB15" s="40" t="str">
+      <c r="AB15" s="75" t="str">
         <f>IF(_tap_day_all!CJ10="","",_tap_day_all!CJ10)</f>
         <v/>
       </c>
-      <c r="AC15" s="40" t="str">
+      <c r="AC15" s="75" t="str">
         <f>IF(_tap_day_all!CU10="","",_tap_day_all!CU10)</f>
         <v/>
       </c>
-      <c r="AD15" s="40" t="str">
+      <c r="AD15" s="75" t="str">
         <f>IF(_tap_day_all!CL10="","",_tap_day_all!CL10)</f>
         <v/>
       </c>
-      <c r="AE15" s="40" t="str">
+      <c r="AE15" s="75" t="str">
         <f>IF(_tap_day_all!CN10="","",_tap_day_all!CN10)</f>
         <v/>
       </c>
-      <c r="AF15" s="40" t="str">
+      <c r="AF15" s="75" t="str">
         <f>IF(_tap_day_all!CT10="","",_tap_day_all!CT10)</f>
         <v/>
       </c>
-      <c r="AG15" s="45" t="str">
+      <c r="AG15" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH15" s="45" t="str">
+      <c r="AH15" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI15" s="45" t="str">
+      <c r="AI15" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ15" s="46" t="str">
+      <c r="AJ15" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="str">
+    <row r="16" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A16" s="29" t="str">
         <f>IF(_tap_day_all!B11="","",_tap_day_all!B11)</f>
         <v/>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="30" t="str">
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="30" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="31" t="str">
         <f>IF(_tap_day_all!H11="","",_tap_day_all!H11)</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="31" t="str">
         <f>IF(_tap_day_all!I11="","",_tap_day_all!I11)</f>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="18" t="str">
+      <c r="G16" s="33" t="str">
         <f>IF(_tap_day_all!R11="","",_tap_day_all!R11)</f>
         <v/>
       </c>
-      <c r="H16" s="18" t="str">
+      <c r="H16" s="33" t="str">
         <f>IF(_tap_day_all!AL11="","",_tap_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="33" t="str">
         <f>IF(_tap_day_all!U11="","",_tap_day_all!U11)</f>
         <v/>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="33" t="str">
         <f>IF(_tap_day_all!BO11="","",_tap_day_all!BO11)</f>
         <v/>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="K16" s="33" t="str">
         <f>IF(_tap_day_all!P11="","",_tap_day_all!P11)</f>
         <v/>
       </c>
-      <c r="L16" s="38" t="str">
+      <c r="L16" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M16" s="38" t="str">
+      <c r="M16" s="66" t="str">
         <f>IF(_tap_day_all!AF11="","",_tap_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="N16" s="18" t="str">
+      <c r="N16" s="33" t="str">
         <f>IF(_tap_day_all!Q11="","",_tap_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="31" t="str">
         <f>IF(_tap_day_all!J11="","",_tap_day_all!J11)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q16" s="18" t="str">
+      <c r="Q16" s="33" t="str">
         <f>IF(_tap_day_all!BP11="","",_tap_day_all!BP11)</f>
         <v/>
       </c>
-      <c r="R16" s="18" t="str">
+      <c r="R16" s="33" t="str">
         <f>IF(_tap_day_all!S11="","",_tap_day_all!S11)</f>
         <v/>
       </c>
-      <c r="S16" s="40" t="str">
+      <c r="S16" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T16" s="40" t="str">
+      <c r="T16" s="75" t="str">
         <f>IF(_tap_day_all!CB11="","",_tap_day_all!CB11)</f>
         <v/>
       </c>
-      <c r="U16" s="40" t="str">
+      <c r="U16" s="75" t="str">
         <f>IF(_tap_day_all!CH11="","",_tap_day_all!CH11)</f>
         <v/>
       </c>
-      <c r="V16" s="40" t="str">
+      <c r="V16" s="75" t="str">
         <f>IF(_tap_day_all!BZ11="","",_tap_day_all!BZ11)</f>
         <v/>
       </c>
-      <c r="W16" s="40" t="str">
+      <c r="W16" s="75" t="str">
         <f>IF(_tap_day_all!CA11="","",_tap_day_all!CA11)</f>
         <v/>
       </c>
-      <c r="X16" s="40" t="str">
+      <c r="X16" s="75" t="str">
         <f>IF(_tap_day_all!CC11="","",_tap_day_all!CC11)</f>
         <v/>
       </c>
-      <c r="Y16" s="40" t="str">
+      <c r="Y16" s="75" t="str">
         <f>IF(_tap_day_all!CF11="","",_tap_day_all!CF11)</f>
         <v/>
       </c>
-      <c r="Z16" s="40" t="str">
+      <c r="Z16" s="75" t="str">
         <f>IF(_tap_day_all!CI11="","",_tap_day_all!CI11)</f>
         <v/>
       </c>
-      <c r="AA16" s="40" t="str">
+      <c r="AA16" s="75" t="str">
         <f>IF(_tap_day_all!CK11="","",_tap_day_all!CK11)</f>
         <v/>
       </c>
-      <c r="AB16" s="40" t="str">
+      <c r="AB16" s="75" t="str">
         <f>IF(_tap_day_all!CJ11="","",_tap_day_all!CJ11)</f>
         <v/>
       </c>
-      <c r="AC16" s="40" t="str">
+      <c r="AC16" s="75" t="str">
         <f>IF(_tap_day_all!CU11="","",_tap_day_all!CU11)</f>
         <v/>
       </c>
-      <c r="AD16" s="40" t="str">
+      <c r="AD16" s="75" t="str">
         <f>IF(_tap_day_all!CL11="","",_tap_day_all!CL11)</f>
         <v/>
       </c>
-      <c r="AE16" s="40" t="str">
+      <c r="AE16" s="75" t="str">
         <f>IF(_tap_day_all!CN11="","",_tap_day_all!CN11)</f>
         <v/>
       </c>
-      <c r="AF16" s="40" t="str">
+      <c r="AF16" s="75" t="str">
         <f>IF(_tap_day_all!CT11="","",_tap_day_all!CT11)</f>
         <v/>
       </c>
-      <c r="AG16" s="45" t="str">
+      <c r="AG16" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH16" s="45" t="str">
+      <c r="AH16" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI16" s="45" t="str">
+      <c r="AI16" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ16" s="46" t="str">
+      <c r="AJ16" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="str">
+    <row r="17" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A17" s="29" t="str">
         <f>IF(_tap_day_all!B12="","",_tap_day_all!B12)</f>
         <v/>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="30" t="str">
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="30" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="31" t="str">
         <f>IF(_tap_day_all!H12="","",_tap_day_all!H12)</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="31" t="str">
         <f>IF(_tap_day_all!I12="","",_tap_day_all!I12)</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="18" t="str">
+      <c r="G17" s="33" t="str">
         <f>IF(_tap_day_all!R12="","",_tap_day_all!R12)</f>
         <v/>
       </c>
-      <c r="H17" s="18" t="str">
+      <c r="H17" s="33" t="str">
         <f>IF(_tap_day_all!AL12="","",_tap_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="I17" s="18" t="str">
+      <c r="I17" s="33" t="str">
         <f>IF(_tap_day_all!U12="","",_tap_day_all!U12)</f>
         <v/>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="33" t="str">
         <f>IF(_tap_day_all!BO12="","",_tap_day_all!BO12)</f>
         <v/>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="33" t="str">
         <f>IF(_tap_day_all!P12="","",_tap_day_all!P12)</f>
         <v/>
       </c>
-      <c r="L17" s="38" t="str">
+      <c r="L17" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M17" s="38" t="str">
+      <c r="M17" s="66" t="str">
         <f>IF(_tap_day_all!AF12="","",_tap_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="N17" s="18" t="str">
+      <c r="N17" s="33" t="str">
         <f>IF(_tap_day_all!Q12="","",_tap_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="31" t="str">
         <f>IF(_tap_day_all!J12="","",_tap_day_all!J12)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q17" s="18" t="str">
+      <c r="Q17" s="33" t="str">
         <f>IF(_tap_day_all!BP12="","",_tap_day_all!BP12)</f>
         <v/>
       </c>
-      <c r="R17" s="18" t="str">
+      <c r="R17" s="33" t="str">
         <f>IF(_tap_day_all!S12="","",_tap_day_all!S12)</f>
         <v/>
       </c>
-      <c r="S17" s="40" t="str">
+      <c r="S17" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T17" s="40" t="str">
+      <c r="T17" s="75" t="str">
         <f>IF(_tap_day_all!CB12="","",_tap_day_all!CB12)</f>
         <v/>
       </c>
-      <c r="U17" s="40" t="str">
+      <c r="U17" s="75" t="str">
         <f>IF(_tap_day_all!CH12="","",_tap_day_all!CH12)</f>
         <v/>
       </c>
-      <c r="V17" s="40" t="str">
+      <c r="V17" s="75" t="str">
         <f>IF(_tap_day_all!BZ12="","",_tap_day_all!BZ12)</f>
         <v/>
       </c>
-      <c r="W17" s="40" t="str">
+      <c r="W17" s="75" t="str">
         <f>IF(_tap_day_all!CA12="","",_tap_day_all!CA12)</f>
         <v/>
       </c>
-      <c r="X17" s="40" t="str">
+      <c r="X17" s="75" t="str">
         <f>IF(_tap_day_all!CC12="","",_tap_day_all!CC12)</f>
         <v/>
       </c>
-      <c r="Y17" s="40" t="str">
+      <c r="Y17" s="75" t="str">
         <f>IF(_tap_day_all!CF12="","",_tap_day_all!CF12)</f>
         <v/>
       </c>
-      <c r="Z17" s="40" t="str">
+      <c r="Z17" s="75" t="str">
         <f>IF(_tap_day_all!CI12="","",_tap_day_all!CI12)</f>
         <v/>
       </c>
-      <c r="AA17" s="40" t="str">
+      <c r="AA17" s="75" t="str">
         <f>IF(_tap_day_all!CK12="","",_tap_day_all!CK12)</f>
         <v/>
       </c>
-      <c r="AB17" s="40" t="str">
+      <c r="AB17" s="75" t="str">
         <f>IF(_tap_day_all!CJ12="","",_tap_day_all!CJ12)</f>
         <v/>
       </c>
-      <c r="AC17" s="40" t="str">
+      <c r="AC17" s="75" t="str">
         <f>IF(_tap_day_all!CU12="","",_tap_day_all!CU12)</f>
         <v/>
       </c>
-      <c r="AD17" s="40" t="str">
+      <c r="AD17" s="75" t="str">
         <f>IF(_tap_day_all!CL12="","",_tap_day_all!CL12)</f>
         <v/>
       </c>
-      <c r="AE17" s="40" t="str">
+      <c r="AE17" s="75" t="str">
         <f>IF(_tap_day_all!CN12="","",_tap_day_all!CN12)</f>
         <v/>
       </c>
-      <c r="AF17" s="40" t="str">
+      <c r="AF17" s="75" t="str">
         <f>IF(_tap_day_all!CT12="","",_tap_day_all!CT12)</f>
         <v/>
       </c>
-      <c r="AG17" s="45" t="str">
+      <c r="AG17" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH17" s="45" t="str">
+      <c r="AH17" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI17" s="45" t="str">
+      <c r="AI17" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ17" s="46" t="str">
+      <c r="AJ17" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="str">
+    <row r="18" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A18" s="29" t="str">
         <f>IF(_tap_day_all!B13="","",_tap_day_all!B13)</f>
         <v/>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="30" t="str">
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="30" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="31" t="str">
         <f>IF(_tap_day_all!H13="","",_tap_day_all!H13)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="31" t="str">
         <f>IF(_tap_day_all!I13="","",_tap_day_all!I13)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="18" t="str">
+      <c r="G18" s="33" t="str">
         <f>IF(_tap_day_all!R13="","",_tap_day_all!R13)</f>
         <v/>
       </c>
-      <c r="H18" s="18" t="str">
+      <c r="H18" s="33" t="str">
         <f>IF(_tap_day_all!AL13="","",_tap_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="I18" s="18" t="str">
+      <c r="I18" s="33" t="str">
         <f>IF(_tap_day_all!U13="","",_tap_day_all!U13)</f>
         <v/>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="33" t="str">
         <f>IF(_tap_day_all!BO13="","",_tap_day_all!BO13)</f>
         <v/>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="K18" s="33" t="str">
         <f>IF(_tap_day_all!P13="","",_tap_day_all!P13)</f>
         <v/>
       </c>
-      <c r="L18" s="38" t="str">
+      <c r="L18" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M18" s="38" t="str">
+      <c r="M18" s="66" t="str">
         <f>IF(_tap_day_all!AF13="","",_tap_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="N18" s="18" t="str">
+      <c r="N18" s="33" t="str">
         <f>IF(_tap_day_all!Q13="","",_tap_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="31" t="str">
         <f>IF(_tap_day_all!J13="","",_tap_day_all!J13)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="18" t="str">
+      <c r="Q18" s="33" t="str">
         <f>IF(_tap_day_all!BP13="","",_tap_day_all!BP13)</f>
         <v/>
       </c>
-      <c r="R18" s="18" t="str">
+      <c r="R18" s="33" t="str">
         <f>IF(_tap_day_all!S13="","",_tap_day_all!S13)</f>
         <v/>
       </c>
-      <c r="S18" s="40" t="str">
+      <c r="S18" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T18" s="40" t="str">
+      <c r="T18" s="75" t="str">
         <f>IF(_tap_day_all!CB13="","",_tap_day_all!CB13)</f>
         <v/>
       </c>
-      <c r="U18" s="40" t="str">
+      <c r="U18" s="75" t="str">
         <f>IF(_tap_day_all!CH13="","",_tap_day_all!CH13)</f>
         <v/>
       </c>
-      <c r="V18" s="40" t="str">
+      <c r="V18" s="75" t="str">
         <f>IF(_tap_day_all!BZ13="","",_tap_day_all!BZ13)</f>
         <v/>
       </c>
-      <c r="W18" s="40" t="str">
+      <c r="W18" s="75" t="str">
         <f>IF(_tap_day_all!CA13="","",_tap_day_all!CA13)</f>
         <v/>
       </c>
-      <c r="X18" s="40" t="str">
+      <c r="X18" s="75" t="str">
         <f>IF(_tap_day_all!CC13="","",_tap_day_all!CC13)</f>
         <v/>
       </c>
-      <c r="Y18" s="40" t="str">
+      <c r="Y18" s="75" t="str">
         <f>IF(_tap_day_all!CF13="","",_tap_day_all!CF13)</f>
         <v/>
       </c>
-      <c r="Z18" s="40" t="str">
+      <c r="Z18" s="75" t="str">
         <f>IF(_tap_day_all!CI13="","",_tap_day_all!CI13)</f>
         <v/>
       </c>
-      <c r="AA18" s="40" t="str">
+      <c r="AA18" s="75" t="str">
         <f>IF(_tap_day_all!CK13="","",_tap_day_all!CK13)</f>
         <v/>
       </c>
-      <c r="AB18" s="40" t="str">
+      <c r="AB18" s="75" t="str">
         <f>IF(_tap_day_all!CJ13="","",_tap_day_all!CJ13)</f>
         <v/>
       </c>
-      <c r="AC18" s="40" t="str">
+      <c r="AC18" s="75" t="str">
         <f>IF(_tap_day_all!CU13="","",_tap_day_all!CU13)</f>
         <v/>
       </c>
-      <c r="AD18" s="40" t="str">
+      <c r="AD18" s="75" t="str">
         <f>IF(_tap_day_all!CL13="","",_tap_day_all!CL13)</f>
         <v/>
       </c>
-      <c r="AE18" s="40" t="str">
+      <c r="AE18" s="75" t="str">
         <f>IF(_tap_day_all!CN13="","",_tap_day_all!CN13)</f>
         <v/>
       </c>
-      <c r="AF18" s="40" t="str">
+      <c r="AF18" s="75" t="str">
         <f>IF(_tap_day_all!CT13="","",_tap_day_all!CT13)</f>
         <v/>
       </c>
-      <c r="AG18" s="45" t="str">
+      <c r="AG18" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH18" s="45" t="str">
+      <c r="AH18" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI18" s="45" t="str">
+      <c r="AI18" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ18" s="46" t="str">
+      <c r="AJ18" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="str">
+    <row r="19" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A19" s="29" t="str">
         <f>IF(_tap_day_all!B14="","",_tap_day_all!B14)</f>
         <v/>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="30" t="str">
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="30" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="31" t="str">
         <f>IF(_tap_day_all!H14="","",_tap_day_all!H14)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="31" t="str">
         <f>IF(_tap_day_all!I14="","",_tap_day_all!I14)</f>
         <v/>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="18" t="str">
+      <c r="G19" s="33" t="str">
         <f>IF(_tap_day_all!R14="","",_tap_day_all!R14)</f>
         <v/>
       </c>
-      <c r="H19" s="18" t="str">
+      <c r="H19" s="33" t="str">
         <f>IF(_tap_day_all!AL14="","",_tap_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="33" t="str">
         <f>IF(_tap_day_all!U14="","",_tap_day_all!U14)</f>
         <v/>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="33" t="str">
         <f>IF(_tap_day_all!BO14="","",_tap_day_all!BO14)</f>
         <v/>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="K19" s="33" t="str">
         <f>IF(_tap_day_all!P14="","",_tap_day_all!P14)</f>
         <v/>
       </c>
-      <c r="L19" s="38" t="str">
+      <c r="L19" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M19" s="38" t="str">
+      <c r="M19" s="66" t="str">
         <f>IF(_tap_day_all!AF14="","",_tap_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="str">
+      <c r="N19" s="33" t="str">
         <f>IF(_tap_day_all!Q14="","",_tap_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="31" t="str">
         <f>IF(_tap_day_all!J14="","",_tap_day_all!J14)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q19" s="18" t="str">
+      <c r="Q19" s="33" t="str">
         <f>IF(_tap_day_all!BP14="","",_tap_day_all!BP14)</f>
         <v/>
       </c>
-      <c r="R19" s="18" t="str">
+      <c r="R19" s="33" t="str">
         <f>IF(_tap_day_all!S14="","",_tap_day_all!S14)</f>
         <v/>
       </c>
-      <c r="S19" s="40" t="str">
+      <c r="S19" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T19" s="40" t="str">
+      <c r="T19" s="75" t="str">
         <f>IF(_tap_day_all!CB14="","",_tap_day_all!CB14)</f>
         <v/>
       </c>
-      <c r="U19" s="40" t="str">
+      <c r="U19" s="75" t="str">
         <f>IF(_tap_day_all!CH14="","",_tap_day_all!CH14)</f>
         <v/>
       </c>
-      <c r="V19" s="40" t="str">
+      <c r="V19" s="75" t="str">
         <f>IF(_tap_day_all!BZ14="","",_tap_day_all!BZ14)</f>
         <v/>
       </c>
-      <c r="W19" s="40" t="str">
+      <c r="W19" s="75" t="str">
         <f>IF(_tap_day_all!CA14="","",_tap_day_all!CA14)</f>
         <v/>
       </c>
-      <c r="X19" s="40" t="str">
+      <c r="X19" s="75" t="str">
         <f>IF(_tap_day_all!CC14="","",_tap_day_all!CC14)</f>
         <v/>
       </c>
-      <c r="Y19" s="40" t="str">
+      <c r="Y19" s="75" t="str">
         <f>IF(_tap_day_all!CF14="","",_tap_day_all!CF14)</f>
         <v/>
       </c>
-      <c r="Z19" s="40" t="str">
+      <c r="Z19" s="75" t="str">
         <f>IF(_tap_day_all!CI14="","",_tap_day_all!CI14)</f>
         <v/>
       </c>
-      <c r="AA19" s="40" t="str">
+      <c r="AA19" s="75" t="str">
         <f>IF(_tap_day_all!CK14="","",_tap_day_all!CK14)</f>
         <v/>
       </c>
-      <c r="AB19" s="40" t="str">
+      <c r="AB19" s="75" t="str">
         <f>IF(_tap_day_all!CJ14="","",_tap_day_all!CJ14)</f>
         <v/>
       </c>
-      <c r="AC19" s="40" t="str">
+      <c r="AC19" s="75" t="str">
         <f>IF(_tap_day_all!CU14="","",_tap_day_all!CU14)</f>
         <v/>
       </c>
-      <c r="AD19" s="40" t="str">
+      <c r="AD19" s="75" t="str">
         <f>IF(_tap_day_all!CL14="","",_tap_day_all!CL14)</f>
         <v/>
       </c>
-      <c r="AE19" s="40" t="str">
+      <c r="AE19" s="75" t="str">
         <f>IF(_tap_day_all!CN14="","",_tap_day_all!CN14)</f>
         <v/>
       </c>
-      <c r="AF19" s="40" t="str">
+      <c r="AF19" s="75" t="str">
         <f>IF(_tap_day_all!CT14="","",_tap_day_all!CT14)</f>
         <v/>
       </c>
-      <c r="AG19" s="45" t="str">
+      <c r="AG19" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH19" s="45" t="str">
+      <c r="AH19" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI19" s="45" t="str">
+      <c r="AI19" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ19" s="46" t="str">
+      <c r="AJ19" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="str">
+    <row r="20" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A20" s="29" t="str">
         <f>IF(_tap_day_all!B15="","",_tap_day_all!B15)</f>
         <v/>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="30" t="str">
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="30" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="31" t="str">
         <f>IF(_tap_day_all!H15="","",_tap_day_all!H15)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="31" t="str">
         <f>IF(_tap_day_all!I15="","",_tap_day_all!I15)</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="32" t="str">
         <f t="shared" ref="F20:F26" si="8">IFERROR((E20-D20)*60*24,"")</f>
         <v/>
       </c>
-      <c r="G20" s="18" t="str">
+      <c r="G20" s="33" t="str">
         <f>IF(_tap_day_all!R15="","",_tap_day_all!R15)</f>
         <v/>
       </c>
-      <c r="H20" s="18" t="str">
+      <c r="H20" s="33" t="str">
         <f>IF(_tap_day_all!AL15="","",_tap_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="I20" s="18" t="str">
+      <c r="I20" s="33" t="str">
         <f>IF(_tap_day_all!U15="","",_tap_day_all!U15)</f>
         <v/>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="33" t="str">
         <f>IF(_tap_day_all!BO15="","",_tap_day_all!BO15)</f>
         <v/>
       </c>
-      <c r="K20" s="18" t="str">
+      <c r="K20" s="33" t="str">
         <f>IF(_tap_day_all!P15="","",_tap_day_all!P15)</f>
         <v/>
       </c>
-      <c r="L20" s="38" t="str">
+      <c r="L20" s="66" t="str">
         <f t="shared" ref="L20:L26" si="9">IFERROR(I20-H20,"")</f>
         <v/>
       </c>
-      <c r="M20" s="38" t="str">
+      <c r="M20" s="66" t="str">
         <f>IF(_tap_day_all!AF15="","",_tap_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="N20" s="18" t="str">
+      <c r="N20" s="33" t="str">
         <f>IF(_tap_day_all!Q15="","",_tap_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="31" t="str">
         <f>IF(_tap_day_all!J15="","",_tap_day_all!J15)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="str">
+      <c r="P20" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q20" s="18" t="str">
+      <c r="Q20" s="33" t="str">
         <f>IF(_tap_day_all!BP15="","",_tap_day_all!BP15)</f>
         <v/>
       </c>
-      <c r="R20" s="18" t="str">
+      <c r="R20" s="33" t="str">
         <f>IF(_tap_day_all!S15="","",_tap_day_all!S15)</f>
         <v/>
       </c>
-      <c r="S20" s="40" t="str">
+      <c r="S20" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T20" s="40" t="str">
+      <c r="T20" s="75" t="str">
         <f>IF(_tap_day_all!CB15="","",_tap_day_all!CB15)</f>
         <v/>
       </c>
-      <c r="U20" s="40" t="str">
+      <c r="U20" s="75" t="str">
         <f>IF(_tap_day_all!CH15="","",_tap_day_all!CH15)</f>
         <v/>
       </c>
-      <c r="V20" s="40" t="str">
+      <c r="V20" s="75" t="str">
         <f>IF(_tap_day_all!BZ15="","",_tap_day_all!BZ15)</f>
         <v/>
       </c>
-      <c r="W20" s="40" t="str">
+      <c r="W20" s="75" t="str">
         <f>IF(_tap_day_all!CA15="","",_tap_day_all!CA15)</f>
         <v/>
       </c>
-      <c r="X20" s="40" t="str">
+      <c r="X20" s="75" t="str">
         <f>IF(_tap_day_all!CC15="","",_tap_day_all!CC15)</f>
         <v/>
       </c>
-      <c r="Y20" s="40" t="str">
+      <c r="Y20" s="75" t="str">
         <f>IF(_tap_day_all!CF15="","",_tap_day_all!CF15)</f>
         <v/>
       </c>
-      <c r="Z20" s="40" t="str">
+      <c r="Z20" s="75" t="str">
         <f>IF(_tap_day_all!CI15="","",_tap_day_all!CI15)</f>
         <v/>
       </c>
-      <c r="AA20" s="40" t="str">
+      <c r="AA20" s="75" t="str">
         <f>IF(_tap_day_all!CK15="","",_tap_day_all!CK15)</f>
         <v/>
       </c>
-      <c r="AB20" s="40" t="str">
+      <c r="AB20" s="75" t="str">
         <f>IF(_tap_day_all!CJ15="","",_tap_day_all!CJ15)</f>
         <v/>
       </c>
-      <c r="AC20" s="40" t="str">
+      <c r="AC20" s="75" t="str">
         <f>IF(_tap_day_all!CU15="","",_tap_day_all!CU15)</f>
         <v/>
       </c>
-      <c r="AD20" s="40" t="str">
+      <c r="AD20" s="75" t="str">
         <f>IF(_tap_day_all!CL15="","",_tap_day_all!CL15)</f>
         <v/>
       </c>
-      <c r="AE20" s="40" t="str">
+      <c r="AE20" s="75" t="str">
         <f>IF(_tap_day_all!CN15="","",_tap_day_all!CN15)</f>
         <v/>
       </c>
-      <c r="AF20" s="40" t="str">
+      <c r="AF20" s="75" t="str">
         <f>IF(_tap_day_all!CT15="","",_tap_day_all!CT15)</f>
         <v/>
       </c>
-      <c r="AG20" s="45" t="str">
+      <c r="AG20" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH20" s="45" t="str">
+      <c r="AH20" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI20" s="45" t="str">
+      <c r="AI20" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ20" s="46" t="str">
+      <c r="AJ20" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="str">
+    <row r="21" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A21" s="29" t="str">
         <f>IF(_tap_day_all!B16="","",_tap_day_all!B16)</f>
         <v/>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="30" t="str">
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="30" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="31" t="str">
         <f>IF(_tap_day_all!H16="","",_tap_day_all!H16)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="31" t="str">
         <f>IF(_tap_day_all!I16="","",_tap_day_all!I16)</f>
         <v/>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G21" s="18" t="str">
+      <c r="G21" s="33" t="str">
         <f>IF(_tap_day_all!R16="","",_tap_day_all!R16)</f>
         <v/>
       </c>
-      <c r="H21" s="18" t="str">
+      <c r="H21" s="33" t="str">
         <f>IF(_tap_day_all!AL16="","",_tap_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="33" t="str">
         <f>IF(_tap_day_all!U16="","",_tap_day_all!U16)</f>
         <v/>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="33" t="str">
         <f>IF(_tap_day_all!BO16="","",_tap_day_all!BO16)</f>
         <v/>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="K21" s="33" t="str">
         <f>IF(_tap_day_all!P16="","",_tap_day_all!P16)</f>
         <v/>
       </c>
-      <c r="L21" s="38" t="str">
+      <c r="L21" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M21" s="38" t="str">
+      <c r="M21" s="66" t="str">
         <f>IF(_tap_day_all!AF16="","",_tap_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="N21" s="18" t="str">
+      <c r="N21" s="33" t="str">
         <f>IF(_tap_day_all!Q16="","",_tap_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="31" t="str">
         <f>IF(_tap_day_all!J16="","",_tap_day_all!J16)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="str">
+      <c r="P21" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="18" t="str">
+      <c r="Q21" s="33" t="str">
         <f>IF(_tap_day_all!BP16="","",_tap_day_all!BP16)</f>
         <v/>
       </c>
-      <c r="R21" s="18" t="str">
+      <c r="R21" s="33" t="str">
         <f>IF(_tap_day_all!S16="","",_tap_day_all!S16)</f>
         <v/>
       </c>
-      <c r="S21" s="40" t="str">
+      <c r="S21" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T21" s="40" t="str">
+      <c r="T21" s="75" t="str">
         <f>IF(_tap_day_all!CB16="","",_tap_day_all!CB16)</f>
         <v/>
       </c>
-      <c r="U21" s="40" t="str">
+      <c r="U21" s="75" t="str">
         <f>IF(_tap_day_all!CH16="","",_tap_day_all!CH16)</f>
         <v/>
       </c>
-      <c r="V21" s="40" t="str">
+      <c r="V21" s="75" t="str">
         <f>IF(_tap_day_all!BZ16="","",_tap_day_all!BZ16)</f>
         <v/>
       </c>
-      <c r="W21" s="40" t="str">
+      <c r="W21" s="75" t="str">
         <f>IF(_tap_day_all!CA16="","",_tap_day_all!CA16)</f>
         <v/>
       </c>
-      <c r="X21" s="40" t="str">
+      <c r="X21" s="75" t="str">
         <f>IF(_tap_day_all!CC16="","",_tap_day_all!CC16)</f>
         <v/>
       </c>
-      <c r="Y21" s="40" t="str">
+      <c r="Y21" s="75" t="str">
         <f>IF(_tap_day_all!CF16="","",_tap_day_all!CF16)</f>
         <v/>
       </c>
-      <c r="Z21" s="40" t="str">
+      <c r="Z21" s="75" t="str">
         <f>IF(_tap_day_all!CI16="","",_tap_day_all!CI16)</f>
         <v/>
       </c>
-      <c r="AA21" s="40" t="str">
+      <c r="AA21" s="75" t="str">
         <f>IF(_tap_day_all!CK16="","",_tap_day_all!CK16)</f>
         <v/>
       </c>
-      <c r="AB21" s="40" t="str">
+      <c r="AB21" s="75" t="str">
         <f>IF(_tap_day_all!CJ16="","",_tap_day_all!CJ16)</f>
         <v/>
       </c>
-      <c r="AC21" s="40" t="str">
+      <c r="AC21" s="75" t="str">
         <f>IF(_tap_day_all!CU16="","",_tap_day_all!CU16)</f>
         <v/>
       </c>
-      <c r="AD21" s="40" t="str">
+      <c r="AD21" s="75" t="str">
         <f>IF(_tap_day_all!CL16="","",_tap_day_all!CL16)</f>
         <v/>
       </c>
-      <c r="AE21" s="40" t="str">
+      <c r="AE21" s="75" t="str">
         <f>IF(_tap_day_all!CN16="","",_tap_day_all!CN16)</f>
         <v/>
       </c>
-      <c r="AF21" s="40" t="str">
+      <c r="AF21" s="75" t="str">
         <f>IF(_tap_day_all!CT16="","",_tap_day_all!CT16)</f>
         <v/>
       </c>
-      <c r="AG21" s="45" t="str">
+      <c r="AG21" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH21" s="45" t="str">
+      <c r="AH21" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI21" s="45" t="str">
+      <c r="AI21" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ21" s="46" t="str">
+      <c r="AJ21" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="str">
+    <row r="22" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A22" s="29" t="str">
         <f>IF(_tap_day_all!B17="","",_tap_day_all!B17)</f>
         <v/>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="30" t="str">
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="30" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="31" t="str">
         <f>IF(_tap_day_all!H17="","",_tap_day_all!H17)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="31" t="str">
         <f>IF(_tap_day_all!I17="","",_tap_day_all!I17)</f>
         <v/>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="18" t="str">
+      <c r="G22" s="33" t="str">
         <f>IF(_tap_day_all!R17="","",_tap_day_all!R17)</f>
         <v/>
       </c>
-      <c r="H22" s="18" t="str">
+      <c r="H22" s="33" t="str">
         <f>IF(_tap_day_all!AL17="","",_tap_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="33" t="str">
         <f>IF(_tap_day_all!U17="","",_tap_day_all!U17)</f>
         <v/>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="33" t="str">
         <f>IF(_tap_day_all!BO17="","",_tap_day_all!BO17)</f>
         <v/>
       </c>
-      <c r="K22" s="18" t="str">
+      <c r="K22" s="33" t="str">
         <f>IF(_tap_day_all!P17="","",_tap_day_all!P17)</f>
         <v/>
       </c>
-      <c r="L22" s="38" t="str">
+      <c r="L22" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M22" s="38" t="str">
+      <c r="M22" s="66" t="str">
         <f>IF(_tap_day_all!AF17="","",_tap_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="N22" s="18" t="str">
+      <c r="N22" s="33" t="str">
         <f>IF(_tap_day_all!Q17="","",_tap_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="31" t="str">
         <f>IF(_tap_day_all!J17="","",_tap_day_all!J17)</f>
         <v/>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P22" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q22" s="18" t="str">
+      <c r="Q22" s="33" t="str">
         <f>IF(_tap_day_all!BP17="","",_tap_day_all!BP17)</f>
         <v/>
       </c>
-      <c r="R22" s="18" t="str">
+      <c r="R22" s="33" t="str">
         <f>IF(_tap_day_all!S17="","",_tap_day_all!S17)</f>
         <v/>
       </c>
-      <c r="S22" s="40" t="str">
+      <c r="S22" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T22" s="40" t="str">
+      <c r="T22" s="75" t="str">
         <f>IF(_tap_day_all!CB17="","",_tap_day_all!CB17)</f>
         <v/>
       </c>
-      <c r="U22" s="40" t="str">
+      <c r="U22" s="75" t="str">
         <f>IF(_tap_day_all!CH17="","",_tap_day_all!CH17)</f>
         <v/>
       </c>
-      <c r="V22" s="40" t="str">
+      <c r="V22" s="75" t="str">
         <f>IF(_tap_day_all!BZ17="","",_tap_day_all!BZ17)</f>
         <v/>
       </c>
-      <c r="W22" s="40" t="str">
+      <c r="W22" s="75" t="str">
         <f>IF(_tap_day_all!CA17="","",_tap_day_all!CA17)</f>
         <v/>
       </c>
-      <c r="X22" s="40" t="str">
+      <c r="X22" s="75" t="str">
         <f>IF(_tap_day_all!CC17="","",_tap_day_all!CC17)</f>
         <v/>
       </c>
-      <c r="Y22" s="40" t="str">
+      <c r="Y22" s="75" t="str">
         <f>IF(_tap_day_all!CF17="","",_tap_day_all!CF17)</f>
         <v/>
       </c>
-      <c r="Z22" s="40" t="str">
+      <c r="Z22" s="75" t="str">
         <f>IF(_tap_day_all!CI17="","",_tap_day_all!CI17)</f>
         <v/>
       </c>
-      <c r="AA22" s="40" t="str">
+      <c r="AA22" s="75" t="str">
         <f>IF(_tap_day_all!CK17="","",_tap_day_all!CK17)</f>
         <v/>
       </c>
-      <c r="AB22" s="40" t="str">
+      <c r="AB22" s="75" t="str">
         <f>IF(_tap_day_all!CJ17="","",_tap_day_all!CJ17)</f>
         <v/>
       </c>
-      <c r="AC22" s="40" t="str">
+      <c r="AC22" s="75" t="str">
         <f>IF(_tap_day_all!CU17="","",_tap_day_all!CU17)</f>
         <v/>
       </c>
-      <c r="AD22" s="40" t="str">
+      <c r="AD22" s="75" t="str">
         <f>IF(_tap_day_all!CL17="","",_tap_day_all!CL17)</f>
         <v/>
       </c>
-      <c r="AE22" s="40" t="str">
+      <c r="AE22" s="75" t="str">
         <f>IF(_tap_day_all!CN17="","",_tap_day_all!CN17)</f>
         <v/>
       </c>
-      <c r="AF22" s="40" t="str">
+      <c r="AF22" s="75" t="str">
         <f>IF(_tap_day_all!CT17="","",_tap_day_all!CT17)</f>
         <v/>
       </c>
-      <c r="AG22" s="45" t="str">
+      <c r="AG22" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH22" s="45" t="str">
+      <c r="AH22" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI22" s="45" t="str">
+      <c r="AI22" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ22" s="46" t="str">
+      <c r="AJ22" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
+    <row r="23" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A23" s="29" t="str">
         <f>IF(_tap_day_all!B18="","",_tap_day_all!B18)</f>
         <v/>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="30" t="str">
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="30" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="31" t="str">
         <f>IF(_tap_day_all!H18="","",_tap_day_all!H18)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="31" t="str">
         <f>IF(_tap_day_all!I18="","",_tap_day_all!I18)</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G23" s="18" t="str">
+      <c r="G23" s="33" t="str">
         <f>IF(_tap_day_all!R18="","",_tap_day_all!R18)</f>
         <v/>
       </c>
-      <c r="H23" s="18" t="str">
+      <c r="H23" s="33" t="str">
         <f>IF(_tap_day_all!AL18="","",_tap_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="33" t="str">
         <f>IF(_tap_day_all!U18="","",_tap_day_all!U18)</f>
         <v/>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="33" t="str">
         <f>IF(_tap_day_all!BO18="","",_tap_day_all!BO18)</f>
         <v/>
       </c>
-      <c r="K23" s="18" t="str">
+      <c r="K23" s="33" t="str">
         <f>IF(_tap_day_all!P18="","",_tap_day_all!P18)</f>
         <v/>
       </c>
-      <c r="L23" s="38" t="str">
+      <c r="L23" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="38" t="str">
+      <c r="M23" s="66" t="str">
         <f>IF(_tap_day_all!AF18="","",_tap_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="N23" s="18" t="str">
+      <c r="N23" s="33" t="str">
         <f>IF(_tap_day_all!Q18="","",_tap_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="31" t="str">
         <f>IF(_tap_day_all!J18="","",_tap_day_all!J18)</f>
         <v/>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P23" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="18" t="str">
+      <c r="Q23" s="33" t="str">
         <f>IF(_tap_day_all!BP18="","",_tap_day_all!BP18)</f>
         <v/>
       </c>
-      <c r="R23" s="18" t="str">
+      <c r="R23" s="33" t="str">
         <f>IF(_tap_day_all!S18="","",_tap_day_all!S18)</f>
         <v/>
       </c>
-      <c r="S23" s="40" t="str">
+      <c r="S23" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T23" s="40" t="str">
+      <c r="T23" s="75" t="str">
         <f>IF(_tap_day_all!CB18="","",_tap_day_all!CB18)</f>
         <v/>
       </c>
-      <c r="U23" s="40" t="str">
+      <c r="U23" s="75" t="str">
         <f>IF(_tap_day_all!CH18="","",_tap_day_all!CH18)</f>
         <v/>
       </c>
-      <c r="V23" s="40" t="str">
+      <c r="V23" s="75" t="str">
         <f>IF(_tap_day_all!BZ18="","",_tap_day_all!BZ18)</f>
         <v/>
       </c>
-      <c r="W23" s="40" t="str">
+      <c r="W23" s="75" t="str">
         <f>IF(_tap_day_all!CA18="","",_tap_day_all!CA18)</f>
         <v/>
       </c>
-      <c r="X23" s="40" t="str">
+      <c r="X23" s="75" t="str">
         <f>IF(_tap_day_all!CC18="","",_tap_day_all!CC18)</f>
         <v/>
       </c>
-      <c r="Y23" s="40" t="str">
+      <c r="Y23" s="75" t="str">
         <f>IF(_tap_day_all!CF18="","",_tap_day_all!CF18)</f>
         <v/>
       </c>
-      <c r="Z23" s="40" t="str">
+      <c r="Z23" s="75" t="str">
         <f>IF(_tap_day_all!CI18="","",_tap_day_all!CI18)</f>
         <v/>
       </c>
-      <c r="AA23" s="40" t="str">
+      <c r="AA23" s="75" t="str">
         <f>IF(_tap_day_all!CK18="","",_tap_day_all!CK18)</f>
         <v/>
       </c>
-      <c r="AB23" s="40" t="str">
+      <c r="AB23" s="75" t="str">
         <f>IF(_tap_day_all!CJ18="","",_tap_day_all!CJ18)</f>
         <v/>
       </c>
-      <c r="AC23" s="40" t="str">
+      <c r="AC23" s="75" t="str">
         <f>IF(_tap_day_all!CU18="","",_tap_day_all!CU18)</f>
         <v/>
       </c>
-      <c r="AD23" s="40" t="str">
+      <c r="AD23" s="75" t="str">
         <f>IF(_tap_day_all!CL18="","",_tap_day_all!CL18)</f>
         <v/>
       </c>
-      <c r="AE23" s="40" t="str">
+      <c r="AE23" s="75" t="str">
         <f>IF(_tap_day_all!CN18="","",_tap_day_all!CN18)</f>
         <v/>
       </c>
-      <c r="AF23" s="40" t="str">
+      <c r="AF23" s="75" t="str">
         <f>IF(_tap_day_all!CT18="","",_tap_day_all!CT18)</f>
         <v/>
       </c>
-      <c r="AG23" s="45" t="str">
+      <c r="AG23" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH23" s="45" t="str">
+      <c r="AH23" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI23" s="45" t="str">
+      <c r="AI23" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ23" s="46" t="str">
+      <c r="AJ23" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="str">
+    <row r="24" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A24" s="29" t="str">
         <f>IF(_tap_day_all!B19="","",_tap_day_all!B19)</f>
         <v/>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="30" t="str">
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="30" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="31" t="str">
         <f>IF(_tap_day_all!H19="","",_tap_day_all!H19)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="31" t="str">
         <f>IF(_tap_day_all!I19="","",_tap_day_all!I19)</f>
         <v/>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G24" s="18" t="str">
+      <c r="G24" s="33" t="str">
         <f>IF(_tap_day_all!R19="","",_tap_day_all!R19)</f>
         <v/>
       </c>
-      <c r="H24" s="18" t="str">
+      <c r="H24" s="33" t="str">
         <f>IF(_tap_day_all!AL19="","",_tap_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="33" t="str">
         <f>IF(_tap_day_all!U19="","",_tap_day_all!U19)</f>
         <v/>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="33" t="str">
         <f>IF(_tap_day_all!BO19="","",_tap_day_all!BO19)</f>
         <v/>
       </c>
-      <c r="K24" s="18" t="str">
+      <c r="K24" s="33" t="str">
         <f>IF(_tap_day_all!P19="","",_tap_day_all!P19)</f>
         <v/>
       </c>
-      <c r="L24" s="38" t="str">
+      <c r="L24" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M24" s="38" t="str">
+      <c r="M24" s="66" t="str">
         <f>IF(_tap_day_all!AF19="","",_tap_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="N24" s="18" t="str">
+      <c r="N24" s="33" t="str">
         <f>IF(_tap_day_all!Q19="","",_tap_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="31" t="str">
         <f>IF(_tap_day_all!J19="","",_tap_day_all!J19)</f>
         <v/>
       </c>
-      <c r="P24" s="17" t="str">
+      <c r="P24" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q24" s="18" t="str">
+      <c r="Q24" s="33" t="str">
         <f>IF(_tap_day_all!BP19="","",_tap_day_all!BP19)</f>
         <v/>
       </c>
-      <c r="R24" s="18" t="str">
+      <c r="R24" s="33" t="str">
         <f>IF(_tap_day_all!S19="","",_tap_day_all!S19)</f>
         <v/>
       </c>
-      <c r="S24" s="40" t="str">
+      <c r="S24" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T24" s="40" t="str">
+      <c r="T24" s="75" t="str">
         <f>IF(_tap_day_all!CB19="","",_tap_day_all!CB19)</f>
         <v/>
       </c>
-      <c r="U24" s="40" t="str">
+      <c r="U24" s="75" t="str">
         <f>IF(_tap_day_all!CH19="","",_tap_day_all!CH19)</f>
         <v/>
       </c>
-      <c r="V24" s="40" t="str">
+      <c r="V24" s="75" t="str">
         <f>IF(_tap_day_all!BZ19="","",_tap_day_all!BZ19)</f>
         <v/>
       </c>
-      <c r="W24" s="40" t="str">
+      <c r="W24" s="75" t="str">
         <f>IF(_tap_day_all!CA19="","",_tap_day_all!CA19)</f>
         <v/>
       </c>
-      <c r="X24" s="40" t="str">
+      <c r="X24" s="75" t="str">
         <f>IF(_tap_day_all!CC19="","",_tap_day_all!CC19)</f>
         <v/>
       </c>
-      <c r="Y24" s="40" t="str">
+      <c r="Y24" s="75" t="str">
         <f>IF(_tap_day_all!CF19="","",_tap_day_all!CF19)</f>
         <v/>
       </c>
-      <c r="Z24" s="40" t="str">
+      <c r="Z24" s="75" t="str">
         <f>IF(_tap_day_all!CI19="","",_tap_day_all!CI19)</f>
         <v/>
       </c>
-      <c r="AA24" s="40" t="str">
+      <c r="AA24" s="75" t="str">
         <f>IF(_tap_day_all!CK19="","",_tap_day_all!CK19)</f>
         <v/>
       </c>
-      <c r="AB24" s="40" t="str">
+      <c r="AB24" s="75" t="str">
         <f>IF(_tap_day_all!CJ19="","",_tap_day_all!CJ19)</f>
         <v/>
       </c>
-      <c r="AC24" s="40" t="str">
+      <c r="AC24" s="75" t="str">
         <f>IF(_tap_day_all!CU19="","",_tap_day_all!CU19)</f>
         <v/>
       </c>
-      <c r="AD24" s="40" t="str">
+      <c r="AD24" s="75" t="str">
         <f>IF(_tap_day_all!CL19="","",_tap_day_all!CL19)</f>
         <v/>
       </c>
-      <c r="AE24" s="40" t="str">
+      <c r="AE24" s="75" t="str">
         <f>IF(_tap_day_all!CN19="","",_tap_day_all!CN19)</f>
         <v/>
       </c>
-      <c r="AF24" s="40" t="str">
+      <c r="AF24" s="75" t="str">
         <f>IF(_tap_day_all!CT19="","",_tap_day_all!CT19)</f>
         <v/>
       </c>
-      <c r="AG24" s="45" t="str">
+      <c r="AG24" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH24" s="45" t="str">
+      <c r="AH24" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI24" s="45" t="str">
+      <c r="AI24" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ24" s="46" t="str">
+      <c r="AJ24" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="str">
+    <row r="25" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A25" s="29" t="str">
         <f>IF(_tap_day_all!B20="","",_tap_day_all!B20)</f>
         <v/>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="30" t="str">
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="30" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="31" t="str">
         <f>IF(_tap_day_all!H20="","",_tap_day_all!H20)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="31" t="str">
         <f>IF(_tap_day_all!I20="","",_tap_day_all!I20)</f>
         <v/>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G25" s="18" t="str">
+      <c r="G25" s="33" t="str">
         <f>IF(_tap_day_all!R20="","",_tap_day_all!R20)</f>
         <v/>
       </c>
-      <c r="H25" s="18" t="str">
+      <c r="H25" s="33" t="str">
         <f>IF(_tap_day_all!AL20="","",_tap_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="33" t="str">
         <f>IF(_tap_day_all!U20="","",_tap_day_all!U20)</f>
         <v/>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="33" t="str">
         <f>IF(_tap_day_all!BO20="","",_tap_day_all!BO20)</f>
         <v/>
       </c>
-      <c r="K25" s="18" t="str">
+      <c r="K25" s="33" t="str">
         <f>IF(_tap_day_all!P20="","",_tap_day_all!P20)</f>
         <v/>
       </c>
-      <c r="L25" s="38" t="str">
+      <c r="L25" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M25" s="38" t="str">
+      <c r="M25" s="66" t="str">
         <f>IF(_tap_day_all!AF20="","",_tap_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="N25" s="18" t="str">
+      <c r="N25" s="33" t="str">
         <f>IF(_tap_day_all!Q20="","",_tap_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="31" t="str">
         <f>IF(_tap_day_all!J20="","",_tap_day_all!J20)</f>
         <v/>
       </c>
-      <c r="P25" s="17" t="str">
+      <c r="P25" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q25" s="18" t="str">
+      <c r="Q25" s="33" t="str">
         <f>IF(_tap_day_all!BP20="","",_tap_day_all!BP20)</f>
         <v/>
       </c>
-      <c r="R25" s="18" t="str">
+      <c r="R25" s="33" t="str">
         <f>IF(_tap_day_all!S20="","",_tap_day_all!S20)</f>
         <v/>
       </c>
-      <c r="S25" s="40" t="str">
+      <c r="S25" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T25" s="40" t="str">
+      <c r="T25" s="75" t="str">
         <f>IF(_tap_day_all!CB20="","",_tap_day_all!CB20)</f>
         <v/>
       </c>
-      <c r="U25" s="40" t="str">
+      <c r="U25" s="75" t="str">
         <f>IF(_tap_day_all!CH20="","",_tap_day_all!CH20)</f>
         <v/>
       </c>
-      <c r="V25" s="40" t="str">
+      <c r="V25" s="75" t="str">
         <f>IF(_tap_day_all!BZ20="","",_tap_day_all!BZ20)</f>
         <v/>
       </c>
-      <c r="W25" s="40" t="str">
+      <c r="W25" s="75" t="str">
         <f>IF(_tap_day_all!CA20="","",_tap_day_all!CA20)</f>
         <v/>
       </c>
-      <c r="X25" s="40" t="str">
+      <c r="X25" s="75" t="str">
         <f>IF(_tap_day_all!CC20="","",_tap_day_all!CC20)</f>
         <v/>
       </c>
-      <c r="Y25" s="40" t="str">
+      <c r="Y25" s="75" t="str">
         <f>IF(_tap_day_all!CF20="","",_tap_day_all!CF20)</f>
         <v/>
       </c>
-      <c r="Z25" s="40" t="str">
+      <c r="Z25" s="75" t="str">
         <f>IF(_tap_day_all!CI20="","",_tap_day_all!CI20)</f>
         <v/>
       </c>
-      <c r="AA25" s="40" t="str">
+      <c r="AA25" s="75" t="str">
         <f>IF(_tap_day_all!CK20="","",_tap_day_all!CK20)</f>
         <v/>
       </c>
-      <c r="AB25" s="40" t="str">
+      <c r="AB25" s="75" t="str">
         <f>IF(_tap_day_all!CJ20="","",_tap_day_all!CJ20)</f>
         <v/>
       </c>
-      <c r="AC25" s="40" t="str">
+      <c r="AC25" s="75" t="str">
         <f>IF(_tap_day_all!CU20="","",_tap_day_all!CU20)</f>
         <v/>
       </c>
-      <c r="AD25" s="40" t="str">
+      <c r="AD25" s="75" t="str">
         <f>IF(_tap_day_all!CL20="","",_tap_day_all!CL20)</f>
         <v/>
       </c>
-      <c r="AE25" s="40" t="str">
+      <c r="AE25" s="75" t="str">
         <f>IF(_tap_day_all!CN20="","",_tap_day_all!CN20)</f>
         <v/>
       </c>
-      <c r="AF25" s="40" t="str">
+      <c r="AF25" s="75" t="str">
         <f>IF(_tap_day_all!CT20="","",_tap_day_all!CT20)</f>
         <v/>
       </c>
-      <c r="AG25" s="45" t="str">
+      <c r="AG25" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH25" s="45" t="str">
+      <c r="AH25" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI25" s="45" t="str">
+      <c r="AI25" s="87" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ25" s="46" t="str">
+      <c r="AJ25" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="str">
+    <row r="26" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A26" s="34" t="str">
         <f>IF(_tap_day_all!B21="","",_tap_day_all!B21)</f>
         <v/>
       </c>
-      <c r="B26" s="20" t="str">
+      <c r="B26" s="35" t="str">
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="35" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="36" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="36" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
-      <c r="F26" s="22" t="str">
+      <c r="F26" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="37" t="str">
         <f>IF(_tap_day_all!R21="","",_tap_day_all!R21)</f>
         <v/>
       </c>
-      <c r="H26" s="18" t="str">
+      <c r="H26" s="33" t="str">
         <f>IF(_tap_day_all!AL21="","",_tap_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="37" t="str">
         <f>IF(_tap_day_all!U21="","",_tap_day_all!U21)</f>
         <v/>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="37" t="str">
         <f>IF(_tap_day_all!BO21="","",_tap_day_all!BO21)</f>
         <v/>
       </c>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="37" t="str">
         <f>IF(_tap_day_all!P21="","",_tap_day_all!P21)</f>
         <v/>
       </c>
-      <c r="L26" s="26" t="str">
+      <c r="L26" s="45" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M26" s="26" t="str">
+      <c r="M26" s="45" t="str">
         <f>IF(_tap_day_all!AF21="","",_tap_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="N26" s="22" t="str">
+      <c r="N26" s="37" t="str">
         <f>IF(_tap_day_all!Q21="","",_tap_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="O26" s="21" t="str">
+      <c r="O26" s="36" t="str">
         <f>IF(_tap_day_all!J21="","",_tap_day_all!J21)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q26" s="18" t="str">
+      <c r="Q26" s="33" t="str">
         <f>IF(_tap_day_all!BP21="","",_tap_day_all!BP21)</f>
         <v/>
       </c>
-      <c r="R26" s="18" t="str">
+      <c r="R26" s="33" t="str">
         <f>IF(_tap_day_all!S21="","",_tap_day_all!S21)</f>
         <v/>
       </c>
-      <c r="S26" s="40" t="str">
+      <c r="S26" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T26" s="41" t="str">
+      <c r="T26" s="76" t="str">
         <f>IF(_tap_day_all!CB21="","",_tap_day_all!CB21)</f>
         <v/>
       </c>
-      <c r="U26" s="41" t="str">
+      <c r="U26" s="76" t="str">
         <f>IF(_tap_day_all!CH21="","",_tap_day_all!CH21)</f>
         <v/>
       </c>
-      <c r="V26" s="41" t="str">
+      <c r="V26" s="76" t="str">
         <f>IF(_tap_day_all!BZ21="","",_tap_day_all!BZ21)</f>
         <v/>
       </c>
-      <c r="W26" s="41" t="str">
+      <c r="W26" s="76" t="str">
         <f>IF(_tap_day_all!CA21="","",_tap_day_all!CA21)</f>
         <v/>
       </c>
-      <c r="X26" s="41" t="str">
+      <c r="X26" s="76" t="str">
         <f>IF(_tap_day_all!CC21="","",_tap_day_all!CC21)</f>
         <v/>
       </c>
-      <c r="Y26" s="41" t="str">
+      <c r="Y26" s="76" t="str">
         <f>IF(_tap_day_all!CF21="","",_tap_day_all!CF21)</f>
         <v/>
       </c>
-      <c r="Z26" s="41" t="str">
+      <c r="Z26" s="76" t="str">
         <f>IF(_tap_day_all!CI21="","",_tap_day_all!CI21)</f>
         <v/>
       </c>
-      <c r="AA26" s="41" t="str">
+      <c r="AA26" s="76" t="str">
         <f>IF(_tap_day_all!CK21="","",_tap_day_all!CK21)</f>
         <v/>
       </c>
-      <c r="AB26" s="41" t="str">
+      <c r="AB26" s="76" t="str">
         <f>IF(_tap_day_all!CJ21="","",_tap_day_all!CJ21)</f>
         <v/>
       </c>
-      <c r="AC26" s="41" t="str">
+      <c r="AC26" s="76" t="str">
         <f>IF(_tap_day_all!CU21="","",_tap_day_all!CU21)</f>
         <v/>
       </c>
-      <c r="AD26" s="41" t="str">
+      <c r="AD26" s="76" t="str">
         <f>IF(_tap_day_all!CL21="","",_tap_day_all!CL21)</f>
         <v/>
       </c>
-      <c r="AE26" s="41" t="str">
+      <c r="AE26" s="76" t="str">
         <f>IF(_tap_day_all!CN21="","",_tap_day_all!CN21)</f>
         <v/>
       </c>
-      <c r="AF26" s="41" t="str">
+      <c r="AF26" s="76" t="str">
         <f>IF(_tap_day_all!CT21="","",_tap_day_all!CT21)</f>
         <v/>
       </c>
-      <c r="AG26" s="47" t="str">
+      <c r="AG26" s="89" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH26" s="47" t="str">
+      <c r="AH26" s="89" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI26" s="47" t="str">
+      <c r="AI26" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ26" s="48" t="str">
+      <c r="AJ26" s="90" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+    <row r="27" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A27" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42">
         <f>SUM(F7:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="42">
         <f t="shared" ref="G27:L27" si="10">SUM(G7:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="67">
         <f t="shared" ref="M27:N27" si="11">SUM(M7:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="67">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="25">
+      <c r="O27" s="67"/>
+      <c r="P27" s="42">
         <f>SUM(P7:P26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="67">
         <f>SUM(Q7:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="39">
+      <c r="R27" s="67">
         <f>SUM(R7:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="39">
+      <c r="S27" s="67">
         <f>SUM(S7:S26)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="49"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="91"/>
     </row>
-    <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+    <row r="28" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A28" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28" t="str">
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="str">
         <f t="shared" ref="F28:K28" si="12">IFERROR(AVERAGE(F7:F26),"")</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="47" t="str">
         <f t="shared" ref="G28:H28" si="13">IFERROR(AVERAGE(G7:G26),"")</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="47" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="37" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="37" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="37" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="37" t="str">
         <f t="shared" ref="L28:N28" si="14">IFERROR(AVERAGE(L7:L26),"")</f>
         <v/>
       </c>
-      <c r="M28" s="22" t="str">
+      <c r="M28" s="37" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N28" s="22" t="str">
+      <c r="N28" s="37" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="28" t="str">
+      <c r="O28" s="37"/>
+      <c r="P28" s="47" t="str">
         <f t="shared" ref="P28:AJ28" si="15">IFERROR(AVERAGE(P7:P26),"")</f>
         <v/>
       </c>
-      <c r="Q28" s="22" t="str">
+      <c r="Q28" s="37" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="R28" s="22" t="str">
+      <c r="R28" s="37" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="S28" s="22" t="str">
+      <c r="S28" s="37" t="str">
         <f t="shared" ref="S28" si="16">IFERROR(AVERAGE(S7:S26),"")</f>
         <v/>
       </c>
-      <c r="T28" s="41" t="str">
+      <c r="T28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="U28" s="41" t="str">
+      <c r="U28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="V28" s="41" t="str">
+      <c r="V28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="W28" s="41" t="str">
+      <c r="W28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X28" s="41" t="str">
+      <c r="X28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Y28" s="41" t="str">
+      <c r="Y28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z28" s="41" t="str">
+      <c r="Z28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AA28" s="41" t="str">
+      <c r="AA28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AB28" s="41" t="str">
+      <c r="AB28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AC28" s="41" t="str">
+      <c r="AC28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AD28" s="41" t="str">
+      <c r="AD28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AE28" s="41" t="str">
+      <c r="AE28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AF28" s="41" t="str">
+      <c r="AF28" s="76" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG28" s="47" t="str">
+      <c r="AG28" s="89" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AH28" s="47" t="str">
+      <c r="AH28" s="89" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AI28" s="47" t="str">
+      <c r="AI28" s="89" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AJ28" s="48" t="str">
+      <c r="AJ28" s="90" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+    <row r="29" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A29" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="29">
+      <c r="B29" s="49"/>
+      <c r="C29" s="50">
         <v>1</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="51">
         <f>SUMIF(C7:C26,1,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
     </row>
-    <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="20.1" customHeight="1" spans="1:36">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="33">
+      <c r="C30" s="56">
         <v>2</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="57">
         <f>SUMIF(C7:C26,2,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
     </row>
-    <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="20.1" customHeight="1" spans="1:36">
       <c r="A31" s="54"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="33">
+      <c r="C31" s="56">
         <v>3</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="57">
         <f>SUMIF(C7:C26,3,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
     </row>
-    <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="27">
+    <row r="32" ht="20.1" customHeight="1" spans="1:36">
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="46">
         <v>4</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="61">
         <f>SUMIF(C7:C26,4,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5373,6 +5971,16 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:Z3"/>
     <mergeCell ref="AA3:AJ3"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O4:O5"/>
@@ -5381,39 +5989,30 @@
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="A29:B32"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="CW1" sqref="CW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5719,35 +6318,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -5756,7 +6359,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -523,13 +523,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -595,6 +595,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -606,6 +607,29 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,8 +648,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,92 +719,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,13 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +802,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,49 +880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,91 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,6 +1358,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,30 +1393,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,13 +1427,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,25 +1459,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,133 +1477,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1663,7 +1663,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,7 +1684,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,13 +1735,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,7 +1765,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1804,7 +1804,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2256,9 +2256,9 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="79">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="AA1" s="79" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="AB1" s="79"/>
       <c r="AC1" s="79"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="出铁作业日报表" sheetId="5" r:id="rId1"/>
     <sheet name="_tap_day_all" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="2" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
   <si>
     <t>出铁作业日报表</t>
   </si>
@@ -516,22 +521,19 @@
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,204 +544,70 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="黑体"/>
-      <charset val="134"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,198 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1361,253 +1043,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1621,175 +1061,247 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,21 +1311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,113 +1328,27 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2195,19 +1606,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AC1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
@@ -2227,41 +1638,41 @@
     <col min="27" max="36" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:36">
+    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="79" t="str">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="78" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
@@ -2270,3694 +1681,3694 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="68" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="81"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="83"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="73" t="s">
+      <c r="R3" s="90"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="62" t="s">
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="82"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="95"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+    <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="18" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="83" t="s">
+      <c r="AG4" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="83" t="s">
+      <c r="AH4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="83" t="s">
+      <c r="AI4" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="84" t="s">
+      <c r="AJ4" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+    <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="65" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="W5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Y5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AE5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="25" t="s">
+      <c r="AF5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="85"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="51"/>
     </row>
-    <row r="6" ht="29.25" hidden="1" customHeight="1" spans="1:36">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="Y6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="28" t="s">
+      <c r="Z6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AB6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="28" t="s">
+      <c r="AD6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="28" t="s">
+      <c r="AE6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="28" t="s">
+      <c r="AF6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="86"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="44"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A7" s="29" t="str">
+    <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="str">
         <f>IF(_tap_day_all!B2="","",_tap_day_all!B2)</f>
         <v/>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="15" t="str">
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="15" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
-      <c r="D7" s="31" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_tap_day_all!H2="","",_tap_day_all!H2)</f>
         <v/>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_tap_day_all!I2="","",_tap_day_all!I2)</f>
         <v/>
       </c>
-      <c r="F7" s="32" t="str">
+      <c r="F7" s="17" t="str">
         <f t="shared" ref="F7:F19" si="0">IFERROR((E7-D7)*60*24,"")</f>
         <v/>
       </c>
-      <c r="G7" s="33" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_tap_day_all!R2="","",_tap_day_all!R2)</f>
         <v/>
       </c>
-      <c r="H7" s="33" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_tap_day_all!AL2="","",_tap_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_tap_day_all!U2="","",_tap_day_all!U2)</f>
         <v/>
       </c>
-      <c r="J7" s="33" t="str">
+      <c r="J7" s="18" t="str">
         <f>IF(_tap_day_all!BO2="","",_tap_day_all!BO2)</f>
         <v/>
       </c>
-      <c r="K7" s="33" t="str">
+      <c r="K7" s="18" t="str">
         <f>IF(_tap_day_all!P2="","",_tap_day_all!P2)</f>
         <v/>
       </c>
-      <c r="L7" s="66" t="str">
+      <c r="L7" s="38" t="str">
         <f t="shared" ref="L7:L19" si="1">IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="M7" s="66" t="str">
+      <c r="M7" s="38" t="str">
         <f>IF(_tap_day_all!AF2="","",_tap_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="N7" s="33" t="str">
+      <c r="N7" s="18" t="str">
         <f>IF(_tap_day_all!Q2="","",_tap_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="16" t="str">
         <f>IF(_tap_day_all!J2="","",_tap_day_all!J2)</f>
         <v/>
       </c>
-      <c r="P7" s="32" t="str">
+      <c r="P7" s="17" t="str">
         <f t="shared" ref="P7:P26" si="2">IFERROR((E7-O7)*60*24,"")</f>
         <v/>
       </c>
-      <c r="Q7" s="33" t="str">
+      <c r="Q7" s="18" t="str">
         <f>IF(_tap_day_all!BP2="","",_tap_day_all!BP2)</f>
         <v/>
       </c>
-      <c r="R7" s="33" t="str">
+      <c r="R7" s="18" t="str">
         <f>IF(_tap_day_all!S2="","",_tap_day_all!S2)</f>
         <v/>
       </c>
-      <c r="S7" s="75" t="str">
+      <c r="S7" s="40" t="str">
         <f>IFERROR(Q7-R7,"")</f>
         <v/>
       </c>
-      <c r="T7" s="75" t="str">
+      <c r="T7" s="40" t="str">
         <f>IF(_tap_day_all!CB2="","",_tap_day_all!CB2)</f>
         <v/>
       </c>
-      <c r="U7" s="75" t="str">
+      <c r="U7" s="40" t="str">
         <f>IF(_tap_day_all!CH2="","",_tap_day_all!CH2)</f>
         <v/>
       </c>
-      <c r="V7" s="75" t="str">
+      <c r="V7" s="40" t="str">
         <f>IF(_tap_day_all!BZ2="","",_tap_day_all!BZ2)</f>
         <v/>
       </c>
-      <c r="W7" s="75" t="str">
+      <c r="W7" s="40" t="str">
         <f>IF(_tap_day_all!CA2="","",_tap_day_all!CA2)</f>
         <v/>
       </c>
-      <c r="X7" s="75" t="str">
+      <c r="X7" s="40" t="str">
         <f>IF(_tap_day_all!CC2="","",_tap_day_all!CC2)</f>
         <v/>
       </c>
-      <c r="Y7" s="75" t="str">
+      <c r="Y7" s="40" t="str">
         <f>IF(_tap_day_all!CF2="","",_tap_day_all!CF2)</f>
         <v/>
       </c>
-      <c r="Z7" s="75" t="str">
+      <c r="Z7" s="40" t="str">
         <f>IF(_tap_day_all!CI2="","",_tap_day_all!CI2)</f>
         <v/>
       </c>
-      <c r="AA7" s="75" t="str">
+      <c r="AA7" s="40" t="str">
         <f>IF(_tap_day_all!CK2="","",_tap_day_all!CK2)</f>
         <v/>
       </c>
-      <c r="AB7" s="75" t="str">
+      <c r="AB7" s="40" t="str">
         <f>IF(_tap_day_all!CJ2="","",_tap_day_all!CJ2)</f>
         <v/>
       </c>
-      <c r="AC7" s="75" t="str">
+      <c r="AC7" s="40" t="str">
         <f>IF(_tap_day_all!CU2="","",_tap_day_all!CU2)</f>
         <v/>
       </c>
-      <c r="AD7" s="75" t="str">
+      <c r="AD7" s="40" t="str">
         <f>IF(_tap_day_all!CL2="","",_tap_day_all!CL2)</f>
         <v/>
       </c>
-      <c r="AE7" s="75" t="str">
+      <c r="AE7" s="40" t="str">
         <f>IF(_tap_day_all!CN2="","",_tap_day_all!CN2)</f>
         <v/>
       </c>
-      <c r="AF7" s="75" t="str">
+      <c r="AF7" s="40" t="str">
         <f>IF(_tap_day_all!CT2="","",_tap_day_all!CT2)</f>
         <v/>
       </c>
-      <c r="AG7" s="87" t="str">
+      <c r="AG7" s="45" t="str">
         <f t="shared" ref="AG7:AG26" si="3">IFERROR(AA7/AB7,"")</f>
         <v/>
       </c>
-      <c r="AH7" s="87" t="str">
+      <c r="AH7" s="45" t="str">
         <f t="shared" ref="AH7:AH26" si="4">IFERROR((AA7+AC7)/AB7,"")</f>
         <v/>
       </c>
-      <c r="AI7" s="87" t="str">
+      <c r="AI7" s="45" t="str">
         <f t="shared" ref="AI7:AI26" si="5">IFERROR((AA7+AC7)/(AB7+AD7),"")</f>
         <v/>
       </c>
-      <c r="AJ7" s="88" t="str">
+      <c r="AJ7" s="46" t="str">
         <f t="shared" ref="AJ7:AJ26" si="6">IFERROR(AC7/AD7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A8" s="29" t="str">
+    <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="str">
         <f>IF(_tap_day_all!B3="","",_tap_day_all!B3)</f>
         <v/>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="15" t="str">
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="15" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
-      <c r="D8" s="31" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_tap_day_all!H3="","",_tap_day_all!H3)</f>
         <v/>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_tap_day_all!I3="","",_tap_day_all!I3)</f>
         <v/>
       </c>
-      <c r="F8" s="32" t="str">
+      <c r="F8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="33" t="str">
+      <c r="G8" s="18" t="str">
         <f>IF(_tap_day_all!R3="","",_tap_day_all!R3)</f>
         <v/>
       </c>
-      <c r="H8" s="33" t="str">
+      <c r="H8" s="18" t="str">
         <f>IF(_tap_day_all!AL3="","",_tap_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="18" t="str">
         <f>IF(_tap_day_all!U3="","",_tap_day_all!U3)</f>
         <v/>
       </c>
-      <c r="J8" s="33" t="str">
+      <c r="J8" s="18" t="str">
         <f>IF(_tap_day_all!BO3="","",_tap_day_all!BO3)</f>
         <v/>
       </c>
-      <c r="K8" s="33" t="str">
+      <c r="K8" s="18" t="str">
         <f>IF(_tap_day_all!P3="","",_tap_day_all!P3)</f>
         <v/>
       </c>
-      <c r="L8" s="66" t="str">
+      <c r="L8" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="66" t="str">
+      <c r="M8" s="38" t="str">
         <f>IF(_tap_day_all!AF3="","",_tap_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="N8" s="33" t="str">
+      <c r="N8" s="18" t="str">
         <f>IF(_tap_day_all!Q3="","",_tap_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="16" t="str">
         <f>IF(_tap_day_all!J3="","",_tap_day_all!J3)</f>
         <v/>
       </c>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q8" s="33" t="str">
+      <c r="Q8" s="18" t="str">
         <f>IF(_tap_day_all!BP3="","",_tap_day_all!BP3)</f>
         <v/>
       </c>
-      <c r="R8" s="33" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF(_tap_day_all!S3="","",_tap_day_all!S3)</f>
         <v/>
       </c>
-      <c r="S8" s="75" t="str">
+      <c r="S8" s="40" t="str">
         <f t="shared" ref="S8:S26" si="7">IFERROR(Q8-R8,"")</f>
         <v/>
       </c>
-      <c r="T8" s="75" t="str">
+      <c r="T8" s="40" t="str">
         <f>IF(_tap_day_all!CB3="","",_tap_day_all!CB3)</f>
         <v/>
       </c>
-      <c r="U8" s="75" t="str">
+      <c r="U8" s="40" t="str">
         <f>IF(_tap_day_all!CH3="","",_tap_day_all!CH3)</f>
         <v/>
       </c>
-      <c r="V8" s="75" t="str">
+      <c r="V8" s="40" t="str">
         <f>IF(_tap_day_all!BZ3="","",_tap_day_all!BZ3)</f>
         <v/>
       </c>
-      <c r="W8" s="75" t="str">
+      <c r="W8" s="40" t="str">
         <f>IF(_tap_day_all!CA3="","",_tap_day_all!CA3)</f>
         <v/>
       </c>
-      <c r="X8" s="75" t="str">
+      <c r="X8" s="40" t="str">
         <f>IF(_tap_day_all!CC3="","",_tap_day_all!CC3)</f>
         <v/>
       </c>
-      <c r="Y8" s="75" t="str">
+      <c r="Y8" s="40" t="str">
         <f>IF(_tap_day_all!CF3="","",_tap_day_all!CF3)</f>
         <v/>
       </c>
-      <c r="Z8" s="75" t="str">
+      <c r="Z8" s="40" t="str">
         <f>IF(_tap_day_all!CI3="","",_tap_day_all!CI3)</f>
         <v/>
       </c>
-      <c r="AA8" s="75" t="str">
+      <c r="AA8" s="40" t="str">
         <f>IF(_tap_day_all!CK3="","",_tap_day_all!CK3)</f>
         <v/>
       </c>
-      <c r="AB8" s="75" t="str">
+      <c r="AB8" s="40" t="str">
         <f>IF(_tap_day_all!CJ3="","",_tap_day_all!CJ3)</f>
         <v/>
       </c>
-      <c r="AC8" s="75" t="str">
+      <c r="AC8" s="40" t="str">
         <f>IF(_tap_day_all!CU3="","",_tap_day_all!CU3)</f>
         <v/>
       </c>
-      <c r="AD8" s="75" t="str">
+      <c r="AD8" s="40" t="str">
         <f>IF(_tap_day_all!CL3="","",_tap_day_all!CL3)</f>
         <v/>
       </c>
-      <c r="AE8" s="75" t="str">
+      <c r="AE8" s="40" t="str">
         <f>IF(_tap_day_all!CN3="","",_tap_day_all!CN3)</f>
         <v/>
       </c>
-      <c r="AF8" s="75" t="str">
+      <c r="AF8" s="40" t="str">
         <f>IF(_tap_day_all!CT3="","",_tap_day_all!CT3)</f>
         <v/>
       </c>
-      <c r="AG8" s="87" t="str">
+      <c r="AG8" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH8" s="87" t="str">
+      <c r="AH8" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI8" s="87" t="str">
+      <c r="AI8" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ8" s="88" t="str">
+      <c r="AJ8" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A9" s="29" t="str">
+    <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="str">
         <f>IF(_tap_day_all!B4="","",_tap_day_all!B4)</f>
         <v/>
       </c>
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="15" t="str">
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="15" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
-      <c r="D9" s="31" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_tap_day_all!H4="","",_tap_day_all!H4)</f>
         <v/>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_tap_day_all!I4="","",_tap_day_all!I4)</f>
         <v/>
       </c>
-      <c r="F9" s="32" t="str">
+      <c r="F9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="33" t="str">
+      <c r="G9" s="18" t="str">
         <f>IF(_tap_day_all!R4="","",_tap_day_all!R4)</f>
         <v/>
       </c>
-      <c r="H9" s="33" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_tap_day_all!AL4="","",_tap_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_tap_day_all!U4="","",_tap_day_all!U4)</f>
         <v/>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="18" t="str">
         <f>IF(_tap_day_all!BO4="","",_tap_day_all!BO4)</f>
         <v/>
       </c>
-      <c r="K9" s="33" t="str">
+      <c r="K9" s="18" t="str">
         <f>IF(_tap_day_all!P4="","",_tap_day_all!P4)</f>
         <v/>
       </c>
-      <c r="L9" s="66" t="str">
+      <c r="L9" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M9" s="66" t="str">
+      <c r="M9" s="38" t="str">
         <f>IF(_tap_day_all!AF4="","",_tap_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="N9" s="33" t="str">
+      <c r="N9" s="18" t="str">
         <f>IF(_tap_day_all!Q4="","",_tap_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="16" t="str">
         <f>IF(_tap_day_all!J4="","",_tap_day_all!J4)</f>
         <v/>
       </c>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q9" s="33" t="str">
+      <c r="Q9" s="18" t="str">
         <f>IF(_tap_day_all!BP4="","",_tap_day_all!BP4)</f>
         <v/>
       </c>
-      <c r="R9" s="33" t="str">
+      <c r="R9" s="18" t="str">
         <f>IF(_tap_day_all!S4="","",_tap_day_all!S4)</f>
         <v/>
       </c>
-      <c r="S9" s="75" t="str">
+      <c r="S9" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T9" s="75" t="str">
+      <c r="T9" s="40" t="str">
         <f>IF(_tap_day_all!CB4="","",_tap_day_all!CB4)</f>
         <v/>
       </c>
-      <c r="U9" s="75" t="str">
+      <c r="U9" s="40" t="str">
         <f>IF(_tap_day_all!CH4="","",_tap_day_all!CH4)</f>
         <v/>
       </c>
-      <c r="V9" s="75" t="str">
+      <c r="V9" s="40" t="str">
         <f>IF(_tap_day_all!BZ4="","",_tap_day_all!BZ4)</f>
         <v/>
       </c>
-      <c r="W9" s="75" t="str">
+      <c r="W9" s="40" t="str">
         <f>IF(_tap_day_all!CA4="","",_tap_day_all!CA4)</f>
         <v/>
       </c>
-      <c r="X9" s="75" t="str">
+      <c r="X9" s="40" t="str">
         <f>IF(_tap_day_all!CC4="","",_tap_day_all!CC4)</f>
         <v/>
       </c>
-      <c r="Y9" s="75" t="str">
+      <c r="Y9" s="40" t="str">
         <f>IF(_tap_day_all!CF4="","",_tap_day_all!CF4)</f>
         <v/>
       </c>
-      <c r="Z9" s="75" t="str">
+      <c r="Z9" s="40" t="str">
         <f>IF(_tap_day_all!CI4="","",_tap_day_all!CI4)</f>
         <v/>
       </c>
-      <c r="AA9" s="75" t="str">
+      <c r="AA9" s="40" t="str">
         <f>IF(_tap_day_all!CK4="","",_tap_day_all!CK4)</f>
         <v/>
       </c>
-      <c r="AB9" s="75" t="str">
+      <c r="AB9" s="40" t="str">
         <f>IF(_tap_day_all!CJ4="","",_tap_day_all!CJ4)</f>
         <v/>
       </c>
-      <c r="AC9" s="75" t="str">
+      <c r="AC9" s="40" t="str">
         <f>IF(_tap_day_all!CU4="","",_tap_day_all!CU4)</f>
         <v/>
       </c>
-      <c r="AD9" s="75" t="str">
+      <c r="AD9" s="40" t="str">
         <f>IF(_tap_day_all!CL4="","",_tap_day_all!CL4)</f>
         <v/>
       </c>
-      <c r="AE9" s="75" t="str">
+      <c r="AE9" s="40" t="str">
         <f>IF(_tap_day_all!CN4="","",_tap_day_all!CN4)</f>
         <v/>
       </c>
-      <c r="AF9" s="75" t="str">
+      <c r="AF9" s="40" t="str">
         <f>IF(_tap_day_all!CT4="","",_tap_day_all!CT4)</f>
         <v/>
       </c>
-      <c r="AG9" s="87" t="str">
+      <c r="AG9" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH9" s="87" t="str">
+      <c r="AH9" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI9" s="87" t="str">
+      <c r="AI9" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ9" s="88" t="str">
+      <c r="AJ9" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A10" s="29" t="str">
+    <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="str">
         <f>IF(_tap_day_all!B5="","",_tap_day_all!B5)</f>
         <v/>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="15" t="str">
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="C10" s="30" t="str">
+      <c r="C10" s="15" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
-      <c r="D10" s="31" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_tap_day_all!H5="","",_tap_day_all!H5)</f>
         <v/>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_tap_day_all!I5="","",_tap_day_all!I5)</f>
         <v/>
       </c>
-      <c r="F10" s="32" t="str">
+      <c r="F10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="33" t="str">
+      <c r="G10" s="18" t="str">
         <f>IF(_tap_day_all!R5="","",_tap_day_all!R5)</f>
         <v/>
       </c>
-      <c r="H10" s="33" t="str">
+      <c r="H10" s="18" t="str">
         <f>IF(_tap_day_all!AL5="","",_tap_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="18" t="str">
         <f>IF(_tap_day_all!U5="","",_tap_day_all!U5)</f>
         <v/>
       </c>
-      <c r="J10" s="33" t="str">
+      <c r="J10" s="18" t="str">
         <f>IF(_tap_day_all!BO5="","",_tap_day_all!BO5)</f>
         <v/>
       </c>
-      <c r="K10" s="33" t="str">
+      <c r="K10" s="18" t="str">
         <f>IF(_tap_day_all!P5="","",_tap_day_all!P5)</f>
         <v/>
       </c>
-      <c r="L10" s="66" t="str">
+      <c r="L10" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="66" t="str">
+      <c r="M10" s="38" t="str">
         <f>IF(_tap_day_all!AF5="","",_tap_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="N10" s="33" t="str">
+      <c r="N10" s="18" t="str">
         <f>IF(_tap_day_all!Q5="","",_tap_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="16" t="str">
         <f>IF(_tap_day_all!J5="","",_tap_day_all!J5)</f>
         <v/>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q10" s="33" t="str">
+      <c r="Q10" s="18" t="str">
         <f>IF(_tap_day_all!BP5="","",_tap_day_all!BP5)</f>
         <v/>
       </c>
-      <c r="R10" s="33" t="str">
+      <c r="R10" s="18" t="str">
         <f>IF(_tap_day_all!S5="","",_tap_day_all!S5)</f>
         <v/>
       </c>
-      <c r="S10" s="75" t="str">
+      <c r="S10" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T10" s="75" t="str">
+      <c r="T10" s="40" t="str">
         <f>IF(_tap_day_all!CB5="","",_tap_day_all!CB5)</f>
         <v/>
       </c>
-      <c r="U10" s="75" t="str">
+      <c r="U10" s="40" t="str">
         <f>IF(_tap_day_all!CH5="","",_tap_day_all!CH5)</f>
         <v/>
       </c>
-      <c r="V10" s="75" t="str">
+      <c r="V10" s="40" t="str">
         <f>IF(_tap_day_all!BZ5="","",_tap_day_all!BZ5)</f>
         <v/>
       </c>
-      <c r="W10" s="75" t="str">
+      <c r="W10" s="40" t="str">
         <f>IF(_tap_day_all!CA5="","",_tap_day_all!CA5)</f>
         <v/>
       </c>
-      <c r="X10" s="75" t="str">
+      <c r="X10" s="40" t="str">
         <f>IF(_tap_day_all!CC5="","",_tap_day_all!CC5)</f>
         <v/>
       </c>
-      <c r="Y10" s="75" t="str">
+      <c r="Y10" s="40" t="str">
         <f>IF(_tap_day_all!CF5="","",_tap_day_all!CF5)</f>
         <v/>
       </c>
-      <c r="Z10" s="75" t="str">
+      <c r="Z10" s="40" t="str">
         <f>IF(_tap_day_all!CI5="","",_tap_day_all!CI5)</f>
         <v/>
       </c>
-      <c r="AA10" s="75" t="str">
+      <c r="AA10" s="40" t="str">
         <f>IF(_tap_day_all!CK5="","",_tap_day_all!CK5)</f>
         <v/>
       </c>
-      <c r="AB10" s="75" t="str">
+      <c r="AB10" s="40" t="str">
         <f>IF(_tap_day_all!CJ5="","",_tap_day_all!CJ5)</f>
         <v/>
       </c>
-      <c r="AC10" s="75" t="str">
+      <c r="AC10" s="40" t="str">
         <f>IF(_tap_day_all!CU5="","",_tap_day_all!CU5)</f>
         <v/>
       </c>
-      <c r="AD10" s="75" t="str">
+      <c r="AD10" s="40" t="str">
         <f>IF(_tap_day_all!CL5="","",_tap_day_all!CL5)</f>
         <v/>
       </c>
-      <c r="AE10" s="75" t="str">
+      <c r="AE10" s="40" t="str">
         <f>IF(_tap_day_all!CN5="","",_tap_day_all!CN5)</f>
         <v/>
       </c>
-      <c r="AF10" s="75" t="str">
+      <c r="AF10" s="40" t="str">
         <f>IF(_tap_day_all!CT5="","",_tap_day_all!CT5)</f>
         <v/>
       </c>
-      <c r="AG10" s="87" t="str">
+      <c r="AG10" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH10" s="87" t="str">
+      <c r="AH10" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI10" s="87" t="str">
+      <c r="AI10" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ10" s="88" t="str">
+      <c r="AJ10" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A11" s="29" t="str">
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="str">
         <f>IF(_tap_day_all!B6="","",_tap_day_all!B6)</f>
         <v/>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="15" t="str">
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="15" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
-      <c r="D11" s="31" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_tap_day_all!H6="","",_tap_day_all!H6)</f>
         <v/>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_tap_day_all!I6="","",_tap_day_all!I6)</f>
         <v/>
       </c>
-      <c r="F11" s="32" t="str">
+      <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="33" t="str">
+      <c r="G11" s="18" t="str">
         <f>IF(_tap_day_all!R6="","",_tap_day_all!R6)</f>
         <v/>
       </c>
-      <c r="H11" s="33" t="str">
+      <c r="H11" s="18" t="str">
         <f>IF(_tap_day_all!AL6="","",_tap_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="18" t="str">
         <f>IF(_tap_day_all!U6="","",_tap_day_all!U6)</f>
         <v/>
       </c>
-      <c r="J11" s="33" t="str">
+      <c r="J11" s="18" t="str">
         <f>IF(_tap_day_all!BO6="","",_tap_day_all!BO6)</f>
         <v/>
       </c>
-      <c r="K11" s="33" t="str">
+      <c r="K11" s="18" t="str">
         <f>IF(_tap_day_all!P6="","",_tap_day_all!P6)</f>
         <v/>
       </c>
-      <c r="L11" s="66" t="str">
+      <c r="L11" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M11" s="66" t="str">
+      <c r="M11" s="38" t="str">
         <f>IF(_tap_day_all!AF6="","",_tap_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="N11" s="33" t="str">
+      <c r="N11" s="18" t="str">
         <f>IF(_tap_day_all!Q6="","",_tap_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="16" t="str">
         <f>IF(_tap_day_all!J6="","",_tap_day_all!J6)</f>
         <v/>
       </c>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q11" s="33" t="str">
+      <c r="Q11" s="18" t="str">
         <f>IF(_tap_day_all!BP6="","",_tap_day_all!BP6)</f>
         <v/>
       </c>
-      <c r="R11" s="33" t="str">
+      <c r="R11" s="18" t="str">
         <f>IF(_tap_day_all!S6="","",_tap_day_all!S6)</f>
         <v/>
       </c>
-      <c r="S11" s="75" t="str">
+      <c r="S11" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T11" s="75" t="str">
+      <c r="T11" s="40" t="str">
         <f>IF(_tap_day_all!CB6="","",_tap_day_all!CB6)</f>
         <v/>
       </c>
-      <c r="U11" s="75" t="str">
+      <c r="U11" s="40" t="str">
         <f>IF(_tap_day_all!CH6="","",_tap_day_all!CH6)</f>
         <v/>
       </c>
-      <c r="V11" s="75" t="str">
+      <c r="V11" s="40" t="str">
         <f>IF(_tap_day_all!BZ6="","",_tap_day_all!BZ6)</f>
         <v/>
       </c>
-      <c r="W11" s="75" t="str">
+      <c r="W11" s="40" t="str">
         <f>IF(_tap_day_all!CA6="","",_tap_day_all!CA6)</f>
         <v/>
       </c>
-      <c r="X11" s="75" t="str">
+      <c r="X11" s="40" t="str">
         <f>IF(_tap_day_all!CC6="","",_tap_day_all!CC6)</f>
         <v/>
       </c>
-      <c r="Y11" s="75" t="str">
+      <c r="Y11" s="40" t="str">
         <f>IF(_tap_day_all!CF6="","",_tap_day_all!CF6)</f>
         <v/>
       </c>
-      <c r="Z11" s="75" t="str">
+      <c r="Z11" s="40" t="str">
         <f>IF(_tap_day_all!CI6="","",_tap_day_all!CI6)</f>
         <v/>
       </c>
-      <c r="AA11" s="75" t="str">
+      <c r="AA11" s="40" t="str">
         <f>IF(_tap_day_all!CK6="","",_tap_day_all!CK6)</f>
         <v/>
       </c>
-      <c r="AB11" s="75" t="str">
+      <c r="AB11" s="40" t="str">
         <f>IF(_tap_day_all!CJ6="","",_tap_day_all!CJ6)</f>
         <v/>
       </c>
-      <c r="AC11" s="75" t="str">
+      <c r="AC11" s="40" t="str">
         <f>IF(_tap_day_all!CU6="","",_tap_day_all!CU6)</f>
         <v/>
       </c>
-      <c r="AD11" s="75" t="str">
+      <c r="AD11" s="40" t="str">
         <f>IF(_tap_day_all!CL6="","",_tap_day_all!CL6)</f>
         <v/>
       </c>
-      <c r="AE11" s="75" t="str">
+      <c r="AE11" s="40" t="str">
         <f>IF(_tap_day_all!CN6="","",_tap_day_all!CN6)</f>
         <v/>
       </c>
-      <c r="AF11" s="75" t="str">
+      <c r="AF11" s="40" t="str">
         <f>IF(_tap_day_all!CT6="","",_tap_day_all!CT6)</f>
         <v/>
       </c>
-      <c r="AG11" s="87" t="str">
+      <c r="AG11" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH11" s="87" t="str">
+      <c r="AH11" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI11" s="87" t="str">
+      <c r="AI11" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ11" s="88" t="str">
+      <c r="AJ11" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A12" s="29" t="str">
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="str">
         <f>IF(_tap_day_all!B7="","",_tap_day_all!B7)</f>
         <v/>
       </c>
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="15" t="str">
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
-      <c r="D12" s="31" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_tap_day_all!H7="","",_tap_day_all!H7)</f>
         <v/>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_tap_day_all!I7="","",_tap_day_all!I7)</f>
         <v/>
       </c>
-      <c r="F12" s="32" t="str">
+      <c r="F12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="33" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(_tap_day_all!R7="","",_tap_day_all!R7)</f>
         <v/>
       </c>
-      <c r="H12" s="33" t="str">
+      <c r="H12" s="18" t="str">
         <f>IF(_tap_day_all!AL7="","",_tap_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="I12" s="33" t="str">
+      <c r="I12" s="18" t="str">
         <f>IF(_tap_day_all!U7="","",_tap_day_all!U7)</f>
         <v/>
       </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="18" t="str">
         <f>IF(_tap_day_all!BO7="","",_tap_day_all!BO7)</f>
         <v/>
       </c>
-      <c r="K12" s="33" t="str">
+      <c r="K12" s="18" t="str">
         <f>IF(_tap_day_all!P7="","",_tap_day_all!P7)</f>
         <v/>
       </c>
-      <c r="L12" s="66" t="str">
+      <c r="L12" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="66" t="str">
+      <c r="M12" s="38" t="str">
         <f>IF(_tap_day_all!AF7="","",_tap_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="N12" s="33" t="str">
+      <c r="N12" s="18" t="str">
         <f>IF(_tap_day_all!Q7="","",_tap_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_tap_day_all!J7="","",_tap_day_all!J7)</f>
         <v/>
       </c>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q12" s="33" t="str">
+      <c r="Q12" s="18" t="str">
         <f>IF(_tap_day_all!BP7="","",_tap_day_all!BP7)</f>
         <v/>
       </c>
-      <c r="R12" s="33" t="str">
+      <c r="R12" s="18" t="str">
         <f>IF(_tap_day_all!S7="","",_tap_day_all!S7)</f>
         <v/>
       </c>
-      <c r="S12" s="75" t="str">
+      <c r="S12" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T12" s="75" t="str">
+      <c r="T12" s="40" t="str">
         <f>IF(_tap_day_all!CB7="","",_tap_day_all!CB7)</f>
         <v/>
       </c>
-      <c r="U12" s="75" t="str">
+      <c r="U12" s="40" t="str">
         <f>IF(_tap_day_all!CH7="","",_tap_day_all!CH7)</f>
         <v/>
       </c>
-      <c r="V12" s="75" t="str">
+      <c r="V12" s="40" t="str">
         <f>IF(_tap_day_all!BZ7="","",_tap_day_all!BZ7)</f>
         <v/>
       </c>
-      <c r="W12" s="75" t="str">
+      <c r="W12" s="40" t="str">
         <f>IF(_tap_day_all!CA7="","",_tap_day_all!CA7)</f>
         <v/>
       </c>
-      <c r="X12" s="75" t="str">
+      <c r="X12" s="40" t="str">
         <f>IF(_tap_day_all!CC7="","",_tap_day_all!CC7)</f>
         <v/>
       </c>
-      <c r="Y12" s="75" t="str">
+      <c r="Y12" s="40" t="str">
         <f>IF(_tap_day_all!CF7="","",_tap_day_all!CF7)</f>
         <v/>
       </c>
-      <c r="Z12" s="75" t="str">
+      <c r="Z12" s="40" t="str">
         <f>IF(_tap_day_all!CI7="","",_tap_day_all!CI7)</f>
         <v/>
       </c>
-      <c r="AA12" s="75" t="str">
+      <c r="AA12" s="40" t="str">
         <f>IF(_tap_day_all!CK7="","",_tap_day_all!CK7)</f>
         <v/>
       </c>
-      <c r="AB12" s="75" t="str">
+      <c r="AB12" s="40" t="str">
         <f>IF(_tap_day_all!CJ7="","",_tap_day_all!CJ7)</f>
         <v/>
       </c>
-      <c r="AC12" s="75" t="str">
+      <c r="AC12" s="40" t="str">
         <f>IF(_tap_day_all!CU7="","",_tap_day_all!CU7)</f>
         <v/>
       </c>
-      <c r="AD12" s="75" t="str">
+      <c r="AD12" s="40" t="str">
         <f>IF(_tap_day_all!CL7="","",_tap_day_all!CL7)</f>
         <v/>
       </c>
-      <c r="AE12" s="75" t="str">
+      <c r="AE12" s="40" t="str">
         <f>IF(_tap_day_all!CN7="","",_tap_day_all!CN7)</f>
         <v/>
       </c>
-      <c r="AF12" s="75" t="str">
+      <c r="AF12" s="40" t="str">
         <f>IF(_tap_day_all!CT7="","",_tap_day_all!CT7)</f>
         <v/>
       </c>
-      <c r="AG12" s="87" t="str">
+      <c r="AG12" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH12" s="87" t="str">
+      <c r="AH12" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI12" s="87" t="str">
+      <c r="AI12" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ12" s="88" t="str">
+      <c r="AJ12" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A13" s="29" t="str">
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="str">
         <f>IF(_tap_day_all!B8="","",_tap_day_all!B8)</f>
         <v/>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="15" t="str">
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
-      <c r="D13" s="31" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_tap_day_all!H8="","",_tap_day_all!H8)</f>
         <v/>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_tap_day_all!I8="","",_tap_day_all!I8)</f>
         <v/>
       </c>
-      <c r="F13" s="32" t="str">
+      <c r="F13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="33" t="str">
+      <c r="G13" s="18" t="str">
         <f>IF(_tap_day_all!R8="","",_tap_day_all!R8)</f>
         <v/>
       </c>
-      <c r="H13" s="33" t="str">
+      <c r="H13" s="18" t="str">
         <f>IF(_tap_day_all!AL8="","",_tap_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="I13" s="33" t="str">
+      <c r="I13" s="18" t="str">
         <f>IF(_tap_day_all!U8="","",_tap_day_all!U8)</f>
         <v/>
       </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="18" t="str">
         <f>IF(_tap_day_all!BO8="","",_tap_day_all!BO8)</f>
         <v/>
       </c>
-      <c r="K13" s="33" t="str">
+      <c r="K13" s="18" t="str">
         <f>IF(_tap_day_all!P8="","",_tap_day_all!P8)</f>
         <v/>
       </c>
-      <c r="L13" s="66" t="str">
+      <c r="L13" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M13" s="66" t="str">
+      <c r="M13" s="38" t="str">
         <f>IF(_tap_day_all!AF8="","",_tap_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="N13" s="33" t="str">
+      <c r="N13" s="18" t="str">
         <f>IF(_tap_day_all!Q8="","",_tap_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="16" t="str">
         <f>IF(_tap_day_all!J8="","",_tap_day_all!J8)</f>
         <v/>
       </c>
-      <c r="P13" s="32" t="str">
+      <c r="P13" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q13" s="33" t="str">
+      <c r="Q13" s="18" t="str">
         <f>IF(_tap_day_all!BP8="","",_tap_day_all!BP8)</f>
         <v/>
       </c>
-      <c r="R13" s="33" t="str">
+      <c r="R13" s="18" t="str">
         <f>IF(_tap_day_all!S8="","",_tap_day_all!S8)</f>
         <v/>
       </c>
-      <c r="S13" s="75" t="str">
+      <c r="S13" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T13" s="75" t="str">
+      <c r="T13" s="40" t="str">
         <f>IF(_tap_day_all!CB8="","",_tap_day_all!CB8)</f>
         <v/>
       </c>
-      <c r="U13" s="75" t="str">
+      <c r="U13" s="40" t="str">
         <f>IF(_tap_day_all!CH8="","",_tap_day_all!CH8)</f>
         <v/>
       </c>
-      <c r="V13" s="75" t="str">
+      <c r="V13" s="40" t="str">
         <f>IF(_tap_day_all!BZ8="","",_tap_day_all!BZ8)</f>
         <v/>
       </c>
-      <c r="W13" s="75" t="str">
+      <c r="W13" s="40" t="str">
         <f>IF(_tap_day_all!CA8="","",_tap_day_all!CA8)</f>
         <v/>
       </c>
-      <c r="X13" s="75" t="str">
+      <c r="X13" s="40" t="str">
         <f>IF(_tap_day_all!CC8="","",_tap_day_all!CC8)</f>
         <v/>
       </c>
-      <c r="Y13" s="75" t="str">
+      <c r="Y13" s="40" t="str">
         <f>IF(_tap_day_all!CF8="","",_tap_day_all!CF8)</f>
         <v/>
       </c>
-      <c r="Z13" s="75" t="str">
+      <c r="Z13" s="40" t="str">
         <f>IF(_tap_day_all!CI8="","",_tap_day_all!CI8)</f>
         <v/>
       </c>
-      <c r="AA13" s="75" t="str">
+      <c r="AA13" s="40" t="str">
         <f>IF(_tap_day_all!CK8="","",_tap_day_all!CK8)</f>
         <v/>
       </c>
-      <c r="AB13" s="75" t="str">
+      <c r="AB13" s="40" t="str">
         <f>IF(_tap_day_all!CJ8="","",_tap_day_all!CJ8)</f>
         <v/>
       </c>
-      <c r="AC13" s="75" t="str">
+      <c r="AC13" s="40" t="str">
         <f>IF(_tap_day_all!CU8="","",_tap_day_all!CU8)</f>
         <v/>
       </c>
-      <c r="AD13" s="75" t="str">
+      <c r="AD13" s="40" t="str">
         <f>IF(_tap_day_all!CL8="","",_tap_day_all!CL8)</f>
         <v/>
       </c>
-      <c r="AE13" s="75" t="str">
+      <c r="AE13" s="40" t="str">
         <f>IF(_tap_day_all!CN8="","",_tap_day_all!CN8)</f>
         <v/>
       </c>
-      <c r="AF13" s="75" t="str">
+      <c r="AF13" s="40" t="str">
         <f>IF(_tap_day_all!CT8="","",_tap_day_all!CT8)</f>
         <v/>
       </c>
-      <c r="AG13" s="87" t="str">
+      <c r="AG13" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH13" s="87" t="str">
+      <c r="AH13" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI13" s="87" t="str">
+      <c r="AI13" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ13" s="88" t="str">
+      <c r="AJ13" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A14" s="29" t="str">
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="str">
         <f>IF(_tap_day_all!B9="","",_tap_day_all!B9)</f>
         <v/>
       </c>
-      <c r="B14" s="30" t="str">
+      <c r="B14" s="15" t="str">
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="15" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_tap_day_all!H9="","",_tap_day_all!H9)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_tap_day_all!I9="","",_tap_day_all!I9)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="33" t="str">
+      <c r="G14" s="18" t="str">
         <f>IF(_tap_day_all!R9="","",_tap_day_all!R9)</f>
         <v/>
       </c>
-      <c r="H14" s="33" t="str">
+      <c r="H14" s="18" t="str">
         <f>IF(_tap_day_all!AL9="","",_tap_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="I14" s="33" t="str">
+      <c r="I14" s="18" t="str">
         <f>IF(_tap_day_all!U9="","",_tap_day_all!U9)</f>
         <v/>
       </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="18" t="str">
         <f>IF(_tap_day_all!BO9="","",_tap_day_all!BO9)</f>
         <v/>
       </c>
-      <c r="K14" s="33" t="str">
+      <c r="K14" s="18" t="str">
         <f>IF(_tap_day_all!P9="","",_tap_day_all!P9)</f>
         <v/>
       </c>
-      <c r="L14" s="66" t="str">
+      <c r="L14" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M14" s="66" t="str">
+      <c r="M14" s="38" t="str">
         <f>IF(_tap_day_all!AF9="","",_tap_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="N14" s="33" t="str">
+      <c r="N14" s="18" t="str">
         <f>IF(_tap_day_all!Q9="","",_tap_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="O14" s="31" t="str">
+      <c r="O14" s="16" t="str">
         <f>IF(_tap_day_all!J9="","",_tap_day_all!J9)</f>
         <v/>
       </c>
-      <c r="P14" s="32" t="str">
+      <c r="P14" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q14" s="33" t="str">
+      <c r="Q14" s="18" t="str">
         <f>IF(_tap_day_all!BP9="","",_tap_day_all!BP9)</f>
         <v/>
       </c>
-      <c r="R14" s="33" t="str">
+      <c r="R14" s="18" t="str">
         <f>IF(_tap_day_all!S9="","",_tap_day_all!S9)</f>
         <v/>
       </c>
-      <c r="S14" s="75" t="str">
+      <c r="S14" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T14" s="75" t="str">
+      <c r="T14" s="40" t="str">
         <f>IF(_tap_day_all!CB9="","",_tap_day_all!CB9)</f>
         <v/>
       </c>
-      <c r="U14" s="75" t="str">
+      <c r="U14" s="40" t="str">
         <f>IF(_tap_day_all!CH9="","",_tap_day_all!CH9)</f>
         <v/>
       </c>
-      <c r="V14" s="75" t="str">
+      <c r="V14" s="40" t="str">
         <f>IF(_tap_day_all!BZ9="","",_tap_day_all!BZ9)</f>
         <v/>
       </c>
-      <c r="W14" s="75" t="str">
+      <c r="W14" s="40" t="str">
         <f>IF(_tap_day_all!CA9="","",_tap_day_all!CA9)</f>
         <v/>
       </c>
-      <c r="X14" s="75" t="str">
+      <c r="X14" s="40" t="str">
         <f>IF(_tap_day_all!CC9="","",_tap_day_all!CC9)</f>
         <v/>
       </c>
-      <c r="Y14" s="75" t="str">
+      <c r="Y14" s="40" t="str">
         <f>IF(_tap_day_all!CF9="","",_tap_day_all!CF9)</f>
         <v/>
       </c>
-      <c r="Z14" s="75" t="str">
+      <c r="Z14" s="40" t="str">
         <f>IF(_tap_day_all!CI9="","",_tap_day_all!CI9)</f>
         <v/>
       </c>
-      <c r="AA14" s="75" t="str">
+      <c r="AA14" s="40" t="str">
         <f>IF(_tap_day_all!CK9="","",_tap_day_all!CK9)</f>
         <v/>
       </c>
-      <c r="AB14" s="75" t="str">
+      <c r="AB14" s="40" t="str">
         <f>IF(_tap_day_all!CJ9="","",_tap_day_all!CJ9)</f>
         <v/>
       </c>
-      <c r="AC14" s="75" t="str">
+      <c r="AC14" s="40" t="str">
         <f>IF(_tap_day_all!CU9="","",_tap_day_all!CU9)</f>
         <v/>
       </c>
-      <c r="AD14" s="75" t="str">
+      <c r="AD14" s="40" t="str">
         <f>IF(_tap_day_all!CL9="","",_tap_day_all!CL9)</f>
         <v/>
       </c>
-      <c r="AE14" s="75" t="str">
+      <c r="AE14" s="40" t="str">
         <f>IF(_tap_day_all!CN9="","",_tap_day_all!CN9)</f>
         <v/>
       </c>
-      <c r="AF14" s="75" t="str">
+      <c r="AF14" s="40" t="str">
         <f>IF(_tap_day_all!CT9="","",_tap_day_all!CT9)</f>
         <v/>
       </c>
-      <c r="AG14" s="87" t="str">
+      <c r="AG14" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH14" s="87" t="str">
+      <c r="AH14" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI14" s="87" t="str">
+      <c r="AI14" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ14" s="88" t="str">
+      <c r="AJ14" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A15" s="29" t="str">
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="str">
         <f>IF(_tap_day_all!B10="","",_tap_day_all!B10)</f>
         <v/>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="15" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
-      <c r="D15" s="31" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_tap_day_all!H10="","",_tap_day_all!H10)</f>
         <v/>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_tap_day_all!I10="","",_tap_day_all!I10)</f>
         <v/>
       </c>
-      <c r="F15" s="32" t="str">
+      <c r="F15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="33" t="str">
+      <c r="G15" s="18" t="str">
         <f>IF(_tap_day_all!R10="","",_tap_day_all!R10)</f>
         <v/>
       </c>
-      <c r="H15" s="33" t="str">
+      <c r="H15" s="18" t="str">
         <f>IF(_tap_day_all!AL10="","",_tap_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="I15" s="33" t="str">
+      <c r="I15" s="18" t="str">
         <f>IF(_tap_day_all!U10="","",_tap_day_all!U10)</f>
         <v/>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="18" t="str">
         <f>IF(_tap_day_all!BO10="","",_tap_day_all!BO10)</f>
         <v/>
       </c>
-      <c r="K15" s="33" t="str">
+      <c r="K15" s="18" t="str">
         <f>IF(_tap_day_all!P10="","",_tap_day_all!P10)</f>
         <v/>
       </c>
-      <c r="L15" s="66" t="str">
+      <c r="L15" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M15" s="66" t="str">
+      <c r="M15" s="38" t="str">
         <f>IF(_tap_day_all!AF10="","",_tap_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="N15" s="33" t="str">
+      <c r="N15" s="18" t="str">
         <f>IF(_tap_day_all!Q10="","",_tap_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="O15" s="31" t="str">
+      <c r="O15" s="16" t="str">
         <f>IF(_tap_day_all!J10="","",_tap_day_all!J10)</f>
         <v/>
       </c>
-      <c r="P15" s="32" t="str">
+      <c r="P15" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q15" s="33" t="str">
+      <c r="Q15" s="18" t="str">
         <f>IF(_tap_day_all!BP10="","",_tap_day_all!BP10)</f>
         <v/>
       </c>
-      <c r="R15" s="33" t="str">
+      <c r="R15" s="18" t="str">
         <f>IF(_tap_day_all!S10="","",_tap_day_all!S10)</f>
         <v/>
       </c>
-      <c r="S15" s="75" t="str">
+      <c r="S15" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T15" s="75" t="str">
+      <c r="T15" s="40" t="str">
         <f>IF(_tap_day_all!CB10="","",_tap_day_all!CB10)</f>
         <v/>
       </c>
-      <c r="U15" s="75" t="str">
+      <c r="U15" s="40" t="str">
         <f>IF(_tap_day_all!CH10="","",_tap_day_all!CH10)</f>
         <v/>
       </c>
-      <c r="V15" s="75" t="str">
+      <c r="V15" s="40" t="str">
         <f>IF(_tap_day_all!BZ10="","",_tap_day_all!BZ10)</f>
         <v/>
       </c>
-      <c r="W15" s="75" t="str">
+      <c r="W15" s="40" t="str">
         <f>IF(_tap_day_all!CA10="","",_tap_day_all!CA10)</f>
         <v/>
       </c>
-      <c r="X15" s="75" t="str">
+      <c r="X15" s="40" t="str">
         <f>IF(_tap_day_all!CC10="","",_tap_day_all!CC10)</f>
         <v/>
       </c>
-      <c r="Y15" s="75" t="str">
+      <c r="Y15" s="40" t="str">
         <f>IF(_tap_day_all!CF10="","",_tap_day_all!CF10)</f>
         <v/>
       </c>
-      <c r="Z15" s="75" t="str">
+      <c r="Z15" s="40" t="str">
         <f>IF(_tap_day_all!CI10="","",_tap_day_all!CI10)</f>
         <v/>
       </c>
-      <c r="AA15" s="75" t="str">
+      <c r="AA15" s="40" t="str">
         <f>IF(_tap_day_all!CK10="","",_tap_day_all!CK10)</f>
         <v/>
       </c>
-      <c r="AB15" s="75" t="str">
+      <c r="AB15" s="40" t="str">
         <f>IF(_tap_day_all!CJ10="","",_tap_day_all!CJ10)</f>
         <v/>
       </c>
-      <c r="AC15" s="75" t="str">
+      <c r="AC15" s="40" t="str">
         <f>IF(_tap_day_all!CU10="","",_tap_day_all!CU10)</f>
         <v/>
       </c>
-      <c r="AD15" s="75" t="str">
+      <c r="AD15" s="40" t="str">
         <f>IF(_tap_day_all!CL10="","",_tap_day_all!CL10)</f>
         <v/>
       </c>
-      <c r="AE15" s="75" t="str">
+      <c r="AE15" s="40" t="str">
         <f>IF(_tap_day_all!CN10="","",_tap_day_all!CN10)</f>
         <v/>
       </c>
-      <c r="AF15" s="75" t="str">
+      <c r="AF15" s="40" t="str">
         <f>IF(_tap_day_all!CT10="","",_tap_day_all!CT10)</f>
         <v/>
       </c>
-      <c r="AG15" s="87" t="str">
+      <c r="AG15" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH15" s="87" t="str">
+      <c r="AH15" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI15" s="87" t="str">
+      <c r="AI15" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ15" s="88" t="str">
+      <c r="AJ15" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A16" s="29" t="str">
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="str">
         <f>IF(_tap_day_all!B11="","",_tap_day_all!B11)</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="15" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
-      <c r="D16" s="31" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_tap_day_all!H11="","",_tap_day_all!H11)</f>
         <v/>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_tap_day_all!I11="","",_tap_day_all!I11)</f>
         <v/>
       </c>
-      <c r="F16" s="32" t="str">
+      <c r="F16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="33" t="str">
+      <c r="G16" s="18" t="str">
         <f>IF(_tap_day_all!R11="","",_tap_day_all!R11)</f>
         <v/>
       </c>
-      <c r="H16" s="33" t="str">
+      <c r="H16" s="18" t="str">
         <f>IF(_tap_day_all!AL11="","",_tap_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="18" t="str">
         <f>IF(_tap_day_all!U11="","",_tap_day_all!U11)</f>
         <v/>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="18" t="str">
         <f>IF(_tap_day_all!BO11="","",_tap_day_all!BO11)</f>
         <v/>
       </c>
-      <c r="K16" s="33" t="str">
+      <c r="K16" s="18" t="str">
         <f>IF(_tap_day_all!P11="","",_tap_day_all!P11)</f>
         <v/>
       </c>
-      <c r="L16" s="66" t="str">
+      <c r="L16" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M16" s="66" t="str">
+      <c r="M16" s="38" t="str">
         <f>IF(_tap_day_all!AF11="","",_tap_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="18" t="str">
         <f>IF(_tap_day_all!Q11="","",_tap_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="16" t="str">
         <f>IF(_tap_day_all!J11="","",_tap_day_all!J11)</f>
         <v/>
       </c>
-      <c r="P16" s="32" t="str">
+      <c r="P16" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q16" s="33" t="str">
+      <c r="Q16" s="18" t="str">
         <f>IF(_tap_day_all!BP11="","",_tap_day_all!BP11)</f>
         <v/>
       </c>
-      <c r="R16" s="33" t="str">
+      <c r="R16" s="18" t="str">
         <f>IF(_tap_day_all!S11="","",_tap_day_all!S11)</f>
         <v/>
       </c>
-      <c r="S16" s="75" t="str">
+      <c r="S16" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T16" s="75" t="str">
+      <c r="T16" s="40" t="str">
         <f>IF(_tap_day_all!CB11="","",_tap_day_all!CB11)</f>
         <v/>
       </c>
-      <c r="U16" s="75" t="str">
+      <c r="U16" s="40" t="str">
         <f>IF(_tap_day_all!CH11="","",_tap_day_all!CH11)</f>
         <v/>
       </c>
-      <c r="V16" s="75" t="str">
+      <c r="V16" s="40" t="str">
         <f>IF(_tap_day_all!BZ11="","",_tap_day_all!BZ11)</f>
         <v/>
       </c>
-      <c r="W16" s="75" t="str">
+      <c r="W16" s="40" t="str">
         <f>IF(_tap_day_all!CA11="","",_tap_day_all!CA11)</f>
         <v/>
       </c>
-      <c r="X16" s="75" t="str">
+      <c r="X16" s="40" t="str">
         <f>IF(_tap_day_all!CC11="","",_tap_day_all!CC11)</f>
         <v/>
       </c>
-      <c r="Y16" s="75" t="str">
+      <c r="Y16" s="40" t="str">
         <f>IF(_tap_day_all!CF11="","",_tap_day_all!CF11)</f>
         <v/>
       </c>
-      <c r="Z16" s="75" t="str">
+      <c r="Z16" s="40" t="str">
         <f>IF(_tap_day_all!CI11="","",_tap_day_all!CI11)</f>
         <v/>
       </c>
-      <c r="AA16" s="75" t="str">
+      <c r="AA16" s="40" t="str">
         <f>IF(_tap_day_all!CK11="","",_tap_day_all!CK11)</f>
         <v/>
       </c>
-      <c r="AB16" s="75" t="str">
+      <c r="AB16" s="40" t="str">
         <f>IF(_tap_day_all!CJ11="","",_tap_day_all!CJ11)</f>
         <v/>
       </c>
-      <c r="AC16" s="75" t="str">
+      <c r="AC16" s="40" t="str">
         <f>IF(_tap_day_all!CU11="","",_tap_day_all!CU11)</f>
         <v/>
       </c>
-      <c r="AD16" s="75" t="str">
+      <c r="AD16" s="40" t="str">
         <f>IF(_tap_day_all!CL11="","",_tap_day_all!CL11)</f>
         <v/>
       </c>
-      <c r="AE16" s="75" t="str">
+      <c r="AE16" s="40" t="str">
         <f>IF(_tap_day_all!CN11="","",_tap_day_all!CN11)</f>
         <v/>
       </c>
-      <c r="AF16" s="75" t="str">
+      <c r="AF16" s="40" t="str">
         <f>IF(_tap_day_all!CT11="","",_tap_day_all!CT11)</f>
         <v/>
       </c>
-      <c r="AG16" s="87" t="str">
+      <c r="AG16" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH16" s="87" t="str">
+      <c r="AH16" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI16" s="87" t="str">
+      <c r="AI16" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ16" s="88" t="str">
+      <c r="AJ16" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A17" s="29" t="str">
+    <row r="17" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="str">
         <f>IF(_tap_day_all!B12="","",_tap_day_all!B12)</f>
         <v/>
       </c>
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="15" t="str">
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="15" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
-      <c r="D17" s="31" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_tap_day_all!H12="","",_tap_day_all!H12)</f>
         <v/>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_tap_day_all!I12="","",_tap_day_all!I12)</f>
         <v/>
       </c>
-      <c r="F17" s="32" t="str">
+      <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="33" t="str">
+      <c r="G17" s="18" t="str">
         <f>IF(_tap_day_all!R12="","",_tap_day_all!R12)</f>
         <v/>
       </c>
-      <c r="H17" s="33" t="str">
+      <c r="H17" s="18" t="str">
         <f>IF(_tap_day_all!AL12="","",_tap_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="18" t="str">
         <f>IF(_tap_day_all!U12="","",_tap_day_all!U12)</f>
         <v/>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="18" t="str">
         <f>IF(_tap_day_all!BO12="","",_tap_day_all!BO12)</f>
         <v/>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="18" t="str">
         <f>IF(_tap_day_all!P12="","",_tap_day_all!P12)</f>
         <v/>
       </c>
-      <c r="L17" s="66" t="str">
+      <c r="L17" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M17" s="66" t="str">
+      <c r="M17" s="38" t="str">
         <f>IF(_tap_day_all!AF12="","",_tap_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="N17" s="33" t="str">
+      <c r="N17" s="18" t="str">
         <f>IF(_tap_day_all!Q12="","",_tap_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="O17" s="31" t="str">
+      <c r="O17" s="16" t="str">
         <f>IF(_tap_day_all!J12="","",_tap_day_all!J12)</f>
         <v/>
       </c>
-      <c r="P17" s="32" t="str">
+      <c r="P17" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q17" s="33" t="str">
+      <c r="Q17" s="18" t="str">
         <f>IF(_tap_day_all!BP12="","",_tap_day_all!BP12)</f>
         <v/>
       </c>
-      <c r="R17" s="33" t="str">
+      <c r="R17" s="18" t="str">
         <f>IF(_tap_day_all!S12="","",_tap_day_all!S12)</f>
         <v/>
       </c>
-      <c r="S17" s="75" t="str">
+      <c r="S17" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T17" s="75" t="str">
+      <c r="T17" s="40" t="str">
         <f>IF(_tap_day_all!CB12="","",_tap_day_all!CB12)</f>
         <v/>
       </c>
-      <c r="U17" s="75" t="str">
+      <c r="U17" s="40" t="str">
         <f>IF(_tap_day_all!CH12="","",_tap_day_all!CH12)</f>
         <v/>
       </c>
-      <c r="V17" s="75" t="str">
+      <c r="V17" s="40" t="str">
         <f>IF(_tap_day_all!BZ12="","",_tap_day_all!BZ12)</f>
         <v/>
       </c>
-      <c r="W17" s="75" t="str">
+      <c r="W17" s="40" t="str">
         <f>IF(_tap_day_all!CA12="","",_tap_day_all!CA12)</f>
         <v/>
       </c>
-      <c r="X17" s="75" t="str">
+      <c r="X17" s="40" t="str">
         <f>IF(_tap_day_all!CC12="","",_tap_day_all!CC12)</f>
         <v/>
       </c>
-      <c r="Y17" s="75" t="str">
+      <c r="Y17" s="40" t="str">
         <f>IF(_tap_day_all!CF12="","",_tap_day_all!CF12)</f>
         <v/>
       </c>
-      <c r="Z17" s="75" t="str">
+      <c r="Z17" s="40" t="str">
         <f>IF(_tap_day_all!CI12="","",_tap_day_all!CI12)</f>
         <v/>
       </c>
-      <c r="AA17" s="75" t="str">
+      <c r="AA17" s="40" t="str">
         <f>IF(_tap_day_all!CK12="","",_tap_day_all!CK12)</f>
         <v/>
       </c>
-      <c r="AB17" s="75" t="str">
+      <c r="AB17" s="40" t="str">
         <f>IF(_tap_day_all!CJ12="","",_tap_day_all!CJ12)</f>
         <v/>
       </c>
-      <c r="AC17" s="75" t="str">
+      <c r="AC17" s="40" t="str">
         <f>IF(_tap_day_all!CU12="","",_tap_day_all!CU12)</f>
         <v/>
       </c>
-      <c r="AD17" s="75" t="str">
+      <c r="AD17" s="40" t="str">
         <f>IF(_tap_day_all!CL12="","",_tap_day_all!CL12)</f>
         <v/>
       </c>
-      <c r="AE17" s="75" t="str">
+      <c r="AE17" s="40" t="str">
         <f>IF(_tap_day_all!CN12="","",_tap_day_all!CN12)</f>
         <v/>
       </c>
-      <c r="AF17" s="75" t="str">
+      <c r="AF17" s="40" t="str">
         <f>IF(_tap_day_all!CT12="","",_tap_day_all!CT12)</f>
         <v/>
       </c>
-      <c r="AG17" s="87" t="str">
+      <c r="AG17" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH17" s="87" t="str">
+      <c r="AH17" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI17" s="87" t="str">
+      <c r="AI17" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ17" s="88" t="str">
+      <c r="AJ17" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A18" s="29" t="str">
+    <row r="18" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="str">
         <f>IF(_tap_day_all!B13="","",_tap_day_all!B13)</f>
         <v/>
       </c>
-      <c r="B18" s="30" t="str">
+      <c r="B18" s="15" t="str">
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
-      <c r="D18" s="31" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_tap_day_all!H13="","",_tap_day_all!H13)</f>
         <v/>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_tap_day_all!I13="","",_tap_day_all!I13)</f>
         <v/>
       </c>
-      <c r="F18" s="32" t="str">
+      <c r="F18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="33" t="str">
+      <c r="G18" s="18" t="str">
         <f>IF(_tap_day_all!R13="","",_tap_day_all!R13)</f>
         <v/>
       </c>
-      <c r="H18" s="33" t="str">
+      <c r="H18" s="18" t="str">
         <f>IF(_tap_day_all!AL13="","",_tap_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="18" t="str">
         <f>IF(_tap_day_all!U13="","",_tap_day_all!U13)</f>
         <v/>
       </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="18" t="str">
         <f>IF(_tap_day_all!BO13="","",_tap_day_all!BO13)</f>
         <v/>
       </c>
-      <c r="K18" s="33" t="str">
+      <c r="K18" s="18" t="str">
         <f>IF(_tap_day_all!P13="","",_tap_day_all!P13)</f>
         <v/>
       </c>
-      <c r="L18" s="66" t="str">
+      <c r="L18" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M18" s="66" t="str">
+      <c r="M18" s="38" t="str">
         <f>IF(_tap_day_all!AF13="","",_tap_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="N18" s="33" t="str">
+      <c r="N18" s="18" t="str">
         <f>IF(_tap_day_all!Q13="","",_tap_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="O18" s="31" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_tap_day_all!J13="","",_tap_day_all!J13)</f>
         <v/>
       </c>
-      <c r="P18" s="32" t="str">
+      <c r="P18" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="18" t="str">
         <f>IF(_tap_day_all!BP13="","",_tap_day_all!BP13)</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="18" t="str">
         <f>IF(_tap_day_all!S13="","",_tap_day_all!S13)</f>
         <v/>
       </c>
-      <c r="S18" s="75" t="str">
+      <c r="S18" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T18" s="75" t="str">
+      <c r="T18" s="40" t="str">
         <f>IF(_tap_day_all!CB13="","",_tap_day_all!CB13)</f>
         <v/>
       </c>
-      <c r="U18" s="75" t="str">
+      <c r="U18" s="40" t="str">
         <f>IF(_tap_day_all!CH13="","",_tap_day_all!CH13)</f>
         <v/>
       </c>
-      <c r="V18" s="75" t="str">
+      <c r="V18" s="40" t="str">
         <f>IF(_tap_day_all!BZ13="","",_tap_day_all!BZ13)</f>
         <v/>
       </c>
-      <c r="W18" s="75" t="str">
+      <c r="W18" s="40" t="str">
         <f>IF(_tap_day_all!CA13="","",_tap_day_all!CA13)</f>
         <v/>
       </c>
-      <c r="X18" s="75" t="str">
+      <c r="X18" s="40" t="str">
         <f>IF(_tap_day_all!CC13="","",_tap_day_all!CC13)</f>
         <v/>
       </c>
-      <c r="Y18" s="75" t="str">
+      <c r="Y18" s="40" t="str">
         <f>IF(_tap_day_all!CF13="","",_tap_day_all!CF13)</f>
         <v/>
       </c>
-      <c r="Z18" s="75" t="str">
+      <c r="Z18" s="40" t="str">
         <f>IF(_tap_day_all!CI13="","",_tap_day_all!CI13)</f>
         <v/>
       </c>
-      <c r="AA18" s="75" t="str">
+      <c r="AA18" s="40" t="str">
         <f>IF(_tap_day_all!CK13="","",_tap_day_all!CK13)</f>
         <v/>
       </c>
-      <c r="AB18" s="75" t="str">
+      <c r="AB18" s="40" t="str">
         <f>IF(_tap_day_all!CJ13="","",_tap_day_all!CJ13)</f>
         <v/>
       </c>
-      <c r="AC18" s="75" t="str">
+      <c r="AC18" s="40" t="str">
         <f>IF(_tap_day_all!CU13="","",_tap_day_all!CU13)</f>
         <v/>
       </c>
-      <c r="AD18" s="75" t="str">
+      <c r="AD18" s="40" t="str">
         <f>IF(_tap_day_all!CL13="","",_tap_day_all!CL13)</f>
         <v/>
       </c>
-      <c r="AE18" s="75" t="str">
+      <c r="AE18" s="40" t="str">
         <f>IF(_tap_day_all!CN13="","",_tap_day_all!CN13)</f>
         <v/>
       </c>
-      <c r="AF18" s="75" t="str">
+      <c r="AF18" s="40" t="str">
         <f>IF(_tap_day_all!CT13="","",_tap_day_all!CT13)</f>
         <v/>
       </c>
-      <c r="AG18" s="87" t="str">
+      <c r="AG18" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH18" s="87" t="str">
+      <c r="AH18" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI18" s="87" t="str">
+      <c r="AI18" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ18" s="88" t="str">
+      <c r="AJ18" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A19" s="29" t="str">
+    <row r="19" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="str">
         <f>IF(_tap_day_all!B14="","",_tap_day_all!B14)</f>
         <v/>
       </c>
-      <c r="B19" s="30" t="str">
+      <c r="B19" s="15" t="str">
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
-      <c r="D19" s="31" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_tap_day_all!H14="","",_tap_day_all!H14)</f>
         <v/>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_tap_day_all!I14="","",_tap_day_all!I14)</f>
         <v/>
       </c>
-      <c r="F19" s="32" t="str">
+      <c r="F19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="33" t="str">
+      <c r="G19" s="18" t="str">
         <f>IF(_tap_day_all!R14="","",_tap_day_all!R14)</f>
         <v/>
       </c>
-      <c r="H19" s="33" t="str">
+      <c r="H19" s="18" t="str">
         <f>IF(_tap_day_all!AL14="","",_tap_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="18" t="str">
         <f>IF(_tap_day_all!U14="","",_tap_day_all!U14)</f>
         <v/>
       </c>
-      <c r="J19" s="33" t="str">
+      <c r="J19" s="18" t="str">
         <f>IF(_tap_day_all!BO14="","",_tap_day_all!BO14)</f>
         <v/>
       </c>
-      <c r="K19" s="33" t="str">
+      <c r="K19" s="18" t="str">
         <f>IF(_tap_day_all!P14="","",_tap_day_all!P14)</f>
         <v/>
       </c>
-      <c r="L19" s="66" t="str">
+      <c r="L19" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M19" s="66" t="str">
+      <c r="M19" s="38" t="str">
         <f>IF(_tap_day_all!AF14="","",_tap_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="N19" s="33" t="str">
+      <c r="N19" s="18" t="str">
         <f>IF(_tap_day_all!Q14="","",_tap_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="O19" s="31" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_tap_day_all!J14="","",_tap_day_all!J14)</f>
         <v/>
       </c>
-      <c r="P19" s="32" t="str">
+      <c r="P19" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q19" s="33" t="str">
+      <c r="Q19" s="18" t="str">
         <f>IF(_tap_day_all!BP14="","",_tap_day_all!BP14)</f>
         <v/>
       </c>
-      <c r="R19" s="33" t="str">
+      <c r="R19" s="18" t="str">
         <f>IF(_tap_day_all!S14="","",_tap_day_all!S14)</f>
         <v/>
       </c>
-      <c r="S19" s="75" t="str">
+      <c r="S19" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T19" s="75" t="str">
+      <c r="T19" s="40" t="str">
         <f>IF(_tap_day_all!CB14="","",_tap_day_all!CB14)</f>
         <v/>
       </c>
-      <c r="U19" s="75" t="str">
+      <c r="U19" s="40" t="str">
         <f>IF(_tap_day_all!CH14="","",_tap_day_all!CH14)</f>
         <v/>
       </c>
-      <c r="V19" s="75" t="str">
+      <c r="V19" s="40" t="str">
         <f>IF(_tap_day_all!BZ14="","",_tap_day_all!BZ14)</f>
         <v/>
       </c>
-      <c r="W19" s="75" t="str">
+      <c r="W19" s="40" t="str">
         <f>IF(_tap_day_all!CA14="","",_tap_day_all!CA14)</f>
         <v/>
       </c>
-      <c r="X19" s="75" t="str">
+      <c r="X19" s="40" t="str">
         <f>IF(_tap_day_all!CC14="","",_tap_day_all!CC14)</f>
         <v/>
       </c>
-      <c r="Y19" s="75" t="str">
+      <c r="Y19" s="40" t="str">
         <f>IF(_tap_day_all!CF14="","",_tap_day_all!CF14)</f>
         <v/>
       </c>
-      <c r="Z19" s="75" t="str">
+      <c r="Z19" s="40" t="str">
         <f>IF(_tap_day_all!CI14="","",_tap_day_all!CI14)</f>
         <v/>
       </c>
-      <c r="AA19" s="75" t="str">
+      <c r="AA19" s="40" t="str">
         <f>IF(_tap_day_all!CK14="","",_tap_day_all!CK14)</f>
         <v/>
       </c>
-      <c r="AB19" s="75" t="str">
+      <c r="AB19" s="40" t="str">
         <f>IF(_tap_day_all!CJ14="","",_tap_day_all!CJ14)</f>
         <v/>
       </c>
-      <c r="AC19" s="75" t="str">
+      <c r="AC19" s="40" t="str">
         <f>IF(_tap_day_all!CU14="","",_tap_day_all!CU14)</f>
         <v/>
       </c>
-      <c r="AD19" s="75" t="str">
+      <c r="AD19" s="40" t="str">
         <f>IF(_tap_day_all!CL14="","",_tap_day_all!CL14)</f>
         <v/>
       </c>
-      <c r="AE19" s="75" t="str">
+      <c r="AE19" s="40" t="str">
         <f>IF(_tap_day_all!CN14="","",_tap_day_all!CN14)</f>
         <v/>
       </c>
-      <c r="AF19" s="75" t="str">
+      <c r="AF19" s="40" t="str">
         <f>IF(_tap_day_all!CT14="","",_tap_day_all!CT14)</f>
         <v/>
       </c>
-      <c r="AG19" s="87" t="str">
+      <c r="AG19" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH19" s="87" t="str">
+      <c r="AH19" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI19" s="87" t="str">
+      <c r="AI19" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ19" s="88" t="str">
+      <c r="AJ19" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A20" s="29" t="str">
+    <row r="20" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="str">
         <f>IF(_tap_day_all!B15="","",_tap_day_all!B15)</f>
         <v/>
       </c>
-      <c r="B20" s="30" t="str">
+      <c r="B20" s="15" t="str">
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
-      <c r="D20" s="31" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_tap_day_all!H15="","",_tap_day_all!H15)</f>
         <v/>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_tap_day_all!I15="","",_tap_day_all!I15)</f>
         <v/>
       </c>
-      <c r="F20" s="32" t="str">
+      <c r="F20" s="17" t="str">
         <f t="shared" ref="F20:F26" si="8">IFERROR((E20-D20)*60*24,"")</f>
         <v/>
       </c>
-      <c r="G20" s="33" t="str">
+      <c r="G20" s="18" t="str">
         <f>IF(_tap_day_all!R15="","",_tap_day_all!R15)</f>
         <v/>
       </c>
-      <c r="H20" s="33" t="str">
+      <c r="H20" s="18" t="str">
         <f>IF(_tap_day_all!AL15="","",_tap_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="18" t="str">
         <f>IF(_tap_day_all!U15="","",_tap_day_all!U15)</f>
         <v/>
       </c>
-      <c r="J20" s="33" t="str">
+      <c r="J20" s="18" t="str">
         <f>IF(_tap_day_all!BO15="","",_tap_day_all!BO15)</f>
         <v/>
       </c>
-      <c r="K20" s="33" t="str">
+      <c r="K20" s="18" t="str">
         <f>IF(_tap_day_all!P15="","",_tap_day_all!P15)</f>
         <v/>
       </c>
-      <c r="L20" s="66" t="str">
+      <c r="L20" s="38" t="str">
         <f t="shared" ref="L20:L26" si="9">IFERROR(I20-H20,"")</f>
         <v/>
       </c>
-      <c r="M20" s="66" t="str">
+      <c r="M20" s="38" t="str">
         <f>IF(_tap_day_all!AF15="","",_tap_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="N20" s="33" t="str">
+      <c r="N20" s="18" t="str">
         <f>IF(_tap_day_all!Q15="","",_tap_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="O20" s="31" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_tap_day_all!J15="","",_tap_day_all!J15)</f>
         <v/>
       </c>
-      <c r="P20" s="32" t="str">
+      <c r="P20" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q20" s="33" t="str">
+      <c r="Q20" s="18" t="str">
         <f>IF(_tap_day_all!BP15="","",_tap_day_all!BP15)</f>
         <v/>
       </c>
-      <c r="R20" s="33" t="str">
+      <c r="R20" s="18" t="str">
         <f>IF(_tap_day_all!S15="","",_tap_day_all!S15)</f>
         <v/>
       </c>
-      <c r="S20" s="75" t="str">
+      <c r="S20" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T20" s="75" t="str">
+      <c r="T20" s="40" t="str">
         <f>IF(_tap_day_all!CB15="","",_tap_day_all!CB15)</f>
         <v/>
       </c>
-      <c r="U20" s="75" t="str">
+      <c r="U20" s="40" t="str">
         <f>IF(_tap_day_all!CH15="","",_tap_day_all!CH15)</f>
         <v/>
       </c>
-      <c r="V20" s="75" t="str">
+      <c r="V20" s="40" t="str">
         <f>IF(_tap_day_all!BZ15="","",_tap_day_all!BZ15)</f>
         <v/>
       </c>
-      <c r="W20" s="75" t="str">
+      <c r="W20" s="40" t="str">
         <f>IF(_tap_day_all!CA15="","",_tap_day_all!CA15)</f>
         <v/>
       </c>
-      <c r="X20" s="75" t="str">
+      <c r="X20" s="40" t="str">
         <f>IF(_tap_day_all!CC15="","",_tap_day_all!CC15)</f>
         <v/>
       </c>
-      <c r="Y20" s="75" t="str">
+      <c r="Y20" s="40" t="str">
         <f>IF(_tap_day_all!CF15="","",_tap_day_all!CF15)</f>
         <v/>
       </c>
-      <c r="Z20" s="75" t="str">
+      <c r="Z20" s="40" t="str">
         <f>IF(_tap_day_all!CI15="","",_tap_day_all!CI15)</f>
         <v/>
       </c>
-      <c r="AA20" s="75" t="str">
+      <c r="AA20" s="40" t="str">
         <f>IF(_tap_day_all!CK15="","",_tap_day_all!CK15)</f>
         <v/>
       </c>
-      <c r="AB20" s="75" t="str">
+      <c r="AB20" s="40" t="str">
         <f>IF(_tap_day_all!CJ15="","",_tap_day_all!CJ15)</f>
         <v/>
       </c>
-      <c r="AC20" s="75" t="str">
+      <c r="AC20" s="40" t="str">
         <f>IF(_tap_day_all!CU15="","",_tap_day_all!CU15)</f>
         <v/>
       </c>
-      <c r="AD20" s="75" t="str">
+      <c r="AD20" s="40" t="str">
         <f>IF(_tap_day_all!CL15="","",_tap_day_all!CL15)</f>
         <v/>
       </c>
-      <c r="AE20" s="75" t="str">
+      <c r="AE20" s="40" t="str">
         <f>IF(_tap_day_all!CN15="","",_tap_day_all!CN15)</f>
         <v/>
       </c>
-      <c r="AF20" s="75" t="str">
+      <c r="AF20" s="40" t="str">
         <f>IF(_tap_day_all!CT15="","",_tap_day_all!CT15)</f>
         <v/>
       </c>
-      <c r="AG20" s="87" t="str">
+      <c r="AG20" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH20" s="87" t="str">
+      <c r="AH20" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI20" s="87" t="str">
+      <c r="AI20" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ20" s="88" t="str">
+      <c r="AJ20" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A21" s="29" t="str">
+    <row r="21" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
         <f>IF(_tap_day_all!B16="","",_tap_day_all!B16)</f>
         <v/>
       </c>
-      <c r="B21" s="30" t="str">
+      <c r="B21" s="15" t="str">
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_tap_day_all!H16="","",_tap_day_all!H16)</f>
         <v/>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_tap_day_all!I16="","",_tap_day_all!I16)</f>
         <v/>
       </c>
-      <c r="F21" s="32" t="str">
+      <c r="F21" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G21" s="33" t="str">
+      <c r="G21" s="18" t="str">
         <f>IF(_tap_day_all!R16="","",_tap_day_all!R16)</f>
         <v/>
       </c>
-      <c r="H21" s="33" t="str">
+      <c r="H21" s="18" t="str">
         <f>IF(_tap_day_all!AL16="","",_tap_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="18" t="str">
         <f>IF(_tap_day_all!U16="","",_tap_day_all!U16)</f>
         <v/>
       </c>
-      <c r="J21" s="33" t="str">
+      <c r="J21" s="18" t="str">
         <f>IF(_tap_day_all!BO16="","",_tap_day_all!BO16)</f>
         <v/>
       </c>
-      <c r="K21" s="33" t="str">
+      <c r="K21" s="18" t="str">
         <f>IF(_tap_day_all!P16="","",_tap_day_all!P16)</f>
         <v/>
       </c>
-      <c r="L21" s="66" t="str">
+      <c r="L21" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M21" s="66" t="str">
+      <c r="M21" s="38" t="str">
         <f>IF(_tap_day_all!AF16="","",_tap_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="N21" s="33" t="str">
+      <c r="N21" s="18" t="str">
         <f>IF(_tap_day_all!Q16="","",_tap_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="O21" s="31" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_tap_day_all!J16="","",_tap_day_all!J16)</f>
         <v/>
       </c>
-      <c r="P21" s="32" t="str">
+      <c r="P21" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="33" t="str">
+      <c r="Q21" s="18" t="str">
         <f>IF(_tap_day_all!BP16="","",_tap_day_all!BP16)</f>
         <v/>
       </c>
-      <c r="R21" s="33" t="str">
+      <c r="R21" s="18" t="str">
         <f>IF(_tap_day_all!S16="","",_tap_day_all!S16)</f>
         <v/>
       </c>
-      <c r="S21" s="75" t="str">
+      <c r="S21" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T21" s="75" t="str">
+      <c r="T21" s="40" t="str">
         <f>IF(_tap_day_all!CB16="","",_tap_day_all!CB16)</f>
         <v/>
       </c>
-      <c r="U21" s="75" t="str">
+      <c r="U21" s="40" t="str">
         <f>IF(_tap_day_all!CH16="","",_tap_day_all!CH16)</f>
         <v/>
       </c>
-      <c r="V21" s="75" t="str">
+      <c r="V21" s="40" t="str">
         <f>IF(_tap_day_all!BZ16="","",_tap_day_all!BZ16)</f>
         <v/>
       </c>
-      <c r="W21" s="75" t="str">
+      <c r="W21" s="40" t="str">
         <f>IF(_tap_day_all!CA16="","",_tap_day_all!CA16)</f>
         <v/>
       </c>
-      <c r="X21" s="75" t="str">
+      <c r="X21" s="40" t="str">
         <f>IF(_tap_day_all!CC16="","",_tap_day_all!CC16)</f>
         <v/>
       </c>
-      <c r="Y21" s="75" t="str">
+      <c r="Y21" s="40" t="str">
         <f>IF(_tap_day_all!CF16="","",_tap_day_all!CF16)</f>
         <v/>
       </c>
-      <c r="Z21" s="75" t="str">
+      <c r="Z21" s="40" t="str">
         <f>IF(_tap_day_all!CI16="","",_tap_day_all!CI16)</f>
         <v/>
       </c>
-      <c r="AA21" s="75" t="str">
+      <c r="AA21" s="40" t="str">
         <f>IF(_tap_day_all!CK16="","",_tap_day_all!CK16)</f>
         <v/>
       </c>
-      <c r="AB21" s="75" t="str">
+      <c r="AB21" s="40" t="str">
         <f>IF(_tap_day_all!CJ16="","",_tap_day_all!CJ16)</f>
         <v/>
       </c>
-      <c r="AC21" s="75" t="str">
+      <c r="AC21" s="40" t="str">
         <f>IF(_tap_day_all!CU16="","",_tap_day_all!CU16)</f>
         <v/>
       </c>
-      <c r="AD21" s="75" t="str">
+      <c r="AD21" s="40" t="str">
         <f>IF(_tap_day_all!CL16="","",_tap_day_all!CL16)</f>
         <v/>
       </c>
-      <c r="AE21" s="75" t="str">
+      <c r="AE21" s="40" t="str">
         <f>IF(_tap_day_all!CN16="","",_tap_day_all!CN16)</f>
         <v/>
       </c>
-      <c r="AF21" s="75" t="str">
+      <c r="AF21" s="40" t="str">
         <f>IF(_tap_day_all!CT16="","",_tap_day_all!CT16)</f>
         <v/>
       </c>
-      <c r="AG21" s="87" t="str">
+      <c r="AG21" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH21" s="87" t="str">
+      <c r="AH21" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI21" s="87" t="str">
+      <c r="AI21" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ21" s="88" t="str">
+      <c r="AJ21" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A22" s="29" t="str">
+    <row r="22" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="str">
         <f>IF(_tap_day_all!B17="","",_tap_day_all!B17)</f>
         <v/>
       </c>
-      <c r="B22" s="30" t="str">
+      <c r="B22" s="15" t="str">
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="C22" s="30" t="str">
+      <c r="C22" s="15" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
-      <c r="D22" s="31" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_tap_day_all!H17="","",_tap_day_all!H17)</f>
         <v/>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_tap_day_all!I17="","",_tap_day_all!I17)</f>
         <v/>
       </c>
-      <c r="F22" s="32" t="str">
+      <c r="F22" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="33" t="str">
+      <c r="G22" s="18" t="str">
         <f>IF(_tap_day_all!R17="","",_tap_day_all!R17)</f>
         <v/>
       </c>
-      <c r="H22" s="33" t="str">
+      <c r="H22" s="18" t="str">
         <f>IF(_tap_day_all!AL17="","",_tap_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="I22" s="33" t="str">
+      <c r="I22" s="18" t="str">
         <f>IF(_tap_day_all!U17="","",_tap_day_all!U17)</f>
         <v/>
       </c>
-      <c r="J22" s="33" t="str">
+      <c r="J22" s="18" t="str">
         <f>IF(_tap_day_all!BO17="","",_tap_day_all!BO17)</f>
         <v/>
       </c>
-      <c r="K22" s="33" t="str">
+      <c r="K22" s="18" t="str">
         <f>IF(_tap_day_all!P17="","",_tap_day_all!P17)</f>
         <v/>
       </c>
-      <c r="L22" s="66" t="str">
+      <c r="L22" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M22" s="66" t="str">
+      <c r="M22" s="38" t="str">
         <f>IF(_tap_day_all!AF17="","",_tap_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="N22" s="33" t="str">
+      <c r="N22" s="18" t="str">
         <f>IF(_tap_day_all!Q17="","",_tap_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="O22" s="31" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_tap_day_all!J17="","",_tap_day_all!J17)</f>
         <v/>
       </c>
-      <c r="P22" s="32" t="str">
+      <c r="P22" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q22" s="33" t="str">
+      <c r="Q22" s="18" t="str">
         <f>IF(_tap_day_all!BP17="","",_tap_day_all!BP17)</f>
         <v/>
       </c>
-      <c r="R22" s="33" t="str">
+      <c r="R22" s="18" t="str">
         <f>IF(_tap_day_all!S17="","",_tap_day_all!S17)</f>
         <v/>
       </c>
-      <c r="S22" s="75" t="str">
+      <c r="S22" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T22" s="75" t="str">
+      <c r="T22" s="40" t="str">
         <f>IF(_tap_day_all!CB17="","",_tap_day_all!CB17)</f>
         <v/>
       </c>
-      <c r="U22" s="75" t="str">
+      <c r="U22" s="40" t="str">
         <f>IF(_tap_day_all!CH17="","",_tap_day_all!CH17)</f>
         <v/>
       </c>
-      <c r="V22" s="75" t="str">
+      <c r="V22" s="40" t="str">
         <f>IF(_tap_day_all!BZ17="","",_tap_day_all!BZ17)</f>
         <v/>
       </c>
-      <c r="W22" s="75" t="str">
+      <c r="W22" s="40" t="str">
         <f>IF(_tap_day_all!CA17="","",_tap_day_all!CA17)</f>
         <v/>
       </c>
-      <c r="X22" s="75" t="str">
+      <c r="X22" s="40" t="str">
         <f>IF(_tap_day_all!CC17="","",_tap_day_all!CC17)</f>
         <v/>
       </c>
-      <c r="Y22" s="75" t="str">
+      <c r="Y22" s="40" t="str">
         <f>IF(_tap_day_all!CF17="","",_tap_day_all!CF17)</f>
         <v/>
       </c>
-      <c r="Z22" s="75" t="str">
+      <c r="Z22" s="40" t="str">
         <f>IF(_tap_day_all!CI17="","",_tap_day_all!CI17)</f>
         <v/>
       </c>
-      <c r="AA22" s="75" t="str">
+      <c r="AA22" s="40" t="str">
         <f>IF(_tap_day_all!CK17="","",_tap_day_all!CK17)</f>
         <v/>
       </c>
-      <c r="AB22" s="75" t="str">
+      <c r="AB22" s="40" t="str">
         <f>IF(_tap_day_all!CJ17="","",_tap_day_all!CJ17)</f>
         <v/>
       </c>
-      <c r="AC22" s="75" t="str">
+      <c r="AC22" s="40" t="str">
         <f>IF(_tap_day_all!CU17="","",_tap_day_all!CU17)</f>
         <v/>
       </c>
-      <c r="AD22" s="75" t="str">
+      <c r="AD22" s="40" t="str">
         <f>IF(_tap_day_all!CL17="","",_tap_day_all!CL17)</f>
         <v/>
       </c>
-      <c r="AE22" s="75" t="str">
+      <c r="AE22" s="40" t="str">
         <f>IF(_tap_day_all!CN17="","",_tap_day_all!CN17)</f>
         <v/>
       </c>
-      <c r="AF22" s="75" t="str">
+      <c r="AF22" s="40" t="str">
         <f>IF(_tap_day_all!CT17="","",_tap_day_all!CT17)</f>
         <v/>
       </c>
-      <c r="AG22" s="87" t="str">
+      <c r="AG22" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH22" s="87" t="str">
+      <c r="AH22" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI22" s="87" t="str">
+      <c r="AI22" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ22" s="88" t="str">
+      <c r="AJ22" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A23" s="29" t="str">
+    <row r="23" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="str">
         <f>IF(_tap_day_all!B18="","",_tap_day_all!B18)</f>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="15" t="str">
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="15" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
-      <c r="D23" s="31" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_tap_day_all!H18="","",_tap_day_all!H18)</f>
         <v/>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_tap_day_all!I18="","",_tap_day_all!I18)</f>
         <v/>
       </c>
-      <c r="F23" s="32" t="str">
+      <c r="F23" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G23" s="33" t="str">
+      <c r="G23" s="18" t="str">
         <f>IF(_tap_day_all!R18="","",_tap_day_all!R18)</f>
         <v/>
       </c>
-      <c r="H23" s="33" t="str">
+      <c r="H23" s="18" t="str">
         <f>IF(_tap_day_all!AL18="","",_tap_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="I23" s="33" t="str">
+      <c r="I23" s="18" t="str">
         <f>IF(_tap_day_all!U18="","",_tap_day_all!U18)</f>
         <v/>
       </c>
-      <c r="J23" s="33" t="str">
+      <c r="J23" s="18" t="str">
         <f>IF(_tap_day_all!BO18="","",_tap_day_all!BO18)</f>
         <v/>
       </c>
-      <c r="K23" s="33" t="str">
+      <c r="K23" s="18" t="str">
         <f>IF(_tap_day_all!P18="","",_tap_day_all!P18)</f>
         <v/>
       </c>
-      <c r="L23" s="66" t="str">
+      <c r="L23" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="66" t="str">
+      <c r="M23" s="38" t="str">
         <f>IF(_tap_day_all!AF18="","",_tap_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="N23" s="33" t="str">
+      <c r="N23" s="18" t="str">
         <f>IF(_tap_day_all!Q18="","",_tap_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="O23" s="31" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_tap_day_all!J18="","",_tap_day_all!J18)</f>
         <v/>
       </c>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="33" t="str">
+      <c r="Q23" s="18" t="str">
         <f>IF(_tap_day_all!BP18="","",_tap_day_all!BP18)</f>
         <v/>
       </c>
-      <c r="R23" s="33" t="str">
+      <c r="R23" s="18" t="str">
         <f>IF(_tap_day_all!S18="","",_tap_day_all!S18)</f>
         <v/>
       </c>
-      <c r="S23" s="75" t="str">
+      <c r="S23" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T23" s="75" t="str">
+      <c r="T23" s="40" t="str">
         <f>IF(_tap_day_all!CB18="","",_tap_day_all!CB18)</f>
         <v/>
       </c>
-      <c r="U23" s="75" t="str">
+      <c r="U23" s="40" t="str">
         <f>IF(_tap_day_all!CH18="","",_tap_day_all!CH18)</f>
         <v/>
       </c>
-      <c r="V23" s="75" t="str">
+      <c r="V23" s="40" t="str">
         <f>IF(_tap_day_all!BZ18="","",_tap_day_all!BZ18)</f>
         <v/>
       </c>
-      <c r="W23" s="75" t="str">
+      <c r="W23" s="40" t="str">
         <f>IF(_tap_day_all!CA18="","",_tap_day_all!CA18)</f>
         <v/>
       </c>
-      <c r="X23" s="75" t="str">
+      <c r="X23" s="40" t="str">
         <f>IF(_tap_day_all!CC18="","",_tap_day_all!CC18)</f>
         <v/>
       </c>
-      <c r="Y23" s="75" t="str">
+      <c r="Y23" s="40" t="str">
         <f>IF(_tap_day_all!CF18="","",_tap_day_all!CF18)</f>
         <v/>
       </c>
-      <c r="Z23" s="75" t="str">
+      <c r="Z23" s="40" t="str">
         <f>IF(_tap_day_all!CI18="","",_tap_day_all!CI18)</f>
         <v/>
       </c>
-      <c r="AA23" s="75" t="str">
+      <c r="AA23" s="40" t="str">
         <f>IF(_tap_day_all!CK18="","",_tap_day_all!CK18)</f>
         <v/>
       </c>
-      <c r="AB23" s="75" t="str">
+      <c r="AB23" s="40" t="str">
         <f>IF(_tap_day_all!CJ18="","",_tap_day_all!CJ18)</f>
         <v/>
       </c>
-      <c r="AC23" s="75" t="str">
+      <c r="AC23" s="40" t="str">
         <f>IF(_tap_day_all!CU18="","",_tap_day_all!CU18)</f>
         <v/>
       </c>
-      <c r="AD23" s="75" t="str">
+      <c r="AD23" s="40" t="str">
         <f>IF(_tap_day_all!CL18="","",_tap_day_all!CL18)</f>
         <v/>
       </c>
-      <c r="AE23" s="75" t="str">
+      <c r="AE23" s="40" t="str">
         <f>IF(_tap_day_all!CN18="","",_tap_day_all!CN18)</f>
         <v/>
       </c>
-      <c r="AF23" s="75" t="str">
+      <c r="AF23" s="40" t="str">
         <f>IF(_tap_day_all!CT18="","",_tap_day_all!CT18)</f>
         <v/>
       </c>
-      <c r="AG23" s="87" t="str">
+      <c r="AG23" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH23" s="87" t="str">
+      <c r="AH23" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI23" s="87" t="str">
+      <c r="AI23" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ23" s="88" t="str">
+      <c r="AJ23" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A24" s="29" t="str">
+    <row r="24" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="str">
         <f>IF(_tap_day_all!B19="","",_tap_day_all!B19)</f>
         <v/>
       </c>
-      <c r="B24" s="30" t="str">
+      <c r="B24" s="15" t="str">
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
-      <c r="D24" s="31" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_tap_day_all!H19="","",_tap_day_all!H19)</f>
         <v/>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_tap_day_all!I19="","",_tap_day_all!I19)</f>
         <v/>
       </c>
-      <c r="F24" s="32" t="str">
+      <c r="F24" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G24" s="33" t="str">
+      <c r="G24" s="18" t="str">
         <f>IF(_tap_day_all!R19="","",_tap_day_all!R19)</f>
         <v/>
       </c>
-      <c r="H24" s="33" t="str">
+      <c r="H24" s="18" t="str">
         <f>IF(_tap_day_all!AL19="","",_tap_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="I24" s="33" t="str">
+      <c r="I24" s="18" t="str">
         <f>IF(_tap_day_all!U19="","",_tap_day_all!U19)</f>
         <v/>
       </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="18" t="str">
         <f>IF(_tap_day_all!BO19="","",_tap_day_all!BO19)</f>
         <v/>
       </c>
-      <c r="K24" s="33" t="str">
+      <c r="K24" s="18" t="str">
         <f>IF(_tap_day_all!P19="","",_tap_day_all!P19)</f>
         <v/>
       </c>
-      <c r="L24" s="66" t="str">
+      <c r="L24" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M24" s="66" t="str">
+      <c r="M24" s="38" t="str">
         <f>IF(_tap_day_all!AF19="","",_tap_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="N24" s="33" t="str">
+      <c r="N24" s="18" t="str">
         <f>IF(_tap_day_all!Q19="","",_tap_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="O24" s="31" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_tap_day_all!J19="","",_tap_day_all!J19)</f>
         <v/>
       </c>
-      <c r="P24" s="32" t="str">
+      <c r="P24" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q24" s="33" t="str">
+      <c r="Q24" s="18" t="str">
         <f>IF(_tap_day_all!BP19="","",_tap_day_all!BP19)</f>
         <v/>
       </c>
-      <c r="R24" s="33" t="str">
+      <c r="R24" s="18" t="str">
         <f>IF(_tap_day_all!S19="","",_tap_day_all!S19)</f>
         <v/>
       </c>
-      <c r="S24" s="75" t="str">
+      <c r="S24" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T24" s="75" t="str">
+      <c r="T24" s="40" t="str">
         <f>IF(_tap_day_all!CB19="","",_tap_day_all!CB19)</f>
         <v/>
       </c>
-      <c r="U24" s="75" t="str">
+      <c r="U24" s="40" t="str">
         <f>IF(_tap_day_all!CH19="","",_tap_day_all!CH19)</f>
         <v/>
       </c>
-      <c r="V24" s="75" t="str">
+      <c r="V24" s="40" t="str">
         <f>IF(_tap_day_all!BZ19="","",_tap_day_all!BZ19)</f>
         <v/>
       </c>
-      <c r="W24" s="75" t="str">
+      <c r="W24" s="40" t="str">
         <f>IF(_tap_day_all!CA19="","",_tap_day_all!CA19)</f>
         <v/>
       </c>
-      <c r="X24" s="75" t="str">
+      <c r="X24" s="40" t="str">
         <f>IF(_tap_day_all!CC19="","",_tap_day_all!CC19)</f>
         <v/>
       </c>
-      <c r="Y24" s="75" t="str">
+      <c r="Y24" s="40" t="str">
         <f>IF(_tap_day_all!CF19="","",_tap_day_all!CF19)</f>
         <v/>
       </c>
-      <c r="Z24" s="75" t="str">
+      <c r="Z24" s="40" t="str">
         <f>IF(_tap_day_all!CI19="","",_tap_day_all!CI19)</f>
         <v/>
       </c>
-      <c r="AA24" s="75" t="str">
+      <c r="AA24" s="40" t="str">
         <f>IF(_tap_day_all!CK19="","",_tap_day_all!CK19)</f>
         <v/>
       </c>
-      <c r="AB24" s="75" t="str">
+      <c r="AB24" s="40" t="str">
         <f>IF(_tap_day_all!CJ19="","",_tap_day_all!CJ19)</f>
         <v/>
       </c>
-      <c r="AC24" s="75" t="str">
+      <c r="AC24" s="40" t="str">
         <f>IF(_tap_day_all!CU19="","",_tap_day_all!CU19)</f>
         <v/>
       </c>
-      <c r="AD24" s="75" t="str">
+      <c r="AD24" s="40" t="str">
         <f>IF(_tap_day_all!CL19="","",_tap_day_all!CL19)</f>
         <v/>
       </c>
-      <c r="AE24" s="75" t="str">
+      <c r="AE24" s="40" t="str">
         <f>IF(_tap_day_all!CN19="","",_tap_day_all!CN19)</f>
         <v/>
       </c>
-      <c r="AF24" s="75" t="str">
+      <c r="AF24" s="40" t="str">
         <f>IF(_tap_day_all!CT19="","",_tap_day_all!CT19)</f>
         <v/>
       </c>
-      <c r="AG24" s="87" t="str">
+      <c r="AG24" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH24" s="87" t="str">
+      <c r="AH24" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI24" s="87" t="str">
+      <c r="AI24" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ24" s="88" t="str">
+      <c r="AJ24" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A25" s="29" t="str">
+    <row r="25" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="str">
         <f>IF(_tap_day_all!B20="","",_tap_day_all!B20)</f>
         <v/>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="15" t="str">
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="15" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_tap_day_all!H20="","",_tap_day_all!H20)</f>
         <v/>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_tap_day_all!I20="","",_tap_day_all!I20)</f>
         <v/>
       </c>
-      <c r="F25" s="32" t="str">
+      <c r="F25" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="18" t="str">
         <f>IF(_tap_day_all!R20="","",_tap_day_all!R20)</f>
         <v/>
       </c>
-      <c r="H25" s="33" t="str">
+      <c r="H25" s="18" t="str">
         <f>IF(_tap_day_all!AL20="","",_tap_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="I25" s="33" t="str">
+      <c r="I25" s="18" t="str">
         <f>IF(_tap_day_all!U20="","",_tap_day_all!U20)</f>
         <v/>
       </c>
-      <c r="J25" s="33" t="str">
+      <c r="J25" s="18" t="str">
         <f>IF(_tap_day_all!BO20="","",_tap_day_all!BO20)</f>
         <v/>
       </c>
-      <c r="K25" s="33" t="str">
+      <c r="K25" s="18" t="str">
         <f>IF(_tap_day_all!P20="","",_tap_day_all!P20)</f>
         <v/>
       </c>
-      <c r="L25" s="66" t="str">
+      <c r="L25" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M25" s="66" t="str">
+      <c r="M25" s="38" t="str">
         <f>IF(_tap_day_all!AF20="","",_tap_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="N25" s="33" t="str">
+      <c r="N25" s="18" t="str">
         <f>IF(_tap_day_all!Q20="","",_tap_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="O25" s="31" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_tap_day_all!J20="","",_tap_day_all!J20)</f>
         <v/>
       </c>
-      <c r="P25" s="32" t="str">
+      <c r="P25" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q25" s="33" t="str">
+      <c r="Q25" s="18" t="str">
         <f>IF(_tap_day_all!BP20="","",_tap_day_all!BP20)</f>
         <v/>
       </c>
-      <c r="R25" s="33" t="str">
+      <c r="R25" s="18" t="str">
         <f>IF(_tap_day_all!S20="","",_tap_day_all!S20)</f>
         <v/>
       </c>
-      <c r="S25" s="75" t="str">
+      <c r="S25" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T25" s="75" t="str">
+      <c r="T25" s="40" t="str">
         <f>IF(_tap_day_all!CB20="","",_tap_day_all!CB20)</f>
         <v/>
       </c>
-      <c r="U25" s="75" t="str">
+      <c r="U25" s="40" t="str">
         <f>IF(_tap_day_all!CH20="","",_tap_day_all!CH20)</f>
         <v/>
       </c>
-      <c r="V25" s="75" t="str">
+      <c r="V25" s="40" t="str">
         <f>IF(_tap_day_all!BZ20="","",_tap_day_all!BZ20)</f>
         <v/>
       </c>
-      <c r="W25" s="75" t="str">
+      <c r="W25" s="40" t="str">
         <f>IF(_tap_day_all!CA20="","",_tap_day_all!CA20)</f>
         <v/>
       </c>
-      <c r="X25" s="75" t="str">
+      <c r="X25" s="40" t="str">
         <f>IF(_tap_day_all!CC20="","",_tap_day_all!CC20)</f>
         <v/>
       </c>
-      <c r="Y25" s="75" t="str">
+      <c r="Y25" s="40" t="str">
         <f>IF(_tap_day_all!CF20="","",_tap_day_all!CF20)</f>
         <v/>
       </c>
-      <c r="Z25" s="75" t="str">
+      <c r="Z25" s="40" t="str">
         <f>IF(_tap_day_all!CI20="","",_tap_day_all!CI20)</f>
         <v/>
       </c>
-      <c r="AA25" s="75" t="str">
+      <c r="AA25" s="40" t="str">
         <f>IF(_tap_day_all!CK20="","",_tap_day_all!CK20)</f>
         <v/>
       </c>
-      <c r="AB25" s="75" t="str">
+      <c r="AB25" s="40" t="str">
         <f>IF(_tap_day_all!CJ20="","",_tap_day_all!CJ20)</f>
         <v/>
       </c>
-      <c r="AC25" s="75" t="str">
+      <c r="AC25" s="40" t="str">
         <f>IF(_tap_day_all!CU20="","",_tap_day_all!CU20)</f>
         <v/>
       </c>
-      <c r="AD25" s="75" t="str">
+      <c r="AD25" s="40" t="str">
         <f>IF(_tap_day_all!CL20="","",_tap_day_all!CL20)</f>
         <v/>
       </c>
-      <c r="AE25" s="75" t="str">
+      <c r="AE25" s="40" t="str">
         <f>IF(_tap_day_all!CN20="","",_tap_day_all!CN20)</f>
         <v/>
       </c>
-      <c r="AF25" s="75" t="str">
+      <c r="AF25" s="40" t="str">
         <f>IF(_tap_day_all!CT20="","",_tap_day_all!CT20)</f>
         <v/>
       </c>
-      <c r="AG25" s="87" t="str">
+      <c r="AG25" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH25" s="87" t="str">
+      <c r="AH25" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI25" s="87" t="str">
+      <c r="AI25" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ25" s="88" t="str">
+      <c r="AJ25" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A26" s="34" t="str">
+    <row r="26" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="str">
         <f>IF(_tap_day_all!B21="","",_tap_day_all!B21)</f>
         <v/>
       </c>
-      <c r="B26" s="35" t="str">
+      <c r="B26" s="20" t="str">
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="C26" s="35" t="str">
+      <c r="C26" s="20" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
-      <c r="D26" s="36" t="str">
+      <c r="D26" s="21" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="E26" s="36" t="str">
+      <c r="E26" s="21" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
-      <c r="F26" s="37" t="str">
+      <c r="F26" s="22" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G26" s="37" t="str">
+      <c r="G26" s="22" t="str">
         <f>IF(_tap_day_all!R21="","",_tap_day_all!R21)</f>
         <v/>
       </c>
-      <c r="H26" s="33" t="str">
+      <c r="H26" s="18" t="str">
         <f>IF(_tap_day_all!AL21="","",_tap_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="I26" s="37" t="str">
+      <c r="I26" s="22" t="str">
         <f>IF(_tap_day_all!U21="","",_tap_day_all!U21)</f>
         <v/>
       </c>
-      <c r="J26" s="37" t="str">
+      <c r="J26" s="22" t="str">
         <f>IF(_tap_day_all!BO21="","",_tap_day_all!BO21)</f>
         <v/>
       </c>
-      <c r="K26" s="37" t="str">
+      <c r="K26" s="22" t="str">
         <f>IF(_tap_day_all!P21="","",_tap_day_all!P21)</f>
         <v/>
       </c>
-      <c r="L26" s="45" t="str">
+      <c r="L26" s="26" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M26" s="45" t="str">
+      <c r="M26" s="26" t="str">
         <f>IF(_tap_day_all!AF21="","",_tap_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="N26" s="37" t="str">
+      <c r="N26" s="22" t="str">
         <f>IF(_tap_day_all!Q21="","",_tap_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="O26" s="36" t="str">
+      <c r="O26" s="21" t="str">
         <f>IF(_tap_day_all!J21="","",_tap_day_all!J21)</f>
         <v/>
       </c>
-      <c r="P26" s="47" t="str">
+      <c r="P26" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q26" s="33" t="str">
+      <c r="Q26" s="18" t="str">
         <f>IF(_tap_day_all!BP21="","",_tap_day_all!BP21)</f>
         <v/>
       </c>
-      <c r="R26" s="33" t="str">
+      <c r="R26" s="18" t="str">
         <f>IF(_tap_day_all!S21="","",_tap_day_all!S21)</f>
         <v/>
       </c>
-      <c r="S26" s="75" t="str">
+      <c r="S26" s="40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T26" s="76" t="str">
+      <c r="T26" s="41" t="str">
         <f>IF(_tap_day_all!CB21="","",_tap_day_all!CB21)</f>
         <v/>
       </c>
-      <c r="U26" s="76" t="str">
+      <c r="U26" s="41" t="str">
         <f>IF(_tap_day_all!CH21="","",_tap_day_all!CH21)</f>
         <v/>
       </c>
-      <c r="V26" s="76" t="str">
+      <c r="V26" s="41" t="str">
         <f>IF(_tap_day_all!BZ21="","",_tap_day_all!BZ21)</f>
         <v/>
       </c>
-      <c r="W26" s="76" t="str">
+      <c r="W26" s="41" t="str">
         <f>IF(_tap_day_all!CA21="","",_tap_day_all!CA21)</f>
         <v/>
       </c>
-      <c r="X26" s="76" t="str">
+      <c r="X26" s="41" t="str">
         <f>IF(_tap_day_all!CC21="","",_tap_day_all!CC21)</f>
         <v/>
       </c>
-      <c r="Y26" s="76" t="str">
+      <c r="Y26" s="41" t="str">
         <f>IF(_tap_day_all!CF21="","",_tap_day_all!CF21)</f>
         <v/>
       </c>
-      <c r="Z26" s="76" t="str">
+      <c r="Z26" s="41" t="str">
         <f>IF(_tap_day_all!CI21="","",_tap_day_all!CI21)</f>
         <v/>
       </c>
-      <c r="AA26" s="76" t="str">
+      <c r="AA26" s="41" t="str">
         <f>IF(_tap_day_all!CK21="","",_tap_day_all!CK21)</f>
         <v/>
       </c>
-      <c r="AB26" s="76" t="str">
+      <c r="AB26" s="41" t="str">
         <f>IF(_tap_day_all!CJ21="","",_tap_day_all!CJ21)</f>
         <v/>
       </c>
-      <c r="AC26" s="76" t="str">
+      <c r="AC26" s="41" t="str">
         <f>IF(_tap_day_all!CU21="","",_tap_day_all!CU21)</f>
         <v/>
       </c>
-      <c r="AD26" s="76" t="str">
+      <c r="AD26" s="41" t="str">
         <f>IF(_tap_day_all!CL21="","",_tap_day_all!CL21)</f>
         <v/>
       </c>
-      <c r="AE26" s="76" t="str">
+      <c r="AE26" s="41" t="str">
         <f>IF(_tap_day_all!CN21="","",_tap_day_all!CN21)</f>
         <v/>
       </c>
-      <c r="AF26" s="76" t="str">
+      <c r="AF26" s="41" t="str">
         <f>IF(_tap_day_all!CT21="","",_tap_day_all!CT21)</f>
         <v/>
       </c>
-      <c r="AG26" s="89" t="str">
+      <c r="AG26" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH26" s="89" t="str">
+      <c r="AH26" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI26" s="89" t="str">
+      <c r="AI26" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ26" s="90" t="str">
+      <c r="AJ26" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42">
+      <c r="B27" s="65"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25">
         <f>SUM(F7:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="25">
         <f t="shared" ref="G27:L27" si="10">SUM(G7:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L27" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="39">
         <f t="shared" ref="M27:N27" si="11">SUM(M7:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="67">
+      <c r="N27" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O27" s="67"/>
-      <c r="P27" s="42">
+      <c r="O27" s="39"/>
+      <c r="P27" s="25">
         <f>SUM(P7:P26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="67">
+      <c r="Q27" s="39">
         <f>SUM(Q7:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="67">
+      <c r="R27" s="39">
         <f>SUM(R7:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="67">
+      <c r="S27" s="39">
         <f>SUM(S7:S26)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="91"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="49"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47" t="str">
+      <c r="B28" s="67"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="str">
         <f t="shared" ref="F28:K28" si="12">IFERROR(AVERAGE(F7:F26),"")</f>
         <v/>
       </c>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="28" t="str">
         <f t="shared" ref="G28:H28" si="13">IFERROR(AVERAGE(G7:G26),"")</f>
         <v/>
       </c>
-      <c r="H28" s="47" t="str">
+      <c r="H28" s="28" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I28" s="37" t="str">
+      <c r="I28" s="22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J28" s="37" t="str">
+      <c r="J28" s="22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K28" s="37" t="str">
+      <c r="K28" s="22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L28" s="37" t="str">
+      <c r="L28" s="22" t="str">
         <f t="shared" ref="L28:N28" si="14">IFERROR(AVERAGE(L7:L26),"")</f>
         <v/>
       </c>
-      <c r="M28" s="37" t="str">
+      <c r="M28" s="22" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N28" s="37" t="str">
+      <c r="N28" s="22" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="47" t="str">
+      <c r="O28" s="22"/>
+      <c r="P28" s="28" t="str">
         <f t="shared" ref="P28:AJ28" si="15">IFERROR(AVERAGE(P7:P26),"")</f>
         <v/>
       </c>
-      <c r="Q28" s="37" t="str">
+      <c r="Q28" s="22" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="R28" s="37" t="str">
+      <c r="R28" s="22" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="22" t="str">
         <f t="shared" ref="S28" si="16">IFERROR(AVERAGE(S7:S26),"")</f>
         <v/>
       </c>
-      <c r="T28" s="76" t="str">
+      <c r="T28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="U28" s="76" t="str">
+      <c r="U28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="V28" s="76" t="str">
+      <c r="V28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="W28" s="76" t="str">
+      <c r="W28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X28" s="76" t="str">
+      <c r="X28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Y28" s="76" t="str">
+      <c r="Y28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z28" s="76" t="str">
+      <c r="Z28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AA28" s="76" t="str">
+      <c r="AA28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AB28" s="76" t="str">
+      <c r="AB28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AC28" s="76" t="str">
+      <c r="AC28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AD28" s="76" t="str">
+      <c r="AD28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AE28" s="76" t="str">
+      <c r="AE28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AF28" s="76" t="str">
+      <c r="AF28" s="41" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG28" s="89" t="str">
+      <c r="AG28" s="47" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AH28" s="89" t="str">
+      <c r="AH28" s="47" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AI28" s="89" t="str">
+      <c r="AI28" s="47" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AJ28" s="90" t="str">
+      <c r="AJ28" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50">
+      <c r="B29" s="53"/>
+      <c r="C29" s="29">
         <v>1</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="30">
         <f>SUMIF(C7:C26,1,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="1:36">
+    <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="56">
+      <c r="C30" s="33">
         <v>2</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="34">
         <f>SUMIF(C7:C26,2,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="1:36">
+    <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="56">
+      <c r="C31" s="33">
         <v>3</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="34">
         <f>SUMIF(C7:C26,3,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="1:36">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="46">
+    <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="27">
         <v>4</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="36">
         <f>SUMIF(C7:C26,4,K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5971,16 +5382,6 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:Z3"/>
     <mergeCell ref="AA3:AJ3"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O4:O5"/>
@@ -5989,30 +5390,39 @@
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="A29:B32"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="CW1" sqref="CW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -6318,39 +5728,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -6359,7 +5767,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\8高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="出铁作业日报表" sheetId="5" r:id="rId1"/>
     <sheet name="_tap_day_all" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1196,6 +1196,81 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,24 +1295,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,69 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1641,38 +1641,38 @@
     <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78" t="str">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="52" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
@@ -1682,129 +1682,129 @@
       <c r="AJ1" s="4"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="83"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="57"/>
     </row>
     <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="62" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="62" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="89" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="92" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="86" t="s">
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="95"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="69"/>
     </row>
     <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="72" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1814,9 +1814,9 @@
       <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="58" t="s">
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -1870,25 +1870,25 @@
       <c r="AF4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="96" t="s">
+      <c r="AG4" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="96" t="s">
+      <c r="AH4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="96" t="s">
+      <c r="AI4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="37" t="s">
         <v>38</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="AF5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="51"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="76"/>
     </row>
     <row r="6" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -4988,10 +4988,10 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -5067,10 +5067,10 @@
       <c r="AJ27" s="49"/>
     </row>
     <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -5197,10 +5197,10 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="29">
         <v>1</v>
       </c>
@@ -5242,8 +5242,8 @@
       <c r="AJ29" s="31"/>
     </row>
     <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="33">
         <v>2</v>
       </c>
@@ -5285,8 +5285,8 @@
       <c r="AJ30" s="31"/>
     </row>
     <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="33">
         <v>3</v>
       </c>
@@ -5328,8 +5328,8 @@
       <c r="AJ31" s="31"/>
     </row>
     <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="27">
         <v>4</v>
       </c>
@@ -5372,6 +5372,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="C1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="C2:S2"/>
@@ -5388,18 +5400,6 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="A29:B32"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -842,6 +842,88 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,88 +969,6 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,31 +1271,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36" t="str">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="64" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1304,103 +1304,103 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="58" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="60" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="43" t="s">
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="57" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="45" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1410,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1451,22 +1451,22 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1527,11 +1527,11 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-    </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+    </row>
+    <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1624,11 +1624,11 @@
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="D7" s="74" t="str">
+      <c r="D7" s="34" t="str">
         <f>IF(_tap_day_all!D2="","",_tap_day_all!D2)</f>
         <v/>
       </c>
-      <c r="E7" s="74" t="str">
+      <c r="E7" s="34" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
@@ -1738,11 +1738,11 @@
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="D8" s="74" t="str">
+      <c r="D8" s="34" t="str">
         <f>IF(_tap_day_all!D3="","",_tap_day_all!D3)</f>
         <v/>
       </c>
-      <c r="E8" s="74" t="str">
+      <c r="E8" s="34" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
@@ -1852,11 +1852,11 @@
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="74" t="str">
+      <c r="D9" s="34" t="str">
         <f>IF(_tap_day_all!D4="","",_tap_day_all!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="74" t="str">
+      <c r="E9" s="34" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
@@ -1966,11 +1966,11 @@
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="D10" s="74" t="str">
+      <c r="D10" s="34" t="str">
         <f>IF(_tap_day_all!D5="","",_tap_day_all!D5)</f>
         <v/>
       </c>
-      <c r="E10" s="74" t="str">
+      <c r="E10" s="34" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
@@ -2080,11 +2080,11 @@
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="D11" s="74" t="str">
+      <c r="D11" s="34" t="str">
         <f>IF(_tap_day_all!D6="","",_tap_day_all!D6)</f>
         <v/>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="E11" s="34" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
@@ -2194,11 +2194,11 @@
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="D12" s="74" t="str">
+      <c r="D12" s="34" t="str">
         <f>IF(_tap_day_all!D7="","",_tap_day_all!D7)</f>
         <v/>
       </c>
-      <c r="E12" s="74" t="str">
+      <c r="E12" s="34" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
@@ -2308,11 +2308,11 @@
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="D13" s="74" t="str">
+      <c r="D13" s="34" t="str">
         <f>IF(_tap_day_all!D8="","",_tap_day_all!D8)</f>
         <v/>
       </c>
-      <c r="E13" s="74" t="str">
+      <c r="E13" s="34" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
@@ -2422,11 +2422,11 @@
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="D14" s="74" t="str">
+      <c r="D14" s="34" t="str">
         <f>IF(_tap_day_all!D9="","",_tap_day_all!D9)</f>
         <v/>
       </c>
-      <c r="E14" s="74" t="str">
+      <c r="E14" s="34" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
@@ -2536,11 +2536,11 @@
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="D15" s="74" t="str">
+      <c r="D15" s="34" t="str">
         <f>IF(_tap_day_all!D10="","",_tap_day_all!D10)</f>
         <v/>
       </c>
-      <c r="E15" s="74" t="str">
+      <c r="E15" s="34" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
@@ -2650,11 +2650,11 @@
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="D16" s="74" t="str">
+      <c r="D16" s="34" t="str">
         <f>IF(_tap_day_all!D11="","",_tap_day_all!D11)</f>
         <v/>
       </c>
-      <c r="E16" s="74" t="str">
+      <c r="E16" s="34" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
@@ -2764,11 +2764,11 @@
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="D17" s="74" t="str">
+      <c r="D17" s="34" t="str">
         <f>IF(_tap_day_all!D12="","",_tap_day_all!D12)</f>
         <v/>
       </c>
-      <c r="E17" s="74" t="str">
+      <c r="E17" s="34" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
@@ -2878,11 +2878,11 @@
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="D18" s="74" t="str">
+      <c r="D18" s="34" t="str">
         <f>IF(_tap_day_all!D13="","",_tap_day_all!D13)</f>
         <v/>
       </c>
-      <c r="E18" s="74" t="str">
+      <c r="E18" s="34" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
@@ -2992,11 +2992,11 @@
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="D19" s="74" t="str">
+      <c r="D19" s="34" t="str">
         <f>IF(_tap_day_all!D14="","",_tap_day_all!D14)</f>
         <v/>
       </c>
-      <c r="E19" s="74" t="str">
+      <c r="E19" s="34" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
@@ -3106,11 +3106,11 @@
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="D20" s="74" t="str">
+      <c r="D20" s="34" t="str">
         <f>IF(_tap_day_all!D15="","",_tap_day_all!D15)</f>
         <v/>
       </c>
-      <c r="E20" s="74" t="str">
+      <c r="E20" s="34" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
@@ -3220,11 +3220,11 @@
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="D21" s="74" t="str">
+      <c r="D21" s="34" t="str">
         <f>IF(_tap_day_all!D16="","",_tap_day_all!D16)</f>
         <v/>
       </c>
-      <c r="E21" s="74" t="str">
+      <c r="E21" s="34" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
@@ -3334,11 +3334,11 @@
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="D22" s="74" t="str">
+      <c r="D22" s="34" t="str">
         <f>IF(_tap_day_all!D17="","",_tap_day_all!D17)</f>
         <v/>
       </c>
-      <c r="E22" s="74" t="str">
+      <c r="E22" s="34" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
@@ -3448,11 +3448,11 @@
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="D23" s="74" t="str">
+      <c r="D23" s="34" t="str">
         <f>IF(_tap_day_all!D18="","",_tap_day_all!D18)</f>
         <v/>
       </c>
-      <c r="E23" s="74" t="str">
+      <c r="E23" s="34" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
@@ -3562,11 +3562,11 @@
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="D24" s="74" t="str">
+      <c r="D24" s="34" t="str">
         <f>IF(_tap_day_all!D19="","",_tap_day_all!D19)</f>
         <v/>
       </c>
-      <c r="E24" s="74" t="str">
+      <c r="E24" s="34" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
@@ -3676,11 +3676,11 @@
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="D25" s="74" t="str">
+      <c r="D25" s="34" t="str">
         <f>IF(_tap_day_all!D20="","",_tap_day_all!D20)</f>
         <v/>
       </c>
-      <c r="E25" s="74" t="str">
+      <c r="E25" s="34" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
@@ -3790,11 +3790,11 @@
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="D26" s="75" t="str">
+      <c r="D26" s="35" t="str">
         <f>IF(_tap_day_all!D21="","",_tap_day_all!D21)</f>
         <v/>
       </c>
-      <c r="E26" s="75" t="str">
+      <c r="E26" s="35" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
@@ -3892,10 +3892,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
@@ -4002,10 +4002,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="15" t="str">
         <f t="shared" ref="C28:F28" si="3">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
@@ -4112,10 +4112,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
@@ -4149,8 +4149,8 @@
       <c r="AB29" s="18"/>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="20">
         <v>2</v>
       </c>
@@ -4184,8 +4184,8 @@
       <c r="AB30" s="18"/>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="20">
         <v>3</v>
       </c>
@@ -4219,8 +4219,8 @@
       <c r="AB31" s="18"/>
     </row>
     <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="14">
         <v>4</v>
       </c>
@@ -4255,6 +4255,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:AB3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -4269,14 +4277,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AB2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4387,193 +4387,193 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="33"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="33"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -372,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -728,24 +728,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -828,16 +815,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,6 +830,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,51 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,7 +1237,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,31 +1261,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64" t="str">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1304,103 +1294,103 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="48" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="71" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1400,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1451,22 +1441,22 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1527,9 +1517,9 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
     </row>
     <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1624,11 +1614,11 @@
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="32" t="str">
         <f>IF(_tap_day_all!D2="","",_tap_day_all!D2)</f>
         <v/>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="32" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
@@ -1656,72 +1646,72 @@
         <f>IF(_tap_day_all!K2="","",_tap_day_all!K2)</f>
         <v/>
       </c>
-      <c r="L7" s="27" t="str">
+      <c r="L7" s="35" t="str">
         <f>IF(_tap_day_all!L2="","",_tap_day_all!L2)</f>
         <v/>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(_tap_day_all!M2="","",_tap_day_all!M2)</f>
+        <f>IF(_tap_day_all!M2="","",ROUND(_tap_day_all!M2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N7" s="27" t="str">
-        <f>IF(_tap_day_all!N2="","",_tap_day_all!N2)</f>
+        <f>IF(_tap_day_all!N2="","",ROUND(_tap_day_all!N2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O7" s="27" t="str">
-        <f>IF(_tap_day_all!O2="","",_tap_day_all!O2)</f>
+        <f>IF(_tap_day_all!O2="","",ROUND(_tap_day_all!O2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P7" s="27" t="str">
-        <f>IF(_tap_day_all!P2="","",_tap_day_all!P2)</f>
+        <f>IF(_tap_day_all!P2="","",ROUND(_tap_day_all!P2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q7" s="27" t="str">
-        <f>IF(_tap_day_all!Q2="","",_tap_day_all!Q2)</f>
+        <f>IF(_tap_day_all!Q2="","",ROUND(_tap_day_all!Q2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R7" s="27" t="str">
-        <f>IF(_tap_day_all!R2="","",_tap_day_all!R2)</f>
+        <f>IF(_tap_day_all!R2="","",ROUND(_tap_day_all!R2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S7" s="27" t="str">
-        <f>IF(_tap_day_all!S2="","",_tap_day_all!S2)</f>
+        <f>IF(_tap_day_all!S2="","",ROUND(_tap_day_all!S2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T7" s="27" t="str">
-        <f>IF(_tap_day_all!T2="","",_tap_day_all!T2)</f>
+        <f>IF(_tap_day_all!T2="","",ROUND(_tap_day_all!T2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U7" s="27" t="str">
-        <f>IF(_tap_day_all!U2="","",_tap_day_all!U2)</f>
+        <f>IF(_tap_day_all!U2="","",ROUND(_tap_day_all!U2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V7" s="27" t="str">
-        <f>IF(_tap_day_all!V2="","",_tap_day_all!V2)</f>
+        <f>IF(_tap_day_all!V2="","",ROUND(_tap_day_all!V2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W7" s="27" t="str">
-        <f>IF(_tap_day_all!W2="","",_tap_day_all!W2)</f>
+        <f>IF(_tap_day_all!W2="","",ROUND(_tap_day_all!W2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X7" s="27" t="str">
-        <f>IF(_tap_day_all!X2="","",_tap_day_all!X2)</f>
+        <f>IF(_tap_day_all!X2="","",ROUND(_tap_day_all!X2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y7" s="27" t="str">
-        <f>IF(_tap_day_all!Y2="","",_tap_day_all!Y2)</f>
+        <f>IF(_tap_day_all!Y2="","",ROUND(_tap_day_all!Y2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z7" s="27" t="str">
-        <f>IF(_tap_day_all!Z2="","",_tap_day_all!Z2)</f>
+        <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA7" s="27" t="str">
-        <f>IF(_tap_day_all!AA2="","",_tap_day_all!AA2)</f>
-        <v/>
-      </c>
-      <c r="AB7" s="28" t="str">
-        <f>IF(_tap_day_all!AB2="","",_tap_day_all!AB2)</f>
+        <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="27" t="str">
+        <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -1738,11 +1728,11 @@
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="32" t="str">
         <f>IF(_tap_day_all!D3="","",_tap_day_all!D3)</f>
         <v/>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="32" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
@@ -1770,72 +1760,72 @@
         <f>IF(_tap_day_all!K3="","",_tap_day_all!K3)</f>
         <v/>
       </c>
-      <c r="L8" s="27" t="str">
+      <c r="L8" s="35" t="str">
         <f>IF(_tap_day_all!L3="","",_tap_day_all!L3)</f>
         <v/>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(_tap_day_all!M3="","",_tap_day_all!M3)</f>
+        <f>IF(_tap_day_all!M3="","",ROUND(_tap_day_all!M3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N8" s="27" t="str">
-        <f>IF(_tap_day_all!N3="","",_tap_day_all!N3)</f>
+        <f>IF(_tap_day_all!N3="","",ROUND(_tap_day_all!N3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O8" s="27" t="str">
-        <f>IF(_tap_day_all!O3="","",_tap_day_all!O3)</f>
+        <f>IF(_tap_day_all!O3="","",ROUND(_tap_day_all!O3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P8" s="27" t="str">
-        <f>IF(_tap_day_all!P3="","",_tap_day_all!P3)</f>
+        <f>IF(_tap_day_all!P3="","",ROUND(_tap_day_all!P3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q8" s="27" t="str">
-        <f>IF(_tap_day_all!Q3="","",_tap_day_all!Q3)</f>
+        <f>IF(_tap_day_all!Q3="","",ROUND(_tap_day_all!Q3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R8" s="27" t="str">
-        <f>IF(_tap_day_all!R3="","",_tap_day_all!R3)</f>
+        <f>IF(_tap_day_all!R3="","",ROUND(_tap_day_all!R3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S8" s="27" t="str">
-        <f>IF(_tap_day_all!S3="","",_tap_day_all!S3)</f>
+        <f>IF(_tap_day_all!S3="","",ROUND(_tap_day_all!S3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T8" s="27" t="str">
-        <f>IF(_tap_day_all!T3="","",_tap_day_all!T3)</f>
+        <f>IF(_tap_day_all!T3="","",ROUND(_tap_day_all!T3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U8" s="27" t="str">
-        <f>IF(_tap_day_all!U3="","",_tap_day_all!U3)</f>
+        <f>IF(_tap_day_all!U3="","",ROUND(_tap_day_all!U3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V8" s="27" t="str">
-        <f>IF(_tap_day_all!V3="","",_tap_day_all!V3)</f>
+        <f>IF(_tap_day_all!V3="","",ROUND(_tap_day_all!V3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W8" s="27" t="str">
-        <f>IF(_tap_day_all!W3="","",_tap_day_all!W3)</f>
+        <f>IF(_tap_day_all!W3="","",ROUND(_tap_day_all!W3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X8" s="27" t="str">
-        <f>IF(_tap_day_all!X3="","",_tap_day_all!X3)</f>
+        <f>IF(_tap_day_all!X3="","",ROUND(_tap_day_all!X3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y8" s="27" t="str">
-        <f>IF(_tap_day_all!Y3="","",_tap_day_all!Y3)</f>
+        <f>IF(_tap_day_all!Y3="","",ROUND(_tap_day_all!Y3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z8" s="27" t="str">
-        <f>IF(_tap_day_all!Z3="","",_tap_day_all!Z3)</f>
+        <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA8" s="27" t="str">
-        <f>IF(_tap_day_all!AA3="","",_tap_day_all!AA3)</f>
-        <v/>
-      </c>
-      <c r="AB8" s="28" t="str">
-        <f>IF(_tap_day_all!AB3="","",_tap_day_all!AB3)</f>
+        <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="27" t="str">
+        <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -1852,11 +1842,11 @@
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="32" t="str">
         <f>IF(_tap_day_all!D4="","",_tap_day_all!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="32" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
@@ -1884,72 +1874,72 @@
         <f>IF(_tap_day_all!K4="","",_tap_day_all!K4)</f>
         <v/>
       </c>
-      <c r="L9" s="27" t="str">
+      <c r="L9" s="35" t="str">
         <f>IF(_tap_day_all!L4="","",_tap_day_all!L4)</f>
         <v/>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(_tap_day_all!M4="","",_tap_day_all!M4)</f>
+        <f>IF(_tap_day_all!M4="","",ROUND(_tap_day_all!M4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N9" s="27" t="str">
-        <f>IF(_tap_day_all!N4="","",_tap_day_all!N4)</f>
+        <f>IF(_tap_day_all!N4="","",ROUND(_tap_day_all!N4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O9" s="27" t="str">
-        <f>IF(_tap_day_all!O4="","",_tap_day_all!O4)</f>
+        <f>IF(_tap_day_all!O4="","",ROUND(_tap_day_all!O4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P9" s="27" t="str">
-        <f>IF(_tap_day_all!P4="","",_tap_day_all!P4)</f>
+        <f>IF(_tap_day_all!P4="","",ROUND(_tap_day_all!P4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q9" s="27" t="str">
-        <f>IF(_tap_day_all!Q4="","",_tap_day_all!Q4)</f>
+        <f>IF(_tap_day_all!Q4="","",ROUND(_tap_day_all!Q4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R9" s="27" t="str">
-        <f>IF(_tap_day_all!R4="","",_tap_day_all!R4)</f>
+        <f>IF(_tap_day_all!R4="","",ROUND(_tap_day_all!R4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S9" s="27" t="str">
-        <f>IF(_tap_day_all!S4="","",_tap_day_all!S4)</f>
+        <f>IF(_tap_day_all!S4="","",ROUND(_tap_day_all!S4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T9" s="27" t="str">
-        <f>IF(_tap_day_all!T4="","",_tap_day_all!T4)</f>
+        <f>IF(_tap_day_all!T4="","",ROUND(_tap_day_all!T4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U9" s="27" t="str">
-        <f>IF(_tap_day_all!U4="","",_tap_day_all!U4)</f>
+        <f>IF(_tap_day_all!U4="","",ROUND(_tap_day_all!U4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V9" s="27" t="str">
-        <f>IF(_tap_day_all!V4="","",_tap_day_all!V4)</f>
+        <f>IF(_tap_day_all!V4="","",ROUND(_tap_day_all!V4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W9" s="27" t="str">
-        <f>IF(_tap_day_all!W4="","",_tap_day_all!W4)</f>
+        <f>IF(_tap_day_all!W4="","",ROUND(_tap_day_all!W4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X9" s="27" t="str">
-        <f>IF(_tap_day_all!X4="","",_tap_day_all!X4)</f>
+        <f>IF(_tap_day_all!X4="","",ROUND(_tap_day_all!X4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y9" s="27" t="str">
-        <f>IF(_tap_day_all!Y4="","",_tap_day_all!Y4)</f>
+        <f>IF(_tap_day_all!Y4="","",ROUND(_tap_day_all!Y4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z9" s="27" t="str">
-        <f>IF(_tap_day_all!Z4="","",_tap_day_all!Z4)</f>
+        <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA9" s="27" t="str">
-        <f>IF(_tap_day_all!AA4="","",_tap_day_all!AA4)</f>
-        <v/>
-      </c>
-      <c r="AB9" s="28" t="str">
-        <f>IF(_tap_day_all!AB4="","",_tap_day_all!AB4)</f>
+        <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="27" t="str">
+        <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -1966,11 +1956,11 @@
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="32" t="str">
         <f>IF(_tap_day_all!D5="","",_tap_day_all!D5)</f>
         <v/>
       </c>
-      <c r="E10" s="34" t="str">
+      <c r="E10" s="32" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
@@ -1998,72 +1988,72 @@
         <f>IF(_tap_day_all!K5="","",_tap_day_all!K5)</f>
         <v/>
       </c>
-      <c r="L10" s="27" t="str">
+      <c r="L10" s="35" t="str">
         <f>IF(_tap_day_all!L5="","",_tap_day_all!L5)</f>
         <v/>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(_tap_day_all!M5="","",_tap_day_all!M5)</f>
+        <f>IF(_tap_day_all!M5="","",ROUND(_tap_day_all!M5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N10" s="27" t="str">
-        <f>IF(_tap_day_all!N5="","",_tap_day_all!N5)</f>
+        <f>IF(_tap_day_all!N5="","",ROUND(_tap_day_all!N5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O10" s="27" t="str">
-        <f>IF(_tap_day_all!O5="","",_tap_day_all!O5)</f>
+        <f>IF(_tap_day_all!O5="","",ROUND(_tap_day_all!O5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P10" s="27" t="str">
-        <f>IF(_tap_day_all!P5="","",_tap_day_all!P5)</f>
+        <f>IF(_tap_day_all!P5="","",ROUND(_tap_day_all!P5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q10" s="27" t="str">
-        <f>IF(_tap_day_all!Q5="","",_tap_day_all!Q5)</f>
+        <f>IF(_tap_day_all!Q5="","",ROUND(_tap_day_all!Q5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R10" s="27" t="str">
-        <f>IF(_tap_day_all!R5="","",_tap_day_all!R5)</f>
+        <f>IF(_tap_day_all!R5="","",ROUND(_tap_day_all!R5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S10" s="27" t="str">
-        <f>IF(_tap_day_all!S5="","",_tap_day_all!S5)</f>
+        <f>IF(_tap_day_all!S5="","",ROUND(_tap_day_all!S5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T10" s="27" t="str">
-        <f>IF(_tap_day_all!T5="","",_tap_day_all!T5)</f>
+        <f>IF(_tap_day_all!T5="","",ROUND(_tap_day_all!T5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U10" s="27" t="str">
-        <f>IF(_tap_day_all!U5="","",_tap_day_all!U5)</f>
+        <f>IF(_tap_day_all!U5="","",ROUND(_tap_day_all!U5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V10" s="27" t="str">
-        <f>IF(_tap_day_all!V5="","",_tap_day_all!V5)</f>
+        <f>IF(_tap_day_all!V5="","",ROUND(_tap_day_all!V5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W10" s="27" t="str">
-        <f>IF(_tap_day_all!W5="","",_tap_day_all!W5)</f>
+        <f>IF(_tap_day_all!W5="","",ROUND(_tap_day_all!W5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X10" s="27" t="str">
-        <f>IF(_tap_day_all!X5="","",_tap_day_all!X5)</f>
+        <f>IF(_tap_day_all!X5="","",ROUND(_tap_day_all!X5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y10" s="27" t="str">
-        <f>IF(_tap_day_all!Y5="","",_tap_day_all!Y5)</f>
+        <f>IF(_tap_day_all!Y5="","",ROUND(_tap_day_all!Y5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z10" s="27" t="str">
-        <f>IF(_tap_day_all!Z5="","",_tap_day_all!Z5)</f>
+        <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA10" s="27" t="str">
-        <f>IF(_tap_day_all!AA5="","",_tap_day_all!AA5)</f>
-        <v/>
-      </c>
-      <c r="AB10" s="28" t="str">
-        <f>IF(_tap_day_all!AB5="","",_tap_day_all!AB5)</f>
+        <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB10" s="27" t="str">
+        <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2080,11 +2070,11 @@
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="32" t="str">
         <f>IF(_tap_day_all!D6="","",_tap_day_all!D6)</f>
         <v/>
       </c>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="32" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
@@ -2112,72 +2102,72 @@
         <f>IF(_tap_day_all!K6="","",_tap_day_all!K6)</f>
         <v/>
       </c>
-      <c r="L11" s="27" t="str">
+      <c r="L11" s="35" t="str">
         <f>IF(_tap_day_all!L6="","",_tap_day_all!L6)</f>
         <v/>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(_tap_day_all!M6="","",_tap_day_all!M6)</f>
+        <f>IF(_tap_day_all!M6="","",ROUND(_tap_day_all!M6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N11" s="27" t="str">
-        <f>IF(_tap_day_all!N6="","",_tap_day_all!N6)</f>
+        <f>IF(_tap_day_all!N6="","",ROUND(_tap_day_all!N6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O11" s="27" t="str">
-        <f>IF(_tap_day_all!O6="","",_tap_day_all!O6)</f>
+        <f>IF(_tap_day_all!O6="","",ROUND(_tap_day_all!O6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P11" s="27" t="str">
-        <f>IF(_tap_day_all!P6="","",_tap_day_all!P6)</f>
+        <f>IF(_tap_day_all!P6="","",ROUND(_tap_day_all!P6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q11" s="27" t="str">
-        <f>IF(_tap_day_all!Q6="","",_tap_day_all!Q6)</f>
+        <f>IF(_tap_day_all!Q6="","",ROUND(_tap_day_all!Q6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R11" s="27" t="str">
-        <f>IF(_tap_day_all!R6="","",_tap_day_all!R6)</f>
+        <f>IF(_tap_day_all!R6="","",ROUND(_tap_day_all!R6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S11" s="27" t="str">
-        <f>IF(_tap_day_all!S6="","",_tap_day_all!S6)</f>
+        <f>IF(_tap_day_all!S6="","",ROUND(_tap_day_all!S6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T11" s="27" t="str">
-        <f>IF(_tap_day_all!T6="","",_tap_day_all!T6)</f>
+        <f>IF(_tap_day_all!T6="","",ROUND(_tap_day_all!T6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U11" s="27" t="str">
-        <f>IF(_tap_day_all!U6="","",_tap_day_all!U6)</f>
+        <f>IF(_tap_day_all!U6="","",ROUND(_tap_day_all!U6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V11" s="27" t="str">
-        <f>IF(_tap_day_all!V6="","",_tap_day_all!V6)</f>
+        <f>IF(_tap_day_all!V6="","",ROUND(_tap_day_all!V6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W11" s="27" t="str">
-        <f>IF(_tap_day_all!W6="","",_tap_day_all!W6)</f>
+        <f>IF(_tap_day_all!W6="","",ROUND(_tap_day_all!W6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X11" s="27" t="str">
-        <f>IF(_tap_day_all!X6="","",_tap_day_all!X6)</f>
+        <f>IF(_tap_day_all!X6="","",ROUND(_tap_day_all!X6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y11" s="27" t="str">
-        <f>IF(_tap_day_all!Y6="","",_tap_day_all!Y6)</f>
+        <f>IF(_tap_day_all!Y6="","",ROUND(_tap_day_all!Y6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z11" s="27" t="str">
-        <f>IF(_tap_day_all!Z6="","",_tap_day_all!Z6)</f>
+        <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA11" s="27" t="str">
-        <f>IF(_tap_day_all!AA6="","",_tap_day_all!AA6)</f>
-        <v/>
-      </c>
-      <c r="AB11" s="28" t="str">
-        <f>IF(_tap_day_all!AB6="","",_tap_day_all!AB6)</f>
+        <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB11" s="27" t="str">
+        <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2194,11 +2184,11 @@
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="32" t="str">
         <f>IF(_tap_day_all!D7="","",_tap_day_all!D7)</f>
         <v/>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="32" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
@@ -2226,72 +2216,72 @@
         <f>IF(_tap_day_all!K7="","",_tap_day_all!K7)</f>
         <v/>
       </c>
-      <c r="L12" s="27" t="str">
+      <c r="L12" s="35" t="str">
         <f>IF(_tap_day_all!L7="","",_tap_day_all!L7)</f>
         <v/>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(_tap_day_all!M7="","",_tap_day_all!M7)</f>
+        <f>IF(_tap_day_all!M7="","",ROUND(_tap_day_all!M7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N12" s="27" t="str">
-        <f>IF(_tap_day_all!N7="","",_tap_day_all!N7)</f>
+        <f>IF(_tap_day_all!N7="","",ROUND(_tap_day_all!N7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O12" s="27" t="str">
-        <f>IF(_tap_day_all!O7="","",_tap_day_all!O7)</f>
+        <f>IF(_tap_day_all!O7="","",ROUND(_tap_day_all!O7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P12" s="27" t="str">
-        <f>IF(_tap_day_all!P7="","",_tap_day_all!P7)</f>
+        <f>IF(_tap_day_all!P7="","",ROUND(_tap_day_all!P7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q12" s="27" t="str">
-        <f>IF(_tap_day_all!Q7="","",_tap_day_all!Q7)</f>
+        <f>IF(_tap_day_all!Q7="","",ROUND(_tap_day_all!Q7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R12" s="27" t="str">
-        <f>IF(_tap_day_all!R7="","",_tap_day_all!R7)</f>
+        <f>IF(_tap_day_all!R7="","",ROUND(_tap_day_all!R7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S12" s="27" t="str">
-        <f>IF(_tap_day_all!S7="","",_tap_day_all!S7)</f>
+        <f>IF(_tap_day_all!S7="","",ROUND(_tap_day_all!S7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T12" s="27" t="str">
-        <f>IF(_tap_day_all!T7="","",_tap_day_all!T7)</f>
+        <f>IF(_tap_day_all!T7="","",ROUND(_tap_day_all!T7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U12" s="27" t="str">
-        <f>IF(_tap_day_all!U7="","",_tap_day_all!U7)</f>
+        <f>IF(_tap_day_all!U7="","",ROUND(_tap_day_all!U7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V12" s="27" t="str">
-        <f>IF(_tap_day_all!V7="","",_tap_day_all!V7)</f>
+        <f>IF(_tap_day_all!V7="","",ROUND(_tap_day_all!V7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W12" s="27" t="str">
-        <f>IF(_tap_day_all!W7="","",_tap_day_all!W7)</f>
+        <f>IF(_tap_day_all!W7="","",ROUND(_tap_day_all!W7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X12" s="27" t="str">
-        <f>IF(_tap_day_all!X7="","",_tap_day_all!X7)</f>
+        <f>IF(_tap_day_all!X7="","",ROUND(_tap_day_all!X7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y12" s="27" t="str">
-        <f>IF(_tap_day_all!Y7="","",_tap_day_all!Y7)</f>
+        <f>IF(_tap_day_all!Y7="","",ROUND(_tap_day_all!Y7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z12" s="27" t="str">
-        <f>IF(_tap_day_all!Z7="","",_tap_day_all!Z7)</f>
+        <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA12" s="27" t="str">
-        <f>IF(_tap_day_all!AA7="","",_tap_day_all!AA7)</f>
-        <v/>
-      </c>
-      <c r="AB12" s="28" t="str">
-        <f>IF(_tap_day_all!AB7="","",_tap_day_all!AB7)</f>
+        <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="27" t="str">
+        <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2308,11 +2298,11 @@
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="D13" s="32" t="str">
         <f>IF(_tap_day_all!D8="","",_tap_day_all!D8)</f>
         <v/>
       </c>
-      <c r="E13" s="34" t="str">
+      <c r="E13" s="32" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
@@ -2340,72 +2330,72 @@
         <f>IF(_tap_day_all!K8="","",_tap_day_all!K8)</f>
         <v/>
       </c>
-      <c r="L13" s="27" t="str">
+      <c r="L13" s="35" t="str">
         <f>IF(_tap_day_all!L8="","",_tap_day_all!L8)</f>
         <v/>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(_tap_day_all!M8="","",_tap_day_all!M8)</f>
+        <f>IF(_tap_day_all!M8="","",ROUND(_tap_day_all!M8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N13" s="27" t="str">
-        <f>IF(_tap_day_all!N8="","",_tap_day_all!N8)</f>
+        <f>IF(_tap_day_all!N8="","",ROUND(_tap_day_all!N8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O13" s="27" t="str">
-        <f>IF(_tap_day_all!O8="","",_tap_day_all!O8)</f>
+        <f>IF(_tap_day_all!O8="","",ROUND(_tap_day_all!O8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P13" s="27" t="str">
-        <f>IF(_tap_day_all!P8="","",_tap_day_all!P8)</f>
+        <f>IF(_tap_day_all!P8="","",ROUND(_tap_day_all!P8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q13" s="27" t="str">
-        <f>IF(_tap_day_all!Q8="","",_tap_day_all!Q8)</f>
+        <f>IF(_tap_day_all!Q8="","",ROUND(_tap_day_all!Q8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R13" s="27" t="str">
-        <f>IF(_tap_day_all!R8="","",_tap_day_all!R8)</f>
+        <f>IF(_tap_day_all!R8="","",ROUND(_tap_day_all!R8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S13" s="27" t="str">
-        <f>IF(_tap_day_all!S8="","",_tap_day_all!S8)</f>
+        <f>IF(_tap_day_all!S8="","",ROUND(_tap_day_all!S8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T13" s="27" t="str">
-        <f>IF(_tap_day_all!T8="","",_tap_day_all!T8)</f>
+        <f>IF(_tap_day_all!T8="","",ROUND(_tap_day_all!T8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U13" s="27" t="str">
-        <f>IF(_tap_day_all!U8="","",_tap_day_all!U8)</f>
+        <f>IF(_tap_day_all!U8="","",ROUND(_tap_day_all!U8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V13" s="27" t="str">
-        <f>IF(_tap_day_all!V8="","",_tap_day_all!V8)</f>
+        <f>IF(_tap_day_all!V8="","",ROUND(_tap_day_all!V8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W13" s="27" t="str">
-        <f>IF(_tap_day_all!W8="","",_tap_day_all!W8)</f>
+        <f>IF(_tap_day_all!W8="","",ROUND(_tap_day_all!W8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X13" s="27" t="str">
-        <f>IF(_tap_day_all!X8="","",_tap_day_all!X8)</f>
+        <f>IF(_tap_day_all!X8="","",ROUND(_tap_day_all!X8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y13" s="27" t="str">
-        <f>IF(_tap_day_all!Y8="","",_tap_day_all!Y8)</f>
+        <f>IF(_tap_day_all!Y8="","",ROUND(_tap_day_all!Y8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z13" s="27" t="str">
-        <f>IF(_tap_day_all!Z8="","",_tap_day_all!Z8)</f>
+        <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA13" s="27" t="str">
-        <f>IF(_tap_day_all!AA8="","",_tap_day_all!AA8)</f>
-        <v/>
-      </c>
-      <c r="AB13" s="28" t="str">
-        <f>IF(_tap_day_all!AB8="","",_tap_day_all!AB8)</f>
+        <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="27" t="str">
+        <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2422,11 +2412,11 @@
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="D14" s="34" t="str">
+      <c r="D14" s="32" t="str">
         <f>IF(_tap_day_all!D9="","",_tap_day_all!D9)</f>
         <v/>
       </c>
-      <c r="E14" s="34" t="str">
+      <c r="E14" s="32" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
@@ -2454,72 +2444,72 @@
         <f>IF(_tap_day_all!K9="","",_tap_day_all!K9)</f>
         <v/>
       </c>
-      <c r="L14" s="27" t="str">
+      <c r="L14" s="35" t="str">
         <f>IF(_tap_day_all!L9="","",_tap_day_all!L9)</f>
         <v/>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(_tap_day_all!M9="","",_tap_day_all!M9)</f>
+        <f>IF(_tap_day_all!M9="","",ROUND(_tap_day_all!M9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N14" s="27" t="str">
-        <f>IF(_tap_day_all!N9="","",_tap_day_all!N9)</f>
+        <f>IF(_tap_day_all!N9="","",ROUND(_tap_day_all!N9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O14" s="27" t="str">
-        <f>IF(_tap_day_all!O9="","",_tap_day_all!O9)</f>
+        <f>IF(_tap_day_all!O9="","",ROUND(_tap_day_all!O9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P14" s="27" t="str">
-        <f>IF(_tap_day_all!P9="","",_tap_day_all!P9)</f>
+        <f>IF(_tap_day_all!P9="","",ROUND(_tap_day_all!P9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q14" s="27" t="str">
-        <f>IF(_tap_day_all!Q9="","",_tap_day_all!Q9)</f>
+        <f>IF(_tap_day_all!Q9="","",ROUND(_tap_day_all!Q9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R14" s="27" t="str">
-        <f>IF(_tap_day_all!R9="","",_tap_day_all!R9)</f>
+        <f>IF(_tap_day_all!R9="","",ROUND(_tap_day_all!R9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S14" s="27" t="str">
-        <f>IF(_tap_day_all!S9="","",_tap_day_all!S9)</f>
+        <f>IF(_tap_day_all!S9="","",ROUND(_tap_day_all!S9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T14" s="27" t="str">
-        <f>IF(_tap_day_all!T9="","",_tap_day_all!T9)</f>
+        <f>IF(_tap_day_all!T9="","",ROUND(_tap_day_all!T9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U14" s="27" t="str">
-        <f>IF(_tap_day_all!U9="","",_tap_day_all!U9)</f>
+        <f>IF(_tap_day_all!U9="","",ROUND(_tap_day_all!U9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V14" s="27" t="str">
-        <f>IF(_tap_day_all!V9="","",_tap_day_all!V9)</f>
+        <f>IF(_tap_day_all!V9="","",ROUND(_tap_day_all!V9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W14" s="27" t="str">
-        <f>IF(_tap_day_all!W9="","",_tap_day_all!W9)</f>
+        <f>IF(_tap_day_all!W9="","",ROUND(_tap_day_all!W9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X14" s="27" t="str">
-        <f>IF(_tap_day_all!X9="","",_tap_day_all!X9)</f>
+        <f>IF(_tap_day_all!X9="","",ROUND(_tap_day_all!X9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y14" s="27" t="str">
-        <f>IF(_tap_day_all!Y9="","",_tap_day_all!Y9)</f>
+        <f>IF(_tap_day_all!Y9="","",ROUND(_tap_day_all!Y9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z14" s="27" t="str">
-        <f>IF(_tap_day_all!Z9="","",_tap_day_all!Z9)</f>
+        <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA14" s="27" t="str">
-        <f>IF(_tap_day_all!AA9="","",_tap_day_all!AA9)</f>
-        <v/>
-      </c>
-      <c r="AB14" s="28" t="str">
-        <f>IF(_tap_day_all!AB9="","",_tap_day_all!AB9)</f>
+        <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="27" t="str">
+        <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2536,11 +2526,11 @@
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="D15" s="34" t="str">
+      <c r="D15" s="32" t="str">
         <f>IF(_tap_day_all!D10="","",_tap_day_all!D10)</f>
         <v/>
       </c>
-      <c r="E15" s="34" t="str">
+      <c r="E15" s="32" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
@@ -2568,72 +2558,72 @@
         <f>IF(_tap_day_all!K10="","",_tap_day_all!K10)</f>
         <v/>
       </c>
-      <c r="L15" s="27" t="str">
+      <c r="L15" s="35" t="str">
         <f>IF(_tap_day_all!L10="","",_tap_day_all!L10)</f>
         <v/>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(_tap_day_all!M10="","",_tap_day_all!M10)</f>
+        <f>IF(_tap_day_all!M10="","",ROUND(_tap_day_all!M10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IF(_tap_day_all!N10="","",_tap_day_all!N10)</f>
+        <f>IF(_tap_day_all!N10="","",ROUND(_tap_day_all!N10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O15" s="27" t="str">
-        <f>IF(_tap_day_all!O10="","",_tap_day_all!O10)</f>
+        <f>IF(_tap_day_all!O10="","",ROUND(_tap_day_all!O10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P15" s="27" t="str">
-        <f>IF(_tap_day_all!P10="","",_tap_day_all!P10)</f>
+        <f>IF(_tap_day_all!P10="","",ROUND(_tap_day_all!P10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q15" s="27" t="str">
-        <f>IF(_tap_day_all!Q10="","",_tap_day_all!Q10)</f>
+        <f>IF(_tap_day_all!Q10="","",ROUND(_tap_day_all!Q10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R15" s="27" t="str">
-        <f>IF(_tap_day_all!R10="","",_tap_day_all!R10)</f>
+        <f>IF(_tap_day_all!R10="","",ROUND(_tap_day_all!R10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S15" s="27" t="str">
-        <f>IF(_tap_day_all!S10="","",_tap_day_all!S10)</f>
+        <f>IF(_tap_day_all!S10="","",ROUND(_tap_day_all!S10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T15" s="27" t="str">
-        <f>IF(_tap_day_all!T10="","",_tap_day_all!T10)</f>
+        <f>IF(_tap_day_all!T10="","",ROUND(_tap_day_all!T10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U15" s="27" t="str">
-        <f>IF(_tap_day_all!U10="","",_tap_day_all!U10)</f>
+        <f>IF(_tap_day_all!U10="","",ROUND(_tap_day_all!U10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V15" s="27" t="str">
-        <f>IF(_tap_day_all!V10="","",_tap_day_all!V10)</f>
+        <f>IF(_tap_day_all!V10="","",ROUND(_tap_day_all!V10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W15" s="27" t="str">
-        <f>IF(_tap_day_all!W10="","",_tap_day_all!W10)</f>
+        <f>IF(_tap_day_all!W10="","",ROUND(_tap_day_all!W10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X15" s="27" t="str">
-        <f>IF(_tap_day_all!X10="","",_tap_day_all!X10)</f>
+        <f>IF(_tap_day_all!X10="","",ROUND(_tap_day_all!X10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y15" s="27" t="str">
-        <f>IF(_tap_day_all!Y10="","",_tap_day_all!Y10)</f>
+        <f>IF(_tap_day_all!Y10="","",ROUND(_tap_day_all!Y10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z15" s="27" t="str">
-        <f>IF(_tap_day_all!Z10="","",_tap_day_all!Z10)</f>
+        <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA15" s="27" t="str">
-        <f>IF(_tap_day_all!AA10="","",_tap_day_all!AA10)</f>
-        <v/>
-      </c>
-      <c r="AB15" s="28" t="str">
-        <f>IF(_tap_day_all!AB10="","",_tap_day_all!AB10)</f>
+        <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="27" t="str">
+        <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2650,11 +2640,11 @@
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="32" t="str">
         <f>IF(_tap_day_all!D11="","",_tap_day_all!D11)</f>
         <v/>
       </c>
-      <c r="E16" s="34" t="str">
+      <c r="E16" s="32" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
@@ -2682,72 +2672,72 @@
         <f>IF(_tap_day_all!K11="","",_tap_day_all!K11)</f>
         <v/>
       </c>
-      <c r="L16" s="27" t="str">
+      <c r="L16" s="35" t="str">
         <f>IF(_tap_day_all!L11="","",_tap_day_all!L11)</f>
         <v/>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(_tap_day_all!M11="","",_tap_day_all!M11)</f>
+        <f>IF(_tap_day_all!M11="","",ROUND(_tap_day_all!M11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IF(_tap_day_all!N11="","",_tap_day_all!N11)</f>
+        <f>IF(_tap_day_all!N11="","",ROUND(_tap_day_all!N11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O16" s="27" t="str">
-        <f>IF(_tap_day_all!O11="","",_tap_day_all!O11)</f>
+        <f>IF(_tap_day_all!O11="","",ROUND(_tap_day_all!O11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P16" s="27" t="str">
-        <f>IF(_tap_day_all!P11="","",_tap_day_all!P11)</f>
+        <f>IF(_tap_day_all!P11="","",ROUND(_tap_day_all!P11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q16" s="27" t="str">
-        <f>IF(_tap_day_all!Q11="","",_tap_day_all!Q11)</f>
+        <f>IF(_tap_day_all!Q11="","",ROUND(_tap_day_all!Q11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R16" s="27" t="str">
-        <f>IF(_tap_day_all!R11="","",_tap_day_all!R11)</f>
+        <f>IF(_tap_day_all!R11="","",ROUND(_tap_day_all!R11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S16" s="27" t="str">
-        <f>IF(_tap_day_all!S11="","",_tap_day_all!S11)</f>
+        <f>IF(_tap_day_all!S11="","",ROUND(_tap_day_all!S11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T16" s="27" t="str">
-        <f>IF(_tap_day_all!T11="","",_tap_day_all!T11)</f>
+        <f>IF(_tap_day_all!T11="","",ROUND(_tap_day_all!T11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U16" s="27" t="str">
-        <f>IF(_tap_day_all!U11="","",_tap_day_all!U11)</f>
+        <f>IF(_tap_day_all!U11="","",ROUND(_tap_day_all!U11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V16" s="27" t="str">
-        <f>IF(_tap_day_all!V11="","",_tap_day_all!V11)</f>
+        <f>IF(_tap_day_all!V11="","",ROUND(_tap_day_all!V11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W16" s="27" t="str">
-        <f>IF(_tap_day_all!W11="","",_tap_day_all!W11)</f>
+        <f>IF(_tap_day_all!W11="","",ROUND(_tap_day_all!W11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X16" s="27" t="str">
-        <f>IF(_tap_day_all!X11="","",_tap_day_all!X11)</f>
+        <f>IF(_tap_day_all!X11="","",ROUND(_tap_day_all!X11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y16" s="27" t="str">
-        <f>IF(_tap_day_all!Y11="","",_tap_day_all!Y11)</f>
+        <f>IF(_tap_day_all!Y11="","",ROUND(_tap_day_all!Y11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z16" s="27" t="str">
-        <f>IF(_tap_day_all!Z11="","",_tap_day_all!Z11)</f>
+        <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA16" s="27" t="str">
-        <f>IF(_tap_day_all!AA11="","",_tap_day_all!AA11)</f>
-        <v/>
-      </c>
-      <c r="AB16" s="28" t="str">
-        <f>IF(_tap_day_all!AB11="","",_tap_day_all!AB11)</f>
+        <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="27" t="str">
+        <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2764,11 +2754,11 @@
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="32" t="str">
         <f>IF(_tap_day_all!D12="","",_tap_day_all!D12)</f>
         <v/>
       </c>
-      <c r="E17" s="34" t="str">
+      <c r="E17" s="32" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
@@ -2796,72 +2786,72 @@
         <f>IF(_tap_day_all!K12="","",_tap_day_all!K12)</f>
         <v/>
       </c>
-      <c r="L17" s="27" t="str">
+      <c r="L17" s="35" t="str">
         <f>IF(_tap_day_all!L12="","",_tap_day_all!L12)</f>
         <v/>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(_tap_day_all!M12="","",_tap_day_all!M12)</f>
+        <f>IF(_tap_day_all!M12="","",ROUND(_tap_day_all!M12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IF(_tap_day_all!N12="","",_tap_day_all!N12)</f>
+        <f>IF(_tap_day_all!N12="","",ROUND(_tap_day_all!N12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O17" s="27" t="str">
-        <f>IF(_tap_day_all!O12="","",_tap_day_all!O12)</f>
+        <f>IF(_tap_day_all!O12="","",ROUND(_tap_day_all!O12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P17" s="27" t="str">
-        <f>IF(_tap_day_all!P12="","",_tap_day_all!P12)</f>
+        <f>IF(_tap_day_all!P12="","",ROUND(_tap_day_all!P12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q17" s="27" t="str">
-        <f>IF(_tap_day_all!Q12="","",_tap_day_all!Q12)</f>
+        <f>IF(_tap_day_all!Q12="","",ROUND(_tap_day_all!Q12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R17" s="27" t="str">
-        <f>IF(_tap_day_all!R12="","",_tap_day_all!R12)</f>
+        <f>IF(_tap_day_all!R12="","",ROUND(_tap_day_all!R12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S17" s="27" t="str">
-        <f>IF(_tap_day_all!S12="","",_tap_day_all!S12)</f>
+        <f>IF(_tap_day_all!S12="","",ROUND(_tap_day_all!S12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T17" s="27" t="str">
-        <f>IF(_tap_day_all!T12="","",_tap_day_all!T12)</f>
+        <f>IF(_tap_day_all!T12="","",ROUND(_tap_day_all!T12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U17" s="27" t="str">
-        <f>IF(_tap_day_all!U12="","",_tap_day_all!U12)</f>
+        <f>IF(_tap_day_all!U12="","",ROUND(_tap_day_all!U12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V17" s="27" t="str">
-        <f>IF(_tap_day_all!V12="","",_tap_day_all!V12)</f>
+        <f>IF(_tap_day_all!V12="","",ROUND(_tap_day_all!V12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W17" s="27" t="str">
-        <f>IF(_tap_day_all!W12="","",_tap_day_all!W12)</f>
+        <f>IF(_tap_day_all!W12="","",ROUND(_tap_day_all!W12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X17" s="27" t="str">
-        <f>IF(_tap_day_all!X12="","",_tap_day_all!X12)</f>
+        <f>IF(_tap_day_all!X12="","",ROUND(_tap_day_all!X12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y17" s="27" t="str">
-        <f>IF(_tap_day_all!Y12="","",_tap_day_all!Y12)</f>
+        <f>IF(_tap_day_all!Y12="","",ROUND(_tap_day_all!Y12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z17" s="27" t="str">
-        <f>IF(_tap_day_all!Z12="","",_tap_day_all!Z12)</f>
+        <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA17" s="27" t="str">
-        <f>IF(_tap_day_all!AA12="","",_tap_day_all!AA12)</f>
-        <v/>
-      </c>
-      <c r="AB17" s="28" t="str">
-        <f>IF(_tap_day_all!AB12="","",_tap_day_all!AB12)</f>
+        <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="27" t="str">
+        <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2878,11 +2868,11 @@
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="D18" s="34" t="str">
+      <c r="D18" s="32" t="str">
         <f>IF(_tap_day_all!D13="","",_tap_day_all!D13)</f>
         <v/>
       </c>
-      <c r="E18" s="34" t="str">
+      <c r="E18" s="32" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
@@ -2910,72 +2900,72 @@
         <f>IF(_tap_day_all!K13="","",_tap_day_all!K13)</f>
         <v/>
       </c>
-      <c r="L18" s="27" t="str">
+      <c r="L18" s="35" t="str">
         <f>IF(_tap_day_all!L13="","",_tap_day_all!L13)</f>
         <v/>
       </c>
       <c r="M18" s="27" t="str">
-        <f>IF(_tap_day_all!M13="","",_tap_day_all!M13)</f>
+        <f>IF(_tap_day_all!M13="","",ROUND(_tap_day_all!M13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N18" s="27" t="str">
-        <f>IF(_tap_day_all!N13="","",_tap_day_all!N13)</f>
+        <f>IF(_tap_day_all!N13="","",ROUND(_tap_day_all!N13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O18" s="27" t="str">
-        <f>IF(_tap_day_all!O13="","",_tap_day_all!O13)</f>
+        <f>IF(_tap_day_all!O13="","",ROUND(_tap_day_all!O13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P18" s="27" t="str">
-        <f>IF(_tap_day_all!P13="","",_tap_day_all!P13)</f>
+        <f>IF(_tap_day_all!P13="","",ROUND(_tap_day_all!P13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q18" s="27" t="str">
-        <f>IF(_tap_day_all!Q13="","",_tap_day_all!Q13)</f>
+        <f>IF(_tap_day_all!Q13="","",ROUND(_tap_day_all!Q13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R18" s="27" t="str">
-        <f>IF(_tap_day_all!R13="","",_tap_day_all!R13)</f>
+        <f>IF(_tap_day_all!R13="","",ROUND(_tap_day_all!R13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S18" s="27" t="str">
-        <f>IF(_tap_day_all!S13="","",_tap_day_all!S13)</f>
+        <f>IF(_tap_day_all!S13="","",ROUND(_tap_day_all!S13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T18" s="27" t="str">
-        <f>IF(_tap_day_all!T13="","",_tap_day_all!T13)</f>
+        <f>IF(_tap_day_all!T13="","",ROUND(_tap_day_all!T13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U18" s="27" t="str">
-        <f>IF(_tap_day_all!U13="","",_tap_day_all!U13)</f>
+        <f>IF(_tap_day_all!U13="","",ROUND(_tap_day_all!U13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V18" s="27" t="str">
-        <f>IF(_tap_day_all!V13="","",_tap_day_all!V13)</f>
+        <f>IF(_tap_day_all!V13="","",ROUND(_tap_day_all!V13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W18" s="27" t="str">
-        <f>IF(_tap_day_all!W13="","",_tap_day_all!W13)</f>
+        <f>IF(_tap_day_all!W13="","",ROUND(_tap_day_all!W13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X18" s="27" t="str">
-        <f>IF(_tap_day_all!X13="","",_tap_day_all!X13)</f>
+        <f>IF(_tap_day_all!X13="","",ROUND(_tap_day_all!X13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y18" s="27" t="str">
-        <f>IF(_tap_day_all!Y13="","",_tap_day_all!Y13)</f>
+        <f>IF(_tap_day_all!Y13="","",ROUND(_tap_day_all!Y13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z18" s="27" t="str">
-        <f>IF(_tap_day_all!Z13="","",_tap_day_all!Z13)</f>
+        <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA18" s="27" t="str">
-        <f>IF(_tap_day_all!AA13="","",_tap_day_all!AA13)</f>
-        <v/>
-      </c>
-      <c r="AB18" s="28" t="str">
-        <f>IF(_tap_day_all!AB13="","",_tap_day_all!AB13)</f>
+        <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="27" t="str">
+        <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -2992,11 +2982,11 @@
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="D19" s="34" t="str">
+      <c r="D19" s="32" t="str">
         <f>IF(_tap_day_all!D14="","",_tap_day_all!D14)</f>
         <v/>
       </c>
-      <c r="E19" s="34" t="str">
+      <c r="E19" s="32" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
@@ -3024,72 +3014,72 @@
         <f>IF(_tap_day_all!K14="","",_tap_day_all!K14)</f>
         <v/>
       </c>
-      <c r="L19" s="27" t="str">
+      <c r="L19" s="35" t="str">
         <f>IF(_tap_day_all!L14="","",_tap_day_all!L14)</f>
         <v/>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IF(_tap_day_all!M14="","",_tap_day_all!M14)</f>
+        <f>IF(_tap_day_all!M14="","",ROUND(_tap_day_all!M14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N19" s="27" t="str">
-        <f>IF(_tap_day_all!N14="","",_tap_day_all!N14)</f>
+        <f>IF(_tap_day_all!N14="","",ROUND(_tap_day_all!N14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O19" s="27" t="str">
-        <f>IF(_tap_day_all!O14="","",_tap_day_all!O14)</f>
+        <f>IF(_tap_day_all!O14="","",ROUND(_tap_day_all!O14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P19" s="27" t="str">
-        <f>IF(_tap_day_all!P14="","",_tap_day_all!P14)</f>
+        <f>IF(_tap_day_all!P14="","",ROUND(_tap_day_all!P14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q19" s="27" t="str">
-        <f>IF(_tap_day_all!Q14="","",_tap_day_all!Q14)</f>
+        <f>IF(_tap_day_all!Q14="","",ROUND(_tap_day_all!Q14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R19" s="27" t="str">
-        <f>IF(_tap_day_all!R14="","",_tap_day_all!R14)</f>
+        <f>IF(_tap_day_all!R14="","",ROUND(_tap_day_all!R14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S19" s="27" t="str">
-        <f>IF(_tap_day_all!S14="","",_tap_day_all!S14)</f>
+        <f>IF(_tap_day_all!S14="","",ROUND(_tap_day_all!S14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T19" s="27" t="str">
-        <f>IF(_tap_day_all!T14="","",_tap_day_all!T14)</f>
+        <f>IF(_tap_day_all!T14="","",ROUND(_tap_day_all!T14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U19" s="27" t="str">
-        <f>IF(_tap_day_all!U14="","",_tap_day_all!U14)</f>
+        <f>IF(_tap_day_all!U14="","",ROUND(_tap_day_all!U14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V19" s="27" t="str">
-        <f>IF(_tap_day_all!V14="","",_tap_day_all!V14)</f>
+        <f>IF(_tap_day_all!V14="","",ROUND(_tap_day_all!V14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W19" s="27" t="str">
-        <f>IF(_tap_day_all!W14="","",_tap_day_all!W14)</f>
+        <f>IF(_tap_day_all!W14="","",ROUND(_tap_day_all!W14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X19" s="27" t="str">
-        <f>IF(_tap_day_all!X14="","",_tap_day_all!X14)</f>
+        <f>IF(_tap_day_all!X14="","",ROUND(_tap_day_all!X14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y19" s="27" t="str">
-        <f>IF(_tap_day_all!Y14="","",_tap_day_all!Y14)</f>
+        <f>IF(_tap_day_all!Y14="","",ROUND(_tap_day_all!Y14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z19" s="27" t="str">
-        <f>IF(_tap_day_all!Z14="","",_tap_day_all!Z14)</f>
+        <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA19" s="27" t="str">
-        <f>IF(_tap_day_all!AA14="","",_tap_day_all!AA14)</f>
-        <v/>
-      </c>
-      <c r="AB19" s="28" t="str">
-        <f>IF(_tap_day_all!AB14="","",_tap_day_all!AB14)</f>
+        <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB19" s="27" t="str">
+        <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3106,11 +3096,11 @@
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="D20" s="34" t="str">
+      <c r="D20" s="32" t="str">
         <f>IF(_tap_day_all!D15="","",_tap_day_all!D15)</f>
         <v/>
       </c>
-      <c r="E20" s="34" t="str">
+      <c r="E20" s="32" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
@@ -3138,72 +3128,72 @@
         <f>IF(_tap_day_all!K15="","",_tap_day_all!K15)</f>
         <v/>
       </c>
-      <c r="L20" s="27" t="str">
+      <c r="L20" s="35" t="str">
         <f>IF(_tap_day_all!L15="","",_tap_day_all!L15)</f>
         <v/>
       </c>
       <c r="M20" s="27" t="str">
-        <f>IF(_tap_day_all!M15="","",_tap_day_all!M15)</f>
+        <f>IF(_tap_day_all!M15="","",ROUND(_tap_day_all!M15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N20" s="27" t="str">
-        <f>IF(_tap_day_all!N15="","",_tap_day_all!N15)</f>
+        <f>IF(_tap_day_all!N15="","",ROUND(_tap_day_all!N15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O20" s="27" t="str">
-        <f>IF(_tap_day_all!O15="","",_tap_day_all!O15)</f>
+        <f>IF(_tap_day_all!O15="","",ROUND(_tap_day_all!O15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P20" s="27" t="str">
-        <f>IF(_tap_day_all!P15="","",_tap_day_all!P15)</f>
+        <f>IF(_tap_day_all!P15="","",ROUND(_tap_day_all!P15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q20" s="27" t="str">
-        <f>IF(_tap_day_all!Q15="","",_tap_day_all!Q15)</f>
+        <f>IF(_tap_day_all!Q15="","",ROUND(_tap_day_all!Q15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R20" s="27" t="str">
-        <f>IF(_tap_day_all!R15="","",_tap_day_all!R15)</f>
+        <f>IF(_tap_day_all!R15="","",ROUND(_tap_day_all!R15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S20" s="27" t="str">
-        <f>IF(_tap_day_all!S15="","",_tap_day_all!S15)</f>
+        <f>IF(_tap_day_all!S15="","",ROUND(_tap_day_all!S15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T20" s="27" t="str">
-        <f>IF(_tap_day_all!T15="","",_tap_day_all!T15)</f>
+        <f>IF(_tap_day_all!T15="","",ROUND(_tap_day_all!T15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U20" s="27" t="str">
-        <f>IF(_tap_day_all!U15="","",_tap_day_all!U15)</f>
+        <f>IF(_tap_day_all!U15="","",ROUND(_tap_day_all!U15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V20" s="27" t="str">
-        <f>IF(_tap_day_all!V15="","",_tap_day_all!V15)</f>
+        <f>IF(_tap_day_all!V15="","",ROUND(_tap_day_all!V15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W20" s="27" t="str">
-        <f>IF(_tap_day_all!W15="","",_tap_day_all!W15)</f>
+        <f>IF(_tap_day_all!W15="","",ROUND(_tap_day_all!W15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X20" s="27" t="str">
-        <f>IF(_tap_day_all!X15="","",_tap_day_all!X15)</f>
+        <f>IF(_tap_day_all!X15="","",ROUND(_tap_day_all!X15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y20" s="27" t="str">
-        <f>IF(_tap_day_all!Y15="","",_tap_day_all!Y15)</f>
+        <f>IF(_tap_day_all!Y15="","",ROUND(_tap_day_all!Y15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z20" s="27" t="str">
-        <f>IF(_tap_day_all!Z15="","",_tap_day_all!Z15)</f>
+        <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA20" s="27" t="str">
-        <f>IF(_tap_day_all!AA15="","",_tap_day_all!AA15)</f>
-        <v/>
-      </c>
-      <c r="AB20" s="28" t="str">
-        <f>IF(_tap_day_all!AB15="","",_tap_day_all!AB15)</f>
+        <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB20" s="27" t="str">
+        <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3220,11 +3210,11 @@
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="D21" s="34" t="str">
+      <c r="D21" s="32" t="str">
         <f>IF(_tap_day_all!D16="","",_tap_day_all!D16)</f>
         <v/>
       </c>
-      <c r="E21" s="34" t="str">
+      <c r="E21" s="32" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
@@ -3252,72 +3242,72 @@
         <f>IF(_tap_day_all!K16="","",_tap_day_all!K16)</f>
         <v/>
       </c>
-      <c r="L21" s="27" t="str">
+      <c r="L21" s="35" t="str">
         <f>IF(_tap_day_all!L16="","",_tap_day_all!L16)</f>
         <v/>
       </c>
       <c r="M21" s="27" t="str">
-        <f>IF(_tap_day_all!M16="","",_tap_day_all!M16)</f>
+        <f>IF(_tap_day_all!M16="","",ROUND(_tap_day_all!M16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N21" s="27" t="str">
-        <f>IF(_tap_day_all!N16="","",_tap_day_all!N16)</f>
+        <f>IF(_tap_day_all!N16="","",ROUND(_tap_day_all!N16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O21" s="27" t="str">
-        <f>IF(_tap_day_all!O16="","",_tap_day_all!O16)</f>
+        <f>IF(_tap_day_all!O16="","",ROUND(_tap_day_all!O16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P21" s="27" t="str">
-        <f>IF(_tap_day_all!P16="","",_tap_day_all!P16)</f>
+        <f>IF(_tap_day_all!P16="","",ROUND(_tap_day_all!P16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q21" s="27" t="str">
-        <f>IF(_tap_day_all!Q16="","",_tap_day_all!Q16)</f>
+        <f>IF(_tap_day_all!Q16="","",ROUND(_tap_day_all!Q16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R21" s="27" t="str">
-        <f>IF(_tap_day_all!R16="","",_tap_day_all!R16)</f>
+        <f>IF(_tap_day_all!R16="","",ROUND(_tap_day_all!R16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S21" s="27" t="str">
-        <f>IF(_tap_day_all!S16="","",_tap_day_all!S16)</f>
+        <f>IF(_tap_day_all!S16="","",ROUND(_tap_day_all!S16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T21" s="27" t="str">
-        <f>IF(_tap_day_all!T16="","",_tap_day_all!T16)</f>
+        <f>IF(_tap_day_all!T16="","",ROUND(_tap_day_all!T16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U21" s="27" t="str">
-        <f>IF(_tap_day_all!U16="","",_tap_day_all!U16)</f>
+        <f>IF(_tap_day_all!U16="","",ROUND(_tap_day_all!U16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V21" s="27" t="str">
-        <f>IF(_tap_day_all!V16="","",_tap_day_all!V16)</f>
+        <f>IF(_tap_day_all!V16="","",ROUND(_tap_day_all!V16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W21" s="27" t="str">
-        <f>IF(_tap_day_all!W16="","",_tap_day_all!W16)</f>
+        <f>IF(_tap_day_all!W16="","",ROUND(_tap_day_all!W16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X21" s="27" t="str">
-        <f>IF(_tap_day_all!X16="","",_tap_day_all!X16)</f>
+        <f>IF(_tap_day_all!X16="","",ROUND(_tap_day_all!X16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y21" s="27" t="str">
-        <f>IF(_tap_day_all!Y16="","",_tap_day_all!Y16)</f>
+        <f>IF(_tap_day_all!Y16="","",ROUND(_tap_day_all!Y16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z21" s="27" t="str">
-        <f>IF(_tap_day_all!Z16="","",_tap_day_all!Z16)</f>
+        <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA21" s="27" t="str">
-        <f>IF(_tap_day_all!AA16="","",_tap_day_all!AA16)</f>
-        <v/>
-      </c>
-      <c r="AB21" s="28" t="str">
-        <f>IF(_tap_day_all!AB16="","",_tap_day_all!AB16)</f>
+        <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="27" t="str">
+        <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3334,11 +3324,11 @@
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="D22" s="34" t="str">
+      <c r="D22" s="32" t="str">
         <f>IF(_tap_day_all!D17="","",_tap_day_all!D17)</f>
         <v/>
       </c>
-      <c r="E22" s="34" t="str">
+      <c r="E22" s="32" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
@@ -3366,72 +3356,72 @@
         <f>IF(_tap_day_all!K17="","",_tap_day_all!K17)</f>
         <v/>
       </c>
-      <c r="L22" s="27" t="str">
+      <c r="L22" s="35" t="str">
         <f>IF(_tap_day_all!L17="","",_tap_day_all!L17)</f>
         <v/>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IF(_tap_day_all!M17="","",_tap_day_all!M17)</f>
+        <f>IF(_tap_day_all!M17="","",ROUND(_tap_day_all!M17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N22" s="27" t="str">
-        <f>IF(_tap_day_all!N17="","",_tap_day_all!N17)</f>
+        <f>IF(_tap_day_all!N17="","",ROUND(_tap_day_all!N17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O22" s="27" t="str">
-        <f>IF(_tap_day_all!O17="","",_tap_day_all!O17)</f>
+        <f>IF(_tap_day_all!O17="","",ROUND(_tap_day_all!O17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P22" s="27" t="str">
-        <f>IF(_tap_day_all!P17="","",_tap_day_all!P17)</f>
+        <f>IF(_tap_day_all!P17="","",ROUND(_tap_day_all!P17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q22" s="27" t="str">
-        <f>IF(_tap_day_all!Q17="","",_tap_day_all!Q17)</f>
+        <f>IF(_tap_day_all!Q17="","",ROUND(_tap_day_all!Q17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R22" s="27" t="str">
-        <f>IF(_tap_day_all!R17="","",_tap_day_all!R17)</f>
+        <f>IF(_tap_day_all!R17="","",ROUND(_tap_day_all!R17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S22" s="27" t="str">
-        <f>IF(_tap_day_all!S17="","",_tap_day_all!S17)</f>
+        <f>IF(_tap_day_all!S17="","",ROUND(_tap_day_all!S17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T22" s="27" t="str">
-        <f>IF(_tap_day_all!T17="","",_tap_day_all!T17)</f>
+        <f>IF(_tap_day_all!T17="","",ROUND(_tap_day_all!T17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U22" s="27" t="str">
-        <f>IF(_tap_day_all!U17="","",_tap_day_all!U17)</f>
+        <f>IF(_tap_day_all!U17="","",ROUND(_tap_day_all!U17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V22" s="27" t="str">
-        <f>IF(_tap_day_all!V17="","",_tap_day_all!V17)</f>
+        <f>IF(_tap_day_all!V17="","",ROUND(_tap_day_all!V17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W22" s="27" t="str">
-        <f>IF(_tap_day_all!W17="","",_tap_day_all!W17)</f>
+        <f>IF(_tap_day_all!W17="","",ROUND(_tap_day_all!W17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X22" s="27" t="str">
-        <f>IF(_tap_day_all!X17="","",_tap_day_all!X17)</f>
+        <f>IF(_tap_day_all!X17="","",ROUND(_tap_day_all!X17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y22" s="27" t="str">
-        <f>IF(_tap_day_all!Y17="","",_tap_day_all!Y17)</f>
+        <f>IF(_tap_day_all!Y17="","",ROUND(_tap_day_all!Y17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z22" s="27" t="str">
-        <f>IF(_tap_day_all!Z17="","",_tap_day_all!Z17)</f>
+        <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA22" s="27" t="str">
-        <f>IF(_tap_day_all!AA17="","",_tap_day_all!AA17)</f>
-        <v/>
-      </c>
-      <c r="AB22" s="28" t="str">
-        <f>IF(_tap_day_all!AB17="","",_tap_day_all!AB17)</f>
+        <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB22" s="27" t="str">
+        <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3448,11 +3438,11 @@
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="D23" s="34" t="str">
+      <c r="D23" s="32" t="str">
         <f>IF(_tap_day_all!D18="","",_tap_day_all!D18)</f>
         <v/>
       </c>
-      <c r="E23" s="34" t="str">
+      <c r="E23" s="32" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
@@ -3480,72 +3470,72 @@
         <f>IF(_tap_day_all!K18="","",_tap_day_all!K18)</f>
         <v/>
       </c>
-      <c r="L23" s="27" t="str">
+      <c r="L23" s="35" t="str">
         <f>IF(_tap_day_all!L18="","",_tap_day_all!L18)</f>
         <v/>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IF(_tap_day_all!M18="","",_tap_day_all!M18)</f>
+        <f>IF(_tap_day_all!M18="","",ROUND(_tap_day_all!M18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N23" s="27" t="str">
-        <f>IF(_tap_day_all!N18="","",_tap_day_all!N18)</f>
+        <f>IF(_tap_day_all!N18="","",ROUND(_tap_day_all!N18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O23" s="27" t="str">
-        <f>IF(_tap_day_all!O18="","",_tap_day_all!O18)</f>
+        <f>IF(_tap_day_all!O18="","",ROUND(_tap_day_all!O18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P23" s="27" t="str">
-        <f>IF(_tap_day_all!P18="","",_tap_day_all!P18)</f>
+        <f>IF(_tap_day_all!P18="","",ROUND(_tap_day_all!P18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q23" s="27" t="str">
-        <f>IF(_tap_day_all!Q18="","",_tap_day_all!Q18)</f>
+        <f>IF(_tap_day_all!Q18="","",ROUND(_tap_day_all!Q18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R23" s="27" t="str">
-        <f>IF(_tap_day_all!R18="","",_tap_day_all!R18)</f>
+        <f>IF(_tap_day_all!R18="","",ROUND(_tap_day_all!R18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S23" s="27" t="str">
-        <f>IF(_tap_day_all!S18="","",_tap_day_all!S18)</f>
+        <f>IF(_tap_day_all!S18="","",ROUND(_tap_day_all!S18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T23" s="27" t="str">
-        <f>IF(_tap_day_all!T18="","",_tap_day_all!T18)</f>
+        <f>IF(_tap_day_all!T18="","",ROUND(_tap_day_all!T18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U23" s="27" t="str">
-        <f>IF(_tap_day_all!U18="","",_tap_day_all!U18)</f>
+        <f>IF(_tap_day_all!U18="","",ROUND(_tap_day_all!U18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V23" s="27" t="str">
-        <f>IF(_tap_day_all!V18="","",_tap_day_all!V18)</f>
+        <f>IF(_tap_day_all!V18="","",ROUND(_tap_day_all!V18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W23" s="27" t="str">
-        <f>IF(_tap_day_all!W18="","",_tap_day_all!W18)</f>
+        <f>IF(_tap_day_all!W18="","",ROUND(_tap_day_all!W18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X23" s="27" t="str">
-        <f>IF(_tap_day_all!X18="","",_tap_day_all!X18)</f>
+        <f>IF(_tap_day_all!X18="","",ROUND(_tap_day_all!X18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y23" s="27" t="str">
-        <f>IF(_tap_day_all!Y18="","",_tap_day_all!Y18)</f>
+        <f>IF(_tap_day_all!Y18="","",ROUND(_tap_day_all!Y18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z23" s="27" t="str">
-        <f>IF(_tap_day_all!Z18="","",_tap_day_all!Z18)</f>
+        <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA23" s="27" t="str">
-        <f>IF(_tap_day_all!AA18="","",_tap_day_all!AA18)</f>
-        <v/>
-      </c>
-      <c r="AB23" s="28" t="str">
-        <f>IF(_tap_day_all!AB18="","",_tap_day_all!AB18)</f>
+        <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB23" s="27" t="str">
+        <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3562,11 +3552,11 @@
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="D24" s="34" t="str">
+      <c r="D24" s="32" t="str">
         <f>IF(_tap_day_all!D19="","",_tap_day_all!D19)</f>
         <v/>
       </c>
-      <c r="E24" s="34" t="str">
+      <c r="E24" s="32" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
@@ -3594,72 +3584,72 @@
         <f>IF(_tap_day_all!K19="","",_tap_day_all!K19)</f>
         <v/>
       </c>
-      <c r="L24" s="27" t="str">
+      <c r="L24" s="35" t="str">
         <f>IF(_tap_day_all!L19="","",_tap_day_all!L19)</f>
         <v/>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IF(_tap_day_all!M19="","",_tap_day_all!M19)</f>
+        <f>IF(_tap_day_all!M19="","",ROUND(_tap_day_all!M19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IF(_tap_day_all!N19="","",_tap_day_all!N19)</f>
+        <f>IF(_tap_day_all!N19="","",ROUND(_tap_day_all!N19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O24" s="27" t="str">
-        <f>IF(_tap_day_all!O19="","",_tap_day_all!O19)</f>
+        <f>IF(_tap_day_all!O19="","",ROUND(_tap_day_all!O19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P24" s="27" t="str">
-        <f>IF(_tap_day_all!P19="","",_tap_day_all!P19)</f>
+        <f>IF(_tap_day_all!P19="","",ROUND(_tap_day_all!P19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q24" s="27" t="str">
-        <f>IF(_tap_day_all!Q19="","",_tap_day_all!Q19)</f>
+        <f>IF(_tap_day_all!Q19="","",ROUND(_tap_day_all!Q19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R24" s="27" t="str">
-        <f>IF(_tap_day_all!R19="","",_tap_day_all!R19)</f>
+        <f>IF(_tap_day_all!R19="","",ROUND(_tap_day_all!R19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S24" s="27" t="str">
-        <f>IF(_tap_day_all!S19="","",_tap_day_all!S19)</f>
+        <f>IF(_tap_day_all!S19="","",ROUND(_tap_day_all!S19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T24" s="27" t="str">
-        <f>IF(_tap_day_all!T19="","",_tap_day_all!T19)</f>
+        <f>IF(_tap_day_all!T19="","",ROUND(_tap_day_all!T19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U24" s="27" t="str">
-        <f>IF(_tap_day_all!U19="","",_tap_day_all!U19)</f>
+        <f>IF(_tap_day_all!U19="","",ROUND(_tap_day_all!U19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V24" s="27" t="str">
-        <f>IF(_tap_day_all!V19="","",_tap_day_all!V19)</f>
+        <f>IF(_tap_day_all!V19="","",ROUND(_tap_day_all!V19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W24" s="27" t="str">
-        <f>IF(_tap_day_all!W19="","",_tap_day_all!W19)</f>
+        <f>IF(_tap_day_all!W19="","",ROUND(_tap_day_all!W19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X24" s="27" t="str">
-        <f>IF(_tap_day_all!X19="","",_tap_day_all!X19)</f>
+        <f>IF(_tap_day_all!X19="","",ROUND(_tap_day_all!X19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y24" s="27" t="str">
-        <f>IF(_tap_day_all!Y19="","",_tap_day_all!Y19)</f>
+        <f>IF(_tap_day_all!Y19="","",ROUND(_tap_day_all!Y19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z24" s="27" t="str">
-        <f>IF(_tap_day_all!Z19="","",_tap_day_all!Z19)</f>
+        <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA24" s="27" t="str">
-        <f>IF(_tap_day_all!AA19="","",_tap_day_all!AA19)</f>
-        <v/>
-      </c>
-      <c r="AB24" s="28" t="str">
-        <f>IF(_tap_day_all!AB19="","",_tap_day_all!AB19)</f>
+        <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="27" t="str">
+        <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
@@ -3676,11 +3666,11 @@
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="D25" s="34" t="str">
+      <c r="D25" s="32" t="str">
         <f>IF(_tap_day_all!D20="","",_tap_day_all!D20)</f>
         <v/>
       </c>
-      <c r="E25" s="34" t="str">
+      <c r="E25" s="32" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
@@ -3708,109 +3698,109 @@
         <f>IF(_tap_day_all!K20="","",_tap_day_all!K20)</f>
         <v/>
       </c>
-      <c r="L25" s="27" t="str">
+      <c r="L25" s="35" t="str">
         <f>IF(_tap_day_all!L20="","",_tap_day_all!L20)</f>
         <v/>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IF(_tap_day_all!M20="","",_tap_day_all!M20)</f>
+        <f>IF(_tap_day_all!M20="","",ROUND(_tap_day_all!M20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="N25" s="27" t="str">
-        <f>IF(_tap_day_all!N20="","",_tap_day_all!N20)</f>
+        <f>IF(_tap_day_all!N20="","",ROUND(_tap_day_all!N20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="O25" s="27" t="str">
-        <f>IF(_tap_day_all!O20="","",_tap_day_all!O20)</f>
+        <f>IF(_tap_day_all!O20="","",ROUND(_tap_day_all!O20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="P25" s="27" t="str">
-        <f>IF(_tap_day_all!P20="","",_tap_day_all!P20)</f>
+        <f>IF(_tap_day_all!P20="","",ROUND(_tap_day_all!P20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Q25" s="27" t="str">
-        <f>IF(_tap_day_all!Q20="","",_tap_day_all!Q20)</f>
+        <f>IF(_tap_day_all!Q20="","",ROUND(_tap_day_all!Q20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="R25" s="27" t="str">
-        <f>IF(_tap_day_all!R20="","",_tap_day_all!R20)</f>
+        <f>IF(_tap_day_all!R20="","",ROUND(_tap_day_all!R20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="S25" s="27" t="str">
-        <f>IF(_tap_day_all!S20="","",_tap_day_all!S20)</f>
+        <f>IF(_tap_day_all!S20="","",ROUND(_tap_day_all!S20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="T25" s="27" t="str">
-        <f>IF(_tap_day_all!T20="","",_tap_day_all!T20)</f>
+        <f>IF(_tap_day_all!T20="","",ROUND(_tap_day_all!T20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="U25" s="27" t="str">
-        <f>IF(_tap_day_all!U20="","",_tap_day_all!U20)</f>
+        <f>IF(_tap_day_all!U20="","",ROUND(_tap_day_all!U20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="V25" s="27" t="str">
-        <f>IF(_tap_day_all!V20="","",_tap_day_all!V20)</f>
+        <f>IF(_tap_day_all!V20="","",ROUND(_tap_day_all!V20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="W25" s="27" t="str">
-        <f>IF(_tap_day_all!W20="","",_tap_day_all!W20)</f>
+        <f>IF(_tap_day_all!W20="","",ROUND(_tap_day_all!W20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="X25" s="27" t="str">
-        <f>IF(_tap_day_all!X20="","",_tap_day_all!X20)</f>
+        <f>IF(_tap_day_all!X20="","",ROUND(_tap_day_all!X20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Y25" s="27" t="str">
-        <f>IF(_tap_day_all!Y20="","",_tap_day_all!Y20)</f>
+        <f>IF(_tap_day_all!Y20="","",ROUND(_tap_day_all!Y20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="Z25" s="27" t="str">
-        <f>IF(_tap_day_all!Z20="","",_tap_day_all!Z20)</f>
+        <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20*100,4)&amp;"%")</f>
         <v/>
       </c>
       <c r="AA25" s="27" t="str">
-        <f>IF(_tap_day_all!AA20="","",_tap_day_all!AA20)</f>
-        <v/>
-      </c>
-      <c r="AB25" s="28" t="str">
-        <f>IF(_tap_day_all!AB20="","",_tap_day_all!AB20)</f>
+        <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="27" t="str">
+        <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="28" t="str">
         <f>IF(_tap_day_all!A21="","",_tap_day_all!A21)</f>
         <v/>
       </c>
-      <c r="B26" s="30" t="str">
+      <c r="B26" s="29" t="str">
         <f>IF(_tap_day_all!B21="","",_tap_day_all!B21)</f>
         <v/>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C26" s="29" t="str">
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="33" t="str">
         <f>IF(_tap_day_all!D21="","",_tap_day_all!D21)</f>
         <v/>
       </c>
-      <c r="E26" s="35" t="str">
+      <c r="E26" s="33" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="29" t="str">
         <f>IF(_tap_day_all!F21="","",_tap_day_all!F21)</f>
         <v/>
       </c>
-      <c r="G26" s="30" t="str">
+      <c r="G26" s="29" t="str">
         <f>IF(_tap_day_all!G21="","",_tap_day_all!G21)</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="29" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="29" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
@@ -3818,84 +3808,84 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="30" t="str">
+      <c r="K26" s="29" t="str">
         <f>IF(_tap_day_all!K21="","",_tap_day_all!K21)</f>
         <v/>
       </c>
-      <c r="L26" s="30" t="str">
+      <c r="L26" s="36" t="str">
         <f>IF(_tap_day_all!L21="","",_tap_day_all!L21)</f>
         <v/>
       </c>
-      <c r="M26" s="30" t="str">
-        <f>IF(_tap_day_all!M21="","",_tap_day_all!M21)</f>
-        <v/>
-      </c>
-      <c r="N26" s="30" t="str">
-        <f>IF(_tap_day_all!N21="","",_tap_day_all!N21)</f>
-        <v/>
-      </c>
-      <c r="O26" s="30" t="str">
-        <f>IF(_tap_day_all!O21="","",_tap_day_all!O21)</f>
-        <v/>
-      </c>
-      <c r="P26" s="30" t="str">
-        <f>IF(_tap_day_all!P21="","",_tap_day_all!P21)</f>
-        <v/>
-      </c>
-      <c r="Q26" s="30" t="str">
-        <f>IF(_tap_day_all!Q21="","",_tap_day_all!Q21)</f>
-        <v/>
-      </c>
-      <c r="R26" s="30" t="str">
-        <f>IF(_tap_day_all!R21="","",_tap_day_all!R21)</f>
-        <v/>
-      </c>
-      <c r="S26" s="30" t="str">
-        <f>IF(_tap_day_all!S21="","",_tap_day_all!S21)</f>
-        <v/>
-      </c>
-      <c r="T26" s="30" t="str">
-        <f>IF(_tap_day_all!T21="","",_tap_day_all!T21)</f>
-        <v/>
-      </c>
-      <c r="U26" s="30" t="str">
-        <f>IF(_tap_day_all!U21="","",_tap_day_all!U21)</f>
-        <v/>
-      </c>
-      <c r="V26" s="30" t="str">
-        <f>IF(_tap_day_all!V21="","",_tap_day_all!V21)</f>
-        <v/>
-      </c>
-      <c r="W26" s="30" t="str">
-        <f>IF(_tap_day_all!W21="","",_tap_day_all!W21)</f>
-        <v/>
-      </c>
-      <c r="X26" s="30" t="str">
-        <f>IF(_tap_day_all!X21="","",_tap_day_all!X21)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="30" t="str">
-        <f>IF(_tap_day_all!Y21="","",_tap_day_all!Y21)</f>
-        <v/>
-      </c>
-      <c r="Z26" s="30" t="str">
-        <f>IF(_tap_day_all!Z21="","",_tap_day_all!Z21)</f>
-        <v/>
-      </c>
-      <c r="AA26" s="30" t="str">
-        <f>IF(_tap_day_all!AA21="","",_tap_day_all!AA21)</f>
-        <v/>
-      </c>
-      <c r="AB26" s="31" t="str">
-        <f>IF(_tap_day_all!AB21="","",_tap_day_all!AB21)</f>
+      <c r="M26" s="27" t="str">
+        <f>IF(_tap_day_all!M21="","",ROUND(_tap_day_all!M21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="N26" s="27" t="str">
+        <f>IF(_tap_day_all!N21="","",ROUND(_tap_day_all!N21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="O26" s="27" t="str">
+        <f>IF(_tap_day_all!O21="","",ROUND(_tap_day_all!O21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="P26" s="27" t="str">
+        <f>IF(_tap_day_all!P21="","",ROUND(_tap_day_all!P21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="27" t="str">
+        <f>IF(_tap_day_all!Q21="","",ROUND(_tap_day_all!Q21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="R26" s="27" t="str">
+        <f>IF(_tap_day_all!R21="","",ROUND(_tap_day_all!R21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="S26" s="27" t="str">
+        <f>IF(_tap_day_all!S21="","",ROUND(_tap_day_all!S21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="T26" s="27" t="str">
+        <f>IF(_tap_day_all!T21="","",ROUND(_tap_day_all!T21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="U26" s="27" t="str">
+        <f>IF(_tap_day_all!U21="","",ROUND(_tap_day_all!U21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="V26" s="27" t="str">
+        <f>IF(_tap_day_all!V21="","",ROUND(_tap_day_all!V21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="W26" s="27" t="str">
+        <f>IF(_tap_day_all!W21="","",ROUND(_tap_day_all!W21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="X26" s="27" t="str">
+        <f>IF(_tap_day_all!X21="","",ROUND(_tap_day_all!X21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="Y26" s="27" t="str">
+        <f>IF(_tap_day_all!Y21="","",ROUND(_tap_day_all!Y21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="27" t="str">
+        <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="27" t="str">
+        <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21*100,4)&amp;"%")</f>
+        <v/>
+      </c>
+      <c r="AB26" s="27" t="str">
+        <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21*100,4)&amp;"%")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
@@ -3936,76 +3926,76 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!M2:'_tap_day_all'!M21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="N27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!N2:'_tap_day_all'!N21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="O27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!O2:'_tap_day_all'!O21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="P27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!P2:'_tap_day_all'!P21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="Q27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!Q2:'_tap_day_all'!Q21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="R27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!R2:'_tap_day_all'!R21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="S27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!S2:'_tap_day_all'!S21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="T27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!T2:'_tap_day_all'!T21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="U27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!U2:'_tap_day_all'!U21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="V27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!V2:'_tap_day_all'!V21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="W27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!W2:'_tap_day_all'!W21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="X27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!X2:'_tap_day_all'!X21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="Y27" s="13" t="str">
+        <f>IFERROR(SUM(_tap_day_all!Y2:'_tap_day_all'!Y21)*100&amp;"%","")</f>
+        <v>0%</v>
+      </c>
+      <c r="Z27" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="13">
+      <c r="AA27" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="13">
+      <c r="AB27" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="15" t="str">
         <f t="shared" ref="C28:F28" si="3">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
@@ -4027,7 +4017,7 @@
         <v/>
       </c>
       <c r="H28" s="15" t="str">
-        <f t="shared" ref="H28:AB28" si="4">IFERROR(AVERAGE(H7:H26),"")</f>
+        <f t="shared" ref="H28:L28" si="4">IFERROR(AVERAGE(H7:H26),"")</f>
         <v/>
       </c>
       <c r="I28" s="15" t="str">
@@ -4047,75 +4037,75 @@
         <v/>
       </c>
       <c r="M28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!M2:'_tap_day_all'!M21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="N28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!N2:'_tap_day_all'!N21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="O28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!O2:'_tap_day_all'!O21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="P28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!P2:'_tap_day_all'!P21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="Q28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!R2:'_tap_day_all'!R21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="S28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!S2:'_tap_day_all'!S21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="T28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!T2:'_tap_day_all'!T21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="U28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!U2:'_tap_day_all'!U21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="V28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!V2:'_tap_day_all'!V21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="W28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!W2:'_tap_day_all'!W21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="X28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!X2:'_tap_day_all'!X21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="Y28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="Z28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Z2:'_tap_day_all'!Z21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="AA28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AA2:'_tap_day_all'!AA21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
       <c r="AB28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AB2:'_tap_day_all'!AB21)*100,2)&amp;"%","")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
@@ -4149,8 +4139,8 @@
       <c r="AB29" s="18"/>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="20">
         <v>2</v>
       </c>
@@ -4184,8 +4174,8 @@
       <c r="AB30" s="18"/>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="20">
         <v>3</v>
       </c>
@@ -4219,8 +4209,8 @@
       <c r="AB31" s="18"/>
     </row>
     <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="14">
         <v>4</v>
       </c>
@@ -4255,14 +4245,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AB2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:AB3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -4277,6 +4259,14 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4387,202 +4377,202 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="32"/>
+      <c r="E41" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1651,67 +1651,67 @@
         <v/>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(_tap_day_all!M2="","",ROUND(_tap_day_all!M2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M2="","",ROUND(_tap_day_all!M2*100,4))</f>
         <v/>
       </c>
       <c r="N7" s="27" t="str">
-        <f>IF(_tap_day_all!N2="","",ROUND(_tap_day_all!N2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N2="","",ROUND(_tap_day_all!N2*100,4))</f>
         <v/>
       </c>
       <c r="O7" s="27" t="str">
-        <f>IF(_tap_day_all!O2="","",ROUND(_tap_day_all!O2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O2="","",ROUND(_tap_day_all!O2*100,4))</f>
         <v/>
       </c>
       <c r="P7" s="27" t="str">
-        <f>IF(_tap_day_all!P2="","",ROUND(_tap_day_all!P2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P2="","",ROUND(_tap_day_all!P2*100,4))</f>
         <v/>
       </c>
       <c r="Q7" s="27" t="str">
-        <f>IF(_tap_day_all!Q2="","",ROUND(_tap_day_all!Q2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q2="","",ROUND(_tap_day_all!Q2*100,4))</f>
         <v/>
       </c>
       <c r="R7" s="27" t="str">
-        <f>IF(_tap_day_all!R2="","",ROUND(_tap_day_all!R2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R2="","",ROUND(_tap_day_all!R2*100,4))</f>
         <v/>
       </c>
       <c r="S7" s="27" t="str">
-        <f>IF(_tap_day_all!S2="","",ROUND(_tap_day_all!S2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S2="","",ROUND(_tap_day_all!S2*100,4))</f>
         <v/>
       </c>
       <c r="T7" s="27" t="str">
-        <f>IF(_tap_day_all!T2="","",ROUND(_tap_day_all!T2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T2="","",ROUND(_tap_day_all!T2*100,4))</f>
         <v/>
       </c>
       <c r="U7" s="27" t="str">
-        <f>IF(_tap_day_all!U2="","",ROUND(_tap_day_all!U2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U2="","",ROUND(_tap_day_all!U2*100,4))</f>
         <v/>
       </c>
       <c r="V7" s="27" t="str">
-        <f>IF(_tap_day_all!V2="","",ROUND(_tap_day_all!V2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V2="","",ROUND(_tap_day_all!V2*100,4))</f>
         <v/>
       </c>
       <c r="W7" s="27" t="str">
-        <f>IF(_tap_day_all!W2="","",ROUND(_tap_day_all!W2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W2="","",ROUND(_tap_day_all!W2*100,4))</f>
         <v/>
       </c>
       <c r="X7" s="27" t="str">
-        <f>IF(_tap_day_all!X2="","",ROUND(_tap_day_all!X2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X2="","",ROUND(_tap_day_all!X2*100,4))</f>
         <v/>
       </c>
       <c r="Y7" s="27" t="str">
-        <f>IF(_tap_day_all!Y2="","",ROUND(_tap_day_all!Y2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y2="","",ROUND(_tap_day_all!Y2*100,4))</f>
         <v/>
       </c>
       <c r="Z7" s="27" t="str">
-        <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2,4))</f>
         <v/>
       </c>
       <c r="AA7" s="27" t="str">
-        <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2,4))</f>
         <v/>
       </c>
       <c r="AB7" s="27" t="str">
-        <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2,4))</f>
         <v/>
       </c>
     </row>
@@ -1765,67 +1765,67 @@
         <v/>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(_tap_day_all!M3="","",ROUND(_tap_day_all!M3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M3="","",ROUND(_tap_day_all!M3*100,4))</f>
         <v/>
       </c>
       <c r="N8" s="27" t="str">
-        <f>IF(_tap_day_all!N3="","",ROUND(_tap_day_all!N3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N3="","",ROUND(_tap_day_all!N3*100,4))</f>
         <v/>
       </c>
       <c r="O8" s="27" t="str">
-        <f>IF(_tap_day_all!O3="","",ROUND(_tap_day_all!O3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O3="","",ROUND(_tap_day_all!O3*100,4))</f>
         <v/>
       </c>
       <c r="P8" s="27" t="str">
-        <f>IF(_tap_day_all!P3="","",ROUND(_tap_day_all!P3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P3="","",ROUND(_tap_day_all!P3*100,4))</f>
         <v/>
       </c>
       <c r="Q8" s="27" t="str">
-        <f>IF(_tap_day_all!Q3="","",ROUND(_tap_day_all!Q3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q3="","",ROUND(_tap_day_all!Q3*100,4))</f>
         <v/>
       </c>
       <c r="R8" s="27" t="str">
-        <f>IF(_tap_day_all!R3="","",ROUND(_tap_day_all!R3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R3="","",ROUND(_tap_day_all!R3*100,4))</f>
         <v/>
       </c>
       <c r="S8" s="27" t="str">
-        <f>IF(_tap_day_all!S3="","",ROUND(_tap_day_all!S3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S3="","",ROUND(_tap_day_all!S3*100,4))</f>
         <v/>
       </c>
       <c r="T8" s="27" t="str">
-        <f>IF(_tap_day_all!T3="","",ROUND(_tap_day_all!T3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T3="","",ROUND(_tap_day_all!T3*100,4))</f>
         <v/>
       </c>
       <c r="U8" s="27" t="str">
-        <f>IF(_tap_day_all!U3="","",ROUND(_tap_day_all!U3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U3="","",ROUND(_tap_day_all!U3*100,4))</f>
         <v/>
       </c>
       <c r="V8" s="27" t="str">
-        <f>IF(_tap_day_all!V3="","",ROUND(_tap_day_all!V3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V3="","",ROUND(_tap_day_all!V3*100,4))</f>
         <v/>
       </c>
       <c r="W8" s="27" t="str">
-        <f>IF(_tap_day_all!W3="","",ROUND(_tap_day_all!W3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W3="","",ROUND(_tap_day_all!W3*100,4))</f>
         <v/>
       </c>
       <c r="X8" s="27" t="str">
-        <f>IF(_tap_day_all!X3="","",ROUND(_tap_day_all!X3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X3="","",ROUND(_tap_day_all!X3*100,4))</f>
         <v/>
       </c>
       <c r="Y8" s="27" t="str">
-        <f>IF(_tap_day_all!Y3="","",ROUND(_tap_day_all!Y3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y3="","",ROUND(_tap_day_all!Y3*100,4))</f>
         <v/>
       </c>
       <c r="Z8" s="27" t="str">
-        <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3,4))</f>
         <v/>
       </c>
       <c r="AA8" s="27" t="str">
-        <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3,4))</f>
         <v/>
       </c>
       <c r="AB8" s="27" t="str">
-        <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3,4))</f>
         <v/>
       </c>
     </row>
@@ -1879,67 +1879,67 @@
         <v/>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(_tap_day_all!M4="","",ROUND(_tap_day_all!M4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M4="","",ROUND(_tap_day_all!M4*100,4))</f>
         <v/>
       </c>
       <c r="N9" s="27" t="str">
-        <f>IF(_tap_day_all!N4="","",ROUND(_tap_day_all!N4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N4="","",ROUND(_tap_day_all!N4*100,4))</f>
         <v/>
       </c>
       <c r="O9" s="27" t="str">
-        <f>IF(_tap_day_all!O4="","",ROUND(_tap_day_all!O4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O4="","",ROUND(_tap_day_all!O4*100,4))</f>
         <v/>
       </c>
       <c r="P9" s="27" t="str">
-        <f>IF(_tap_day_all!P4="","",ROUND(_tap_day_all!P4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P4="","",ROUND(_tap_day_all!P4*100,4))</f>
         <v/>
       </c>
       <c r="Q9" s="27" t="str">
-        <f>IF(_tap_day_all!Q4="","",ROUND(_tap_day_all!Q4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q4="","",ROUND(_tap_day_all!Q4*100,4))</f>
         <v/>
       </c>
       <c r="R9" s="27" t="str">
-        <f>IF(_tap_day_all!R4="","",ROUND(_tap_day_all!R4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R4="","",ROUND(_tap_day_all!R4*100,4))</f>
         <v/>
       </c>
       <c r="S9" s="27" t="str">
-        <f>IF(_tap_day_all!S4="","",ROUND(_tap_day_all!S4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S4="","",ROUND(_tap_day_all!S4*100,4))</f>
         <v/>
       </c>
       <c r="T9" s="27" t="str">
-        <f>IF(_tap_day_all!T4="","",ROUND(_tap_day_all!T4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T4="","",ROUND(_tap_day_all!T4*100,4))</f>
         <v/>
       </c>
       <c r="U9" s="27" t="str">
-        <f>IF(_tap_day_all!U4="","",ROUND(_tap_day_all!U4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U4="","",ROUND(_tap_day_all!U4*100,4))</f>
         <v/>
       </c>
       <c r="V9" s="27" t="str">
-        <f>IF(_tap_day_all!V4="","",ROUND(_tap_day_all!V4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V4="","",ROUND(_tap_day_all!V4*100,4))</f>
         <v/>
       </c>
       <c r="W9" s="27" t="str">
-        <f>IF(_tap_day_all!W4="","",ROUND(_tap_day_all!W4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W4="","",ROUND(_tap_day_all!W4*100,4))</f>
         <v/>
       </c>
       <c r="X9" s="27" t="str">
-        <f>IF(_tap_day_all!X4="","",ROUND(_tap_day_all!X4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X4="","",ROUND(_tap_day_all!X4*100,4))</f>
         <v/>
       </c>
       <c r="Y9" s="27" t="str">
-        <f>IF(_tap_day_all!Y4="","",ROUND(_tap_day_all!Y4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y4="","",ROUND(_tap_day_all!Y4*100,4))</f>
         <v/>
       </c>
       <c r="Z9" s="27" t="str">
-        <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4,4))</f>
         <v/>
       </c>
       <c r="AA9" s="27" t="str">
-        <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4,4))</f>
         <v/>
       </c>
       <c r="AB9" s="27" t="str">
-        <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4,4))</f>
         <v/>
       </c>
     </row>
@@ -1993,67 +1993,67 @@
         <v/>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(_tap_day_all!M5="","",ROUND(_tap_day_all!M5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M5="","",ROUND(_tap_day_all!M5*100,4))</f>
         <v/>
       </c>
       <c r="N10" s="27" t="str">
-        <f>IF(_tap_day_all!N5="","",ROUND(_tap_day_all!N5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N5="","",ROUND(_tap_day_all!N5*100,4))</f>
         <v/>
       </c>
       <c r="O10" s="27" t="str">
-        <f>IF(_tap_day_all!O5="","",ROUND(_tap_day_all!O5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O5="","",ROUND(_tap_day_all!O5*100,4))</f>
         <v/>
       </c>
       <c r="P10" s="27" t="str">
-        <f>IF(_tap_day_all!P5="","",ROUND(_tap_day_all!P5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P5="","",ROUND(_tap_day_all!P5*100,4))</f>
         <v/>
       </c>
       <c r="Q10" s="27" t="str">
-        <f>IF(_tap_day_all!Q5="","",ROUND(_tap_day_all!Q5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q5="","",ROUND(_tap_day_all!Q5*100,4))</f>
         <v/>
       </c>
       <c r="R10" s="27" t="str">
-        <f>IF(_tap_day_all!R5="","",ROUND(_tap_day_all!R5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R5="","",ROUND(_tap_day_all!R5*100,4))</f>
         <v/>
       </c>
       <c r="S10" s="27" t="str">
-        <f>IF(_tap_day_all!S5="","",ROUND(_tap_day_all!S5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S5="","",ROUND(_tap_day_all!S5*100,4))</f>
         <v/>
       </c>
       <c r="T10" s="27" t="str">
-        <f>IF(_tap_day_all!T5="","",ROUND(_tap_day_all!T5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T5="","",ROUND(_tap_day_all!T5*100,4))</f>
         <v/>
       </c>
       <c r="U10" s="27" t="str">
-        <f>IF(_tap_day_all!U5="","",ROUND(_tap_day_all!U5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U5="","",ROUND(_tap_day_all!U5*100,4))</f>
         <v/>
       </c>
       <c r="V10" s="27" t="str">
-        <f>IF(_tap_day_all!V5="","",ROUND(_tap_day_all!V5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V5="","",ROUND(_tap_day_all!V5*100,4))</f>
         <v/>
       </c>
       <c r="W10" s="27" t="str">
-        <f>IF(_tap_day_all!W5="","",ROUND(_tap_day_all!W5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W5="","",ROUND(_tap_day_all!W5*100,4))</f>
         <v/>
       </c>
       <c r="X10" s="27" t="str">
-        <f>IF(_tap_day_all!X5="","",ROUND(_tap_day_all!X5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X5="","",ROUND(_tap_day_all!X5*100,4))</f>
         <v/>
       </c>
       <c r="Y10" s="27" t="str">
-        <f>IF(_tap_day_all!Y5="","",ROUND(_tap_day_all!Y5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y5="","",ROUND(_tap_day_all!Y5*100,4))</f>
         <v/>
       </c>
       <c r="Z10" s="27" t="str">
-        <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5,4))</f>
         <v/>
       </c>
       <c r="AA10" s="27" t="str">
-        <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5,4))</f>
         <v/>
       </c>
       <c r="AB10" s="27" t="str">
-        <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5,4))</f>
         <v/>
       </c>
     </row>
@@ -2107,67 +2107,67 @@
         <v/>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(_tap_day_all!M6="","",ROUND(_tap_day_all!M6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M6="","",ROUND(_tap_day_all!M6*100,4))</f>
         <v/>
       </c>
       <c r="N11" s="27" t="str">
-        <f>IF(_tap_day_all!N6="","",ROUND(_tap_day_all!N6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N6="","",ROUND(_tap_day_all!N6*100,4))</f>
         <v/>
       </c>
       <c r="O11" s="27" t="str">
-        <f>IF(_tap_day_all!O6="","",ROUND(_tap_day_all!O6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O6="","",ROUND(_tap_day_all!O6*100,4))</f>
         <v/>
       </c>
       <c r="P11" s="27" t="str">
-        <f>IF(_tap_day_all!P6="","",ROUND(_tap_day_all!P6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P6="","",ROUND(_tap_day_all!P6*100,4))</f>
         <v/>
       </c>
       <c r="Q11" s="27" t="str">
-        <f>IF(_tap_day_all!Q6="","",ROUND(_tap_day_all!Q6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q6="","",ROUND(_tap_day_all!Q6*100,4))</f>
         <v/>
       </c>
       <c r="R11" s="27" t="str">
-        <f>IF(_tap_day_all!R6="","",ROUND(_tap_day_all!R6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R6="","",ROUND(_tap_day_all!R6*100,4))</f>
         <v/>
       </c>
       <c r="S11" s="27" t="str">
-        <f>IF(_tap_day_all!S6="","",ROUND(_tap_day_all!S6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S6="","",ROUND(_tap_day_all!S6*100,4))</f>
         <v/>
       </c>
       <c r="T11" s="27" t="str">
-        <f>IF(_tap_day_all!T6="","",ROUND(_tap_day_all!T6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T6="","",ROUND(_tap_day_all!T6*100,4))</f>
         <v/>
       </c>
       <c r="U11" s="27" t="str">
-        <f>IF(_tap_day_all!U6="","",ROUND(_tap_day_all!U6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U6="","",ROUND(_tap_day_all!U6*100,4))</f>
         <v/>
       </c>
       <c r="V11" s="27" t="str">
-        <f>IF(_tap_day_all!V6="","",ROUND(_tap_day_all!V6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V6="","",ROUND(_tap_day_all!V6*100,4))</f>
         <v/>
       </c>
       <c r="W11" s="27" t="str">
-        <f>IF(_tap_day_all!W6="","",ROUND(_tap_day_all!W6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W6="","",ROUND(_tap_day_all!W6*100,4))</f>
         <v/>
       </c>
       <c r="X11" s="27" t="str">
-        <f>IF(_tap_day_all!X6="","",ROUND(_tap_day_all!X6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X6="","",ROUND(_tap_day_all!X6*100,4))</f>
         <v/>
       </c>
       <c r="Y11" s="27" t="str">
-        <f>IF(_tap_day_all!Y6="","",ROUND(_tap_day_all!Y6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y6="","",ROUND(_tap_day_all!Y6*100,4))</f>
         <v/>
       </c>
       <c r="Z11" s="27" t="str">
-        <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6,4))</f>
         <v/>
       </c>
       <c r="AA11" s="27" t="str">
-        <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6,4))</f>
         <v/>
       </c>
       <c r="AB11" s="27" t="str">
-        <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6,4))</f>
         <v/>
       </c>
     </row>
@@ -2221,67 +2221,67 @@
         <v/>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(_tap_day_all!M7="","",ROUND(_tap_day_all!M7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M7="","",ROUND(_tap_day_all!M7*100,4))</f>
         <v/>
       </c>
       <c r="N12" s="27" t="str">
-        <f>IF(_tap_day_all!N7="","",ROUND(_tap_day_all!N7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N7="","",ROUND(_tap_day_all!N7*100,4))</f>
         <v/>
       </c>
       <c r="O12" s="27" t="str">
-        <f>IF(_tap_day_all!O7="","",ROUND(_tap_day_all!O7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O7="","",ROUND(_tap_day_all!O7*100,4))</f>
         <v/>
       </c>
       <c r="P12" s="27" t="str">
-        <f>IF(_tap_day_all!P7="","",ROUND(_tap_day_all!P7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P7="","",ROUND(_tap_day_all!P7*100,4))</f>
         <v/>
       </c>
       <c r="Q12" s="27" t="str">
-        <f>IF(_tap_day_all!Q7="","",ROUND(_tap_day_all!Q7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q7="","",ROUND(_tap_day_all!Q7*100,4))</f>
         <v/>
       </c>
       <c r="R12" s="27" t="str">
-        <f>IF(_tap_day_all!R7="","",ROUND(_tap_day_all!R7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R7="","",ROUND(_tap_day_all!R7*100,4))</f>
         <v/>
       </c>
       <c r="S12" s="27" t="str">
-        <f>IF(_tap_day_all!S7="","",ROUND(_tap_day_all!S7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S7="","",ROUND(_tap_day_all!S7*100,4))</f>
         <v/>
       </c>
       <c r="T12" s="27" t="str">
-        <f>IF(_tap_day_all!T7="","",ROUND(_tap_day_all!T7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T7="","",ROUND(_tap_day_all!T7*100,4))</f>
         <v/>
       </c>
       <c r="U12" s="27" t="str">
-        <f>IF(_tap_day_all!U7="","",ROUND(_tap_day_all!U7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U7="","",ROUND(_tap_day_all!U7*100,4))</f>
         <v/>
       </c>
       <c r="V12" s="27" t="str">
-        <f>IF(_tap_day_all!V7="","",ROUND(_tap_day_all!V7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V7="","",ROUND(_tap_day_all!V7*100,4))</f>
         <v/>
       </c>
       <c r="W12" s="27" t="str">
-        <f>IF(_tap_day_all!W7="","",ROUND(_tap_day_all!W7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W7="","",ROUND(_tap_day_all!W7*100,4))</f>
         <v/>
       </c>
       <c r="X12" s="27" t="str">
-        <f>IF(_tap_day_all!X7="","",ROUND(_tap_day_all!X7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X7="","",ROUND(_tap_day_all!X7*100,4))</f>
         <v/>
       </c>
       <c r="Y12" s="27" t="str">
-        <f>IF(_tap_day_all!Y7="","",ROUND(_tap_day_all!Y7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y7="","",ROUND(_tap_day_all!Y7*100,4))</f>
         <v/>
       </c>
       <c r="Z12" s="27" t="str">
-        <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7,4))</f>
         <v/>
       </c>
       <c r="AA12" s="27" t="str">
-        <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7,4))</f>
         <v/>
       </c>
       <c r="AB12" s="27" t="str">
-        <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7,4))</f>
         <v/>
       </c>
     </row>
@@ -2335,67 +2335,67 @@
         <v/>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(_tap_day_all!M8="","",ROUND(_tap_day_all!M8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M8="","",ROUND(_tap_day_all!M8*100,4))</f>
         <v/>
       </c>
       <c r="N13" s="27" t="str">
-        <f>IF(_tap_day_all!N8="","",ROUND(_tap_day_all!N8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N8="","",ROUND(_tap_day_all!N8*100,4))</f>
         <v/>
       </c>
       <c r="O13" s="27" t="str">
-        <f>IF(_tap_day_all!O8="","",ROUND(_tap_day_all!O8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O8="","",ROUND(_tap_day_all!O8*100,4))</f>
         <v/>
       </c>
       <c r="P13" s="27" t="str">
-        <f>IF(_tap_day_all!P8="","",ROUND(_tap_day_all!P8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P8="","",ROUND(_tap_day_all!P8*100,4))</f>
         <v/>
       </c>
       <c r="Q13" s="27" t="str">
-        <f>IF(_tap_day_all!Q8="","",ROUND(_tap_day_all!Q8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q8="","",ROUND(_tap_day_all!Q8*100,4))</f>
         <v/>
       </c>
       <c r="R13" s="27" t="str">
-        <f>IF(_tap_day_all!R8="","",ROUND(_tap_day_all!R8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R8="","",ROUND(_tap_day_all!R8*100,4))</f>
         <v/>
       </c>
       <c r="S13" s="27" t="str">
-        <f>IF(_tap_day_all!S8="","",ROUND(_tap_day_all!S8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S8="","",ROUND(_tap_day_all!S8*100,4))</f>
         <v/>
       </c>
       <c r="T13" s="27" t="str">
-        <f>IF(_tap_day_all!T8="","",ROUND(_tap_day_all!T8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T8="","",ROUND(_tap_day_all!T8*100,4))</f>
         <v/>
       </c>
       <c r="U13" s="27" t="str">
-        <f>IF(_tap_day_all!U8="","",ROUND(_tap_day_all!U8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U8="","",ROUND(_tap_day_all!U8*100,4))</f>
         <v/>
       </c>
       <c r="V13" s="27" t="str">
-        <f>IF(_tap_day_all!V8="","",ROUND(_tap_day_all!V8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V8="","",ROUND(_tap_day_all!V8*100,4))</f>
         <v/>
       </c>
       <c r="W13" s="27" t="str">
-        <f>IF(_tap_day_all!W8="","",ROUND(_tap_day_all!W8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W8="","",ROUND(_tap_day_all!W8*100,4))</f>
         <v/>
       </c>
       <c r="X13" s="27" t="str">
-        <f>IF(_tap_day_all!X8="","",ROUND(_tap_day_all!X8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X8="","",ROUND(_tap_day_all!X8*100,4))</f>
         <v/>
       </c>
       <c r="Y13" s="27" t="str">
-        <f>IF(_tap_day_all!Y8="","",ROUND(_tap_day_all!Y8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y8="","",ROUND(_tap_day_all!Y8*100,4))</f>
         <v/>
       </c>
       <c r="Z13" s="27" t="str">
-        <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8,4))</f>
         <v/>
       </c>
       <c r="AA13" s="27" t="str">
-        <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8,4))</f>
         <v/>
       </c>
       <c r="AB13" s="27" t="str">
-        <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8,4))</f>
         <v/>
       </c>
     </row>
@@ -2449,67 +2449,67 @@
         <v/>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(_tap_day_all!M9="","",ROUND(_tap_day_all!M9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M9="","",ROUND(_tap_day_all!M9*100,4))</f>
         <v/>
       </c>
       <c r="N14" s="27" t="str">
-        <f>IF(_tap_day_all!N9="","",ROUND(_tap_day_all!N9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N9="","",ROUND(_tap_day_all!N9*100,4))</f>
         <v/>
       </c>
       <c r="O14" s="27" t="str">
-        <f>IF(_tap_day_all!O9="","",ROUND(_tap_day_all!O9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O9="","",ROUND(_tap_day_all!O9*100,4))</f>
         <v/>
       </c>
       <c r="P14" s="27" t="str">
-        <f>IF(_tap_day_all!P9="","",ROUND(_tap_day_all!P9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P9="","",ROUND(_tap_day_all!P9*100,4))</f>
         <v/>
       </c>
       <c r="Q14" s="27" t="str">
-        <f>IF(_tap_day_all!Q9="","",ROUND(_tap_day_all!Q9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q9="","",ROUND(_tap_day_all!Q9*100,4))</f>
         <v/>
       </c>
       <c r="R14" s="27" t="str">
-        <f>IF(_tap_day_all!R9="","",ROUND(_tap_day_all!R9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R9="","",ROUND(_tap_day_all!R9*100,4))</f>
         <v/>
       </c>
       <c r="S14" s="27" t="str">
-        <f>IF(_tap_day_all!S9="","",ROUND(_tap_day_all!S9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S9="","",ROUND(_tap_day_all!S9*100,4))</f>
         <v/>
       </c>
       <c r="T14" s="27" t="str">
-        <f>IF(_tap_day_all!T9="","",ROUND(_tap_day_all!T9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T9="","",ROUND(_tap_day_all!T9*100,4))</f>
         <v/>
       </c>
       <c r="U14" s="27" t="str">
-        <f>IF(_tap_day_all!U9="","",ROUND(_tap_day_all!U9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U9="","",ROUND(_tap_day_all!U9*100,4))</f>
         <v/>
       </c>
       <c r="V14" s="27" t="str">
-        <f>IF(_tap_day_all!V9="","",ROUND(_tap_day_all!V9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V9="","",ROUND(_tap_day_all!V9*100,4))</f>
         <v/>
       </c>
       <c r="W14" s="27" t="str">
-        <f>IF(_tap_day_all!W9="","",ROUND(_tap_day_all!W9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W9="","",ROUND(_tap_day_all!W9*100,4))</f>
         <v/>
       </c>
       <c r="X14" s="27" t="str">
-        <f>IF(_tap_day_all!X9="","",ROUND(_tap_day_all!X9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X9="","",ROUND(_tap_day_all!X9*100,4))</f>
         <v/>
       </c>
       <c r="Y14" s="27" t="str">
-        <f>IF(_tap_day_all!Y9="","",ROUND(_tap_day_all!Y9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y9="","",ROUND(_tap_day_all!Y9*100,4))</f>
         <v/>
       </c>
       <c r="Z14" s="27" t="str">
-        <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9,4))</f>
         <v/>
       </c>
       <c r="AA14" s="27" t="str">
-        <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9,4))</f>
         <v/>
       </c>
       <c r="AB14" s="27" t="str">
-        <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9,4))</f>
         <v/>
       </c>
     </row>
@@ -2563,67 +2563,67 @@
         <v/>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(_tap_day_all!M10="","",ROUND(_tap_day_all!M10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M10="","",ROUND(_tap_day_all!M10*100,4))</f>
         <v/>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IF(_tap_day_all!N10="","",ROUND(_tap_day_all!N10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N10="","",ROUND(_tap_day_all!N10*100,4))</f>
         <v/>
       </c>
       <c r="O15" s="27" t="str">
-        <f>IF(_tap_day_all!O10="","",ROUND(_tap_day_all!O10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O10="","",ROUND(_tap_day_all!O10*100,4))</f>
         <v/>
       </c>
       <c r="P15" s="27" t="str">
-        <f>IF(_tap_day_all!P10="","",ROUND(_tap_day_all!P10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P10="","",ROUND(_tap_day_all!P10*100,4))</f>
         <v/>
       </c>
       <c r="Q15" s="27" t="str">
-        <f>IF(_tap_day_all!Q10="","",ROUND(_tap_day_all!Q10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q10="","",ROUND(_tap_day_all!Q10*100,4))</f>
         <v/>
       </c>
       <c r="R15" s="27" t="str">
-        <f>IF(_tap_day_all!R10="","",ROUND(_tap_day_all!R10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R10="","",ROUND(_tap_day_all!R10*100,4))</f>
         <v/>
       </c>
       <c r="S15" s="27" t="str">
-        <f>IF(_tap_day_all!S10="","",ROUND(_tap_day_all!S10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S10="","",ROUND(_tap_day_all!S10*100,4))</f>
         <v/>
       </c>
       <c r="T15" s="27" t="str">
-        <f>IF(_tap_day_all!T10="","",ROUND(_tap_day_all!T10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T10="","",ROUND(_tap_day_all!T10*100,4))</f>
         <v/>
       </c>
       <c r="U15" s="27" t="str">
-        <f>IF(_tap_day_all!U10="","",ROUND(_tap_day_all!U10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U10="","",ROUND(_tap_day_all!U10*100,4))</f>
         <v/>
       </c>
       <c r="V15" s="27" t="str">
-        <f>IF(_tap_day_all!V10="","",ROUND(_tap_day_all!V10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V10="","",ROUND(_tap_day_all!V10*100,4))</f>
         <v/>
       </c>
       <c r="W15" s="27" t="str">
-        <f>IF(_tap_day_all!W10="","",ROUND(_tap_day_all!W10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W10="","",ROUND(_tap_day_all!W10*100,4))</f>
         <v/>
       </c>
       <c r="X15" s="27" t="str">
-        <f>IF(_tap_day_all!X10="","",ROUND(_tap_day_all!X10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X10="","",ROUND(_tap_day_all!X10*100,4))</f>
         <v/>
       </c>
       <c r="Y15" s="27" t="str">
-        <f>IF(_tap_day_all!Y10="","",ROUND(_tap_day_all!Y10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y10="","",ROUND(_tap_day_all!Y10*100,4))</f>
         <v/>
       </c>
       <c r="Z15" s="27" t="str">
-        <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10,4))</f>
         <v/>
       </c>
       <c r="AA15" s="27" t="str">
-        <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10,4))</f>
         <v/>
       </c>
       <c r="AB15" s="27" t="str">
-        <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10,4))</f>
         <v/>
       </c>
     </row>
@@ -2677,67 +2677,67 @@
         <v/>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(_tap_day_all!M11="","",ROUND(_tap_day_all!M11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M11="","",ROUND(_tap_day_all!M11*100,4))</f>
         <v/>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IF(_tap_day_all!N11="","",ROUND(_tap_day_all!N11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N11="","",ROUND(_tap_day_all!N11*100,4))</f>
         <v/>
       </c>
       <c r="O16" s="27" t="str">
-        <f>IF(_tap_day_all!O11="","",ROUND(_tap_day_all!O11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O11="","",ROUND(_tap_day_all!O11*100,4))</f>
         <v/>
       </c>
       <c r="P16" s="27" t="str">
-        <f>IF(_tap_day_all!P11="","",ROUND(_tap_day_all!P11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P11="","",ROUND(_tap_day_all!P11*100,4))</f>
         <v/>
       </c>
       <c r="Q16" s="27" t="str">
-        <f>IF(_tap_day_all!Q11="","",ROUND(_tap_day_all!Q11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q11="","",ROUND(_tap_day_all!Q11*100,4))</f>
         <v/>
       </c>
       <c r="R16" s="27" t="str">
-        <f>IF(_tap_day_all!R11="","",ROUND(_tap_day_all!R11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R11="","",ROUND(_tap_day_all!R11*100,4))</f>
         <v/>
       </c>
       <c r="S16" s="27" t="str">
-        <f>IF(_tap_day_all!S11="","",ROUND(_tap_day_all!S11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S11="","",ROUND(_tap_day_all!S11*100,4))</f>
         <v/>
       </c>
       <c r="T16" s="27" t="str">
-        <f>IF(_tap_day_all!T11="","",ROUND(_tap_day_all!T11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T11="","",ROUND(_tap_day_all!T11*100,4))</f>
         <v/>
       </c>
       <c r="U16" s="27" t="str">
-        <f>IF(_tap_day_all!U11="","",ROUND(_tap_day_all!U11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U11="","",ROUND(_tap_day_all!U11*100,4))</f>
         <v/>
       </c>
       <c r="V16" s="27" t="str">
-        <f>IF(_tap_day_all!V11="","",ROUND(_tap_day_all!V11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V11="","",ROUND(_tap_day_all!V11*100,4))</f>
         <v/>
       </c>
       <c r="W16" s="27" t="str">
-        <f>IF(_tap_day_all!W11="","",ROUND(_tap_day_all!W11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W11="","",ROUND(_tap_day_all!W11*100,4))</f>
         <v/>
       </c>
       <c r="X16" s="27" t="str">
-        <f>IF(_tap_day_all!X11="","",ROUND(_tap_day_all!X11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X11="","",ROUND(_tap_day_all!X11*100,4))</f>
         <v/>
       </c>
       <c r="Y16" s="27" t="str">
-        <f>IF(_tap_day_all!Y11="","",ROUND(_tap_day_all!Y11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y11="","",ROUND(_tap_day_all!Y11*100,4))</f>
         <v/>
       </c>
       <c r="Z16" s="27" t="str">
-        <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11,4))</f>
         <v/>
       </c>
       <c r="AA16" s="27" t="str">
-        <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11,4))</f>
         <v/>
       </c>
       <c r="AB16" s="27" t="str">
-        <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11,4))</f>
         <v/>
       </c>
     </row>
@@ -2791,67 +2791,67 @@
         <v/>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(_tap_day_all!M12="","",ROUND(_tap_day_all!M12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M12="","",ROUND(_tap_day_all!M12*100,4))</f>
         <v/>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IF(_tap_day_all!N12="","",ROUND(_tap_day_all!N12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N12="","",ROUND(_tap_day_all!N12*100,4))</f>
         <v/>
       </c>
       <c r="O17" s="27" t="str">
-        <f>IF(_tap_day_all!O12="","",ROUND(_tap_day_all!O12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O12="","",ROUND(_tap_day_all!O12*100,4))</f>
         <v/>
       </c>
       <c r="P17" s="27" t="str">
-        <f>IF(_tap_day_all!P12="","",ROUND(_tap_day_all!P12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P12="","",ROUND(_tap_day_all!P12*100,4))</f>
         <v/>
       </c>
       <c r="Q17" s="27" t="str">
-        <f>IF(_tap_day_all!Q12="","",ROUND(_tap_day_all!Q12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q12="","",ROUND(_tap_day_all!Q12*100,4))</f>
         <v/>
       </c>
       <c r="R17" s="27" t="str">
-        <f>IF(_tap_day_all!R12="","",ROUND(_tap_day_all!R12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R12="","",ROUND(_tap_day_all!R12*100,4))</f>
         <v/>
       </c>
       <c r="S17" s="27" t="str">
-        <f>IF(_tap_day_all!S12="","",ROUND(_tap_day_all!S12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S12="","",ROUND(_tap_day_all!S12*100,4))</f>
         <v/>
       </c>
       <c r="T17" s="27" t="str">
-        <f>IF(_tap_day_all!T12="","",ROUND(_tap_day_all!T12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T12="","",ROUND(_tap_day_all!T12*100,4))</f>
         <v/>
       </c>
       <c r="U17" s="27" t="str">
-        <f>IF(_tap_day_all!U12="","",ROUND(_tap_day_all!U12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U12="","",ROUND(_tap_day_all!U12*100,4))</f>
         <v/>
       </c>
       <c r="V17" s="27" t="str">
-        <f>IF(_tap_day_all!V12="","",ROUND(_tap_day_all!V12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V12="","",ROUND(_tap_day_all!V12*100,4))</f>
         <v/>
       </c>
       <c r="W17" s="27" t="str">
-        <f>IF(_tap_day_all!W12="","",ROUND(_tap_day_all!W12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W12="","",ROUND(_tap_day_all!W12*100,4))</f>
         <v/>
       </c>
       <c r="X17" s="27" t="str">
-        <f>IF(_tap_day_all!X12="","",ROUND(_tap_day_all!X12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X12="","",ROUND(_tap_day_all!X12*100,4))</f>
         <v/>
       </c>
       <c r="Y17" s="27" t="str">
-        <f>IF(_tap_day_all!Y12="","",ROUND(_tap_day_all!Y12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y12="","",ROUND(_tap_day_all!Y12*100,4))</f>
         <v/>
       </c>
       <c r="Z17" s="27" t="str">
-        <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12,4))</f>
         <v/>
       </c>
       <c r="AA17" s="27" t="str">
-        <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12,4))</f>
         <v/>
       </c>
       <c r="AB17" s="27" t="str">
-        <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12,4))</f>
         <v/>
       </c>
     </row>
@@ -2905,67 +2905,67 @@
         <v/>
       </c>
       <c r="M18" s="27" t="str">
-        <f>IF(_tap_day_all!M13="","",ROUND(_tap_day_all!M13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M13="","",ROUND(_tap_day_all!M13*100,4))</f>
         <v/>
       </c>
       <c r="N18" s="27" t="str">
-        <f>IF(_tap_day_all!N13="","",ROUND(_tap_day_all!N13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N13="","",ROUND(_tap_day_all!N13*100,4))</f>
         <v/>
       </c>
       <c r="O18" s="27" t="str">
-        <f>IF(_tap_day_all!O13="","",ROUND(_tap_day_all!O13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O13="","",ROUND(_tap_day_all!O13*100,4))</f>
         <v/>
       </c>
       <c r="P18" s="27" t="str">
-        <f>IF(_tap_day_all!P13="","",ROUND(_tap_day_all!P13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P13="","",ROUND(_tap_day_all!P13*100,4))</f>
         <v/>
       </c>
       <c r="Q18" s="27" t="str">
-        <f>IF(_tap_day_all!Q13="","",ROUND(_tap_day_all!Q13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q13="","",ROUND(_tap_day_all!Q13*100,4))</f>
         <v/>
       </c>
       <c r="R18" s="27" t="str">
-        <f>IF(_tap_day_all!R13="","",ROUND(_tap_day_all!R13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R13="","",ROUND(_tap_day_all!R13*100,4))</f>
         <v/>
       </c>
       <c r="S18" s="27" t="str">
-        <f>IF(_tap_day_all!S13="","",ROUND(_tap_day_all!S13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S13="","",ROUND(_tap_day_all!S13*100,4))</f>
         <v/>
       </c>
       <c r="T18" s="27" t="str">
-        <f>IF(_tap_day_all!T13="","",ROUND(_tap_day_all!T13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T13="","",ROUND(_tap_day_all!T13*100,4))</f>
         <v/>
       </c>
       <c r="U18" s="27" t="str">
-        <f>IF(_tap_day_all!U13="","",ROUND(_tap_day_all!U13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U13="","",ROUND(_tap_day_all!U13*100,4))</f>
         <v/>
       </c>
       <c r="V18" s="27" t="str">
-        <f>IF(_tap_day_all!V13="","",ROUND(_tap_day_all!V13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V13="","",ROUND(_tap_day_all!V13*100,4))</f>
         <v/>
       </c>
       <c r="W18" s="27" t="str">
-        <f>IF(_tap_day_all!W13="","",ROUND(_tap_day_all!W13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W13="","",ROUND(_tap_day_all!W13*100,4))</f>
         <v/>
       </c>
       <c r="X18" s="27" t="str">
-        <f>IF(_tap_day_all!X13="","",ROUND(_tap_day_all!X13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X13="","",ROUND(_tap_day_all!X13*100,4))</f>
         <v/>
       </c>
       <c r="Y18" s="27" t="str">
-        <f>IF(_tap_day_all!Y13="","",ROUND(_tap_day_all!Y13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y13="","",ROUND(_tap_day_all!Y13*100,4))</f>
         <v/>
       </c>
       <c r="Z18" s="27" t="str">
-        <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13,4))</f>
         <v/>
       </c>
       <c r="AA18" s="27" t="str">
-        <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13,4))</f>
         <v/>
       </c>
       <c r="AB18" s="27" t="str">
-        <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13,4))</f>
         <v/>
       </c>
     </row>
@@ -3019,67 +3019,67 @@
         <v/>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IF(_tap_day_all!M14="","",ROUND(_tap_day_all!M14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M14="","",ROUND(_tap_day_all!M14*100,4))</f>
         <v/>
       </c>
       <c r="N19" s="27" t="str">
-        <f>IF(_tap_day_all!N14="","",ROUND(_tap_day_all!N14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N14="","",ROUND(_tap_day_all!N14*100,4))</f>
         <v/>
       </c>
       <c r="O19" s="27" t="str">
-        <f>IF(_tap_day_all!O14="","",ROUND(_tap_day_all!O14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O14="","",ROUND(_tap_day_all!O14*100,4))</f>
         <v/>
       </c>
       <c r="P19" s="27" t="str">
-        <f>IF(_tap_day_all!P14="","",ROUND(_tap_day_all!P14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P14="","",ROUND(_tap_day_all!P14*100,4))</f>
         <v/>
       </c>
       <c r="Q19" s="27" t="str">
-        <f>IF(_tap_day_all!Q14="","",ROUND(_tap_day_all!Q14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q14="","",ROUND(_tap_day_all!Q14*100,4))</f>
         <v/>
       </c>
       <c r="R19" s="27" t="str">
-        <f>IF(_tap_day_all!R14="","",ROUND(_tap_day_all!R14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R14="","",ROUND(_tap_day_all!R14*100,4))</f>
         <v/>
       </c>
       <c r="S19" s="27" t="str">
-        <f>IF(_tap_day_all!S14="","",ROUND(_tap_day_all!S14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S14="","",ROUND(_tap_day_all!S14*100,4))</f>
         <v/>
       </c>
       <c r="T19" s="27" t="str">
-        <f>IF(_tap_day_all!T14="","",ROUND(_tap_day_all!T14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T14="","",ROUND(_tap_day_all!T14*100,4))</f>
         <v/>
       </c>
       <c r="U19" s="27" t="str">
-        <f>IF(_tap_day_all!U14="","",ROUND(_tap_day_all!U14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U14="","",ROUND(_tap_day_all!U14*100,4))</f>
         <v/>
       </c>
       <c r="V19" s="27" t="str">
-        <f>IF(_tap_day_all!V14="","",ROUND(_tap_day_all!V14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V14="","",ROUND(_tap_day_all!V14*100,4))</f>
         <v/>
       </c>
       <c r="W19" s="27" t="str">
-        <f>IF(_tap_day_all!W14="","",ROUND(_tap_day_all!W14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W14="","",ROUND(_tap_day_all!W14*100,4))</f>
         <v/>
       </c>
       <c r="X19" s="27" t="str">
-        <f>IF(_tap_day_all!X14="","",ROUND(_tap_day_all!X14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X14="","",ROUND(_tap_day_all!X14*100,4))</f>
         <v/>
       </c>
       <c r="Y19" s="27" t="str">
-        <f>IF(_tap_day_all!Y14="","",ROUND(_tap_day_all!Y14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y14="","",ROUND(_tap_day_all!Y14*100,4))</f>
         <v/>
       </c>
       <c r="Z19" s="27" t="str">
-        <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14,4))</f>
         <v/>
       </c>
       <c r="AA19" s="27" t="str">
-        <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14,4))</f>
         <v/>
       </c>
       <c r="AB19" s="27" t="str">
-        <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14,4))</f>
         <v/>
       </c>
     </row>
@@ -3133,67 +3133,67 @@
         <v/>
       </c>
       <c r="M20" s="27" t="str">
-        <f>IF(_tap_day_all!M15="","",ROUND(_tap_day_all!M15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M15="","",ROUND(_tap_day_all!M15*100,4))</f>
         <v/>
       </c>
       <c r="N20" s="27" t="str">
-        <f>IF(_tap_day_all!N15="","",ROUND(_tap_day_all!N15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N15="","",ROUND(_tap_day_all!N15*100,4))</f>
         <v/>
       </c>
       <c r="O20" s="27" t="str">
-        <f>IF(_tap_day_all!O15="","",ROUND(_tap_day_all!O15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O15="","",ROUND(_tap_day_all!O15*100,4))</f>
         <v/>
       </c>
       <c r="P20" s="27" t="str">
-        <f>IF(_tap_day_all!P15="","",ROUND(_tap_day_all!P15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P15="","",ROUND(_tap_day_all!P15*100,4))</f>
         <v/>
       </c>
       <c r="Q20" s="27" t="str">
-        <f>IF(_tap_day_all!Q15="","",ROUND(_tap_day_all!Q15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q15="","",ROUND(_tap_day_all!Q15*100,4))</f>
         <v/>
       </c>
       <c r="R20" s="27" t="str">
-        <f>IF(_tap_day_all!R15="","",ROUND(_tap_day_all!R15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R15="","",ROUND(_tap_day_all!R15*100,4))</f>
         <v/>
       </c>
       <c r="S20" s="27" t="str">
-        <f>IF(_tap_day_all!S15="","",ROUND(_tap_day_all!S15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S15="","",ROUND(_tap_day_all!S15*100,4))</f>
         <v/>
       </c>
       <c r="T20" s="27" t="str">
-        <f>IF(_tap_day_all!T15="","",ROUND(_tap_day_all!T15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T15="","",ROUND(_tap_day_all!T15*100,4))</f>
         <v/>
       </c>
       <c r="U20" s="27" t="str">
-        <f>IF(_tap_day_all!U15="","",ROUND(_tap_day_all!U15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U15="","",ROUND(_tap_day_all!U15*100,4))</f>
         <v/>
       </c>
       <c r="V20" s="27" t="str">
-        <f>IF(_tap_day_all!V15="","",ROUND(_tap_day_all!V15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V15="","",ROUND(_tap_day_all!V15*100,4))</f>
         <v/>
       </c>
       <c r="W20" s="27" t="str">
-        <f>IF(_tap_day_all!W15="","",ROUND(_tap_day_all!W15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W15="","",ROUND(_tap_day_all!W15*100,4))</f>
         <v/>
       </c>
       <c r="X20" s="27" t="str">
-        <f>IF(_tap_day_all!X15="","",ROUND(_tap_day_all!X15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X15="","",ROUND(_tap_day_all!X15*100,4))</f>
         <v/>
       </c>
       <c r="Y20" s="27" t="str">
-        <f>IF(_tap_day_all!Y15="","",ROUND(_tap_day_all!Y15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y15="","",ROUND(_tap_day_all!Y15*100,4))</f>
         <v/>
       </c>
       <c r="Z20" s="27" t="str">
-        <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15,4))</f>
         <v/>
       </c>
       <c r="AA20" s="27" t="str">
-        <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15,4))</f>
         <v/>
       </c>
       <c r="AB20" s="27" t="str">
-        <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15,4))</f>
         <v/>
       </c>
     </row>
@@ -3247,67 +3247,67 @@
         <v/>
       </c>
       <c r="M21" s="27" t="str">
-        <f>IF(_tap_day_all!M16="","",ROUND(_tap_day_all!M16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M16="","",ROUND(_tap_day_all!M16*100,4))</f>
         <v/>
       </c>
       <c r="N21" s="27" t="str">
-        <f>IF(_tap_day_all!N16="","",ROUND(_tap_day_all!N16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N16="","",ROUND(_tap_day_all!N16*100,4))</f>
         <v/>
       </c>
       <c r="O21" s="27" t="str">
-        <f>IF(_tap_day_all!O16="","",ROUND(_tap_day_all!O16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O16="","",ROUND(_tap_day_all!O16*100,4))</f>
         <v/>
       </c>
       <c r="P21" s="27" t="str">
-        <f>IF(_tap_day_all!P16="","",ROUND(_tap_day_all!P16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P16="","",ROUND(_tap_day_all!P16*100,4))</f>
         <v/>
       </c>
       <c r="Q21" s="27" t="str">
-        <f>IF(_tap_day_all!Q16="","",ROUND(_tap_day_all!Q16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q16="","",ROUND(_tap_day_all!Q16*100,4))</f>
         <v/>
       </c>
       <c r="R21" s="27" t="str">
-        <f>IF(_tap_day_all!R16="","",ROUND(_tap_day_all!R16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R16="","",ROUND(_tap_day_all!R16*100,4))</f>
         <v/>
       </c>
       <c r="S21" s="27" t="str">
-        <f>IF(_tap_day_all!S16="","",ROUND(_tap_day_all!S16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S16="","",ROUND(_tap_day_all!S16*100,4))</f>
         <v/>
       </c>
       <c r="T21" s="27" t="str">
-        <f>IF(_tap_day_all!T16="","",ROUND(_tap_day_all!T16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T16="","",ROUND(_tap_day_all!T16*100,4))</f>
         <v/>
       </c>
       <c r="U21" s="27" t="str">
-        <f>IF(_tap_day_all!U16="","",ROUND(_tap_day_all!U16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U16="","",ROUND(_tap_day_all!U16*100,4))</f>
         <v/>
       </c>
       <c r="V21" s="27" t="str">
-        <f>IF(_tap_day_all!V16="","",ROUND(_tap_day_all!V16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V16="","",ROUND(_tap_day_all!V16*100,4))</f>
         <v/>
       </c>
       <c r="W21" s="27" t="str">
-        <f>IF(_tap_day_all!W16="","",ROUND(_tap_day_all!W16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W16="","",ROUND(_tap_day_all!W16*100,4))</f>
         <v/>
       </c>
       <c r="X21" s="27" t="str">
-        <f>IF(_tap_day_all!X16="","",ROUND(_tap_day_all!X16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X16="","",ROUND(_tap_day_all!X16*100,4))</f>
         <v/>
       </c>
       <c r="Y21" s="27" t="str">
-        <f>IF(_tap_day_all!Y16="","",ROUND(_tap_day_all!Y16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y16="","",ROUND(_tap_day_all!Y16*100,4))</f>
         <v/>
       </c>
       <c r="Z21" s="27" t="str">
-        <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16,4))</f>
         <v/>
       </c>
       <c r="AA21" s="27" t="str">
-        <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16,4))</f>
         <v/>
       </c>
       <c r="AB21" s="27" t="str">
-        <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16,4))</f>
         <v/>
       </c>
     </row>
@@ -3361,67 +3361,67 @@
         <v/>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IF(_tap_day_all!M17="","",ROUND(_tap_day_all!M17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M17="","",ROUND(_tap_day_all!M17*100,4))</f>
         <v/>
       </c>
       <c r="N22" s="27" t="str">
-        <f>IF(_tap_day_all!N17="","",ROUND(_tap_day_all!N17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N17="","",ROUND(_tap_day_all!N17*100,4))</f>
         <v/>
       </c>
       <c r="O22" s="27" t="str">
-        <f>IF(_tap_day_all!O17="","",ROUND(_tap_day_all!O17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O17="","",ROUND(_tap_day_all!O17*100,4))</f>
         <v/>
       </c>
       <c r="P22" s="27" t="str">
-        <f>IF(_tap_day_all!P17="","",ROUND(_tap_day_all!P17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P17="","",ROUND(_tap_day_all!P17*100,4))</f>
         <v/>
       </c>
       <c r="Q22" s="27" t="str">
-        <f>IF(_tap_day_all!Q17="","",ROUND(_tap_day_all!Q17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q17="","",ROUND(_tap_day_all!Q17*100,4))</f>
         <v/>
       </c>
       <c r="R22" s="27" t="str">
-        <f>IF(_tap_day_all!R17="","",ROUND(_tap_day_all!R17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R17="","",ROUND(_tap_day_all!R17*100,4))</f>
         <v/>
       </c>
       <c r="S22" s="27" t="str">
-        <f>IF(_tap_day_all!S17="","",ROUND(_tap_day_all!S17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S17="","",ROUND(_tap_day_all!S17*100,4))</f>
         <v/>
       </c>
       <c r="T22" s="27" t="str">
-        <f>IF(_tap_day_all!T17="","",ROUND(_tap_day_all!T17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T17="","",ROUND(_tap_day_all!T17*100,4))</f>
         <v/>
       </c>
       <c r="U22" s="27" t="str">
-        <f>IF(_tap_day_all!U17="","",ROUND(_tap_day_all!U17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U17="","",ROUND(_tap_day_all!U17*100,4))</f>
         <v/>
       </c>
       <c r="V22" s="27" t="str">
-        <f>IF(_tap_day_all!V17="","",ROUND(_tap_day_all!V17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V17="","",ROUND(_tap_day_all!V17*100,4))</f>
         <v/>
       </c>
       <c r="W22" s="27" t="str">
-        <f>IF(_tap_day_all!W17="","",ROUND(_tap_day_all!W17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W17="","",ROUND(_tap_day_all!W17*100,4))</f>
         <v/>
       </c>
       <c r="X22" s="27" t="str">
-        <f>IF(_tap_day_all!X17="","",ROUND(_tap_day_all!X17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X17="","",ROUND(_tap_day_all!X17*100,4))</f>
         <v/>
       </c>
       <c r="Y22" s="27" t="str">
-        <f>IF(_tap_day_all!Y17="","",ROUND(_tap_day_all!Y17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y17="","",ROUND(_tap_day_all!Y17*100,4))</f>
         <v/>
       </c>
       <c r="Z22" s="27" t="str">
-        <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17,4))</f>
         <v/>
       </c>
       <c r="AA22" s="27" t="str">
-        <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17,4))</f>
         <v/>
       </c>
       <c r="AB22" s="27" t="str">
-        <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17,4))</f>
         <v/>
       </c>
     </row>
@@ -3475,67 +3475,67 @@
         <v/>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IF(_tap_day_all!M18="","",ROUND(_tap_day_all!M18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M18="","",ROUND(_tap_day_all!M18*100,4))</f>
         <v/>
       </c>
       <c r="N23" s="27" t="str">
-        <f>IF(_tap_day_all!N18="","",ROUND(_tap_day_all!N18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N18="","",ROUND(_tap_day_all!N18*100,4))</f>
         <v/>
       </c>
       <c r="O23" s="27" t="str">
-        <f>IF(_tap_day_all!O18="","",ROUND(_tap_day_all!O18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O18="","",ROUND(_tap_day_all!O18*100,4))</f>
         <v/>
       </c>
       <c r="P23" s="27" t="str">
-        <f>IF(_tap_day_all!P18="","",ROUND(_tap_day_all!P18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P18="","",ROUND(_tap_day_all!P18*100,4))</f>
         <v/>
       </c>
       <c r="Q23" s="27" t="str">
-        <f>IF(_tap_day_all!Q18="","",ROUND(_tap_day_all!Q18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q18="","",ROUND(_tap_day_all!Q18*100,4))</f>
         <v/>
       </c>
       <c r="R23" s="27" t="str">
-        <f>IF(_tap_day_all!R18="","",ROUND(_tap_day_all!R18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R18="","",ROUND(_tap_day_all!R18*100,4))</f>
         <v/>
       </c>
       <c r="S23" s="27" t="str">
-        <f>IF(_tap_day_all!S18="","",ROUND(_tap_day_all!S18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S18="","",ROUND(_tap_day_all!S18*100,4))</f>
         <v/>
       </c>
       <c r="T23" s="27" t="str">
-        <f>IF(_tap_day_all!T18="","",ROUND(_tap_day_all!T18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T18="","",ROUND(_tap_day_all!T18*100,4))</f>
         <v/>
       </c>
       <c r="U23" s="27" t="str">
-        <f>IF(_tap_day_all!U18="","",ROUND(_tap_day_all!U18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U18="","",ROUND(_tap_day_all!U18*100,4))</f>
         <v/>
       </c>
       <c r="V23" s="27" t="str">
-        <f>IF(_tap_day_all!V18="","",ROUND(_tap_day_all!V18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V18="","",ROUND(_tap_day_all!V18*100,4))</f>
         <v/>
       </c>
       <c r="W23" s="27" t="str">
-        <f>IF(_tap_day_all!W18="","",ROUND(_tap_day_all!W18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W18="","",ROUND(_tap_day_all!W18*100,4))</f>
         <v/>
       </c>
       <c r="X23" s="27" t="str">
-        <f>IF(_tap_day_all!X18="","",ROUND(_tap_day_all!X18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X18="","",ROUND(_tap_day_all!X18*100,4))</f>
         <v/>
       </c>
       <c r="Y23" s="27" t="str">
-        <f>IF(_tap_day_all!Y18="","",ROUND(_tap_day_all!Y18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y18="","",ROUND(_tap_day_all!Y18*100,4))</f>
         <v/>
       </c>
       <c r="Z23" s="27" t="str">
-        <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18,4))</f>
         <v/>
       </c>
       <c r="AA23" s="27" t="str">
-        <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18,4))</f>
         <v/>
       </c>
       <c r="AB23" s="27" t="str">
-        <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18,4))</f>
         <v/>
       </c>
     </row>
@@ -3589,67 +3589,67 @@
         <v/>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IF(_tap_day_all!M19="","",ROUND(_tap_day_all!M19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M19="","",ROUND(_tap_day_all!M19*100,4))</f>
         <v/>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IF(_tap_day_all!N19="","",ROUND(_tap_day_all!N19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N19="","",ROUND(_tap_day_all!N19*100,4))</f>
         <v/>
       </c>
       <c r="O24" s="27" t="str">
-        <f>IF(_tap_day_all!O19="","",ROUND(_tap_day_all!O19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O19="","",ROUND(_tap_day_all!O19*100,4))</f>
         <v/>
       </c>
       <c r="P24" s="27" t="str">
-        <f>IF(_tap_day_all!P19="","",ROUND(_tap_day_all!P19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P19="","",ROUND(_tap_day_all!P19*100,4))</f>
         <v/>
       </c>
       <c r="Q24" s="27" t="str">
-        <f>IF(_tap_day_all!Q19="","",ROUND(_tap_day_all!Q19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q19="","",ROUND(_tap_day_all!Q19*100,4))</f>
         <v/>
       </c>
       <c r="R24" s="27" t="str">
-        <f>IF(_tap_day_all!R19="","",ROUND(_tap_day_all!R19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R19="","",ROUND(_tap_day_all!R19*100,4))</f>
         <v/>
       </c>
       <c r="S24" s="27" t="str">
-        <f>IF(_tap_day_all!S19="","",ROUND(_tap_day_all!S19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S19="","",ROUND(_tap_day_all!S19*100,4))</f>
         <v/>
       </c>
       <c r="T24" s="27" t="str">
-        <f>IF(_tap_day_all!T19="","",ROUND(_tap_day_all!T19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T19="","",ROUND(_tap_day_all!T19*100,4))</f>
         <v/>
       </c>
       <c r="U24" s="27" t="str">
-        <f>IF(_tap_day_all!U19="","",ROUND(_tap_day_all!U19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U19="","",ROUND(_tap_day_all!U19*100,4))</f>
         <v/>
       </c>
       <c r="V24" s="27" t="str">
-        <f>IF(_tap_day_all!V19="","",ROUND(_tap_day_all!V19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V19="","",ROUND(_tap_day_all!V19*100,4))</f>
         <v/>
       </c>
       <c r="W24" s="27" t="str">
-        <f>IF(_tap_day_all!W19="","",ROUND(_tap_day_all!W19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W19="","",ROUND(_tap_day_all!W19*100,4))</f>
         <v/>
       </c>
       <c r="X24" s="27" t="str">
-        <f>IF(_tap_day_all!X19="","",ROUND(_tap_day_all!X19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X19="","",ROUND(_tap_day_all!X19*100,4))</f>
         <v/>
       </c>
       <c r="Y24" s="27" t="str">
-        <f>IF(_tap_day_all!Y19="","",ROUND(_tap_day_all!Y19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y19="","",ROUND(_tap_day_all!Y19*100,4))</f>
         <v/>
       </c>
       <c r="Z24" s="27" t="str">
-        <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19,4))</f>
         <v/>
       </c>
       <c r="AA24" s="27" t="str">
-        <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19,4))</f>
         <v/>
       </c>
       <c r="AB24" s="27" t="str">
-        <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19,4))</f>
         <v/>
       </c>
     </row>
@@ -3703,67 +3703,67 @@
         <v/>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IF(_tap_day_all!M20="","",ROUND(_tap_day_all!M20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M20="","",ROUND(_tap_day_all!M20*100,4))</f>
         <v/>
       </c>
       <c r="N25" s="27" t="str">
-        <f>IF(_tap_day_all!N20="","",ROUND(_tap_day_all!N20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N20="","",ROUND(_tap_day_all!N20*100,4))</f>
         <v/>
       </c>
       <c r="O25" s="27" t="str">
-        <f>IF(_tap_day_all!O20="","",ROUND(_tap_day_all!O20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O20="","",ROUND(_tap_day_all!O20*100,4))</f>
         <v/>
       </c>
       <c r="P25" s="27" t="str">
-        <f>IF(_tap_day_all!P20="","",ROUND(_tap_day_all!P20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P20="","",ROUND(_tap_day_all!P20*100,4))</f>
         <v/>
       </c>
       <c r="Q25" s="27" t="str">
-        <f>IF(_tap_day_all!Q20="","",ROUND(_tap_day_all!Q20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q20="","",ROUND(_tap_day_all!Q20*100,4))</f>
         <v/>
       </c>
       <c r="R25" s="27" t="str">
-        <f>IF(_tap_day_all!R20="","",ROUND(_tap_day_all!R20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R20="","",ROUND(_tap_day_all!R20*100,4))</f>
         <v/>
       </c>
       <c r="S25" s="27" t="str">
-        <f>IF(_tap_day_all!S20="","",ROUND(_tap_day_all!S20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S20="","",ROUND(_tap_day_all!S20*100,4))</f>
         <v/>
       </c>
       <c r="T25" s="27" t="str">
-        <f>IF(_tap_day_all!T20="","",ROUND(_tap_day_all!T20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T20="","",ROUND(_tap_day_all!T20*100,4))</f>
         <v/>
       </c>
       <c r="U25" s="27" t="str">
-        <f>IF(_tap_day_all!U20="","",ROUND(_tap_day_all!U20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U20="","",ROUND(_tap_day_all!U20*100,4))</f>
         <v/>
       </c>
       <c r="V25" s="27" t="str">
-        <f>IF(_tap_day_all!V20="","",ROUND(_tap_day_all!V20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V20="","",ROUND(_tap_day_all!V20*100,4))</f>
         <v/>
       </c>
       <c r="W25" s="27" t="str">
-        <f>IF(_tap_day_all!W20="","",ROUND(_tap_day_all!W20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W20="","",ROUND(_tap_day_all!W20*100,4))</f>
         <v/>
       </c>
       <c r="X25" s="27" t="str">
-        <f>IF(_tap_day_all!X20="","",ROUND(_tap_day_all!X20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X20="","",ROUND(_tap_day_all!X20*100,4))</f>
         <v/>
       </c>
       <c r="Y25" s="27" t="str">
-        <f>IF(_tap_day_all!Y20="","",ROUND(_tap_day_all!Y20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y20="","",ROUND(_tap_day_all!Y20*100,4))</f>
         <v/>
       </c>
       <c r="Z25" s="27" t="str">
-        <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20,4))</f>
         <v/>
       </c>
       <c r="AA25" s="27" t="str">
-        <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20,4))</f>
         <v/>
       </c>
       <c r="AB25" s="27" t="str">
-        <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20,4))</f>
         <v/>
       </c>
     </row>
@@ -3817,67 +3817,67 @@
         <v/>
       </c>
       <c r="M26" s="27" t="str">
-        <f>IF(_tap_day_all!M21="","",ROUND(_tap_day_all!M21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!M21="","",ROUND(_tap_day_all!M21*100,4))</f>
         <v/>
       </c>
       <c r="N26" s="27" t="str">
-        <f>IF(_tap_day_all!N21="","",ROUND(_tap_day_all!N21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!N21="","",ROUND(_tap_day_all!N21*100,4))</f>
         <v/>
       </c>
       <c r="O26" s="27" t="str">
-        <f>IF(_tap_day_all!O21="","",ROUND(_tap_day_all!O21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!O21="","",ROUND(_tap_day_all!O21*100,4))</f>
         <v/>
       </c>
       <c r="P26" s="27" t="str">
-        <f>IF(_tap_day_all!P21="","",ROUND(_tap_day_all!P21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!P21="","",ROUND(_tap_day_all!P21*100,4))</f>
         <v/>
       </c>
       <c r="Q26" s="27" t="str">
-        <f>IF(_tap_day_all!Q21="","",ROUND(_tap_day_all!Q21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Q21="","",ROUND(_tap_day_all!Q21*100,4))</f>
         <v/>
       </c>
       <c r="R26" s="27" t="str">
-        <f>IF(_tap_day_all!R21="","",ROUND(_tap_day_all!R21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!R21="","",ROUND(_tap_day_all!R21*100,4))</f>
         <v/>
       </c>
       <c r="S26" s="27" t="str">
-        <f>IF(_tap_day_all!S21="","",ROUND(_tap_day_all!S21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!S21="","",ROUND(_tap_day_all!S21*100,4))</f>
         <v/>
       </c>
       <c r="T26" s="27" t="str">
-        <f>IF(_tap_day_all!T21="","",ROUND(_tap_day_all!T21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!T21="","",ROUND(_tap_day_all!T21*100,4))</f>
         <v/>
       </c>
       <c r="U26" s="27" t="str">
-        <f>IF(_tap_day_all!U21="","",ROUND(_tap_day_all!U21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!U21="","",ROUND(_tap_day_all!U21*100,4))</f>
         <v/>
       </c>
       <c r="V26" s="27" t="str">
-        <f>IF(_tap_day_all!V21="","",ROUND(_tap_day_all!V21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!V21="","",ROUND(_tap_day_all!V21*100,4))</f>
         <v/>
       </c>
       <c r="W26" s="27" t="str">
-        <f>IF(_tap_day_all!W21="","",ROUND(_tap_day_all!W21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!W21="","",ROUND(_tap_day_all!W21*100,4))</f>
         <v/>
       </c>
       <c r="X26" s="27" t="str">
-        <f>IF(_tap_day_all!X21="","",ROUND(_tap_day_all!X21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!X21="","",ROUND(_tap_day_all!X21*100,4))</f>
         <v/>
       </c>
       <c r="Y26" s="27" t="str">
-        <f>IF(_tap_day_all!Y21="","",ROUND(_tap_day_all!Y21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Y21="","",ROUND(_tap_day_all!Y21*100,4))</f>
         <v/>
       </c>
       <c r="Z26" s="27" t="str">
-        <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21,4))</f>
         <v/>
       </c>
       <c r="AA26" s="27" t="str">
-        <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21,4))</f>
         <v/>
       </c>
       <c r="AB26" s="27" t="str">
-        <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21*100,4)&amp;"%")</f>
+        <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21,4))</f>
         <v/>
       </c>
     </row>
@@ -3926,57 +3926,57 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!M2:'_tap_day_all'!M21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="N27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!N2:'_tap_day_all'!N21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="O27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!O2:'_tap_day_all'!O21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="P27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!P2:'_tap_day_all'!P21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="Q27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!Q2:'_tap_day_all'!Q21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="R27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!R2:'_tap_day_all'!R21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="S27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!S2:'_tap_day_all'!S21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="T27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!T2:'_tap_day_all'!T21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="U27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!U2:'_tap_day_all'!U21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="V27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!V2:'_tap_day_all'!V21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="W27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!W2:'_tap_day_all'!W21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="X27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!X2:'_tap_day_all'!X21)*100&amp;"%","")</f>
-        <v>0%</v>
-      </c>
-      <c r="Y27" s="13" t="str">
-        <f>IFERROR(SUM(_tap_day_all!Y2:'_tap_day_all'!Y21)*100&amp;"%","")</f>
-        <v>0%</v>
+      <c r="M27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!M2:'_tap_day_all'!M21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!N2:'_tap_day_all'!N21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!O2:'_tap_day_all'!O21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!P2:'_tap_day_all'!P21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!R2:'_tap_day_all'!R21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!S2:'_tap_day_all'!S21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!T2:'_tap_day_all'!T21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!U2:'_tap_day_all'!U21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!V2:'_tap_day_all'!V21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!W2:'_tap_day_all'!W21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!X2:'_tap_day_all'!X21)*100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="13">
+        <f>IFERROR(SUM(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,"")</f>
+        <v>0</v>
       </c>
       <c r="Z27" s="37">
         <f t="shared" si="2"/>
@@ -4037,67 +4037,67 @@
         <v/>
       </c>
       <c r="M28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!M2:'_tap_day_all'!M21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!M2:'_tap_day_all'!M21)*100,2),"")</f>
         <v/>
       </c>
       <c r="N28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!N2:'_tap_day_all'!N21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!N2:'_tap_day_all'!N21)*100,2),"")</f>
         <v/>
       </c>
       <c r="O28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!O2:'_tap_day_all'!O21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!O2:'_tap_day_all'!O21)*100,2),"")</f>
         <v/>
       </c>
       <c r="P28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!P2:'_tap_day_all'!P21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!P2:'_tap_day_all'!P21)*100,2),"")</f>
         <v/>
       </c>
       <c r="Q28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,2),"")</f>
         <v/>
       </c>
       <c r="R28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!R2:'_tap_day_all'!R21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!R2:'_tap_day_all'!R21)*100,2),"")</f>
         <v/>
       </c>
       <c r="S28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!S2:'_tap_day_all'!S21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!S2:'_tap_day_all'!S21)*100,2),"")</f>
         <v/>
       </c>
       <c r="T28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!T2:'_tap_day_all'!T21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!T2:'_tap_day_all'!T21)*100,2),"")</f>
         <v/>
       </c>
       <c r="U28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!U2:'_tap_day_all'!U21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!U2:'_tap_day_all'!U21)*100,2),"")</f>
         <v/>
       </c>
       <c r="V28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!V2:'_tap_day_all'!V21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!V2:'_tap_day_all'!V21)*100,2),"")</f>
         <v/>
       </c>
       <c r="W28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!W2:'_tap_day_all'!W21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!W2:'_tap_day_all'!W21)*100,2),"")</f>
         <v/>
       </c>
       <c r="X28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!X2:'_tap_day_all'!X21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!X2:'_tap_day_all'!X21)*100,2),"")</f>
         <v/>
       </c>
       <c r="Y28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,2),"")</f>
         <v/>
       </c>
       <c r="Z28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Z2:'_tap_day_all'!Z21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Z2:'_tap_day_all'!Z21),2),"")</f>
         <v/>
       </c>
       <c r="AA28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AA2:'_tap_day_all'!AA21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AA2:'_tap_day_all'!AA21),2),"")</f>
         <v/>
       </c>
       <c r="AB28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AB2:'_tap_day_all'!AB21)*100,2)&amp;"%","")</f>
+        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AB2:'_tap_day_all'!AB21),2),"")</f>
         <v/>
       </c>
     </row>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -272,11 +272,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -732,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,9 +784,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,14 +793,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,49 +832,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +915,60 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,31 +1272,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40" t="str">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1294,103 +1305,103 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="62" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="64" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="47" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="61" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1400,8 +1411,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1441,22 +1452,22 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="Z4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AA4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AB4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1472,7 +1483,7 @@
       <c r="J5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="21" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -1517,9 +1528,9 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
     </row>
     <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1602,2290 +1613,2290 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="23" t="str">
         <f>IF(_tap_day_all!A2="","",_tap_day_all!A2)</f>
         <v/>
       </c>
-      <c r="B7" s="27" t="str">
+      <c r="B7" s="24" t="str">
         <f>IF(_tap_day_all!B2="","",_tap_day_all!B2)</f>
         <v/>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="24" t="str">
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="29" t="str">
         <f>IF(_tap_day_all!D2="","",_tap_day_all!D2)</f>
         <v/>
       </c>
-      <c r="E7" s="32" t="str">
+      <c r="E7" s="29" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="24" t="str">
         <f>IF(_tap_day_all!F2="","",_tap_day_all!F2)</f>
         <v/>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="24" t="str">
         <f>IF(_tap_day_all!G2="","",_tap_day_all!G2)</f>
         <v/>
       </c>
-      <c r="H7" s="27" t="str">
+      <c r="H7" s="24" t="str">
         <f>IF(_tap_day_all!H2="","",_tap_day_all!H2)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="24" t="str">
         <f>IF(_tap_day_all!I2="","",_tap_day_all!I2)</f>
         <v/>
       </c>
-      <c r="J7" s="27" t="str">
+      <c r="J7" s="24" t="str">
         <f>IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="24" t="str">
         <f>IF(_tap_day_all!K2="","",_tap_day_all!K2)</f>
         <v/>
       </c>
-      <c r="L7" s="35" t="str">
+      <c r="L7" s="32" t="str">
         <f>IF(_tap_day_all!L2="","",_tap_day_all!L2)</f>
         <v/>
       </c>
-      <c r="M7" s="27" t="str">
+      <c r="M7" s="24" t="str">
         <f>IF(_tap_day_all!M2="","",ROUND(_tap_day_all!M2*100,4))</f>
         <v/>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="24" t="str">
         <f>IF(_tap_day_all!N2="","",ROUND(_tap_day_all!N2*100,4))</f>
         <v/>
       </c>
-      <c r="O7" s="27" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(_tap_day_all!O2="","",ROUND(_tap_day_all!O2*100,4))</f>
         <v/>
       </c>
-      <c r="P7" s="27" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(_tap_day_all!P2="","",ROUND(_tap_day_all!P2*100,4))</f>
         <v/>
       </c>
-      <c r="Q7" s="27" t="str">
+      <c r="Q7" s="24" t="str">
         <f>IF(_tap_day_all!Q2="","",ROUND(_tap_day_all!Q2*100,4))</f>
         <v/>
       </c>
-      <c r="R7" s="27" t="str">
+      <c r="R7" s="24" t="str">
         <f>IF(_tap_day_all!R2="","",ROUND(_tap_day_all!R2*100,4))</f>
         <v/>
       </c>
-      <c r="S7" s="27" t="str">
+      <c r="S7" s="24" t="str">
         <f>IF(_tap_day_all!S2="","",ROUND(_tap_day_all!S2*100,4))</f>
         <v/>
       </c>
-      <c r="T7" s="27" t="str">
+      <c r="T7" s="24" t="str">
         <f>IF(_tap_day_all!T2="","",ROUND(_tap_day_all!T2*100,4))</f>
         <v/>
       </c>
-      <c r="U7" s="27" t="str">
+      <c r="U7" s="24" t="str">
         <f>IF(_tap_day_all!U2="","",ROUND(_tap_day_all!U2*100,4))</f>
         <v/>
       </c>
-      <c r="V7" s="27" t="str">
+      <c r="V7" s="24" t="str">
         <f>IF(_tap_day_all!V2="","",ROUND(_tap_day_all!V2*100,4))</f>
         <v/>
       </c>
-      <c r="W7" s="27" t="str">
+      <c r="W7" s="24" t="str">
         <f>IF(_tap_day_all!W2="","",ROUND(_tap_day_all!W2*100,4))</f>
         <v/>
       </c>
-      <c r="X7" s="27" t="str">
+      <c r="X7" s="24" t="str">
         <f>IF(_tap_day_all!X2="","",ROUND(_tap_day_all!X2*100,4))</f>
         <v/>
       </c>
-      <c r="Y7" s="27" t="str">
+      <c r="Y7" s="24" t="str">
         <f>IF(_tap_day_all!Y2="","",ROUND(_tap_day_all!Y2*100,4))</f>
         <v/>
       </c>
-      <c r="Z7" s="27" t="str">
+      <c r="Z7" s="24" t="str">
         <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2,4))</f>
         <v/>
       </c>
-      <c r="AA7" s="27" t="str">
+      <c r="AA7" s="24" t="str">
         <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2,4))</f>
         <v/>
       </c>
-      <c r="AB7" s="27" t="str">
+      <c r="AB7" s="24" t="str">
         <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2,4))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="23" t="str">
         <f>IF(_tap_day_all!A3="","",_tap_day_all!A3)</f>
         <v/>
       </c>
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="24" t="str">
         <f>IF(_tap_day_all!B3="","",_tap_day_all!B3)</f>
         <v/>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="24" t="str">
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="29" t="str">
         <f>IF(_tap_day_all!D3="","",_tap_day_all!D3)</f>
         <v/>
       </c>
-      <c r="E8" s="32" t="str">
+      <c r="E8" s="29" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="24" t="str">
         <f>IF(_tap_day_all!F3="","",_tap_day_all!F3)</f>
         <v/>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="24" t="str">
         <f>IF(_tap_day_all!G3="","",_tap_day_all!G3)</f>
         <v/>
       </c>
-      <c r="H8" s="27" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_tap_day_all!H3="","",_tap_day_all!H3)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_tap_day_all!I3="","",_tap_day_all!I3)</f>
         <v/>
       </c>
-      <c r="J8" s="27" t="str">
+      <c r="J8" s="24" t="str">
         <f t="shared" ref="J8:J26" si="0">IFERROR(I8-H8,"")</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="24" t="str">
         <f>IF(_tap_day_all!K3="","",_tap_day_all!K3)</f>
         <v/>
       </c>
-      <c r="L8" s="35" t="str">
+      <c r="L8" s="32" t="str">
         <f>IF(_tap_day_all!L3="","",_tap_day_all!L3)</f>
         <v/>
       </c>
-      <c r="M8" s="27" t="str">
+      <c r="M8" s="24" t="str">
         <f>IF(_tap_day_all!M3="","",ROUND(_tap_day_all!M3*100,4))</f>
         <v/>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="24" t="str">
         <f>IF(_tap_day_all!N3="","",ROUND(_tap_day_all!N3*100,4))</f>
         <v/>
       </c>
-      <c r="O8" s="27" t="str">
+      <c r="O8" s="24" t="str">
         <f>IF(_tap_day_all!O3="","",ROUND(_tap_day_all!O3*100,4))</f>
         <v/>
       </c>
-      <c r="P8" s="27" t="str">
+      <c r="P8" s="24" t="str">
         <f>IF(_tap_day_all!P3="","",ROUND(_tap_day_all!P3*100,4))</f>
         <v/>
       </c>
-      <c r="Q8" s="27" t="str">
+      <c r="Q8" s="24" t="str">
         <f>IF(_tap_day_all!Q3="","",ROUND(_tap_day_all!Q3*100,4))</f>
         <v/>
       </c>
-      <c r="R8" s="27" t="str">
+      <c r="R8" s="24" t="str">
         <f>IF(_tap_day_all!R3="","",ROUND(_tap_day_all!R3*100,4))</f>
         <v/>
       </c>
-      <c r="S8" s="27" t="str">
+      <c r="S8" s="24" t="str">
         <f>IF(_tap_day_all!S3="","",ROUND(_tap_day_all!S3*100,4))</f>
         <v/>
       </c>
-      <c r="T8" s="27" t="str">
+      <c r="T8" s="24" t="str">
         <f>IF(_tap_day_all!T3="","",ROUND(_tap_day_all!T3*100,4))</f>
         <v/>
       </c>
-      <c r="U8" s="27" t="str">
+      <c r="U8" s="24" t="str">
         <f>IF(_tap_day_all!U3="","",ROUND(_tap_day_all!U3*100,4))</f>
         <v/>
       </c>
-      <c r="V8" s="27" t="str">
+      <c r="V8" s="24" t="str">
         <f>IF(_tap_day_all!V3="","",ROUND(_tap_day_all!V3*100,4))</f>
         <v/>
       </c>
-      <c r="W8" s="27" t="str">
+      <c r="W8" s="24" t="str">
         <f>IF(_tap_day_all!W3="","",ROUND(_tap_day_all!W3*100,4))</f>
         <v/>
       </c>
-      <c r="X8" s="27" t="str">
+      <c r="X8" s="24" t="str">
         <f>IF(_tap_day_all!X3="","",ROUND(_tap_day_all!X3*100,4))</f>
         <v/>
       </c>
-      <c r="Y8" s="27" t="str">
+      <c r="Y8" s="24" t="str">
         <f>IF(_tap_day_all!Y3="","",ROUND(_tap_day_all!Y3*100,4))</f>
         <v/>
       </c>
-      <c r="Z8" s="27" t="str">
+      <c r="Z8" s="24" t="str">
         <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3,4))</f>
         <v/>
       </c>
-      <c r="AA8" s="27" t="str">
+      <c r="AA8" s="24" t="str">
         <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3,4))</f>
         <v/>
       </c>
-      <c r="AB8" s="27" t="str">
+      <c r="AB8" s="24" t="str">
         <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3,4))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="str">
+      <c r="A9" s="23" t="str">
         <f>IF(_tap_day_all!A4="","",_tap_day_all!A4)</f>
         <v/>
       </c>
-      <c r="B9" s="27" t="str">
+      <c r="B9" s="24" t="str">
         <f>IF(_tap_day_all!B4="","",_tap_day_all!B4)</f>
         <v/>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="24" t="str">
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="32" t="str">
+      <c r="D9" s="29" t="str">
         <f>IF(_tap_day_all!D4="","",_tap_day_all!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="29" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="24" t="str">
         <f>IF(_tap_day_all!F4="","",_tap_day_all!F4)</f>
         <v/>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="24" t="str">
         <f>IF(_tap_day_all!G4="","",_tap_day_all!G4)</f>
         <v/>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="H9" s="24" t="str">
         <f>IF(_tap_day_all!H4="","",_tap_day_all!H4)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="24" t="str">
         <f>IF(_tap_day_all!I4="","",_tap_day_all!I4)</f>
         <v/>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="24" t="str">
         <f>IF(_tap_day_all!K4="","",_tap_day_all!K4)</f>
         <v/>
       </c>
-      <c r="L9" s="35" t="str">
+      <c r="L9" s="32" t="str">
         <f>IF(_tap_day_all!L4="","",_tap_day_all!L4)</f>
         <v/>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="24" t="str">
         <f>IF(_tap_day_all!M4="","",ROUND(_tap_day_all!M4*100,4))</f>
         <v/>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="24" t="str">
         <f>IF(_tap_day_all!N4="","",ROUND(_tap_day_all!N4*100,4))</f>
         <v/>
       </c>
-      <c r="O9" s="27" t="str">
+      <c r="O9" s="24" t="str">
         <f>IF(_tap_day_all!O4="","",ROUND(_tap_day_all!O4*100,4))</f>
         <v/>
       </c>
-      <c r="P9" s="27" t="str">
+      <c r="P9" s="24" t="str">
         <f>IF(_tap_day_all!P4="","",ROUND(_tap_day_all!P4*100,4))</f>
         <v/>
       </c>
-      <c r="Q9" s="27" t="str">
+      <c r="Q9" s="24" t="str">
         <f>IF(_tap_day_all!Q4="","",ROUND(_tap_day_all!Q4*100,4))</f>
         <v/>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="24" t="str">
         <f>IF(_tap_day_all!R4="","",ROUND(_tap_day_all!R4*100,4))</f>
         <v/>
       </c>
-      <c r="S9" s="27" t="str">
+      <c r="S9" s="24" t="str">
         <f>IF(_tap_day_all!S4="","",ROUND(_tap_day_all!S4*100,4))</f>
         <v/>
       </c>
-      <c r="T9" s="27" t="str">
+      <c r="T9" s="24" t="str">
         <f>IF(_tap_day_all!T4="","",ROUND(_tap_day_all!T4*100,4))</f>
         <v/>
       </c>
-      <c r="U9" s="27" t="str">
+      <c r="U9" s="24" t="str">
         <f>IF(_tap_day_all!U4="","",ROUND(_tap_day_all!U4*100,4))</f>
         <v/>
       </c>
-      <c r="V9" s="27" t="str">
+      <c r="V9" s="24" t="str">
         <f>IF(_tap_day_all!V4="","",ROUND(_tap_day_all!V4*100,4))</f>
         <v/>
       </c>
-      <c r="W9" s="27" t="str">
+      <c r="W9" s="24" t="str">
         <f>IF(_tap_day_all!W4="","",ROUND(_tap_day_all!W4*100,4))</f>
         <v/>
       </c>
-      <c r="X9" s="27" t="str">
+      <c r="X9" s="24" t="str">
         <f>IF(_tap_day_all!X4="","",ROUND(_tap_day_all!X4*100,4))</f>
         <v/>
       </c>
-      <c r="Y9" s="27" t="str">
+      <c r="Y9" s="24" t="str">
         <f>IF(_tap_day_all!Y4="","",ROUND(_tap_day_all!Y4*100,4))</f>
         <v/>
       </c>
-      <c r="Z9" s="27" t="str">
+      <c r="Z9" s="24" t="str">
         <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4,4))</f>
         <v/>
       </c>
-      <c r="AA9" s="27" t="str">
+      <c r="AA9" s="24" t="str">
         <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4,4))</f>
         <v/>
       </c>
-      <c r="AB9" s="27" t="str">
+      <c r="AB9" s="24" t="str">
         <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4,4))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="str">
+      <c r="A10" s="23" t="str">
         <f>IF(_tap_day_all!A5="","",_tap_day_all!A5)</f>
         <v/>
       </c>
-      <c r="B10" s="27" t="str">
+      <c r="B10" s="24" t="str">
         <f>IF(_tap_day_all!B5="","",_tap_day_all!B5)</f>
         <v/>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="24" t="str">
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="D10" s="32" t="str">
+      <c r="D10" s="29" t="str">
         <f>IF(_tap_day_all!D5="","",_tap_day_all!D5)</f>
         <v/>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="29" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="24" t="str">
         <f>IF(_tap_day_all!F5="","",_tap_day_all!F5)</f>
         <v/>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="24" t="str">
         <f>IF(_tap_day_all!G5="","",_tap_day_all!G5)</f>
         <v/>
       </c>
-      <c r="H10" s="27" t="str">
+      <c r="H10" s="24" t="str">
         <f>IF(_tap_day_all!H5="","",_tap_day_all!H5)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="24" t="str">
         <f>IF(_tap_day_all!I5="","",_tap_day_all!I5)</f>
         <v/>
       </c>
-      <c r="J10" s="27" t="str">
+      <c r="J10" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="24" t="str">
         <f>IF(_tap_day_all!K5="","",_tap_day_all!K5)</f>
         <v/>
       </c>
-      <c r="L10" s="35" t="str">
+      <c r="L10" s="32" t="str">
         <f>IF(_tap_day_all!L5="","",_tap_day_all!L5)</f>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="24" t="str">
         <f>IF(_tap_day_all!M5="","",ROUND(_tap_day_all!M5*100,4))</f>
         <v/>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="24" t="str">
         <f>IF(_tap_day_all!N5="","",ROUND(_tap_day_all!N5*100,4))</f>
         <v/>
       </c>
-      <c r="O10" s="27" t="str">
+      <c r="O10" s="24" t="str">
         <f>IF(_tap_day_all!O5="","",ROUND(_tap_day_all!O5*100,4))</f>
         <v/>
       </c>
-      <c r="P10" s="27" t="str">
+      <c r="P10" s="24" t="str">
         <f>IF(_tap_day_all!P5="","",ROUND(_tap_day_all!P5*100,4))</f>
         <v/>
       </c>
-      <c r="Q10" s="27" t="str">
+      <c r="Q10" s="24" t="str">
         <f>IF(_tap_day_all!Q5="","",ROUND(_tap_day_all!Q5*100,4))</f>
         <v/>
       </c>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="24" t="str">
         <f>IF(_tap_day_all!R5="","",ROUND(_tap_day_all!R5*100,4))</f>
         <v/>
       </c>
-      <c r="S10" s="27" t="str">
+      <c r="S10" s="24" t="str">
         <f>IF(_tap_day_all!S5="","",ROUND(_tap_day_all!S5*100,4))</f>
         <v/>
       </c>
-      <c r="T10" s="27" t="str">
+      <c r="T10" s="24" t="str">
         <f>IF(_tap_day_all!T5="","",ROUND(_tap_day_all!T5*100,4))</f>
         <v/>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="24" t="str">
         <f>IF(_tap_day_all!U5="","",ROUND(_tap_day_all!U5*100,4))</f>
         <v/>
       </c>
-      <c r="V10" s="27" t="str">
+      <c r="V10" s="24" t="str">
         <f>IF(_tap_day_all!V5="","",ROUND(_tap_day_all!V5*100,4))</f>
         <v/>
       </c>
-      <c r="W10" s="27" t="str">
+      <c r="W10" s="24" t="str">
         <f>IF(_tap_day_all!W5="","",ROUND(_tap_day_all!W5*100,4))</f>
         <v/>
       </c>
-      <c r="X10" s="27" t="str">
+      <c r="X10" s="24" t="str">
         <f>IF(_tap_day_all!X5="","",ROUND(_tap_day_all!X5*100,4))</f>
         <v/>
       </c>
-      <c r="Y10" s="27" t="str">
+      <c r="Y10" s="24" t="str">
         <f>IF(_tap_day_all!Y5="","",ROUND(_tap_day_all!Y5*100,4))</f>
         <v/>
       </c>
-      <c r="Z10" s="27" t="str">
+      <c r="Z10" s="24" t="str">
         <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5,4))</f>
         <v/>
       </c>
-      <c r="AA10" s="27" t="str">
+      <c r="AA10" s="24" t="str">
         <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5,4))</f>
         <v/>
       </c>
-      <c r="AB10" s="27" t="str">
+      <c r="AB10" s="24" t="str">
         <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5,4))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="str">
+      <c r="A11" s="23" t="str">
         <f>IF(_tap_day_all!A6="","",_tap_day_all!A6)</f>
         <v/>
       </c>
-      <c r="B11" s="27" t="str">
+      <c r="B11" s="24" t="str">
         <f>IF(_tap_day_all!B6="","",_tap_day_all!B6)</f>
         <v/>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="24" t="str">
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="D11" s="32" t="str">
+      <c r="D11" s="29" t="str">
         <f>IF(_tap_day_all!D6="","",_tap_day_all!D6)</f>
         <v/>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="29" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="24" t="str">
         <f>IF(_tap_day_all!F6="","",_tap_day_all!F6)</f>
         <v/>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="24" t="str">
         <f>IF(_tap_day_all!G6="","",_tap_day_all!G6)</f>
         <v/>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(_tap_day_all!H6="","",_tap_day_all!H6)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="24" t="str">
         <f>IF(_tap_day_all!I6="","",_tap_day_all!I6)</f>
         <v/>
       </c>
-      <c r="J11" s="27" t="str">
+      <c r="J11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="24" t="str">
         <f>IF(_tap_day_all!K6="","",_tap_day_all!K6)</f>
         <v/>
       </c>
-      <c r="L11" s="35" t="str">
+      <c r="L11" s="32" t="str">
         <f>IF(_tap_day_all!L6="","",_tap_day_all!L6)</f>
         <v/>
       </c>
-      <c r="M11" s="27" t="str">
+      <c r="M11" s="24" t="str">
         <f>IF(_tap_day_all!M6="","",ROUND(_tap_day_all!M6*100,4))</f>
         <v/>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="24" t="str">
         <f>IF(_tap_day_all!N6="","",ROUND(_tap_day_all!N6*100,4))</f>
         <v/>
       </c>
-      <c r="O11" s="27" t="str">
+      <c r="O11" s="24" t="str">
         <f>IF(_tap_day_all!O6="","",ROUND(_tap_day_all!O6*100,4))</f>
         <v/>
       </c>
-      <c r="P11" s="27" t="str">
+      <c r="P11" s="24" t="str">
         <f>IF(_tap_day_all!P6="","",ROUND(_tap_day_all!P6*100,4))</f>
         <v/>
       </c>
-      <c r="Q11" s="27" t="str">
+      <c r="Q11" s="24" t="str">
         <f>IF(_tap_day_all!Q6="","",ROUND(_tap_day_all!Q6*100,4))</f>
         <v/>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="24" t="str">
         <f>IF(_tap_day_all!R6="","",ROUND(_tap_day_all!R6*100,4))</f>
         <v/>
       </c>
-      <c r="S11" s="27" t="str">
+      <c r="S11" s="24" t="str">
         <f>IF(_tap_day_all!S6="","",ROUND(_tap_day_all!S6*100,4))</f>
         <v/>
       </c>
-      <c r="T11" s="27" t="str">
+      <c r="T11" s="24" t="str">
         <f>IF(_tap_day_all!T6="","",ROUND(_tap_day_all!T6*100,4))</f>
         <v/>
       </c>
-      <c r="U11" s="27" t="str">
+      <c r="U11" s="24" t="str">
         <f>IF(_tap_day_all!U6="","",ROUND(_tap_day_all!U6*100,4))</f>
         <v/>
       </c>
-      <c r="V11" s="27" t="str">
+      <c r="V11" s="24" t="str">
         <f>IF(_tap_day_all!V6="","",ROUND(_tap_day_all!V6*100,4))</f>
         <v/>
       </c>
-      <c r="W11" s="27" t="str">
+      <c r="W11" s="24" t="str">
         <f>IF(_tap_day_all!W6="","",ROUND(_tap_day_all!W6*100,4))</f>
         <v/>
       </c>
-      <c r="X11" s="27" t="str">
+      <c r="X11" s="24" t="str">
         <f>IF(_tap_day_all!X6="","",ROUND(_tap_day_all!X6*100,4))</f>
         <v/>
       </c>
-      <c r="Y11" s="27" t="str">
+      <c r="Y11" s="24" t="str">
         <f>IF(_tap_day_all!Y6="","",ROUND(_tap_day_all!Y6*100,4))</f>
         <v/>
       </c>
-      <c r="Z11" s="27" t="str">
+      <c r="Z11" s="24" t="str">
         <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6,4))</f>
         <v/>
       </c>
-      <c r="AA11" s="27" t="str">
+      <c r="AA11" s="24" t="str">
         <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6,4))</f>
         <v/>
       </c>
-      <c r="AB11" s="27" t="str">
+      <c r="AB11" s="24" t="str">
         <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6,4))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="23" t="str">
         <f>IF(_tap_day_all!A7="","",_tap_day_all!A7)</f>
         <v/>
       </c>
-      <c r="B12" s="27" t="str">
+      <c r="B12" s="24" t="str">
         <f>IF(_tap_day_all!B7="","",_tap_day_all!B7)</f>
         <v/>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="24" t="str">
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="D12" s="32" t="str">
+      <c r="D12" s="29" t="str">
         <f>IF(_tap_day_all!D7="","",_tap_day_all!D7)</f>
         <v/>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="29" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="24" t="str">
         <f>IF(_tap_day_all!F7="","",_tap_day_all!F7)</f>
         <v/>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="24" t="str">
         <f>IF(_tap_day_all!G7="","",_tap_day_all!G7)</f>
         <v/>
       </c>
-      <c r="H12" s="27" t="str">
+      <c r="H12" s="24" t="str">
         <f>IF(_tap_day_all!H7="","",_tap_day_all!H7)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="24" t="str">
         <f>IF(_tap_day_all!I7="","",_tap_day_all!I7)</f>
         <v/>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="24" t="str">
         <f>IF(_tap_day_all!K7="","",_tap_day_all!K7)</f>
         <v/>
       </c>
-      <c r="L12" s="35" t="str">
+      <c r="L12" s="32" t="str">
         <f>IF(_tap_day_all!L7="","",_tap_day_all!L7)</f>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="24" t="str">
         <f>IF(_tap_day_all!M7="","",ROUND(_tap_day_all!M7*100,4))</f>
         <v/>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="24" t="str">
         <f>IF(_tap_day_all!N7="","",ROUND(_tap_day_all!N7*100,4))</f>
         <v/>
       </c>
-      <c r="O12" s="27" t="str">
+      <c r="O12" s="24" t="str">
         <f>IF(_tap_day_all!O7="","",ROUND(_tap_day_all!O7*100,4))</f>
         <v/>
       </c>
-      <c r="P12" s="27" t="str">
+      <c r="P12" s="24" t="str">
         <f>IF(_tap_day_all!P7="","",ROUND(_tap_day_all!P7*100,4))</f>
         <v/>
       </c>
-      <c r="Q12" s="27" t="str">
+      <c r="Q12" s="24" t="str">
         <f>IF(_tap_day_all!Q7="","",ROUND(_tap_day_all!Q7*100,4))</f>
         <v/>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="24" t="str">
         <f>IF(_tap_day_all!R7="","",ROUND(_tap_day_all!R7*100,4))</f>
         <v/>
       </c>
-      <c r="S12" s="27" t="str">
+      <c r="S12" s="24" t="str">
         <f>IF(_tap_day_all!S7="","",ROUND(_tap_day_all!S7*100,4))</f>
         <v/>
       </c>
-      <c r="T12" s="27" t="str">
+      <c r="T12" s="24" t="str">
         <f>IF(_tap_day_all!T7="","",ROUND(_tap_day_all!T7*100,4))</f>
         <v/>
       </c>
-      <c r="U12" s="27" t="str">
+      <c r="U12" s="24" t="str">
         <f>IF(_tap_day_all!U7="","",ROUND(_tap_day_all!U7*100,4))</f>
         <v/>
       </c>
-      <c r="V12" s="27" t="str">
+      <c r="V12" s="24" t="str">
         <f>IF(_tap_day_all!V7="","",ROUND(_tap_day_all!V7*100,4))</f>
         <v/>
       </c>
-      <c r="W12" s="27" t="str">
+      <c r="W12" s="24" t="str">
         <f>IF(_tap_day_all!W7="","",ROUND(_tap_day_all!W7*100,4))</f>
         <v/>
       </c>
-      <c r="X12" s="27" t="str">
+      <c r="X12" s="24" t="str">
         <f>IF(_tap_day_all!X7="","",ROUND(_tap_day_all!X7*100,4))</f>
         <v/>
       </c>
-      <c r="Y12" s="27" t="str">
+      <c r="Y12" s="24" t="str">
         <f>IF(_tap_day_all!Y7="","",ROUND(_tap_day_all!Y7*100,4))</f>
         <v/>
       </c>
-      <c r="Z12" s="27" t="str">
+      <c r="Z12" s="24" t="str">
         <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7,4))</f>
         <v/>
       </c>
-      <c r="AA12" s="27" t="str">
+      <c r="AA12" s="24" t="str">
         <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7,4))</f>
         <v/>
       </c>
-      <c r="AB12" s="27" t="str">
+      <c r="AB12" s="24" t="str">
         <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7,4))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="str">
+      <c r="A13" s="23" t="str">
         <f>IF(_tap_day_all!A8="","",_tap_day_all!A8)</f>
         <v/>
       </c>
-      <c r="B13" s="27" t="str">
+      <c r="B13" s="24" t="str">
         <f>IF(_tap_day_all!B8="","",_tap_day_all!B8)</f>
         <v/>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="D13" s="32" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_tap_day_all!D8="","",_tap_day_all!D8)</f>
         <v/>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_tap_day_all!F8="","",_tap_day_all!F8)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_tap_day_all!G8="","",_tap_day_all!G8)</f>
         <v/>
       </c>
-      <c r="H13" s="27" t="str">
+      <c r="H13" s="24" t="str">
         <f>IF(_tap_day_all!H8="","",_tap_day_all!H8)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="24" t="str">
         <f>IF(_tap_day_all!I8="","",_tap_day_all!I8)</f>
         <v/>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="24" t="str">
         <f>IF(_tap_day_all!K8="","",_tap_day_all!K8)</f>
         <v/>
       </c>
-      <c r="L13" s="35" t="str">
+      <c r="L13" s="32" t="str">
         <f>IF(_tap_day_all!L8="","",_tap_day_all!L8)</f>
         <v/>
       </c>
-      <c r="M13" s="27" t="str">
+      <c r="M13" s="24" t="str">
         <f>IF(_tap_day_all!M8="","",ROUND(_tap_day_all!M8*100,4))</f>
         <v/>
       </c>
-      <c r="N13" s="27" t="str">
+      <c r="N13" s="24" t="str">
         <f>IF(_tap_day_all!N8="","",ROUND(_tap_day_all!N8*100,4))</f>
         <v/>
       </c>
-      <c r="O13" s="27" t="str">
+      <c r="O13" s="24" t="str">
         <f>IF(_tap_day_all!O8="","",ROUND(_tap_day_all!O8*100,4))</f>
         <v/>
       </c>
-      <c r="P13" s="27" t="str">
+      <c r="P13" s="24" t="str">
         <f>IF(_tap_day_all!P8="","",ROUND(_tap_day_all!P8*100,4))</f>
         <v/>
       </c>
-      <c r="Q13" s="27" t="str">
+      <c r="Q13" s="24" t="str">
         <f>IF(_tap_day_all!Q8="","",ROUND(_tap_day_all!Q8*100,4))</f>
         <v/>
       </c>
-      <c r="R13" s="27" t="str">
+      <c r="R13" s="24" t="str">
         <f>IF(_tap_day_all!R8="","",ROUND(_tap_day_all!R8*100,4))</f>
         <v/>
       </c>
-      <c r="S13" s="27" t="str">
+      <c r="S13" s="24" t="str">
         <f>IF(_tap_day_all!S8="","",ROUND(_tap_day_all!S8*100,4))</f>
         <v/>
       </c>
-      <c r="T13" s="27" t="str">
+      <c r="T13" s="24" t="str">
         <f>IF(_tap_day_all!T8="","",ROUND(_tap_day_all!T8*100,4))</f>
         <v/>
       </c>
-      <c r="U13" s="27" t="str">
+      <c r="U13" s="24" t="str">
         <f>IF(_tap_day_all!U8="","",ROUND(_tap_day_all!U8*100,4))</f>
         <v/>
       </c>
-      <c r="V13" s="27" t="str">
+      <c r="V13" s="24" t="str">
         <f>IF(_tap_day_all!V8="","",ROUND(_tap_day_all!V8*100,4))</f>
         <v/>
       </c>
-      <c r="W13" s="27" t="str">
+      <c r="W13" s="24" t="str">
         <f>IF(_tap_day_all!W8="","",ROUND(_tap_day_all!W8*100,4))</f>
         <v/>
       </c>
-      <c r="X13" s="27" t="str">
+      <c r="X13" s="24" t="str">
         <f>IF(_tap_day_all!X8="","",ROUND(_tap_day_all!X8*100,4))</f>
         <v/>
       </c>
-      <c r="Y13" s="27" t="str">
+      <c r="Y13" s="24" t="str">
         <f>IF(_tap_day_all!Y8="","",ROUND(_tap_day_all!Y8*100,4))</f>
         <v/>
       </c>
-      <c r="Z13" s="27" t="str">
+      <c r="Z13" s="24" t="str">
         <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8,4))</f>
         <v/>
       </c>
-      <c r="AA13" s="27" t="str">
+      <c r="AA13" s="24" t="str">
         <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8,4))</f>
         <v/>
       </c>
-      <c r="AB13" s="27" t="str">
+      <c r="AB13" s="24" t="str">
         <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8,4))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="str">
+      <c r="A14" s="23" t="str">
         <f>IF(_tap_day_all!A9="","",_tap_day_all!A9)</f>
         <v/>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="24" t="str">
         <f>IF(_tap_day_all!B9="","",_tap_day_all!B9)</f>
         <v/>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="24" t="str">
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="D14" s="32" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_tap_day_all!D9="","",_tap_day_all!D9)</f>
         <v/>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_tap_day_all!F9="","",_tap_day_all!F9)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="24" t="str">
         <f>IF(_tap_day_all!G9="","",_tap_day_all!G9)</f>
         <v/>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_tap_day_all!H9="","",_tap_day_all!H9)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_tap_day_all!I9="","",_tap_day_all!I9)</f>
         <v/>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(_tap_day_all!K9="","",_tap_day_all!K9)</f>
         <v/>
       </c>
-      <c r="L14" s="35" t="str">
+      <c r="L14" s="32" t="str">
         <f>IF(_tap_day_all!L9="","",_tap_day_all!L9)</f>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_tap_day_all!M9="","",ROUND(_tap_day_all!M9*100,4))</f>
         <v/>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="N14" s="24" t="str">
         <f>IF(_tap_day_all!N9="","",ROUND(_tap_day_all!N9*100,4))</f>
         <v/>
       </c>
-      <c r="O14" s="27" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_tap_day_all!O9="","",ROUND(_tap_day_all!O9*100,4))</f>
         <v/>
       </c>
-      <c r="P14" s="27" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_tap_day_all!P9="","",ROUND(_tap_day_all!P9*100,4))</f>
         <v/>
       </c>
-      <c r="Q14" s="27" t="str">
+      <c r="Q14" s="24" t="str">
         <f>IF(_tap_day_all!Q9="","",ROUND(_tap_day_all!Q9*100,4))</f>
         <v/>
       </c>
-      <c r="R14" s="27" t="str">
+      <c r="R14" s="24" t="str">
         <f>IF(_tap_day_all!R9="","",ROUND(_tap_day_all!R9*100,4))</f>
         <v/>
       </c>
-      <c r="S14" s="27" t="str">
+      <c r="S14" s="24" t="str">
         <f>IF(_tap_day_all!S9="","",ROUND(_tap_day_all!S9*100,4))</f>
         <v/>
       </c>
-      <c r="T14" s="27" t="str">
+      <c r="T14" s="24" t="str">
         <f>IF(_tap_day_all!T9="","",ROUND(_tap_day_all!T9*100,4))</f>
         <v/>
       </c>
-      <c r="U14" s="27" t="str">
+      <c r="U14" s="24" t="str">
         <f>IF(_tap_day_all!U9="","",ROUND(_tap_day_all!U9*100,4))</f>
         <v/>
       </c>
-      <c r="V14" s="27" t="str">
+      <c r="V14" s="24" t="str">
         <f>IF(_tap_day_all!V9="","",ROUND(_tap_day_all!V9*100,4))</f>
         <v/>
       </c>
-      <c r="W14" s="27" t="str">
+      <c r="W14" s="24" t="str">
         <f>IF(_tap_day_all!W9="","",ROUND(_tap_day_all!W9*100,4))</f>
         <v/>
       </c>
-      <c r="X14" s="27" t="str">
+      <c r="X14" s="24" t="str">
         <f>IF(_tap_day_all!X9="","",ROUND(_tap_day_all!X9*100,4))</f>
         <v/>
       </c>
-      <c r="Y14" s="27" t="str">
+      <c r="Y14" s="24" t="str">
         <f>IF(_tap_day_all!Y9="","",ROUND(_tap_day_all!Y9*100,4))</f>
         <v/>
       </c>
-      <c r="Z14" s="27" t="str">
+      <c r="Z14" s="24" t="str">
         <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9,4))</f>
         <v/>
       </c>
-      <c r="AA14" s="27" t="str">
+      <c r="AA14" s="24" t="str">
         <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9,4))</f>
         <v/>
       </c>
-      <c r="AB14" s="27" t="str">
+      <c r="AB14" s="24" t="str">
         <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9,4))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="str">
+      <c r="A15" s="23" t="str">
         <f>IF(_tap_day_all!A10="","",_tap_day_all!A10)</f>
         <v/>
       </c>
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="24" t="str">
         <f>IF(_tap_day_all!B10="","",_tap_day_all!B10)</f>
         <v/>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="24" t="str">
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="D15" s="32" t="str">
+      <c r="D15" s="29" t="str">
         <f>IF(_tap_day_all!D10="","",_tap_day_all!D10)</f>
         <v/>
       </c>
-      <c r="E15" s="32" t="str">
+      <c r="E15" s="29" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="24" t="str">
         <f>IF(_tap_day_all!F10="","",_tap_day_all!F10)</f>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="24" t="str">
         <f>IF(_tap_day_all!G10="","",_tap_day_all!G10)</f>
         <v/>
       </c>
-      <c r="H15" s="27" t="str">
+      <c r="H15" s="24" t="str">
         <f>IF(_tap_day_all!H10="","",_tap_day_all!H10)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="24" t="str">
         <f>IF(_tap_day_all!I10="","",_tap_day_all!I10)</f>
         <v/>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="24" t="str">
         <f>IF(_tap_day_all!K10="","",_tap_day_all!K10)</f>
         <v/>
       </c>
-      <c r="L15" s="35" t="str">
+      <c r="L15" s="32" t="str">
         <f>IF(_tap_day_all!L10="","",_tap_day_all!L10)</f>
         <v/>
       </c>
-      <c r="M15" s="27" t="str">
+      <c r="M15" s="24" t="str">
         <f>IF(_tap_day_all!M10="","",ROUND(_tap_day_all!M10*100,4))</f>
         <v/>
       </c>
-      <c r="N15" s="27" t="str">
+      <c r="N15" s="24" t="str">
         <f>IF(_tap_day_all!N10="","",ROUND(_tap_day_all!N10*100,4))</f>
         <v/>
       </c>
-      <c r="O15" s="27" t="str">
+      <c r="O15" s="24" t="str">
         <f>IF(_tap_day_all!O10="","",ROUND(_tap_day_all!O10*100,4))</f>
         <v/>
       </c>
-      <c r="P15" s="27" t="str">
+      <c r="P15" s="24" t="str">
         <f>IF(_tap_day_all!P10="","",ROUND(_tap_day_all!P10*100,4))</f>
         <v/>
       </c>
-      <c r="Q15" s="27" t="str">
+      <c r="Q15" s="24" t="str">
         <f>IF(_tap_day_all!Q10="","",ROUND(_tap_day_all!Q10*100,4))</f>
         <v/>
       </c>
-      <c r="R15" s="27" t="str">
+      <c r="R15" s="24" t="str">
         <f>IF(_tap_day_all!R10="","",ROUND(_tap_day_all!R10*100,4))</f>
         <v/>
       </c>
-      <c r="S15" s="27" t="str">
+      <c r="S15" s="24" t="str">
         <f>IF(_tap_day_all!S10="","",ROUND(_tap_day_all!S10*100,4))</f>
         <v/>
       </c>
-      <c r="T15" s="27" t="str">
+      <c r="T15" s="24" t="str">
         <f>IF(_tap_day_all!T10="","",ROUND(_tap_day_all!T10*100,4))</f>
         <v/>
       </c>
-      <c r="U15" s="27" t="str">
+      <c r="U15" s="24" t="str">
         <f>IF(_tap_day_all!U10="","",ROUND(_tap_day_all!U10*100,4))</f>
         <v/>
       </c>
-      <c r="V15" s="27" t="str">
+      <c r="V15" s="24" t="str">
         <f>IF(_tap_day_all!V10="","",ROUND(_tap_day_all!V10*100,4))</f>
         <v/>
       </c>
-      <c r="W15" s="27" t="str">
+      <c r="W15" s="24" t="str">
         <f>IF(_tap_day_all!W10="","",ROUND(_tap_day_all!W10*100,4))</f>
         <v/>
       </c>
-      <c r="X15" s="27" t="str">
+      <c r="X15" s="24" t="str">
         <f>IF(_tap_day_all!X10="","",ROUND(_tap_day_all!X10*100,4))</f>
         <v/>
       </c>
-      <c r="Y15" s="27" t="str">
+      <c r="Y15" s="24" t="str">
         <f>IF(_tap_day_all!Y10="","",ROUND(_tap_day_all!Y10*100,4))</f>
         <v/>
       </c>
-      <c r="Z15" s="27" t="str">
+      <c r="Z15" s="24" t="str">
         <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10,4))</f>
         <v/>
       </c>
-      <c r="AA15" s="27" t="str">
+      <c r="AA15" s="24" t="str">
         <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10,4))</f>
         <v/>
       </c>
-      <c r="AB15" s="27" t="str">
+      <c r="AB15" s="24" t="str">
         <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10,4))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="str">
+      <c r="A16" s="23" t="str">
         <f>IF(_tap_day_all!A11="","",_tap_day_all!A11)</f>
         <v/>
       </c>
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="24" t="str">
         <f>IF(_tap_day_all!B11="","",_tap_day_all!B11)</f>
         <v/>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="24" t="str">
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="D16" s="32" t="str">
+      <c r="D16" s="29" t="str">
         <f>IF(_tap_day_all!D11="","",_tap_day_all!D11)</f>
         <v/>
       </c>
-      <c r="E16" s="32" t="str">
+      <c r="E16" s="29" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="24" t="str">
         <f>IF(_tap_day_all!F11="","",_tap_day_all!F11)</f>
         <v/>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="24" t="str">
         <f>IF(_tap_day_all!G11="","",_tap_day_all!G11)</f>
         <v/>
       </c>
-      <c r="H16" s="27" t="str">
+      <c r="H16" s="24" t="str">
         <f>IF(_tap_day_all!H11="","",_tap_day_all!H11)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="24" t="str">
         <f>IF(_tap_day_all!I11="","",_tap_day_all!I11)</f>
         <v/>
       </c>
-      <c r="J16" s="27" t="str">
+      <c r="J16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="27" t="str">
+      <c r="K16" s="24" t="str">
         <f>IF(_tap_day_all!K11="","",_tap_day_all!K11)</f>
         <v/>
       </c>
-      <c r="L16" s="35" t="str">
+      <c r="L16" s="32" t="str">
         <f>IF(_tap_day_all!L11="","",_tap_day_all!L11)</f>
         <v/>
       </c>
-      <c r="M16" s="27" t="str">
+      <c r="M16" s="24" t="str">
         <f>IF(_tap_day_all!M11="","",ROUND(_tap_day_all!M11*100,4))</f>
         <v/>
       </c>
-      <c r="N16" s="27" t="str">
+      <c r="N16" s="24" t="str">
         <f>IF(_tap_day_all!N11="","",ROUND(_tap_day_all!N11*100,4))</f>
         <v/>
       </c>
-      <c r="O16" s="27" t="str">
+      <c r="O16" s="24" t="str">
         <f>IF(_tap_day_all!O11="","",ROUND(_tap_day_all!O11*100,4))</f>
         <v/>
       </c>
-      <c r="P16" s="27" t="str">
+      <c r="P16" s="24" t="str">
         <f>IF(_tap_day_all!P11="","",ROUND(_tap_day_all!P11*100,4))</f>
         <v/>
       </c>
-      <c r="Q16" s="27" t="str">
+      <c r="Q16" s="24" t="str">
         <f>IF(_tap_day_all!Q11="","",ROUND(_tap_day_all!Q11*100,4))</f>
         <v/>
       </c>
-      <c r="R16" s="27" t="str">
+      <c r="R16" s="24" t="str">
         <f>IF(_tap_day_all!R11="","",ROUND(_tap_day_all!R11*100,4))</f>
         <v/>
       </c>
-      <c r="S16" s="27" t="str">
+      <c r="S16" s="24" t="str">
         <f>IF(_tap_day_all!S11="","",ROUND(_tap_day_all!S11*100,4))</f>
         <v/>
       </c>
-      <c r="T16" s="27" t="str">
+      <c r="T16" s="24" t="str">
         <f>IF(_tap_day_all!T11="","",ROUND(_tap_day_all!T11*100,4))</f>
         <v/>
       </c>
-      <c r="U16" s="27" t="str">
+      <c r="U16" s="24" t="str">
         <f>IF(_tap_day_all!U11="","",ROUND(_tap_day_all!U11*100,4))</f>
         <v/>
       </c>
-      <c r="V16" s="27" t="str">
+      <c r="V16" s="24" t="str">
         <f>IF(_tap_day_all!V11="","",ROUND(_tap_day_all!V11*100,4))</f>
         <v/>
       </c>
-      <c r="W16" s="27" t="str">
+      <c r="W16" s="24" t="str">
         <f>IF(_tap_day_all!W11="","",ROUND(_tap_day_all!W11*100,4))</f>
         <v/>
       </c>
-      <c r="X16" s="27" t="str">
+      <c r="X16" s="24" t="str">
         <f>IF(_tap_day_all!X11="","",ROUND(_tap_day_all!X11*100,4))</f>
         <v/>
       </c>
-      <c r="Y16" s="27" t="str">
+      <c r="Y16" s="24" t="str">
         <f>IF(_tap_day_all!Y11="","",ROUND(_tap_day_all!Y11*100,4))</f>
         <v/>
       </c>
-      <c r="Z16" s="27" t="str">
+      <c r="Z16" s="24" t="str">
         <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11,4))</f>
         <v/>
       </c>
-      <c r="AA16" s="27" t="str">
+      <c r="AA16" s="24" t="str">
         <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11,4))</f>
         <v/>
       </c>
-      <c r="AB16" s="27" t="str">
+      <c r="AB16" s="24" t="str">
         <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11,4))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="str">
+      <c r="A17" s="23" t="str">
         <f>IF(_tap_day_all!A12="","",_tap_day_all!A12)</f>
         <v/>
       </c>
-      <c r="B17" s="27" t="str">
+      <c r="B17" s="24" t="str">
         <f>IF(_tap_day_all!B12="","",_tap_day_all!B12)</f>
         <v/>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="24" t="str">
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="D17" s="32" t="str">
+      <c r="D17" s="29" t="str">
         <f>IF(_tap_day_all!D12="","",_tap_day_all!D12)</f>
         <v/>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" s="29" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="24" t="str">
         <f>IF(_tap_day_all!F12="","",_tap_day_all!F12)</f>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="24" t="str">
         <f>IF(_tap_day_all!G12="","",_tap_day_all!G12)</f>
         <v/>
       </c>
-      <c r="H17" s="27" t="str">
+      <c r="H17" s="24" t="str">
         <f>IF(_tap_day_all!H12="","",_tap_day_all!H12)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="24" t="str">
         <f>IF(_tap_day_all!I12="","",_tap_day_all!I12)</f>
         <v/>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="K17" s="24" t="str">
         <f>IF(_tap_day_all!K12="","",_tap_day_all!K12)</f>
         <v/>
       </c>
-      <c r="L17" s="35" t="str">
+      <c r="L17" s="32" t="str">
         <f>IF(_tap_day_all!L12="","",_tap_day_all!L12)</f>
         <v/>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="M17" s="24" t="str">
         <f>IF(_tap_day_all!M12="","",ROUND(_tap_day_all!M12*100,4))</f>
         <v/>
       </c>
-      <c r="N17" s="27" t="str">
+      <c r="N17" s="24" t="str">
         <f>IF(_tap_day_all!N12="","",ROUND(_tap_day_all!N12*100,4))</f>
         <v/>
       </c>
-      <c r="O17" s="27" t="str">
+      <c r="O17" s="24" t="str">
         <f>IF(_tap_day_all!O12="","",ROUND(_tap_day_all!O12*100,4))</f>
         <v/>
       </c>
-      <c r="P17" s="27" t="str">
+      <c r="P17" s="24" t="str">
         <f>IF(_tap_day_all!P12="","",ROUND(_tap_day_all!P12*100,4))</f>
         <v/>
       </c>
-      <c r="Q17" s="27" t="str">
+      <c r="Q17" s="24" t="str">
         <f>IF(_tap_day_all!Q12="","",ROUND(_tap_day_all!Q12*100,4))</f>
         <v/>
       </c>
-      <c r="R17" s="27" t="str">
+      <c r="R17" s="24" t="str">
         <f>IF(_tap_day_all!R12="","",ROUND(_tap_day_all!R12*100,4))</f>
         <v/>
       </c>
-      <c r="S17" s="27" t="str">
+      <c r="S17" s="24" t="str">
         <f>IF(_tap_day_all!S12="","",ROUND(_tap_day_all!S12*100,4))</f>
         <v/>
       </c>
-      <c r="T17" s="27" t="str">
+      <c r="T17" s="24" t="str">
         <f>IF(_tap_day_all!T12="","",ROUND(_tap_day_all!T12*100,4))</f>
         <v/>
       </c>
-      <c r="U17" s="27" t="str">
+      <c r="U17" s="24" t="str">
         <f>IF(_tap_day_all!U12="","",ROUND(_tap_day_all!U12*100,4))</f>
         <v/>
       </c>
-      <c r="V17" s="27" t="str">
+      <c r="V17" s="24" t="str">
         <f>IF(_tap_day_all!V12="","",ROUND(_tap_day_all!V12*100,4))</f>
         <v/>
       </c>
-      <c r="W17" s="27" t="str">
+      <c r="W17" s="24" t="str">
         <f>IF(_tap_day_all!W12="","",ROUND(_tap_day_all!W12*100,4))</f>
         <v/>
       </c>
-      <c r="X17" s="27" t="str">
+      <c r="X17" s="24" t="str">
         <f>IF(_tap_day_all!X12="","",ROUND(_tap_day_all!X12*100,4))</f>
         <v/>
       </c>
-      <c r="Y17" s="27" t="str">
+      <c r="Y17" s="24" t="str">
         <f>IF(_tap_day_all!Y12="","",ROUND(_tap_day_all!Y12*100,4))</f>
         <v/>
       </c>
-      <c r="Z17" s="27" t="str">
+      <c r="Z17" s="24" t="str">
         <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12,4))</f>
         <v/>
       </c>
-      <c r="AA17" s="27" t="str">
+      <c r="AA17" s="24" t="str">
         <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12,4))</f>
         <v/>
       </c>
-      <c r="AB17" s="27" t="str">
+      <c r="AB17" s="24" t="str">
         <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12,4))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="str">
+      <c r="A18" s="23" t="str">
         <f>IF(_tap_day_all!A13="","",_tap_day_all!A13)</f>
         <v/>
       </c>
-      <c r="B18" s="27" t="str">
+      <c r="B18" s="24" t="str">
         <f>IF(_tap_day_all!B13="","",_tap_day_all!B13)</f>
         <v/>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="24" t="str">
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="D18" s="32" t="str">
+      <c r="D18" s="29" t="str">
         <f>IF(_tap_day_all!D13="","",_tap_day_all!D13)</f>
         <v/>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="29" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_tap_day_all!F13="","",_tap_day_all!F13)</f>
         <v/>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="24" t="str">
         <f>IF(_tap_day_all!G13="","",_tap_day_all!G13)</f>
         <v/>
       </c>
-      <c r="H18" s="27" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_tap_day_all!H13="","",_tap_day_all!H13)</f>
         <v/>
       </c>
-      <c r="I18" s="27" t="str">
+      <c r="I18" s="24" t="str">
         <f>IF(_tap_day_all!I13="","",_tap_day_all!I13)</f>
         <v/>
       </c>
-      <c r="J18" s="27" t="str">
+      <c r="J18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="27" t="str">
+      <c r="K18" s="24" t="str">
         <f>IF(_tap_day_all!K13="","",_tap_day_all!K13)</f>
         <v/>
       </c>
-      <c r="L18" s="35" t="str">
+      <c r="L18" s="32" t="str">
         <f>IF(_tap_day_all!L13="","",_tap_day_all!L13)</f>
         <v/>
       </c>
-      <c r="M18" s="27" t="str">
+      <c r="M18" s="24" t="str">
         <f>IF(_tap_day_all!M13="","",ROUND(_tap_day_all!M13*100,4))</f>
         <v/>
       </c>
-      <c r="N18" s="27" t="str">
+      <c r="N18" s="24" t="str">
         <f>IF(_tap_day_all!N13="","",ROUND(_tap_day_all!N13*100,4))</f>
         <v/>
       </c>
-      <c r="O18" s="27" t="str">
+      <c r="O18" s="24" t="str">
         <f>IF(_tap_day_all!O13="","",ROUND(_tap_day_all!O13*100,4))</f>
         <v/>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="24" t="str">
         <f>IF(_tap_day_all!P13="","",ROUND(_tap_day_all!P13*100,4))</f>
         <v/>
       </c>
-      <c r="Q18" s="27" t="str">
+      <c r="Q18" s="24" t="str">
         <f>IF(_tap_day_all!Q13="","",ROUND(_tap_day_all!Q13*100,4))</f>
         <v/>
       </c>
-      <c r="R18" s="27" t="str">
+      <c r="R18" s="24" t="str">
         <f>IF(_tap_day_all!R13="","",ROUND(_tap_day_all!R13*100,4))</f>
         <v/>
       </c>
-      <c r="S18" s="27" t="str">
+      <c r="S18" s="24" t="str">
         <f>IF(_tap_day_all!S13="","",ROUND(_tap_day_all!S13*100,4))</f>
         <v/>
       </c>
-      <c r="T18" s="27" t="str">
+      <c r="T18" s="24" t="str">
         <f>IF(_tap_day_all!T13="","",ROUND(_tap_day_all!T13*100,4))</f>
         <v/>
       </c>
-      <c r="U18" s="27" t="str">
+      <c r="U18" s="24" t="str">
         <f>IF(_tap_day_all!U13="","",ROUND(_tap_day_all!U13*100,4))</f>
         <v/>
       </c>
-      <c r="V18" s="27" t="str">
+      <c r="V18" s="24" t="str">
         <f>IF(_tap_day_all!V13="","",ROUND(_tap_day_all!V13*100,4))</f>
         <v/>
       </c>
-      <c r="W18" s="27" t="str">
+      <c r="W18" s="24" t="str">
         <f>IF(_tap_day_all!W13="","",ROUND(_tap_day_all!W13*100,4))</f>
         <v/>
       </c>
-      <c r="X18" s="27" t="str">
+      <c r="X18" s="24" t="str">
         <f>IF(_tap_day_all!X13="","",ROUND(_tap_day_all!X13*100,4))</f>
         <v/>
       </c>
-      <c r="Y18" s="27" t="str">
+      <c r="Y18" s="24" t="str">
         <f>IF(_tap_day_all!Y13="","",ROUND(_tap_day_all!Y13*100,4))</f>
         <v/>
       </c>
-      <c r="Z18" s="27" t="str">
+      <c r="Z18" s="24" t="str">
         <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13,4))</f>
         <v/>
       </c>
-      <c r="AA18" s="27" t="str">
+      <c r="AA18" s="24" t="str">
         <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13,4))</f>
         <v/>
       </c>
-      <c r="AB18" s="27" t="str">
+      <c r="AB18" s="24" t="str">
         <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13,4))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="str">
+      <c r="A19" s="23" t="str">
         <f>IF(_tap_day_all!A14="","",_tap_day_all!A14)</f>
         <v/>
       </c>
-      <c r="B19" s="27" t="str">
+      <c r="B19" s="24" t="str">
         <f>IF(_tap_day_all!B14="","",_tap_day_all!B14)</f>
         <v/>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="24" t="str">
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="D19" s="32" t="str">
+      <c r="D19" s="29" t="str">
         <f>IF(_tap_day_all!D14="","",_tap_day_all!D14)</f>
         <v/>
       </c>
-      <c r="E19" s="32" t="str">
+      <c r="E19" s="29" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
-      <c r="F19" s="27" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_tap_day_all!F14="","",_tap_day_all!F14)</f>
         <v/>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="24" t="str">
         <f>IF(_tap_day_all!G14="","",_tap_day_all!G14)</f>
         <v/>
       </c>
-      <c r="H19" s="27" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_tap_day_all!H14="","",_tap_day_all!H14)</f>
         <v/>
       </c>
-      <c r="I19" s="27" t="str">
+      <c r="I19" s="24" t="str">
         <f>IF(_tap_day_all!I14="","",_tap_day_all!I14)</f>
         <v/>
       </c>
-      <c r="J19" s="27" t="str">
+      <c r="J19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="27" t="str">
+      <c r="K19" s="24" t="str">
         <f>IF(_tap_day_all!K14="","",_tap_day_all!K14)</f>
         <v/>
       </c>
-      <c r="L19" s="35" t="str">
+      <c r="L19" s="32" t="str">
         <f>IF(_tap_day_all!L14="","",_tap_day_all!L14)</f>
         <v/>
       </c>
-      <c r="M19" s="27" t="str">
+      <c r="M19" s="24" t="str">
         <f>IF(_tap_day_all!M14="","",ROUND(_tap_day_all!M14*100,4))</f>
         <v/>
       </c>
-      <c r="N19" s="27" t="str">
+      <c r="N19" s="24" t="str">
         <f>IF(_tap_day_all!N14="","",ROUND(_tap_day_all!N14*100,4))</f>
         <v/>
       </c>
-      <c r="O19" s="27" t="str">
+      <c r="O19" s="24" t="str">
         <f>IF(_tap_day_all!O14="","",ROUND(_tap_day_all!O14*100,4))</f>
         <v/>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="24" t="str">
         <f>IF(_tap_day_all!P14="","",ROUND(_tap_day_all!P14*100,4))</f>
         <v/>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="Q19" s="24" t="str">
         <f>IF(_tap_day_all!Q14="","",ROUND(_tap_day_all!Q14*100,4))</f>
         <v/>
       </c>
-      <c r="R19" s="27" t="str">
+      <c r="R19" s="24" t="str">
         <f>IF(_tap_day_all!R14="","",ROUND(_tap_day_all!R14*100,4))</f>
         <v/>
       </c>
-      <c r="S19" s="27" t="str">
+      <c r="S19" s="24" t="str">
         <f>IF(_tap_day_all!S14="","",ROUND(_tap_day_all!S14*100,4))</f>
         <v/>
       </c>
-      <c r="T19" s="27" t="str">
+      <c r="T19" s="24" t="str">
         <f>IF(_tap_day_all!T14="","",ROUND(_tap_day_all!T14*100,4))</f>
         <v/>
       </c>
-      <c r="U19" s="27" t="str">
+      <c r="U19" s="24" t="str">
         <f>IF(_tap_day_all!U14="","",ROUND(_tap_day_all!U14*100,4))</f>
         <v/>
       </c>
-      <c r="V19" s="27" t="str">
+      <c r="V19" s="24" t="str">
         <f>IF(_tap_day_all!V14="","",ROUND(_tap_day_all!V14*100,4))</f>
         <v/>
       </c>
-      <c r="W19" s="27" t="str">
+      <c r="W19" s="24" t="str">
         <f>IF(_tap_day_all!W14="","",ROUND(_tap_day_all!W14*100,4))</f>
         <v/>
       </c>
-      <c r="X19" s="27" t="str">
+      <c r="X19" s="24" t="str">
         <f>IF(_tap_day_all!X14="","",ROUND(_tap_day_all!X14*100,4))</f>
         <v/>
       </c>
-      <c r="Y19" s="27" t="str">
+      <c r="Y19" s="24" t="str">
         <f>IF(_tap_day_all!Y14="","",ROUND(_tap_day_all!Y14*100,4))</f>
         <v/>
       </c>
-      <c r="Z19" s="27" t="str">
+      <c r="Z19" s="24" t="str">
         <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14,4))</f>
         <v/>
       </c>
-      <c r="AA19" s="27" t="str">
+      <c r="AA19" s="24" t="str">
         <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14,4))</f>
         <v/>
       </c>
-      <c r="AB19" s="27" t="str">
+      <c r="AB19" s="24" t="str">
         <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14,4))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="str">
+      <c r="A20" s="23" t="str">
         <f>IF(_tap_day_all!A15="","",_tap_day_all!A15)</f>
         <v/>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="24" t="str">
         <f>IF(_tap_day_all!B15="","",_tap_day_all!B15)</f>
         <v/>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="24" t="str">
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="D20" s="32" t="str">
+      <c r="D20" s="29" t="str">
         <f>IF(_tap_day_all!D15="","",_tap_day_all!D15)</f>
         <v/>
       </c>
-      <c r="E20" s="32" t="str">
+      <c r="E20" s="29" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_tap_day_all!F15="","",_tap_day_all!F15)</f>
         <v/>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="24" t="str">
         <f>IF(_tap_day_all!G15="","",_tap_day_all!G15)</f>
         <v/>
       </c>
-      <c r="H20" s="27" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_tap_day_all!H15="","",_tap_day_all!H15)</f>
         <v/>
       </c>
-      <c r="I20" s="27" t="str">
+      <c r="I20" s="24" t="str">
         <f>IF(_tap_day_all!I15="","",_tap_day_all!I15)</f>
         <v/>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="24" t="str">
         <f>IF(_tap_day_all!K15="","",_tap_day_all!K15)</f>
         <v/>
       </c>
-      <c r="L20" s="35" t="str">
+      <c r="L20" s="32" t="str">
         <f>IF(_tap_day_all!L15="","",_tap_day_all!L15)</f>
         <v/>
       </c>
-      <c r="M20" s="27" t="str">
+      <c r="M20" s="24" t="str">
         <f>IF(_tap_day_all!M15="","",ROUND(_tap_day_all!M15*100,4))</f>
         <v/>
       </c>
-      <c r="N20" s="27" t="str">
+      <c r="N20" s="24" t="str">
         <f>IF(_tap_day_all!N15="","",ROUND(_tap_day_all!N15*100,4))</f>
         <v/>
       </c>
-      <c r="O20" s="27" t="str">
+      <c r="O20" s="24" t="str">
         <f>IF(_tap_day_all!O15="","",ROUND(_tap_day_all!O15*100,4))</f>
         <v/>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="24" t="str">
         <f>IF(_tap_day_all!P15="","",ROUND(_tap_day_all!P15*100,4))</f>
         <v/>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="24" t="str">
         <f>IF(_tap_day_all!Q15="","",ROUND(_tap_day_all!Q15*100,4))</f>
         <v/>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="24" t="str">
         <f>IF(_tap_day_all!R15="","",ROUND(_tap_day_all!R15*100,4))</f>
         <v/>
       </c>
-      <c r="S20" s="27" t="str">
+      <c r="S20" s="24" t="str">
         <f>IF(_tap_day_all!S15="","",ROUND(_tap_day_all!S15*100,4))</f>
         <v/>
       </c>
-      <c r="T20" s="27" t="str">
+      <c r="T20" s="24" t="str">
         <f>IF(_tap_day_all!T15="","",ROUND(_tap_day_all!T15*100,4))</f>
         <v/>
       </c>
-      <c r="U20" s="27" t="str">
+      <c r="U20" s="24" t="str">
         <f>IF(_tap_day_all!U15="","",ROUND(_tap_day_all!U15*100,4))</f>
         <v/>
       </c>
-      <c r="V20" s="27" t="str">
+      <c r="V20" s="24" t="str">
         <f>IF(_tap_day_all!V15="","",ROUND(_tap_day_all!V15*100,4))</f>
         <v/>
       </c>
-      <c r="W20" s="27" t="str">
+      <c r="W20" s="24" t="str">
         <f>IF(_tap_day_all!W15="","",ROUND(_tap_day_all!W15*100,4))</f>
         <v/>
       </c>
-      <c r="X20" s="27" t="str">
+      <c r="X20" s="24" t="str">
         <f>IF(_tap_day_all!X15="","",ROUND(_tap_day_all!X15*100,4))</f>
         <v/>
       </c>
-      <c r="Y20" s="27" t="str">
+      <c r="Y20" s="24" t="str">
         <f>IF(_tap_day_all!Y15="","",ROUND(_tap_day_all!Y15*100,4))</f>
         <v/>
       </c>
-      <c r="Z20" s="27" t="str">
+      <c r="Z20" s="24" t="str">
         <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15,4))</f>
         <v/>
       </c>
-      <c r="AA20" s="27" t="str">
+      <c r="AA20" s="24" t="str">
         <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15,4))</f>
         <v/>
       </c>
-      <c r="AB20" s="27" t="str">
+      <c r="AB20" s="24" t="str">
         <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15,4))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="str">
+      <c r="A21" s="23" t="str">
         <f>IF(_tap_day_all!A16="","",_tap_day_all!A16)</f>
         <v/>
       </c>
-      <c r="B21" s="27" t="str">
+      <c r="B21" s="24" t="str">
         <f>IF(_tap_day_all!B16="","",_tap_day_all!B16)</f>
         <v/>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="24" t="str">
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="D21" s="32" t="str">
+      <c r="D21" s="29" t="str">
         <f>IF(_tap_day_all!D16="","",_tap_day_all!D16)</f>
         <v/>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" s="29" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
-      <c r="F21" s="27" t="str">
+      <c r="F21" s="24" t="str">
         <f>IF(_tap_day_all!F16="","",_tap_day_all!F16)</f>
         <v/>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="24" t="str">
         <f>IF(_tap_day_all!G16="","",_tap_day_all!G16)</f>
         <v/>
       </c>
-      <c r="H21" s="27" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(_tap_day_all!H16="","",_tap_day_all!H16)</f>
         <v/>
       </c>
-      <c r="I21" s="27" t="str">
+      <c r="I21" s="24" t="str">
         <f>IF(_tap_day_all!I16="","",_tap_day_all!I16)</f>
         <v/>
       </c>
-      <c r="J21" s="27" t="str">
+      <c r="J21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="27" t="str">
+      <c r="K21" s="24" t="str">
         <f>IF(_tap_day_all!K16="","",_tap_day_all!K16)</f>
         <v/>
       </c>
-      <c r="L21" s="35" t="str">
+      <c r="L21" s="32" t="str">
         <f>IF(_tap_day_all!L16="","",_tap_day_all!L16)</f>
         <v/>
       </c>
-      <c r="M21" s="27" t="str">
+      <c r="M21" s="24" t="str">
         <f>IF(_tap_day_all!M16="","",ROUND(_tap_day_all!M16*100,4))</f>
         <v/>
       </c>
-      <c r="N21" s="27" t="str">
+      <c r="N21" s="24" t="str">
         <f>IF(_tap_day_all!N16="","",ROUND(_tap_day_all!N16*100,4))</f>
         <v/>
       </c>
-      <c r="O21" s="27" t="str">
+      <c r="O21" s="24" t="str">
         <f>IF(_tap_day_all!O16="","",ROUND(_tap_day_all!O16*100,4))</f>
         <v/>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="24" t="str">
         <f>IF(_tap_day_all!P16="","",ROUND(_tap_day_all!P16*100,4))</f>
         <v/>
       </c>
-      <c r="Q21" s="27" t="str">
+      <c r="Q21" s="24" t="str">
         <f>IF(_tap_day_all!Q16="","",ROUND(_tap_day_all!Q16*100,4))</f>
         <v/>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="24" t="str">
         <f>IF(_tap_day_all!R16="","",ROUND(_tap_day_all!R16*100,4))</f>
         <v/>
       </c>
-      <c r="S21" s="27" t="str">
+      <c r="S21" s="24" t="str">
         <f>IF(_tap_day_all!S16="","",ROUND(_tap_day_all!S16*100,4))</f>
         <v/>
       </c>
-      <c r="T21" s="27" t="str">
+      <c r="T21" s="24" t="str">
         <f>IF(_tap_day_all!T16="","",ROUND(_tap_day_all!T16*100,4))</f>
         <v/>
       </c>
-      <c r="U21" s="27" t="str">
+      <c r="U21" s="24" t="str">
         <f>IF(_tap_day_all!U16="","",ROUND(_tap_day_all!U16*100,4))</f>
         <v/>
       </c>
-      <c r="V21" s="27" t="str">
+      <c r="V21" s="24" t="str">
         <f>IF(_tap_day_all!V16="","",ROUND(_tap_day_all!V16*100,4))</f>
         <v/>
       </c>
-      <c r="W21" s="27" t="str">
+      <c r="W21" s="24" t="str">
         <f>IF(_tap_day_all!W16="","",ROUND(_tap_day_all!W16*100,4))</f>
         <v/>
       </c>
-      <c r="X21" s="27" t="str">
+      <c r="X21" s="24" t="str">
         <f>IF(_tap_day_all!X16="","",ROUND(_tap_day_all!X16*100,4))</f>
         <v/>
       </c>
-      <c r="Y21" s="27" t="str">
+      <c r="Y21" s="24" t="str">
         <f>IF(_tap_day_all!Y16="","",ROUND(_tap_day_all!Y16*100,4))</f>
         <v/>
       </c>
-      <c r="Z21" s="27" t="str">
+      <c r="Z21" s="24" t="str">
         <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16,4))</f>
         <v/>
       </c>
-      <c r="AA21" s="27" t="str">
+      <c r="AA21" s="24" t="str">
         <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16,4))</f>
         <v/>
       </c>
-      <c r="AB21" s="27" t="str">
+      <c r="AB21" s="24" t="str">
         <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16,4))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="str">
+      <c r="A22" s="23" t="str">
         <f>IF(_tap_day_all!A17="","",_tap_day_all!A17)</f>
         <v/>
       </c>
-      <c r="B22" s="27" t="str">
+      <c r="B22" s="24" t="str">
         <f>IF(_tap_day_all!B17="","",_tap_day_all!B17)</f>
         <v/>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="24" t="str">
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="D22" s="32" t="str">
+      <c r="D22" s="29" t="str">
         <f>IF(_tap_day_all!D17="","",_tap_day_all!D17)</f>
         <v/>
       </c>
-      <c r="E22" s="32" t="str">
+      <c r="E22" s="29" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
-      <c r="F22" s="27" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_tap_day_all!F17="","",_tap_day_all!F17)</f>
         <v/>
       </c>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="24" t="str">
         <f>IF(_tap_day_all!G17="","",_tap_day_all!G17)</f>
         <v/>
       </c>
-      <c r="H22" s="27" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_tap_day_all!H17="","",_tap_day_all!H17)</f>
         <v/>
       </c>
-      <c r="I22" s="27" t="str">
+      <c r="I22" s="24" t="str">
         <f>IF(_tap_day_all!I17="","",_tap_day_all!I17)</f>
         <v/>
       </c>
-      <c r="J22" s="27" t="str">
+      <c r="J22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="27" t="str">
+      <c r="K22" s="24" t="str">
         <f>IF(_tap_day_all!K17="","",_tap_day_all!K17)</f>
         <v/>
       </c>
-      <c r="L22" s="35" t="str">
+      <c r="L22" s="32" t="str">
         <f>IF(_tap_day_all!L17="","",_tap_day_all!L17)</f>
         <v/>
       </c>
-      <c r="M22" s="27" t="str">
+      <c r="M22" s="24" t="str">
         <f>IF(_tap_day_all!M17="","",ROUND(_tap_day_all!M17*100,4))</f>
         <v/>
       </c>
-      <c r="N22" s="27" t="str">
+      <c r="N22" s="24" t="str">
         <f>IF(_tap_day_all!N17="","",ROUND(_tap_day_all!N17*100,4))</f>
         <v/>
       </c>
-      <c r="O22" s="27" t="str">
+      <c r="O22" s="24" t="str">
         <f>IF(_tap_day_all!O17="","",ROUND(_tap_day_all!O17*100,4))</f>
         <v/>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="24" t="str">
         <f>IF(_tap_day_all!P17="","",ROUND(_tap_day_all!P17*100,4))</f>
         <v/>
       </c>
-      <c r="Q22" s="27" t="str">
+      <c r="Q22" s="24" t="str">
         <f>IF(_tap_day_all!Q17="","",ROUND(_tap_day_all!Q17*100,4))</f>
         <v/>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="24" t="str">
         <f>IF(_tap_day_all!R17="","",ROUND(_tap_day_all!R17*100,4))</f>
         <v/>
       </c>
-      <c r="S22" s="27" t="str">
+      <c r="S22" s="24" t="str">
         <f>IF(_tap_day_all!S17="","",ROUND(_tap_day_all!S17*100,4))</f>
         <v/>
       </c>
-      <c r="T22" s="27" t="str">
+      <c r="T22" s="24" t="str">
         <f>IF(_tap_day_all!T17="","",ROUND(_tap_day_all!T17*100,4))</f>
         <v/>
       </c>
-      <c r="U22" s="27" t="str">
+      <c r="U22" s="24" t="str">
         <f>IF(_tap_day_all!U17="","",ROUND(_tap_day_all!U17*100,4))</f>
         <v/>
       </c>
-      <c r="V22" s="27" t="str">
+      <c r="V22" s="24" t="str">
         <f>IF(_tap_day_all!V17="","",ROUND(_tap_day_all!V17*100,4))</f>
         <v/>
       </c>
-      <c r="W22" s="27" t="str">
+      <c r="W22" s="24" t="str">
         <f>IF(_tap_day_all!W17="","",ROUND(_tap_day_all!W17*100,4))</f>
         <v/>
       </c>
-      <c r="X22" s="27" t="str">
+      <c r="X22" s="24" t="str">
         <f>IF(_tap_day_all!X17="","",ROUND(_tap_day_all!X17*100,4))</f>
         <v/>
       </c>
-      <c r="Y22" s="27" t="str">
+      <c r="Y22" s="24" t="str">
         <f>IF(_tap_day_all!Y17="","",ROUND(_tap_day_all!Y17*100,4))</f>
         <v/>
       </c>
-      <c r="Z22" s="27" t="str">
+      <c r="Z22" s="24" t="str">
         <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17,4))</f>
         <v/>
       </c>
-      <c r="AA22" s="27" t="str">
+      <c r="AA22" s="24" t="str">
         <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17,4))</f>
         <v/>
       </c>
-      <c r="AB22" s="27" t="str">
+      <c r="AB22" s="24" t="str">
         <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17,4))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="str">
+      <c r="A23" s="23" t="str">
         <f>IF(_tap_day_all!A18="","",_tap_day_all!A18)</f>
         <v/>
       </c>
-      <c r="B23" s="27" t="str">
+      <c r="B23" s="24" t="str">
         <f>IF(_tap_day_all!B18="","",_tap_day_all!B18)</f>
         <v/>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="24" t="str">
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="D23" s="32" t="str">
+      <c r="D23" s="29" t="str">
         <f>IF(_tap_day_all!D18="","",_tap_day_all!D18)</f>
         <v/>
       </c>
-      <c r="E23" s="32" t="str">
+      <c r="E23" s="29" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
-      <c r="F23" s="27" t="str">
+      <c r="F23" s="24" t="str">
         <f>IF(_tap_day_all!F18="","",_tap_day_all!F18)</f>
         <v/>
       </c>
-      <c r="G23" s="27" t="str">
+      <c r="G23" s="24" t="str">
         <f>IF(_tap_day_all!G18="","",_tap_day_all!G18)</f>
         <v/>
       </c>
-      <c r="H23" s="27" t="str">
+      <c r="H23" s="24" t="str">
         <f>IF(_tap_day_all!H18="","",_tap_day_all!H18)</f>
         <v/>
       </c>
-      <c r="I23" s="27" t="str">
+      <c r="I23" s="24" t="str">
         <f>IF(_tap_day_all!I18="","",_tap_day_all!I18)</f>
         <v/>
       </c>
-      <c r="J23" s="27" t="str">
+      <c r="J23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="27" t="str">
+      <c r="K23" s="24" t="str">
         <f>IF(_tap_day_all!K18="","",_tap_day_all!K18)</f>
         <v/>
       </c>
-      <c r="L23" s="35" t="str">
+      <c r="L23" s="32" t="str">
         <f>IF(_tap_day_all!L18="","",_tap_day_all!L18)</f>
         <v/>
       </c>
-      <c r="M23" s="27" t="str">
+      <c r="M23" s="24" t="str">
         <f>IF(_tap_day_all!M18="","",ROUND(_tap_day_all!M18*100,4))</f>
         <v/>
       </c>
-      <c r="N23" s="27" t="str">
+      <c r="N23" s="24" t="str">
         <f>IF(_tap_day_all!N18="","",ROUND(_tap_day_all!N18*100,4))</f>
         <v/>
       </c>
-      <c r="O23" s="27" t="str">
+      <c r="O23" s="24" t="str">
         <f>IF(_tap_day_all!O18="","",ROUND(_tap_day_all!O18*100,4))</f>
         <v/>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="24" t="str">
         <f>IF(_tap_day_all!P18="","",ROUND(_tap_day_all!P18*100,4))</f>
         <v/>
       </c>
-      <c r="Q23" s="27" t="str">
+      <c r="Q23" s="24" t="str">
         <f>IF(_tap_day_all!Q18="","",ROUND(_tap_day_all!Q18*100,4))</f>
         <v/>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="24" t="str">
         <f>IF(_tap_day_all!R18="","",ROUND(_tap_day_all!R18*100,4))</f>
         <v/>
       </c>
-      <c r="S23" s="27" t="str">
+      <c r="S23" s="24" t="str">
         <f>IF(_tap_day_all!S18="","",ROUND(_tap_day_all!S18*100,4))</f>
         <v/>
       </c>
-      <c r="T23" s="27" t="str">
+      <c r="T23" s="24" t="str">
         <f>IF(_tap_day_all!T18="","",ROUND(_tap_day_all!T18*100,4))</f>
         <v/>
       </c>
-      <c r="U23" s="27" t="str">
+      <c r="U23" s="24" t="str">
         <f>IF(_tap_day_all!U18="","",ROUND(_tap_day_all!U18*100,4))</f>
         <v/>
       </c>
-      <c r="V23" s="27" t="str">
+      <c r="V23" s="24" t="str">
         <f>IF(_tap_day_all!V18="","",ROUND(_tap_day_all!V18*100,4))</f>
         <v/>
       </c>
-      <c r="W23" s="27" t="str">
+      <c r="W23" s="24" t="str">
         <f>IF(_tap_day_all!W18="","",ROUND(_tap_day_all!W18*100,4))</f>
         <v/>
       </c>
-      <c r="X23" s="27" t="str">
+      <c r="X23" s="24" t="str">
         <f>IF(_tap_day_all!X18="","",ROUND(_tap_day_all!X18*100,4))</f>
         <v/>
       </c>
-      <c r="Y23" s="27" t="str">
+      <c r="Y23" s="24" t="str">
         <f>IF(_tap_day_all!Y18="","",ROUND(_tap_day_all!Y18*100,4))</f>
         <v/>
       </c>
-      <c r="Z23" s="27" t="str">
+      <c r="Z23" s="24" t="str">
         <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18,4))</f>
         <v/>
       </c>
-      <c r="AA23" s="27" t="str">
+      <c r="AA23" s="24" t="str">
         <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18,4))</f>
         <v/>
       </c>
-      <c r="AB23" s="27" t="str">
+      <c r="AB23" s="24" t="str">
         <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18,4))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="str">
+      <c r="A24" s="23" t="str">
         <f>IF(_tap_day_all!A19="","",_tap_day_all!A19)</f>
         <v/>
       </c>
-      <c r="B24" s="27" t="str">
+      <c r="B24" s="24" t="str">
         <f>IF(_tap_day_all!B19="","",_tap_day_all!B19)</f>
         <v/>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="24" t="str">
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="D24" s="32" t="str">
+      <c r="D24" s="29" t="str">
         <f>IF(_tap_day_all!D19="","",_tap_day_all!D19)</f>
         <v/>
       </c>
-      <c r="E24" s="32" t="str">
+      <c r="E24" s="29" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="24" t="str">
         <f>IF(_tap_day_all!F19="","",_tap_day_all!F19)</f>
         <v/>
       </c>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="24" t="str">
         <f>IF(_tap_day_all!G19="","",_tap_day_all!G19)</f>
         <v/>
       </c>
-      <c r="H24" s="27" t="str">
+      <c r="H24" s="24" t="str">
         <f>IF(_tap_day_all!H19="","",_tap_day_all!H19)</f>
         <v/>
       </c>
-      <c r="I24" s="27" t="str">
+      <c r="I24" s="24" t="str">
         <f>IF(_tap_day_all!I19="","",_tap_day_all!I19)</f>
         <v/>
       </c>
-      <c r="J24" s="27" t="str">
+      <c r="J24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="24" t="str">
         <f>IF(_tap_day_all!K19="","",_tap_day_all!K19)</f>
         <v/>
       </c>
-      <c r="L24" s="35" t="str">
+      <c r="L24" s="32" t="str">
         <f>IF(_tap_day_all!L19="","",_tap_day_all!L19)</f>
         <v/>
       </c>
-      <c r="M24" s="27" t="str">
+      <c r="M24" s="24" t="str">
         <f>IF(_tap_day_all!M19="","",ROUND(_tap_day_all!M19*100,4))</f>
         <v/>
       </c>
-      <c r="N24" s="27" t="str">
+      <c r="N24" s="24" t="str">
         <f>IF(_tap_day_all!N19="","",ROUND(_tap_day_all!N19*100,4))</f>
         <v/>
       </c>
-      <c r="O24" s="27" t="str">
+      <c r="O24" s="24" t="str">
         <f>IF(_tap_day_all!O19="","",ROUND(_tap_day_all!O19*100,4))</f>
         <v/>
       </c>
-      <c r="P24" s="27" t="str">
+      <c r="P24" s="24" t="str">
         <f>IF(_tap_day_all!P19="","",ROUND(_tap_day_all!P19*100,4))</f>
         <v/>
       </c>
-      <c r="Q24" s="27" t="str">
+      <c r="Q24" s="24" t="str">
         <f>IF(_tap_day_all!Q19="","",ROUND(_tap_day_all!Q19*100,4))</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="24" t="str">
         <f>IF(_tap_day_all!R19="","",ROUND(_tap_day_all!R19*100,4))</f>
         <v/>
       </c>
-      <c r="S24" s="27" t="str">
+      <c r="S24" s="24" t="str">
         <f>IF(_tap_day_all!S19="","",ROUND(_tap_day_all!S19*100,4))</f>
         <v/>
       </c>
-      <c r="T24" s="27" t="str">
+      <c r="T24" s="24" t="str">
         <f>IF(_tap_day_all!T19="","",ROUND(_tap_day_all!T19*100,4))</f>
         <v/>
       </c>
-      <c r="U24" s="27" t="str">
+      <c r="U24" s="24" t="str">
         <f>IF(_tap_day_all!U19="","",ROUND(_tap_day_all!U19*100,4))</f>
         <v/>
       </c>
-      <c r="V24" s="27" t="str">
+      <c r="V24" s="24" t="str">
         <f>IF(_tap_day_all!V19="","",ROUND(_tap_day_all!V19*100,4))</f>
         <v/>
       </c>
-      <c r="W24" s="27" t="str">
+      <c r="W24" s="24" t="str">
         <f>IF(_tap_day_all!W19="","",ROUND(_tap_day_all!W19*100,4))</f>
         <v/>
       </c>
-      <c r="X24" s="27" t="str">
+      <c r="X24" s="24" t="str">
         <f>IF(_tap_day_all!X19="","",ROUND(_tap_day_all!X19*100,4))</f>
         <v/>
       </c>
-      <c r="Y24" s="27" t="str">
+      <c r="Y24" s="24" t="str">
         <f>IF(_tap_day_all!Y19="","",ROUND(_tap_day_all!Y19*100,4))</f>
         <v/>
       </c>
-      <c r="Z24" s="27" t="str">
+      <c r="Z24" s="24" t="str">
         <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19,4))</f>
         <v/>
       </c>
-      <c r="AA24" s="27" t="str">
+      <c r="AA24" s="24" t="str">
         <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19,4))</f>
         <v/>
       </c>
-      <c r="AB24" s="27" t="str">
+      <c r="AB24" s="24" t="str">
         <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19,4))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="str">
+      <c r="A25" s="23" t="str">
         <f>IF(_tap_day_all!A20="","",_tap_day_all!A20)</f>
         <v/>
       </c>
-      <c r="B25" s="27" t="str">
+      <c r="B25" s="24" t="str">
         <f>IF(_tap_day_all!B20="","",_tap_day_all!B20)</f>
         <v/>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="24" t="str">
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="D25" s="32" t="str">
+      <c r="D25" s="29" t="str">
         <f>IF(_tap_day_all!D20="","",_tap_day_all!D20)</f>
         <v/>
       </c>
-      <c r="E25" s="32" t="str">
+      <c r="E25" s="29" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
-      <c r="F25" s="27" t="str">
+      <c r="F25" s="24" t="str">
         <f>IF(_tap_day_all!F20="","",_tap_day_all!F20)</f>
         <v/>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="24" t="str">
         <f>IF(_tap_day_all!G20="","",_tap_day_all!G20)</f>
         <v/>
       </c>
-      <c r="H25" s="27" t="str">
+      <c r="H25" s="24" t="str">
         <f>IF(_tap_day_all!H20="","",_tap_day_all!H20)</f>
         <v/>
       </c>
-      <c r="I25" s="27" t="str">
+      <c r="I25" s="24" t="str">
         <f>IF(_tap_day_all!I20="","",_tap_day_all!I20)</f>
         <v/>
       </c>
-      <c r="J25" s="27" t="str">
+      <c r="J25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="27" t="str">
+      <c r="K25" s="24" t="str">
         <f>IF(_tap_day_all!K20="","",_tap_day_all!K20)</f>
         <v/>
       </c>
-      <c r="L25" s="35" t="str">
+      <c r="L25" s="32" t="str">
         <f>IF(_tap_day_all!L20="","",_tap_day_all!L20)</f>
         <v/>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="24" t="str">
         <f>IF(_tap_day_all!M20="","",ROUND(_tap_day_all!M20*100,4))</f>
         <v/>
       </c>
-      <c r="N25" s="27" t="str">
+      <c r="N25" s="24" t="str">
         <f>IF(_tap_day_all!N20="","",ROUND(_tap_day_all!N20*100,4))</f>
         <v/>
       </c>
-      <c r="O25" s="27" t="str">
+      <c r="O25" s="24" t="str">
         <f>IF(_tap_day_all!O20="","",ROUND(_tap_day_all!O20*100,4))</f>
         <v/>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="24" t="str">
         <f>IF(_tap_day_all!P20="","",ROUND(_tap_day_all!P20*100,4))</f>
         <v/>
       </c>
-      <c r="Q25" s="27" t="str">
+      <c r="Q25" s="24" t="str">
         <f>IF(_tap_day_all!Q20="","",ROUND(_tap_day_all!Q20*100,4))</f>
         <v/>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="24" t="str">
         <f>IF(_tap_day_all!R20="","",ROUND(_tap_day_all!R20*100,4))</f>
         <v/>
       </c>
-      <c r="S25" s="27" t="str">
+      <c r="S25" s="24" t="str">
         <f>IF(_tap_day_all!S20="","",ROUND(_tap_day_all!S20*100,4))</f>
         <v/>
       </c>
-      <c r="T25" s="27" t="str">
+      <c r="T25" s="24" t="str">
         <f>IF(_tap_day_all!T20="","",ROUND(_tap_day_all!T20*100,4))</f>
         <v/>
       </c>
-      <c r="U25" s="27" t="str">
+      <c r="U25" s="24" t="str">
         <f>IF(_tap_day_all!U20="","",ROUND(_tap_day_all!U20*100,4))</f>
         <v/>
       </c>
-      <c r="V25" s="27" t="str">
+      <c r="V25" s="24" t="str">
         <f>IF(_tap_day_all!V20="","",ROUND(_tap_day_all!V20*100,4))</f>
         <v/>
       </c>
-      <c r="W25" s="27" t="str">
+      <c r="W25" s="24" t="str">
         <f>IF(_tap_day_all!W20="","",ROUND(_tap_day_all!W20*100,4))</f>
         <v/>
       </c>
-      <c r="X25" s="27" t="str">
+      <c r="X25" s="24" t="str">
         <f>IF(_tap_day_all!X20="","",ROUND(_tap_day_all!X20*100,4))</f>
         <v/>
       </c>
-      <c r="Y25" s="27" t="str">
+      <c r="Y25" s="24" t="str">
         <f>IF(_tap_day_all!Y20="","",ROUND(_tap_day_all!Y20*100,4))</f>
         <v/>
       </c>
-      <c r="Z25" s="27" t="str">
+      <c r="Z25" s="24" t="str">
         <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20,4))</f>
         <v/>
       </c>
-      <c r="AA25" s="27" t="str">
+      <c r="AA25" s="24" t="str">
         <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20,4))</f>
         <v/>
       </c>
-      <c r="AB25" s="27" t="str">
+      <c r="AB25" s="24" t="str">
         <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20,4))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="str">
+      <c r="A26" s="25" t="str">
         <f>IF(_tap_day_all!A21="","",_tap_day_all!A21)</f>
         <v/>
       </c>
-      <c r="B26" s="29" t="str">
+      <c r="B26" s="26" t="str">
         <f>IF(_tap_day_all!B21="","",_tap_day_all!B21)</f>
         <v/>
       </c>
-      <c r="C26" s="29" t="str">
+      <c r="C26" s="26" t="str">
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="D26" s="33" t="str">
+      <c r="D26" s="30" t="str">
         <f>IF(_tap_day_all!D21="","",_tap_day_all!D21)</f>
         <v/>
       </c>
-      <c r="E26" s="33" t="str">
+      <c r="E26" s="30" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
-      <c r="F26" s="29" t="str">
+      <c r="F26" s="26" t="str">
         <f>IF(_tap_day_all!F21="","",_tap_day_all!F21)</f>
         <v/>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="26" t="str">
         <f>IF(_tap_day_all!G21="","",_tap_day_all!G21)</f>
         <v/>
       </c>
-      <c r="H26" s="29" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="I26" s="29" t="str">
+      <c r="I26" s="26" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
-      <c r="J26" s="27" t="str">
+      <c r="J26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="29" t="str">
+      <c r="K26" s="26" t="str">
         <f>IF(_tap_day_all!K21="","",_tap_day_all!K21)</f>
         <v/>
       </c>
-      <c r="L26" s="36" t="str">
+      <c r="L26" s="33" t="str">
         <f>IF(_tap_day_all!L21="","",_tap_day_all!L21)</f>
         <v/>
       </c>
-      <c r="M26" s="27" t="str">
+      <c r="M26" s="24" t="str">
         <f>IF(_tap_day_all!M21="","",ROUND(_tap_day_all!M21*100,4))</f>
         <v/>
       </c>
-      <c r="N26" s="27" t="str">
+      <c r="N26" s="24" t="str">
         <f>IF(_tap_day_all!N21="","",ROUND(_tap_day_all!N21*100,4))</f>
         <v/>
       </c>
-      <c r="O26" s="27" t="str">
+      <c r="O26" s="24" t="str">
         <f>IF(_tap_day_all!O21="","",ROUND(_tap_day_all!O21*100,4))</f>
         <v/>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="24" t="str">
         <f>IF(_tap_day_all!P21="","",ROUND(_tap_day_all!P21*100,4))</f>
         <v/>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="24" t="str">
         <f>IF(_tap_day_all!Q21="","",ROUND(_tap_day_all!Q21*100,4))</f>
         <v/>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="24" t="str">
         <f>IF(_tap_day_all!R21="","",ROUND(_tap_day_all!R21*100,4))</f>
         <v/>
       </c>
-      <c r="S26" s="27" t="str">
+      <c r="S26" s="24" t="str">
         <f>IF(_tap_day_all!S21="","",ROUND(_tap_day_all!S21*100,4))</f>
         <v/>
       </c>
-      <c r="T26" s="27" t="str">
+      <c r="T26" s="24" t="str">
         <f>IF(_tap_day_all!T21="","",ROUND(_tap_day_all!T21*100,4))</f>
         <v/>
       </c>
-      <c r="U26" s="27" t="str">
+      <c r="U26" s="24" t="str">
         <f>IF(_tap_day_all!U21="","",ROUND(_tap_day_all!U21*100,4))</f>
         <v/>
       </c>
-      <c r="V26" s="27" t="str">
+      <c r="V26" s="24" t="str">
         <f>IF(_tap_day_all!V21="","",ROUND(_tap_day_all!V21*100,4))</f>
         <v/>
       </c>
-      <c r="W26" s="27" t="str">
+      <c r="W26" s="24" t="str">
         <f>IF(_tap_day_all!W21="","",ROUND(_tap_day_all!W21*100,4))</f>
         <v/>
       </c>
-      <c r="X26" s="27" t="str">
+      <c r="X26" s="24" t="str">
         <f>IF(_tap_day_all!X21="","",ROUND(_tap_day_all!X21*100,4))</f>
         <v/>
       </c>
-      <c r="Y26" s="27" t="str">
+      <c r="Y26" s="24" t="str">
         <f>IF(_tap_day_all!Y21="","",ROUND(_tap_day_all!Y21*100,4))</f>
         <v/>
       </c>
-      <c r="Z26" s="27" t="str">
+      <c r="Z26" s="24" t="str">
         <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21,4))</f>
         <v/>
       </c>
-      <c r="AA26" s="27" t="str">
+      <c r="AA26" s="24" t="str">
         <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21,4))</f>
         <v/>
       </c>
-      <c r="AB26" s="27" t="str">
+      <c r="AB26" s="24" t="str">
         <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21,4))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
@@ -3926,90 +3937,90 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!M2:'_tap_day_all'!M21)*100,"")</f>
+      <c r="M27" s="35">
+        <f>IFERROR(SUM(M7:M26),"")</f>
         <v>0</v>
       </c>
-      <c r="N27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!N2:'_tap_day_all'!N21)*100,"")</f>
+      <c r="N27" s="35">
+        <f t="shared" ref="N27:Y27" si="3">IFERROR(SUM(N7:N26),"")</f>
         <v>0</v>
       </c>
-      <c r="O27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!O2:'_tap_day_all'!O21)*100,"")</f>
+      <c r="O27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!P2:'_tap_day_all'!P21)*100,"")</f>
+      <c r="P27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,"")</f>
+      <c r="Q27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!R2:'_tap_day_all'!R21)*100,"")</f>
+      <c r="R27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!S2:'_tap_day_all'!S21)*100,"")</f>
+      <c r="S27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!T2:'_tap_day_all'!T21)*100,"")</f>
+      <c r="T27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!U2:'_tap_day_all'!U21)*100,"")</f>
+      <c r="U27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!V2:'_tap_day_all'!V21)*100,"")</f>
+      <c r="V27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!W2:'_tap_day_all'!W21)*100,"")</f>
+      <c r="W27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!X2:'_tap_day_all'!X21)*100,"")</f>
+      <c r="X27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="13">
-        <f>IFERROR(SUM(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,"")</f>
+      <c r="Y27" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="37">
+      <c r="Z27" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="37">
+      <c r="AA27" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="37">
+      <c r="AB27" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="15" t="str">
-        <f t="shared" ref="C28:F28" si="3">IFERROR(AVERAGE(C7:C26),"")</f>
+        <f t="shared" ref="C28:F28" si="4">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
       </c>
       <c r="D28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G28" s="15" t="str">
@@ -4017,234 +4028,241 @@
         <v/>
       </c>
       <c r="H28" s="15" t="str">
-        <f t="shared" ref="H28:L28" si="4">IFERROR(AVERAGE(H7:H26),"")</f>
+        <f t="shared" ref="H28:L28" si="5">IFERROR(AVERAGE(H7:H26),"")</f>
         <v/>
       </c>
       <c r="I28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!M2:'_tap_day_all'!M21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!N2:'_tap_day_all'!N21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!O2:'_tap_day_all'!O21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="P28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!P2:'_tap_day_all'!P21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Q2:'_tap_day_all'!Q21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="R28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!R2:'_tap_day_all'!R21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="S28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!S2:'_tap_day_all'!S21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="T28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!T2:'_tap_day_all'!T21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="U28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!U2:'_tap_day_all'!U21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="V28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!V2:'_tap_day_all'!V21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="W28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!W2:'_tap_day_all'!W21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="X28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!X2:'_tap_day_all'!X21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="Y28" s="15" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Y2:'_tap_day_all'!Y21)*100,2),"")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M28" s="37" t="str">
+        <f>IFERROR(ROUND(AVERAGE(M7:M26),4),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="37" t="str">
+        <f t="shared" ref="N28:Y28" si="6">IFERROR(ROUND(AVERAGE(N7:N26),4),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z28" s="36" t="str">
         <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Z2:'_tap_day_all'!Z21),2),"")</f>
         <v/>
       </c>
-      <c r="AA28" s="15" t="str">
+      <c r="AA28" s="36" t="str">
         <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AA2:'_tap_day_all'!AA21),2),"")</f>
         <v/>
       </c>
-      <c r="AB28" s="15" t="str">
+      <c r="AB28" s="36" t="str">
         <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AB2:'_tap_day_all'!AB21),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="78">
         <f>SUMIF(C7:C26,1,I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="20">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="19">
         <v>2</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="79">
         <f>SUMIF(C7:C26,2,I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="1"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="20">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="19">
         <v>3</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="79">
         <f>SUMIF(C7:C26,3,I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-    </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="S31" s="1"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+    </row>
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="80">
         <f>SUMIF(C7:C26,4,I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="1"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+    </row>
+    <row r="33" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:AB3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -4259,14 +4277,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AB2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,202 +4387,202 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="30"/>
+      <c r="E41" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -841,6 +841,51 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,58 +961,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1263,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D29" sqref="D29:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,31 +1287,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65" t="str">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1305,103 +1320,103 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="49" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="72" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1411,8 +1426,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1452,22 +1467,22 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AB4" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1528,9 +1543,9 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
     </row>
     <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1641,19 +1656,19 @@
         <f>IF(_tap_day_all!G2="","",_tap_day_all!G2)</f>
         <v/>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="32" t="str">
         <f>IF(_tap_day_all!H2="","",_tap_day_all!H2)</f>
         <v/>
       </c>
-      <c r="I7" s="24" t="str">
+      <c r="I7" s="32" t="str">
         <f>IF(_tap_day_all!I2="","",_tap_day_all!I2)</f>
         <v/>
       </c>
-      <c r="J7" s="24" t="str">
+      <c r="J7" s="32" t="str">
         <f>IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="K7" s="24" t="str">
+      <c r="K7" s="78" t="str">
         <f>IF(_tap_day_all!K2="","",_tap_day_all!K2)</f>
         <v/>
       </c>
@@ -1717,11 +1732,11 @@
         <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2,4))</f>
         <v/>
       </c>
-      <c r="AA7" s="24" t="str">
+      <c r="AA7" s="82" t="str">
         <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2,4))</f>
         <v/>
       </c>
-      <c r="AB7" s="24" t="str">
+      <c r="AB7" s="82" t="str">
         <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2,4))</f>
         <v/>
       </c>
@@ -1755,19 +1770,19 @@
         <f>IF(_tap_day_all!G3="","",_tap_day_all!G3)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="32" t="str">
         <f>IF(_tap_day_all!H3="","",_tap_day_all!H3)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="32" t="str">
         <f>IF(_tap_day_all!I3="","",_tap_day_all!I3)</f>
         <v/>
       </c>
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="32" t="str">
         <f t="shared" ref="J8:J26" si="0">IFERROR(I8-H8,"")</f>
         <v/>
       </c>
-      <c r="K8" s="24" t="str">
+      <c r="K8" s="78" t="str">
         <f>IF(_tap_day_all!K3="","",_tap_day_all!K3)</f>
         <v/>
       </c>
@@ -1831,11 +1846,11 @@
         <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3,4))</f>
         <v/>
       </c>
-      <c r="AA8" s="24" t="str">
+      <c r="AA8" s="82" t="str">
         <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3,4))</f>
         <v/>
       </c>
-      <c r="AB8" s="24" t="str">
+      <c r="AB8" s="82" t="str">
         <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3,4))</f>
         <v/>
       </c>
@@ -1869,19 +1884,19 @@
         <f>IF(_tap_day_all!G4="","",_tap_day_all!G4)</f>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="32" t="str">
         <f>IF(_tap_day_all!H4="","",_tap_day_all!H4)</f>
         <v/>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="32" t="str">
         <f>IF(_tap_day_all!I4="","",_tap_day_all!I4)</f>
         <v/>
       </c>
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="24" t="str">
+      <c r="K9" s="78" t="str">
         <f>IF(_tap_day_all!K4="","",_tap_day_all!K4)</f>
         <v/>
       </c>
@@ -1945,11 +1960,11 @@
         <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4,4))</f>
         <v/>
       </c>
-      <c r="AA9" s="24" t="str">
+      <c r="AA9" s="82" t="str">
         <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4,4))</f>
         <v/>
       </c>
-      <c r="AB9" s="24" t="str">
+      <c r="AB9" s="82" t="str">
         <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4,4))</f>
         <v/>
       </c>
@@ -1983,19 +1998,19 @@
         <f>IF(_tap_day_all!G5="","",_tap_day_all!G5)</f>
         <v/>
       </c>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="32" t="str">
         <f>IF(_tap_day_all!H5="","",_tap_day_all!H5)</f>
         <v/>
       </c>
-      <c r="I10" s="24" t="str">
+      <c r="I10" s="32" t="str">
         <f>IF(_tap_day_all!I5="","",_tap_day_all!I5)</f>
         <v/>
       </c>
-      <c r="J10" s="24" t="str">
+      <c r="J10" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="24" t="str">
+      <c r="K10" s="78" t="str">
         <f>IF(_tap_day_all!K5="","",_tap_day_all!K5)</f>
         <v/>
       </c>
@@ -2059,11 +2074,11 @@
         <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5,4))</f>
         <v/>
       </c>
-      <c r="AA10" s="24" t="str">
+      <c r="AA10" s="82" t="str">
         <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5,4))</f>
         <v/>
       </c>
-      <c r="AB10" s="24" t="str">
+      <c r="AB10" s="82" t="str">
         <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5,4))</f>
         <v/>
       </c>
@@ -2097,19 +2112,19 @@
         <f>IF(_tap_day_all!G6="","",_tap_day_all!G6)</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="32" t="str">
         <f>IF(_tap_day_all!H6="","",_tap_day_all!H6)</f>
         <v/>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="32" t="str">
         <f>IF(_tap_day_all!I6="","",_tap_day_all!I6)</f>
         <v/>
       </c>
-      <c r="J11" s="24" t="str">
+      <c r="J11" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="24" t="str">
+      <c r="K11" s="78" t="str">
         <f>IF(_tap_day_all!K6="","",_tap_day_all!K6)</f>
         <v/>
       </c>
@@ -2173,11 +2188,11 @@
         <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6,4))</f>
         <v/>
       </c>
-      <c r="AA11" s="24" t="str">
+      <c r="AA11" s="82" t="str">
         <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6,4))</f>
         <v/>
       </c>
-      <c r="AB11" s="24" t="str">
+      <c r="AB11" s="82" t="str">
         <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6,4))</f>
         <v/>
       </c>
@@ -2211,19 +2226,19 @@
         <f>IF(_tap_day_all!G7="","",_tap_day_all!G7)</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="32" t="str">
         <f>IF(_tap_day_all!H7="","",_tap_day_all!H7)</f>
         <v/>
       </c>
-      <c r="I12" s="24" t="str">
+      <c r="I12" s="32" t="str">
         <f>IF(_tap_day_all!I7="","",_tap_day_all!I7)</f>
         <v/>
       </c>
-      <c r="J12" s="24" t="str">
+      <c r="J12" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="24" t="str">
+      <c r="K12" s="78" t="str">
         <f>IF(_tap_day_all!K7="","",_tap_day_all!K7)</f>
         <v/>
       </c>
@@ -2287,11 +2302,11 @@
         <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7,4))</f>
         <v/>
       </c>
-      <c r="AA12" s="24" t="str">
+      <c r="AA12" s="82" t="str">
         <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7,4))</f>
         <v/>
       </c>
-      <c r="AB12" s="24" t="str">
+      <c r="AB12" s="82" t="str">
         <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7,4))</f>
         <v/>
       </c>
@@ -2325,19 +2340,19 @@
         <f>IF(_tap_day_all!G8="","",_tap_day_all!G8)</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="32" t="str">
         <f>IF(_tap_day_all!H8="","",_tap_day_all!H8)</f>
         <v/>
       </c>
-      <c r="I13" s="24" t="str">
+      <c r="I13" s="32" t="str">
         <f>IF(_tap_day_all!I8="","",_tap_day_all!I8)</f>
         <v/>
       </c>
-      <c r="J13" s="24" t="str">
+      <c r="J13" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="24" t="str">
+      <c r="K13" s="78" t="str">
         <f>IF(_tap_day_all!K8="","",_tap_day_all!K8)</f>
         <v/>
       </c>
@@ -2401,11 +2416,11 @@
         <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8,4))</f>
         <v/>
       </c>
-      <c r="AA13" s="24" t="str">
+      <c r="AA13" s="82" t="str">
         <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8,4))</f>
         <v/>
       </c>
-      <c r="AB13" s="24" t="str">
+      <c r="AB13" s="82" t="str">
         <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8,4))</f>
         <v/>
       </c>
@@ -2439,19 +2454,19 @@
         <f>IF(_tap_day_all!G9="","",_tap_day_all!G9)</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="32" t="str">
         <f>IF(_tap_day_all!H9="","",_tap_day_all!H9)</f>
         <v/>
       </c>
-      <c r="I14" s="24" t="str">
+      <c r="I14" s="32" t="str">
         <f>IF(_tap_day_all!I9="","",_tap_day_all!I9)</f>
         <v/>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="78" t="str">
         <f>IF(_tap_day_all!K9="","",_tap_day_all!K9)</f>
         <v/>
       </c>
@@ -2515,11 +2530,11 @@
         <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9,4))</f>
         <v/>
       </c>
-      <c r="AA14" s="24" t="str">
+      <c r="AA14" s="82" t="str">
         <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9,4))</f>
         <v/>
       </c>
-      <c r="AB14" s="24" t="str">
+      <c r="AB14" s="82" t="str">
         <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9,4))</f>
         <v/>
       </c>
@@ -2553,19 +2568,19 @@
         <f>IF(_tap_day_all!G10="","",_tap_day_all!G10)</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="32" t="str">
         <f>IF(_tap_day_all!H10="","",_tap_day_all!H10)</f>
         <v/>
       </c>
-      <c r="I15" s="24" t="str">
+      <c r="I15" s="32" t="str">
         <f>IF(_tap_day_all!I10="","",_tap_day_all!I10)</f>
         <v/>
       </c>
-      <c r="J15" s="24" t="str">
+      <c r="J15" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="24" t="str">
+      <c r="K15" s="78" t="str">
         <f>IF(_tap_day_all!K10="","",_tap_day_all!K10)</f>
         <v/>
       </c>
@@ -2629,11 +2644,11 @@
         <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10,4))</f>
         <v/>
       </c>
-      <c r="AA15" s="24" t="str">
+      <c r="AA15" s="82" t="str">
         <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10,4))</f>
         <v/>
       </c>
-      <c r="AB15" s="24" t="str">
+      <c r="AB15" s="82" t="str">
         <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10,4))</f>
         <v/>
       </c>
@@ -2667,19 +2682,19 @@
         <f>IF(_tap_day_all!G11="","",_tap_day_all!G11)</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="32" t="str">
         <f>IF(_tap_day_all!H11="","",_tap_day_all!H11)</f>
         <v/>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="32" t="str">
         <f>IF(_tap_day_all!I11="","",_tap_day_all!I11)</f>
         <v/>
       </c>
-      <c r="J16" s="24" t="str">
+      <c r="J16" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="24" t="str">
+      <c r="K16" s="78" t="str">
         <f>IF(_tap_day_all!K11="","",_tap_day_all!K11)</f>
         <v/>
       </c>
@@ -2743,11 +2758,11 @@
         <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11,4))</f>
         <v/>
       </c>
-      <c r="AA16" s="24" t="str">
+      <c r="AA16" s="82" t="str">
         <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11,4))</f>
         <v/>
       </c>
-      <c r="AB16" s="24" t="str">
+      <c r="AB16" s="82" t="str">
         <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11,4))</f>
         <v/>
       </c>
@@ -2781,19 +2796,19 @@
         <f>IF(_tap_day_all!G12="","",_tap_day_all!G12)</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="32" t="str">
         <f>IF(_tap_day_all!H12="","",_tap_day_all!H12)</f>
         <v/>
       </c>
-      <c r="I17" s="24" t="str">
+      <c r="I17" s="32" t="str">
         <f>IF(_tap_day_all!I12="","",_tap_day_all!I12)</f>
         <v/>
       </c>
-      <c r="J17" s="24" t="str">
+      <c r="J17" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="24" t="str">
+      <c r="K17" s="78" t="str">
         <f>IF(_tap_day_all!K12="","",_tap_day_all!K12)</f>
         <v/>
       </c>
@@ -2857,11 +2872,11 @@
         <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12,4))</f>
         <v/>
       </c>
-      <c r="AA17" s="24" t="str">
+      <c r="AA17" s="82" t="str">
         <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12,4))</f>
         <v/>
       </c>
-      <c r="AB17" s="24" t="str">
+      <c r="AB17" s="82" t="str">
         <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12,4))</f>
         <v/>
       </c>
@@ -2895,19 +2910,19 @@
         <f>IF(_tap_day_all!G13="","",_tap_day_all!G13)</f>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="32" t="str">
         <f>IF(_tap_day_all!H13="","",_tap_day_all!H13)</f>
         <v/>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="32" t="str">
         <f>IF(_tap_day_all!I13="","",_tap_day_all!I13)</f>
         <v/>
       </c>
-      <c r="J18" s="24" t="str">
+      <c r="J18" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="24" t="str">
+      <c r="K18" s="78" t="str">
         <f>IF(_tap_day_all!K13="","",_tap_day_all!K13)</f>
         <v/>
       </c>
@@ -2971,11 +2986,11 @@
         <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13,4))</f>
         <v/>
       </c>
-      <c r="AA18" s="24" t="str">
+      <c r="AA18" s="82" t="str">
         <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13,4))</f>
         <v/>
       </c>
-      <c r="AB18" s="24" t="str">
+      <c r="AB18" s="82" t="str">
         <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13,4))</f>
         <v/>
       </c>
@@ -3009,19 +3024,19 @@
         <f>IF(_tap_day_all!G14="","",_tap_day_all!G14)</f>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="32" t="str">
         <f>IF(_tap_day_all!H14="","",_tap_day_all!H14)</f>
         <v/>
       </c>
-      <c r="I19" s="24" t="str">
+      <c r="I19" s="32" t="str">
         <f>IF(_tap_day_all!I14="","",_tap_day_all!I14)</f>
         <v/>
       </c>
-      <c r="J19" s="24" t="str">
+      <c r="J19" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="24" t="str">
+      <c r="K19" s="78" t="str">
         <f>IF(_tap_day_all!K14="","",_tap_day_all!K14)</f>
         <v/>
       </c>
@@ -3085,11 +3100,11 @@
         <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14,4))</f>
         <v/>
       </c>
-      <c r="AA19" s="24" t="str">
+      <c r="AA19" s="82" t="str">
         <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14,4))</f>
         <v/>
       </c>
-      <c r="AB19" s="24" t="str">
+      <c r="AB19" s="82" t="str">
         <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14,4))</f>
         <v/>
       </c>
@@ -3123,19 +3138,19 @@
         <f>IF(_tap_day_all!G15="","",_tap_day_all!G15)</f>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="32" t="str">
         <f>IF(_tap_day_all!H15="","",_tap_day_all!H15)</f>
         <v/>
       </c>
-      <c r="I20" s="24" t="str">
+      <c r="I20" s="32" t="str">
         <f>IF(_tap_day_all!I15="","",_tap_day_all!I15)</f>
         <v/>
       </c>
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="24" t="str">
+      <c r="K20" s="78" t="str">
         <f>IF(_tap_day_all!K15="","",_tap_day_all!K15)</f>
         <v/>
       </c>
@@ -3199,11 +3214,11 @@
         <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15,4))</f>
         <v/>
       </c>
-      <c r="AA20" s="24" t="str">
+      <c r="AA20" s="82" t="str">
         <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15,4))</f>
         <v/>
       </c>
-      <c r="AB20" s="24" t="str">
+      <c r="AB20" s="82" t="str">
         <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15,4))</f>
         <v/>
       </c>
@@ -3237,19 +3252,19 @@
         <f>IF(_tap_day_all!G16="","",_tap_day_all!G16)</f>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="32" t="str">
         <f>IF(_tap_day_all!H16="","",_tap_day_all!H16)</f>
         <v/>
       </c>
-      <c r="I21" s="24" t="str">
+      <c r="I21" s="32" t="str">
         <f>IF(_tap_day_all!I16="","",_tap_day_all!I16)</f>
         <v/>
       </c>
-      <c r="J21" s="24" t="str">
+      <c r="J21" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="24" t="str">
+      <c r="K21" s="78" t="str">
         <f>IF(_tap_day_all!K16="","",_tap_day_all!K16)</f>
         <v/>
       </c>
@@ -3313,11 +3328,11 @@
         <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16,4))</f>
         <v/>
       </c>
-      <c r="AA21" s="24" t="str">
+      <c r="AA21" s="82" t="str">
         <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16,4))</f>
         <v/>
       </c>
-      <c r="AB21" s="24" t="str">
+      <c r="AB21" s="82" t="str">
         <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16,4))</f>
         <v/>
       </c>
@@ -3351,19 +3366,19 @@
         <f>IF(_tap_day_all!G17="","",_tap_day_all!G17)</f>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="32" t="str">
         <f>IF(_tap_day_all!H17="","",_tap_day_all!H17)</f>
         <v/>
       </c>
-      <c r="I22" s="24" t="str">
+      <c r="I22" s="32" t="str">
         <f>IF(_tap_day_all!I17="","",_tap_day_all!I17)</f>
         <v/>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J22" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="24" t="str">
+      <c r="K22" s="78" t="str">
         <f>IF(_tap_day_all!K17="","",_tap_day_all!K17)</f>
         <v/>
       </c>
@@ -3427,11 +3442,11 @@
         <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17,4))</f>
         <v/>
       </c>
-      <c r="AA22" s="24" t="str">
+      <c r="AA22" s="82" t="str">
         <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17,4))</f>
         <v/>
       </c>
-      <c r="AB22" s="24" t="str">
+      <c r="AB22" s="82" t="str">
         <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17,4))</f>
         <v/>
       </c>
@@ -3465,19 +3480,19 @@
         <f>IF(_tap_day_all!G18="","",_tap_day_all!G18)</f>
         <v/>
       </c>
-      <c r="H23" s="24" t="str">
+      <c r="H23" s="32" t="str">
         <f>IF(_tap_day_all!H18="","",_tap_day_all!H18)</f>
         <v/>
       </c>
-      <c r="I23" s="24" t="str">
+      <c r="I23" s="32" t="str">
         <f>IF(_tap_day_all!I18="","",_tap_day_all!I18)</f>
         <v/>
       </c>
-      <c r="J23" s="24" t="str">
+      <c r="J23" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="24" t="str">
+      <c r="K23" s="78" t="str">
         <f>IF(_tap_day_all!K18="","",_tap_day_all!K18)</f>
         <v/>
       </c>
@@ -3541,11 +3556,11 @@
         <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18,4))</f>
         <v/>
       </c>
-      <c r="AA23" s="24" t="str">
+      <c r="AA23" s="82" t="str">
         <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18,4))</f>
         <v/>
       </c>
-      <c r="AB23" s="24" t="str">
+      <c r="AB23" s="82" t="str">
         <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18,4))</f>
         <v/>
       </c>
@@ -3579,19 +3594,19 @@
         <f>IF(_tap_day_all!G19="","",_tap_day_all!G19)</f>
         <v/>
       </c>
-      <c r="H24" s="24" t="str">
+      <c r="H24" s="32" t="str">
         <f>IF(_tap_day_all!H19="","",_tap_day_all!H19)</f>
         <v/>
       </c>
-      <c r="I24" s="24" t="str">
+      <c r="I24" s="32" t="str">
         <f>IF(_tap_day_all!I19="","",_tap_day_all!I19)</f>
         <v/>
       </c>
-      <c r="J24" s="24" t="str">
+      <c r="J24" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="24" t="str">
+      <c r="K24" s="78" t="str">
         <f>IF(_tap_day_all!K19="","",_tap_day_all!K19)</f>
         <v/>
       </c>
@@ -3655,11 +3670,11 @@
         <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19,4))</f>
         <v/>
       </c>
-      <c r="AA24" s="24" t="str">
+      <c r="AA24" s="82" t="str">
         <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19,4))</f>
         <v/>
       </c>
-      <c r="AB24" s="24" t="str">
+      <c r="AB24" s="82" t="str">
         <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19,4))</f>
         <v/>
       </c>
@@ -3693,19 +3708,19 @@
         <f>IF(_tap_day_all!G20="","",_tap_day_all!G20)</f>
         <v/>
       </c>
-      <c r="H25" s="24" t="str">
+      <c r="H25" s="32" t="str">
         <f>IF(_tap_day_all!H20="","",_tap_day_all!H20)</f>
         <v/>
       </c>
-      <c r="I25" s="24" t="str">
+      <c r="I25" s="32" t="str">
         <f>IF(_tap_day_all!I20="","",_tap_day_all!I20)</f>
         <v/>
       </c>
-      <c r="J25" s="24" t="str">
+      <c r="J25" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="24" t="str">
+      <c r="K25" s="78" t="str">
         <f>IF(_tap_day_all!K20="","",_tap_day_all!K20)</f>
         <v/>
       </c>
@@ -3769,11 +3784,11 @@
         <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20,4))</f>
         <v/>
       </c>
-      <c r="AA25" s="24" t="str">
+      <c r="AA25" s="82" t="str">
         <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20,4))</f>
         <v/>
       </c>
-      <c r="AB25" s="24" t="str">
+      <c r="AB25" s="82" t="str">
         <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20,4))</f>
         <v/>
       </c>
@@ -3807,19 +3822,19 @@
         <f>IF(_tap_day_all!G21="","",_tap_day_all!G21)</f>
         <v/>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H26" s="33" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I26" s="33" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
-      <c r="J26" s="24" t="str">
+      <c r="J26" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="26" t="str">
+      <c r="K26" s="79" t="str">
         <f>IF(_tap_day_all!K21="","",_tap_day_all!K21)</f>
         <v/>
       </c>
@@ -3883,20 +3898,20 @@
         <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21,4))</f>
         <v/>
       </c>
-      <c r="AA26" s="24" t="str">
+      <c r="AA26" s="82" t="str">
         <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21,4))</f>
         <v/>
       </c>
-      <c r="AB26" s="24" t="str">
+      <c r="AB26" s="82" t="str">
         <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21,4))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
@@ -3929,7 +3944,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4003,10 +4018,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="15" t="str">
         <f t="shared" ref="C28:F28" si="4">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
@@ -4039,7 +4054,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K28" s="15" t="str">
+      <c r="K28" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4113,14 +4128,14 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="83">
         <f>SUMIF(C7:C26,1,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4150,12 +4165,12 @@
       <c r="AB29" s="17"/>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="19">
         <v>2</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="84">
         <f>SUMIF(C7:C26,2,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4183,12 +4198,12 @@
       <c r="AB30" s="17"/>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="19">
         <v>3</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="84">
         <f>SUMIF(C7:C26,3,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4215,12 +4230,12 @@
       <c r="AB31" s="17"/>
     </row>
     <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="85">
         <f>SUMIF(C7:C26,4,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4255,14 +4270,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AB2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:AB3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -4277,6 +4284,14 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -841,49 +841,28 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,28 +940,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,22 +1263,19 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="19" width="8.75" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.375" style="1" customWidth="1"/>
     <col min="21" max="28" width="8.75" style="1" customWidth="1"/>
@@ -1287,31 +1284,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40" t="str">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="73" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1320,103 +1317,103 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="62" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="64" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="47" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1426,8 +1423,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1467,22 +1464,22 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="Z4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AA4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AB4" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1543,9 +1540,9 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
     </row>
     <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1668,7 +1665,7 @@
         <f>IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="K7" s="78" t="str">
+      <c r="K7" s="38" t="str">
         <f>IF(_tap_day_all!K2="","",_tap_day_all!K2)</f>
         <v/>
       </c>
@@ -1732,11 +1729,11 @@
         <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2,4))</f>
         <v/>
       </c>
-      <c r="AA7" s="82" t="str">
+      <c r="AA7" s="42" t="str">
         <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2,4))</f>
         <v/>
       </c>
-      <c r="AB7" s="82" t="str">
+      <c r="AB7" s="42" t="str">
         <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2,4))</f>
         <v/>
       </c>
@@ -1782,7 +1779,7 @@
         <f t="shared" ref="J8:J26" si="0">IFERROR(I8-H8,"")</f>
         <v/>
       </c>
-      <c r="K8" s="78" t="str">
+      <c r="K8" s="38" t="str">
         <f>IF(_tap_day_all!K3="","",_tap_day_all!K3)</f>
         <v/>
       </c>
@@ -1846,11 +1843,11 @@
         <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3,4))</f>
         <v/>
       </c>
-      <c r="AA8" s="82" t="str">
+      <c r="AA8" s="42" t="str">
         <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3,4))</f>
         <v/>
       </c>
-      <c r="AB8" s="82" t="str">
+      <c r="AB8" s="42" t="str">
         <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3,4))</f>
         <v/>
       </c>
@@ -1896,7 +1893,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="78" t="str">
+      <c r="K9" s="38" t="str">
         <f>IF(_tap_day_all!K4="","",_tap_day_all!K4)</f>
         <v/>
       </c>
@@ -1960,11 +1957,11 @@
         <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4,4))</f>
         <v/>
       </c>
-      <c r="AA9" s="82" t="str">
+      <c r="AA9" s="42" t="str">
         <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4,4))</f>
         <v/>
       </c>
-      <c r="AB9" s="82" t="str">
+      <c r="AB9" s="42" t="str">
         <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4,4))</f>
         <v/>
       </c>
@@ -2010,7 +2007,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="78" t="str">
+      <c r="K10" s="38" t="str">
         <f>IF(_tap_day_all!K5="","",_tap_day_all!K5)</f>
         <v/>
       </c>
@@ -2074,11 +2071,11 @@
         <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5,4))</f>
         <v/>
       </c>
-      <c r="AA10" s="82" t="str">
+      <c r="AA10" s="42" t="str">
         <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5,4))</f>
         <v/>
       </c>
-      <c r="AB10" s="82" t="str">
+      <c r="AB10" s="42" t="str">
         <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5,4))</f>
         <v/>
       </c>
@@ -2124,7 +2121,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="78" t="str">
+      <c r="K11" s="38" t="str">
         <f>IF(_tap_day_all!K6="","",_tap_day_all!K6)</f>
         <v/>
       </c>
@@ -2188,11 +2185,11 @@
         <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6,4))</f>
         <v/>
       </c>
-      <c r="AA11" s="82" t="str">
+      <c r="AA11" s="42" t="str">
         <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6,4))</f>
         <v/>
       </c>
-      <c r="AB11" s="82" t="str">
+      <c r="AB11" s="42" t="str">
         <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6,4))</f>
         <v/>
       </c>
@@ -2238,7 +2235,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="78" t="str">
+      <c r="K12" s="38" t="str">
         <f>IF(_tap_day_all!K7="","",_tap_day_all!K7)</f>
         <v/>
       </c>
@@ -2302,11 +2299,11 @@
         <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7,4))</f>
         <v/>
       </c>
-      <c r="AA12" s="82" t="str">
+      <c r="AA12" s="42" t="str">
         <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7,4))</f>
         <v/>
       </c>
-      <c r="AB12" s="82" t="str">
+      <c r="AB12" s="42" t="str">
         <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7,4))</f>
         <v/>
       </c>
@@ -2352,7 +2349,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="78" t="str">
+      <c r="K13" s="38" t="str">
         <f>IF(_tap_day_all!K8="","",_tap_day_all!K8)</f>
         <v/>
       </c>
@@ -2416,11 +2413,11 @@
         <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8,4))</f>
         <v/>
       </c>
-      <c r="AA13" s="82" t="str">
+      <c r="AA13" s="42" t="str">
         <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8,4))</f>
         <v/>
       </c>
-      <c r="AB13" s="82" t="str">
+      <c r="AB13" s="42" t="str">
         <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8,4))</f>
         <v/>
       </c>
@@ -2466,7 +2463,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="78" t="str">
+      <c r="K14" s="38" t="str">
         <f>IF(_tap_day_all!K9="","",_tap_day_all!K9)</f>
         <v/>
       </c>
@@ -2530,11 +2527,11 @@
         <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9,4))</f>
         <v/>
       </c>
-      <c r="AA14" s="82" t="str">
+      <c r="AA14" s="42" t="str">
         <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9,4))</f>
         <v/>
       </c>
-      <c r="AB14" s="82" t="str">
+      <c r="AB14" s="42" t="str">
         <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9,4))</f>
         <v/>
       </c>
@@ -2580,7 +2577,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="78" t="str">
+      <c r="K15" s="38" t="str">
         <f>IF(_tap_day_all!K10="","",_tap_day_all!K10)</f>
         <v/>
       </c>
@@ -2644,11 +2641,11 @@
         <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10,4))</f>
         <v/>
       </c>
-      <c r="AA15" s="82" t="str">
+      <c r="AA15" s="42" t="str">
         <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10,4))</f>
         <v/>
       </c>
-      <c r="AB15" s="82" t="str">
+      <c r="AB15" s="42" t="str">
         <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10,4))</f>
         <v/>
       </c>
@@ -2694,7 +2691,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="78" t="str">
+      <c r="K16" s="38" t="str">
         <f>IF(_tap_day_all!K11="","",_tap_day_all!K11)</f>
         <v/>
       </c>
@@ -2758,11 +2755,11 @@
         <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11,4))</f>
         <v/>
       </c>
-      <c r="AA16" s="82" t="str">
+      <c r="AA16" s="42" t="str">
         <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11,4))</f>
         <v/>
       </c>
-      <c r="AB16" s="82" t="str">
+      <c r="AB16" s="42" t="str">
         <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11,4))</f>
         <v/>
       </c>
@@ -2808,7 +2805,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="78" t="str">
+      <c r="K17" s="38" t="str">
         <f>IF(_tap_day_all!K12="","",_tap_day_all!K12)</f>
         <v/>
       </c>
@@ -2872,11 +2869,11 @@
         <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12,4))</f>
         <v/>
       </c>
-      <c r="AA17" s="82" t="str">
+      <c r="AA17" s="42" t="str">
         <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12,4))</f>
         <v/>
       </c>
-      <c r="AB17" s="82" t="str">
+      <c r="AB17" s="42" t="str">
         <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12,4))</f>
         <v/>
       </c>
@@ -2922,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="78" t="str">
+      <c r="K18" s="38" t="str">
         <f>IF(_tap_day_all!K13="","",_tap_day_all!K13)</f>
         <v/>
       </c>
@@ -2986,11 +2983,11 @@
         <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13,4))</f>
         <v/>
       </c>
-      <c r="AA18" s="82" t="str">
+      <c r="AA18" s="42" t="str">
         <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13,4))</f>
         <v/>
       </c>
-      <c r="AB18" s="82" t="str">
+      <c r="AB18" s="42" t="str">
         <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13,4))</f>
         <v/>
       </c>
@@ -3036,7 +3033,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="78" t="str">
+      <c r="K19" s="38" t="str">
         <f>IF(_tap_day_all!K14="","",_tap_day_all!K14)</f>
         <v/>
       </c>
@@ -3100,11 +3097,11 @@
         <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14,4))</f>
         <v/>
       </c>
-      <c r="AA19" s="82" t="str">
+      <c r="AA19" s="42" t="str">
         <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14,4))</f>
         <v/>
       </c>
-      <c r="AB19" s="82" t="str">
+      <c r="AB19" s="42" t="str">
         <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14,4))</f>
         <v/>
       </c>
@@ -3150,7 +3147,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="78" t="str">
+      <c r="K20" s="38" t="str">
         <f>IF(_tap_day_all!K15="","",_tap_day_all!K15)</f>
         <v/>
       </c>
@@ -3214,11 +3211,11 @@
         <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15,4))</f>
         <v/>
       </c>
-      <c r="AA20" s="82" t="str">
+      <c r="AA20" s="42" t="str">
         <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15,4))</f>
         <v/>
       </c>
-      <c r="AB20" s="82" t="str">
+      <c r="AB20" s="42" t="str">
         <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15,4))</f>
         <v/>
       </c>
@@ -3264,7 +3261,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="78" t="str">
+      <c r="K21" s="38" t="str">
         <f>IF(_tap_day_all!K16="","",_tap_day_all!K16)</f>
         <v/>
       </c>
@@ -3328,11 +3325,11 @@
         <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16,4))</f>
         <v/>
       </c>
-      <c r="AA21" s="82" t="str">
+      <c r="AA21" s="42" t="str">
         <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16,4))</f>
         <v/>
       </c>
-      <c r="AB21" s="82" t="str">
+      <c r="AB21" s="42" t="str">
         <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16,4))</f>
         <v/>
       </c>
@@ -3378,7 +3375,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="78" t="str">
+      <c r="K22" s="38" t="str">
         <f>IF(_tap_day_all!K17="","",_tap_day_all!K17)</f>
         <v/>
       </c>
@@ -3442,11 +3439,11 @@
         <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17,4))</f>
         <v/>
       </c>
-      <c r="AA22" s="82" t="str">
+      <c r="AA22" s="42" t="str">
         <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17,4))</f>
         <v/>
       </c>
-      <c r="AB22" s="82" t="str">
+      <c r="AB22" s="42" t="str">
         <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17,4))</f>
         <v/>
       </c>
@@ -3492,7 +3489,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="78" t="str">
+      <c r="K23" s="38" t="str">
         <f>IF(_tap_day_all!K18="","",_tap_day_all!K18)</f>
         <v/>
       </c>
@@ -3556,11 +3553,11 @@
         <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18,4))</f>
         <v/>
       </c>
-      <c r="AA23" s="82" t="str">
+      <c r="AA23" s="42" t="str">
         <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18,4))</f>
         <v/>
       </c>
-      <c r="AB23" s="82" t="str">
+      <c r="AB23" s="42" t="str">
         <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18,4))</f>
         <v/>
       </c>
@@ -3606,7 +3603,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="78" t="str">
+      <c r="K24" s="38" t="str">
         <f>IF(_tap_day_all!K19="","",_tap_day_all!K19)</f>
         <v/>
       </c>
@@ -3670,11 +3667,11 @@
         <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19,4))</f>
         <v/>
       </c>
-      <c r="AA24" s="82" t="str">
+      <c r="AA24" s="42" t="str">
         <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19,4))</f>
         <v/>
       </c>
-      <c r="AB24" s="82" t="str">
+      <c r="AB24" s="42" t="str">
         <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19,4))</f>
         <v/>
       </c>
@@ -3720,7 +3717,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="78" t="str">
+      <c r="K25" s="38" t="str">
         <f>IF(_tap_day_all!K20="","",_tap_day_all!K20)</f>
         <v/>
       </c>
@@ -3784,11 +3781,11 @@
         <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20,4))</f>
         <v/>
       </c>
-      <c r="AA25" s="82" t="str">
+      <c r="AA25" s="42" t="str">
         <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20,4))</f>
         <v/>
       </c>
-      <c r="AB25" s="82" t="str">
+      <c r="AB25" s="42" t="str">
         <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20,4))</f>
         <v/>
       </c>
@@ -3834,7 +3831,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="79" t="str">
+      <c r="K26" s="39" t="str">
         <f>IF(_tap_day_all!K21="","",_tap_day_all!K21)</f>
         <v/>
       </c>
@@ -3898,20 +3895,20 @@
         <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21,4))</f>
         <v/>
       </c>
-      <c r="AA26" s="82" t="str">
+      <c r="AA26" s="42" t="str">
         <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21,4))</f>
         <v/>
       </c>
-      <c r="AB26" s="82" t="str">
+      <c r="AB26" s="42" t="str">
         <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21,4))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
@@ -3944,7 +3941,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4018,10 +4015,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="15" t="str">
         <f t="shared" ref="C28:F28" si="4">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
@@ -4054,7 +4051,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K28" s="81" t="str">
+      <c r="K28" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4128,14 +4125,14 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="43">
         <f>SUMIF(C7:C26,1,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4165,12 +4162,12 @@
       <c r="AB29" s="17"/>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="19">
         <v>2</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="44">
         <f>SUMIF(C7:C26,2,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4198,12 +4195,12 @@
       <c r="AB30" s="17"/>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="19">
         <v>3</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="44">
         <f>SUMIF(C7:C26,3,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4230,12 +4227,12 @@
       <c r="AB31" s="17"/>
     </row>
     <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="45">
         <f>SUMIF(C7:C26,4,I7:I26)</f>
         <v>0</v>
       </c>
@@ -4270,6 +4267,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AB2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:AB3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -4284,14 +4289,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AB2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -374,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -730,11 +730,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -939,6 +991,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1263,7 +1327,8 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1284,31 +1349,31 @@
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73" t="str">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="77" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1323,36 +1388,36 @@
       <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
@@ -1360,45 +1425,45 @@
       <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="80" t="s">
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
@@ -3910,17 +3975,11 @@
       </c>
       <c r="B27" s="60"/>
       <c r="C27" s="13">
-        <f t="shared" ref="C27:D27" si="1">IFERROR(SUM(C7:C26),"")</f>
+        <f t="shared" ref="C27" si="1">IFERROR(SUM(C7:C26),"")</f>
         <v>0</v>
       </c>
-      <c r="D27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <f>IFERROR(SUM(E7:E26),"")</f>
-        <v>0</v>
-      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="13">
         <f t="shared" ref="F27:AB27" si="2">IFERROR(SUM(F7:F26),"")</f>
         <v>0</v>
@@ -4014,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>65</v>
       </c>
@@ -4023,14 +4082,8 @@
         <f t="shared" ref="C28:F28" si="4">IFERROR(AVERAGE(C7:C26),"")</f>
         <v/>
       </c>
-      <c r="D28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4266,7 +4319,7 @@
       <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="C2:L2"/>
@@ -4289,6 +4342,7 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D27:E28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/出铁作业日报表.xlsx
+++ b/excel/finished/8高炉/出铁作业日报表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>出铁作业日报表</t>
   </si>
@@ -217,20 +217,11 @@
     <t>SLAG/R4</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>铁口统计</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
     <t>TAPINDEX/TAPHOLE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TAPINDEX/DEPHTH</t>
@@ -249,38 +240,44 @@
   </si>
   <si>
     <t>TAPINDEX/TAPNO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TAPINDEX/SEQUNCENO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TAPINDEX/STARTTIME</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TAPINDEX/ENDTIME</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TAPINDEX/BETWEEN</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,25 +320,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -374,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -528,28 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -558,89 +514,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -706,87 +579,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,97 +621,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,24 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,20 +663,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,25 +690,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,10 +705,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,26 +720,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1324,11 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1344,36 +1055,37 @@
     <col min="13" max="19" width="8.75" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.375" style="1" customWidth="1"/>
     <col min="21" max="28" width="8.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="77" t="str">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1381,104 +1093,104 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-    </row>
-    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="57" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="84" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-    </row>
-    <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="54" t="s">
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1200,8 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1529,22 +1241,25 @@
       <c r="Y4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="AC4" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1560,7 +1275,7 @@
       <c r="J5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="13" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -1605,11 +1320,12 @@
       <c r="Y5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-    </row>
-    <row r="6" spans="1:28" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+    </row>
+    <row r="6" spans="1:29" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1689,2637 +1405,5085 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="str">
+    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="str">
         <f>IF(_tap_day_all!A2="","",_tap_day_all!A2)</f>
         <v/>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="15" t="str">
         <f>IF(_tap_day_all!B2="","",_tap_day_all!B2)</f>
         <v/>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C7" s="15" t="str">
         <f>IF(_tap_day_all!C2="","",_tap_day_all!C2)</f>
         <v/>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="18" t="str">
         <f>IF(_tap_day_all!D2="","",_tap_day_all!D2)</f>
         <v/>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(_tap_day_all!E2="","",_tap_day_all!E2)</f>
         <v/>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="15" t="str">
         <f>IF(_tap_day_all!F2="","",_tap_day_all!F2)</f>
         <v/>
       </c>
-      <c r="G7" s="24" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_tap_day_all!G2="","",_tap_day_all!G2)</f>
         <v/>
       </c>
-      <c r="H7" s="32" t="str">
+      <c r="H7" s="20" t="str">
         <f>IF(_tap_day_all!H2="","",_tap_day_all!H2)</f>
         <v/>
       </c>
-      <c r="I7" s="32" t="str">
+      <c r="I7" s="20" t="str">
         <f>IF(_tap_day_all!I2="","",_tap_day_all!I2)</f>
         <v/>
       </c>
-      <c r="J7" s="32" t="str">
+      <c r="J7" s="20" t="str">
         <f>IFERROR(I7-H7,"")</f>
         <v/>
       </c>
-      <c r="K7" s="38" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_tap_day_all!K2="","",_tap_day_all!K2)</f>
         <v/>
       </c>
-      <c r="L7" s="32" t="str">
+      <c r="L7" s="20" t="str">
         <f>IF(_tap_day_all!L2="","",_tap_day_all!L2)</f>
         <v/>
       </c>
-      <c r="M7" s="24" t="str">
+      <c r="M7" s="15" t="str">
         <f>IF(_tap_day_all!M2="","",ROUND(_tap_day_all!M2*100,4))</f>
         <v/>
       </c>
-      <c r="N7" s="24" t="str">
+      <c r="N7" s="15" t="str">
         <f>IF(_tap_day_all!N2="","",ROUND(_tap_day_all!N2*100,4))</f>
         <v/>
       </c>
-      <c r="O7" s="24" t="str">
+      <c r="O7" s="15" t="str">
         <f>IF(_tap_day_all!O2="","",ROUND(_tap_day_all!O2*100,4))</f>
         <v/>
       </c>
-      <c r="P7" s="24" t="str">
+      <c r="P7" s="15" t="str">
         <f>IF(_tap_day_all!P2="","",ROUND(_tap_day_all!P2*100,4))</f>
         <v/>
       </c>
-      <c r="Q7" s="24" t="str">
+      <c r="Q7" s="15" t="str">
         <f>IF(_tap_day_all!Q2="","",ROUND(_tap_day_all!Q2*100,4))</f>
         <v/>
       </c>
-      <c r="R7" s="24" t="str">
+      <c r="R7" s="15" t="str">
         <f>IF(_tap_day_all!R2="","",ROUND(_tap_day_all!R2*100,4))</f>
         <v/>
       </c>
-      <c r="S7" s="24" t="str">
+      <c r="S7" s="15" t="str">
         <f>IF(_tap_day_all!S2="","",ROUND(_tap_day_all!S2*100,4))</f>
         <v/>
       </c>
-      <c r="T7" s="24" t="str">
+      <c r="T7" s="15" t="str">
         <f>IF(_tap_day_all!T2="","",ROUND(_tap_day_all!T2*100,4))</f>
         <v/>
       </c>
-      <c r="U7" s="24" t="str">
+      <c r="U7" s="15" t="str">
         <f>IF(_tap_day_all!U2="","",ROUND(_tap_day_all!U2*100,4))</f>
         <v/>
       </c>
-      <c r="V7" s="24" t="str">
+      <c r="V7" s="15" t="str">
         <f>IF(_tap_day_all!V2="","",ROUND(_tap_day_all!V2*100,4))</f>
         <v/>
       </c>
-      <c r="W7" s="24" t="str">
+      <c r="W7" s="15" t="str">
         <f>IF(_tap_day_all!W2="","",ROUND(_tap_day_all!W2*100,4))</f>
         <v/>
       </c>
-      <c r="X7" s="24" t="str">
+      <c r="X7" s="15" t="str">
         <f>IF(_tap_day_all!X2="","",ROUND(_tap_day_all!X2*100,4))</f>
         <v/>
       </c>
-      <c r="Y7" s="24" t="str">
+      <c r="Y7" s="15" t="str">
         <f>IF(_tap_day_all!Y2="","",ROUND(_tap_day_all!Y2*100,4))</f>
         <v/>
       </c>
-      <c r="Z7" s="24" t="str">
+      <c r="Z7" s="15" t="str">
         <f>IF(_tap_day_all!Z2="","",ROUND(_tap_day_all!Z2,4))</f>
         <v/>
       </c>
-      <c r="AA7" s="42" t="str">
+      <c r="AA7" s="22" t="str">
         <f>IF(_tap_day_all!AA2="","",ROUND(_tap_day_all!AA2,4))</f>
         <v/>
       </c>
-      <c r="AB7" s="42" t="str">
+      <c r="AB7" s="22" t="str">
         <f>IF(_tap_day_all!AB2="","",ROUND(_tap_day_all!AB2,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
+      <c r="AC7" s="22" t="str">
+        <f>IF(_tap_day_all!AC2="","",ROUND(_tap_day_all!AC2,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="str">
         <f>IF(_tap_day_all!A3="","",_tap_day_all!A3)</f>
         <v/>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="15" t="str">
         <f>IF(_tap_day_all!B3="","",_tap_day_all!B3)</f>
         <v/>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="15" t="str">
         <f>IF(_tap_day_all!C3="","",_tap_day_all!C3)</f>
         <v/>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_tap_day_all!D3="","",_tap_day_all!D3)</f>
         <v/>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="18" t="str">
         <f>IF(_tap_day_all!E3="","",_tap_day_all!E3)</f>
         <v/>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="15" t="str">
         <f>IF(_tap_day_all!F3="","",_tap_day_all!F3)</f>
         <v/>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="15" t="str">
         <f>IF(_tap_day_all!G3="","",_tap_day_all!G3)</f>
         <v/>
       </c>
-      <c r="H8" s="32" t="str">
+      <c r="H8" s="20" t="str">
         <f>IF(_tap_day_all!H3="","",_tap_day_all!H3)</f>
         <v/>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="20" t="str">
         <f>IF(_tap_day_all!I3="","",_tap_day_all!I3)</f>
         <v/>
       </c>
-      <c r="J8" s="32" t="str">
-        <f t="shared" ref="J8:J26" si="0">IFERROR(I8-H8,"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="38" t="str">
+      <c r="J8" s="20" t="str">
+        <f t="shared" ref="J8:J25" si="0">IFERROR(I8-H8,"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
         <f>IF(_tap_day_all!K3="","",_tap_day_all!K3)</f>
         <v/>
       </c>
-      <c r="L8" s="32" t="str">
+      <c r="L8" s="20" t="str">
         <f>IF(_tap_day_all!L3="","",_tap_day_all!L3)</f>
         <v/>
       </c>
-      <c r="M8" s="24" t="str">
+      <c r="M8" s="15" t="str">
         <f>IF(_tap_day_all!M3="","",ROUND(_tap_day_all!M3*100,4))</f>
         <v/>
       </c>
-      <c r="N8" s="24" t="str">
+      <c r="N8" s="15" t="str">
         <f>IF(_tap_day_all!N3="","",ROUND(_tap_day_all!N3*100,4))</f>
         <v/>
       </c>
-      <c r="O8" s="24" t="str">
+      <c r="O8" s="15" t="str">
         <f>IF(_tap_day_all!O3="","",ROUND(_tap_day_all!O3*100,4))</f>
         <v/>
       </c>
-      <c r="P8" s="24" t="str">
+      <c r="P8" s="15" t="str">
         <f>IF(_tap_day_all!P3="","",ROUND(_tap_day_all!P3*100,4))</f>
         <v/>
       </c>
-      <c r="Q8" s="24" t="str">
+      <c r="Q8" s="15" t="str">
         <f>IF(_tap_day_all!Q3="","",ROUND(_tap_day_all!Q3*100,4))</f>
         <v/>
       </c>
-      <c r="R8" s="24" t="str">
+      <c r="R8" s="15" t="str">
         <f>IF(_tap_day_all!R3="","",ROUND(_tap_day_all!R3*100,4))</f>
         <v/>
       </c>
-      <c r="S8" s="24" t="str">
+      <c r="S8" s="15" t="str">
         <f>IF(_tap_day_all!S3="","",ROUND(_tap_day_all!S3*100,4))</f>
         <v/>
       </c>
-      <c r="T8" s="24" t="str">
+      <c r="T8" s="15" t="str">
         <f>IF(_tap_day_all!T3="","",ROUND(_tap_day_all!T3*100,4))</f>
         <v/>
       </c>
-      <c r="U8" s="24" t="str">
+      <c r="U8" s="15" t="str">
         <f>IF(_tap_day_all!U3="","",ROUND(_tap_day_all!U3*100,4))</f>
         <v/>
       </c>
-      <c r="V8" s="24" t="str">
+      <c r="V8" s="15" t="str">
         <f>IF(_tap_day_all!V3="","",ROUND(_tap_day_all!V3*100,4))</f>
         <v/>
       </c>
-      <c r="W8" s="24" t="str">
+      <c r="W8" s="15" t="str">
         <f>IF(_tap_day_all!W3="","",ROUND(_tap_day_all!W3*100,4))</f>
         <v/>
       </c>
-      <c r="X8" s="24" t="str">
+      <c r="X8" s="15" t="str">
         <f>IF(_tap_day_all!X3="","",ROUND(_tap_day_all!X3*100,4))</f>
         <v/>
       </c>
-      <c r="Y8" s="24" t="str">
+      <c r="Y8" s="15" t="str">
         <f>IF(_tap_day_all!Y3="","",ROUND(_tap_day_all!Y3*100,4))</f>
         <v/>
       </c>
-      <c r="Z8" s="24" t="str">
+      <c r="Z8" s="15" t="str">
         <f>IF(_tap_day_all!Z3="","",ROUND(_tap_day_all!Z3,4))</f>
         <v/>
       </c>
-      <c r="AA8" s="42" t="str">
+      <c r="AA8" s="22" t="str">
         <f>IF(_tap_day_all!AA3="","",ROUND(_tap_day_all!AA3,4))</f>
         <v/>
       </c>
-      <c r="AB8" s="42" t="str">
+      <c r="AB8" s="22" t="str">
         <f>IF(_tap_day_all!AB3="","",ROUND(_tap_day_all!AB3,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="str">
+      <c r="AC8" s="22" t="str">
+        <f>IF(_tap_day_all!AC3="","",ROUND(_tap_day_all!AC3,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="str">
         <f>IF(_tap_day_all!A4="","",_tap_day_all!A4)</f>
         <v/>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="15" t="str">
         <f>IF(_tap_day_all!B4="","",_tap_day_all!B4)</f>
         <v/>
       </c>
-      <c r="C9" s="24" t="str">
+      <c r="C9" s="15" t="str">
         <f>IF(_tap_day_all!C4="","",_tap_day_all!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_tap_day_all!D4="","",_tap_day_all!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="18" t="str">
         <f>IF(_tap_day_all!E4="","",_tap_day_all!E4)</f>
         <v/>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" s="15" t="str">
         <f>IF(_tap_day_all!F4="","",_tap_day_all!F4)</f>
         <v/>
       </c>
-      <c r="G9" s="24" t="str">
+      <c r="G9" s="15" t="str">
         <f>IF(_tap_day_all!G4="","",_tap_day_all!G4)</f>
         <v/>
       </c>
-      <c r="H9" s="32" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_tap_day_all!H4="","",_tap_day_all!H4)</f>
         <v/>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_tap_day_all!I4="","",_tap_day_all!I4)</f>
         <v/>
       </c>
-      <c r="J9" s="32" t="str">
+      <c r="J9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_tap_day_all!K4="","",_tap_day_all!K4)</f>
         <v/>
       </c>
-      <c r="L9" s="32" t="str">
+      <c r="L9" s="20" t="str">
         <f>IF(_tap_day_all!L4="","",_tap_day_all!L4)</f>
         <v/>
       </c>
-      <c r="M9" s="24" t="str">
+      <c r="M9" s="15" t="str">
         <f>IF(_tap_day_all!M4="","",ROUND(_tap_day_all!M4*100,4))</f>
         <v/>
       </c>
-      <c r="N9" s="24" t="str">
+      <c r="N9" s="15" t="str">
         <f>IF(_tap_day_all!N4="","",ROUND(_tap_day_all!N4*100,4))</f>
         <v/>
       </c>
-      <c r="O9" s="24" t="str">
+      <c r="O9" s="15" t="str">
         <f>IF(_tap_day_all!O4="","",ROUND(_tap_day_all!O4*100,4))</f>
         <v/>
       </c>
-      <c r="P9" s="24" t="str">
+      <c r="P9" s="15" t="str">
         <f>IF(_tap_day_all!P4="","",ROUND(_tap_day_all!P4*100,4))</f>
         <v/>
       </c>
-      <c r="Q9" s="24" t="str">
+      <c r="Q9" s="15" t="str">
         <f>IF(_tap_day_all!Q4="","",ROUND(_tap_day_all!Q4*100,4))</f>
         <v/>
       </c>
-      <c r="R9" s="24" t="str">
+      <c r="R9" s="15" t="str">
         <f>IF(_tap_day_all!R4="","",ROUND(_tap_day_all!R4*100,4))</f>
         <v/>
       </c>
-      <c r="S9" s="24" t="str">
+      <c r="S9" s="15" t="str">
         <f>IF(_tap_day_all!S4="","",ROUND(_tap_day_all!S4*100,4))</f>
         <v/>
       </c>
-      <c r="T9" s="24" t="str">
+      <c r="T9" s="15" t="str">
         <f>IF(_tap_day_all!T4="","",ROUND(_tap_day_all!T4*100,4))</f>
         <v/>
       </c>
-      <c r="U9" s="24" t="str">
+      <c r="U9" s="15" t="str">
         <f>IF(_tap_day_all!U4="","",ROUND(_tap_day_all!U4*100,4))</f>
         <v/>
       </c>
-      <c r="V9" s="24" t="str">
+      <c r="V9" s="15" t="str">
         <f>IF(_tap_day_all!V4="","",ROUND(_tap_day_all!V4*100,4))</f>
         <v/>
       </c>
-      <c r="W9" s="24" t="str">
+      <c r="W9" s="15" t="str">
         <f>IF(_tap_day_all!W4="","",ROUND(_tap_day_all!W4*100,4))</f>
         <v/>
       </c>
-      <c r="X9" s="24" t="str">
+      <c r="X9" s="15" t="str">
         <f>IF(_tap_day_all!X4="","",ROUND(_tap_day_all!X4*100,4))</f>
         <v/>
       </c>
-      <c r="Y9" s="24" t="str">
+      <c r="Y9" s="15" t="str">
         <f>IF(_tap_day_all!Y4="","",ROUND(_tap_day_all!Y4*100,4))</f>
         <v/>
       </c>
-      <c r="Z9" s="24" t="str">
+      <c r="Z9" s="15" t="str">
         <f>IF(_tap_day_all!Z4="","",ROUND(_tap_day_all!Z4,4))</f>
         <v/>
       </c>
-      <c r="AA9" s="42" t="str">
+      <c r="AA9" s="22" t="str">
         <f>IF(_tap_day_all!AA4="","",ROUND(_tap_day_all!AA4,4))</f>
         <v/>
       </c>
-      <c r="AB9" s="42" t="str">
+      <c r="AB9" s="22" t="str">
         <f>IF(_tap_day_all!AB4="","",ROUND(_tap_day_all!AB4,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="str">
+      <c r="AC9" s="22" t="str">
+        <f>IF(_tap_day_all!AC4="","",ROUND(_tap_day_all!AC4,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="str">
         <f>IF(_tap_day_all!A5="","",_tap_day_all!A5)</f>
         <v/>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="15" t="str">
         <f>IF(_tap_day_all!B5="","",_tap_day_all!B5)</f>
         <v/>
       </c>
-      <c r="C10" s="24" t="str">
+      <c r="C10" s="15" t="str">
         <f>IF(_tap_day_all!C5="","",_tap_day_all!C5)</f>
         <v/>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="18" t="str">
         <f>IF(_tap_day_all!D5="","",_tap_day_all!D5)</f>
         <v/>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="18" t="str">
         <f>IF(_tap_day_all!E5="","",_tap_day_all!E5)</f>
         <v/>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="F10" s="15" t="str">
         <f>IF(_tap_day_all!F5="","",_tap_day_all!F5)</f>
         <v/>
       </c>
-      <c r="G10" s="24" t="str">
+      <c r="G10" s="15" t="str">
         <f>IF(_tap_day_all!G5="","",_tap_day_all!G5)</f>
         <v/>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="20" t="str">
         <f>IF(_tap_day_all!H5="","",_tap_day_all!H5)</f>
         <v/>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="20" t="str">
         <f>IF(_tap_day_all!I5="","",_tap_day_all!I5)</f>
         <v/>
       </c>
-      <c r="J10" s="32" t="str">
+      <c r="J10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="21" t="str">
         <f>IF(_tap_day_all!K5="","",_tap_day_all!K5)</f>
         <v/>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="20" t="str">
         <f>IF(_tap_day_all!L5="","",_tap_day_all!L5)</f>
         <v/>
       </c>
-      <c r="M10" s="24" t="str">
+      <c r="M10" s="15" t="str">
         <f>IF(_tap_day_all!M5="","",ROUND(_tap_day_all!M5*100,4))</f>
         <v/>
       </c>
-      <c r="N10" s="24" t="str">
+      <c r="N10" s="15" t="str">
         <f>IF(_tap_day_all!N5="","",ROUND(_tap_day_all!N5*100,4))</f>
         <v/>
       </c>
-      <c r="O10" s="24" t="str">
+      <c r="O10" s="15" t="str">
         <f>IF(_tap_day_all!O5="","",ROUND(_tap_day_all!O5*100,4))</f>
         <v/>
       </c>
-      <c r="P10" s="24" t="str">
+      <c r="P10" s="15" t="str">
         <f>IF(_tap_day_all!P5="","",ROUND(_tap_day_all!P5*100,4))</f>
         <v/>
       </c>
-      <c r="Q10" s="24" t="str">
+      <c r="Q10" s="15" t="str">
         <f>IF(_tap_day_all!Q5="","",ROUND(_tap_day_all!Q5*100,4))</f>
         <v/>
       </c>
-      <c r="R10" s="24" t="str">
+      <c r="R10" s="15" t="str">
         <f>IF(_tap_day_all!R5="","",ROUND(_tap_day_all!R5*100,4))</f>
         <v/>
       </c>
-      <c r="S10" s="24" t="str">
+      <c r="S10" s="15" t="str">
         <f>IF(_tap_day_all!S5="","",ROUND(_tap_day_all!S5*100,4))</f>
         <v/>
       </c>
-      <c r="T10" s="24" t="str">
+      <c r="T10" s="15" t="str">
         <f>IF(_tap_day_all!T5="","",ROUND(_tap_day_all!T5*100,4))</f>
         <v/>
       </c>
-      <c r="U10" s="24" t="str">
+      <c r="U10" s="15" t="str">
         <f>IF(_tap_day_all!U5="","",ROUND(_tap_day_all!U5*100,4))</f>
         <v/>
       </c>
-      <c r="V10" s="24" t="str">
+      <c r="V10" s="15" t="str">
         <f>IF(_tap_day_all!V5="","",ROUND(_tap_day_all!V5*100,4))</f>
         <v/>
       </c>
-      <c r="W10" s="24" t="str">
+      <c r="W10" s="15" t="str">
         <f>IF(_tap_day_all!W5="","",ROUND(_tap_day_all!W5*100,4))</f>
         <v/>
       </c>
-      <c r="X10" s="24" t="str">
+      <c r="X10" s="15" t="str">
         <f>IF(_tap_day_all!X5="","",ROUND(_tap_day_all!X5*100,4))</f>
         <v/>
       </c>
-      <c r="Y10" s="24" t="str">
+      <c r="Y10" s="15" t="str">
         <f>IF(_tap_day_all!Y5="","",ROUND(_tap_day_all!Y5*100,4))</f>
         <v/>
       </c>
-      <c r="Z10" s="24" t="str">
+      <c r="Z10" s="15" t="str">
         <f>IF(_tap_day_all!Z5="","",ROUND(_tap_day_all!Z5,4))</f>
         <v/>
       </c>
-      <c r="AA10" s="42" t="str">
+      <c r="AA10" s="22" t="str">
         <f>IF(_tap_day_all!AA5="","",ROUND(_tap_day_all!AA5,4))</f>
         <v/>
       </c>
-      <c r="AB10" s="42" t="str">
+      <c r="AB10" s="22" t="str">
         <f>IF(_tap_day_all!AB5="","",ROUND(_tap_day_all!AB5,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="str">
+      <c r="AC10" s="22" t="str">
+        <f>IF(_tap_day_all!AC5="","",ROUND(_tap_day_all!AC5,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="str">
         <f>IF(_tap_day_all!A6="","",_tap_day_all!A6)</f>
         <v/>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="15" t="str">
         <f>IF(_tap_day_all!B6="","",_tap_day_all!B6)</f>
         <v/>
       </c>
-      <c r="C11" s="24" t="str">
+      <c r="C11" s="15" t="str">
         <f>IF(_tap_day_all!C6="","",_tap_day_all!C6)</f>
         <v/>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="18" t="str">
         <f>IF(_tap_day_all!D6="","",_tap_day_all!D6)</f>
         <v/>
       </c>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="18" t="str">
         <f>IF(_tap_day_all!E6="","",_tap_day_all!E6)</f>
         <v/>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" s="15" t="str">
         <f>IF(_tap_day_all!F6="","",_tap_day_all!F6)</f>
         <v/>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(_tap_day_all!G6="","",_tap_day_all!G6)</f>
         <v/>
       </c>
-      <c r="H11" s="32" t="str">
+      <c r="H11" s="20" t="str">
         <f>IF(_tap_day_all!H6="","",_tap_day_all!H6)</f>
         <v/>
       </c>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="20" t="str">
         <f>IF(_tap_day_all!I6="","",_tap_day_all!I6)</f>
         <v/>
       </c>
-      <c r="J11" s="32" t="str">
+      <c r="J11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="21" t="str">
         <f>IF(_tap_day_all!K6="","",_tap_day_all!K6)</f>
         <v/>
       </c>
-      <c r="L11" s="32" t="str">
+      <c r="L11" s="20" t="str">
         <f>IF(_tap_day_all!L6="","",_tap_day_all!L6)</f>
         <v/>
       </c>
-      <c r="M11" s="24" t="str">
+      <c r="M11" s="15" t="str">
         <f>IF(_tap_day_all!M6="","",ROUND(_tap_day_all!M6*100,4))</f>
         <v/>
       </c>
-      <c r="N11" s="24" t="str">
+      <c r="N11" s="15" t="str">
         <f>IF(_tap_day_all!N6="","",ROUND(_tap_day_all!N6*100,4))</f>
         <v/>
       </c>
-      <c r="O11" s="24" t="str">
+      <c r="O11" s="15" t="str">
         <f>IF(_tap_day_all!O6="","",ROUND(_tap_day_all!O6*100,4))</f>
         <v/>
       </c>
-      <c r="P11" s="24" t="str">
+      <c r="P11" s="15" t="str">
         <f>IF(_tap_day_all!P6="","",ROUND(_tap_day_all!P6*100,4))</f>
         <v/>
       </c>
-      <c r="Q11" s="24" t="str">
+      <c r="Q11" s="15" t="str">
         <f>IF(_tap_day_all!Q6="","",ROUND(_tap_day_all!Q6*100,4))</f>
         <v/>
       </c>
-      <c r="R11" s="24" t="str">
+      <c r="R11" s="15" t="str">
         <f>IF(_tap_day_all!R6="","",ROUND(_tap_day_all!R6*100,4))</f>
         <v/>
       </c>
-      <c r="S11" s="24" t="str">
+      <c r="S11" s="15" t="str">
         <f>IF(_tap_day_all!S6="","",ROUND(_tap_day_all!S6*100,4))</f>
         <v/>
       </c>
-      <c r="T11" s="24" t="str">
+      <c r="T11" s="15" t="str">
         <f>IF(_tap_day_all!T6="","",ROUND(_tap_day_all!T6*100,4))</f>
         <v/>
       </c>
-      <c r="U11" s="24" t="str">
+      <c r="U11" s="15" t="str">
         <f>IF(_tap_day_all!U6="","",ROUND(_tap_day_all!U6*100,4))</f>
         <v/>
       </c>
-      <c r="V11" s="24" t="str">
+      <c r="V11" s="15" t="str">
         <f>IF(_tap_day_all!V6="","",ROUND(_tap_day_all!V6*100,4))</f>
         <v/>
       </c>
-      <c r="W11" s="24" t="str">
+      <c r="W11" s="15" t="str">
         <f>IF(_tap_day_all!W6="","",ROUND(_tap_day_all!W6*100,4))</f>
         <v/>
       </c>
-      <c r="X11" s="24" t="str">
+      <c r="X11" s="15" t="str">
         <f>IF(_tap_day_all!X6="","",ROUND(_tap_day_all!X6*100,4))</f>
         <v/>
       </c>
-      <c r="Y11" s="24" t="str">
+      <c r="Y11" s="15" t="str">
         <f>IF(_tap_day_all!Y6="","",ROUND(_tap_day_all!Y6*100,4))</f>
         <v/>
       </c>
-      <c r="Z11" s="24" t="str">
+      <c r="Z11" s="15" t="str">
         <f>IF(_tap_day_all!Z6="","",ROUND(_tap_day_all!Z6,4))</f>
         <v/>
       </c>
-      <c r="AA11" s="42" t="str">
+      <c r="AA11" s="22" t="str">
         <f>IF(_tap_day_all!AA6="","",ROUND(_tap_day_all!AA6,4))</f>
         <v/>
       </c>
-      <c r="AB11" s="42" t="str">
+      <c r="AB11" s="22" t="str">
         <f>IF(_tap_day_all!AB6="","",ROUND(_tap_day_all!AB6,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="str">
+      <c r="AC11" s="22" t="str">
+        <f>IF(_tap_day_all!AC6="","",ROUND(_tap_day_all!AC6,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="str">
         <f>IF(_tap_day_all!A7="","",_tap_day_all!A7)</f>
         <v/>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="15" t="str">
         <f>IF(_tap_day_all!B7="","",_tap_day_all!B7)</f>
         <v/>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(_tap_day_all!C7="","",_tap_day_all!C7)</f>
         <v/>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="18" t="str">
         <f>IF(_tap_day_all!D7="","",_tap_day_all!D7)</f>
         <v/>
       </c>
-      <c r="E12" s="29" t="str">
+      <c r="E12" s="18" t="str">
         <f>IF(_tap_day_all!E7="","",_tap_day_all!E7)</f>
         <v/>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="15" t="str">
         <f>IF(_tap_day_all!F7="","",_tap_day_all!F7)</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="15" t="str">
         <f>IF(_tap_day_all!G7="","",_tap_day_all!G7)</f>
         <v/>
       </c>
-      <c r="H12" s="32" t="str">
+      <c r="H12" s="20" t="str">
         <f>IF(_tap_day_all!H7="","",_tap_day_all!H7)</f>
         <v/>
       </c>
-      <c r="I12" s="32" t="str">
+      <c r="I12" s="20" t="str">
         <f>IF(_tap_day_all!I7="","",_tap_day_all!I7)</f>
         <v/>
       </c>
-      <c r="J12" s="32" t="str">
+      <c r="J12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="38" t="str">
+      <c r="K12" s="21" t="str">
         <f>IF(_tap_day_all!K7="","",_tap_day_all!K7)</f>
         <v/>
       </c>
-      <c r="L12" s="32" t="str">
+      <c r="L12" s="20" t="str">
         <f>IF(_tap_day_all!L7="","",_tap_day_all!L7)</f>
         <v/>
       </c>
-      <c r="M12" s="24" t="str">
+      <c r="M12" s="15" t="str">
         <f>IF(_tap_day_all!M7="","",ROUND(_tap_day_all!M7*100,4))</f>
         <v/>
       </c>
-      <c r="N12" s="24" t="str">
+      <c r="N12" s="15" t="str">
         <f>IF(_tap_day_all!N7="","",ROUND(_tap_day_all!N7*100,4))</f>
         <v/>
       </c>
-      <c r="O12" s="24" t="str">
+      <c r="O12" s="15" t="str">
         <f>IF(_tap_day_all!O7="","",ROUND(_tap_day_all!O7*100,4))</f>
         <v/>
       </c>
-      <c r="P12" s="24" t="str">
+      <c r="P12" s="15" t="str">
         <f>IF(_tap_day_all!P7="","",ROUND(_tap_day_all!P7*100,4))</f>
         <v/>
       </c>
-      <c r="Q12" s="24" t="str">
+      <c r="Q12" s="15" t="str">
         <f>IF(_tap_day_all!Q7="","",ROUND(_tap_day_all!Q7*100,4))</f>
         <v/>
       </c>
-      <c r="R12" s="24" t="str">
+      <c r="R12" s="15" t="str">
         <f>IF(_tap_day_all!R7="","",ROUND(_tap_day_all!R7*100,4))</f>
         <v/>
       </c>
-      <c r="S12" s="24" t="str">
+      <c r="S12" s="15" t="str">
         <f>IF(_tap_day_all!S7="","",ROUND(_tap_day_all!S7*100,4))</f>
         <v/>
       </c>
-      <c r="T12" s="24" t="str">
+      <c r="T12" s="15" t="str">
         <f>IF(_tap_day_all!T7="","",ROUND(_tap_day_all!T7*100,4))</f>
         <v/>
       </c>
-      <c r="U12" s="24" t="str">
+      <c r="U12" s="15" t="str">
         <f>IF(_tap_day_all!U7="","",ROUND(_tap_day_all!U7*100,4))</f>
         <v/>
       </c>
-      <c r="V12" s="24" t="str">
+      <c r="V12" s="15" t="str">
         <f>IF(_tap_day_all!V7="","",ROUND(_tap_day_all!V7*100,4))</f>
         <v/>
       </c>
-      <c r="W12" s="24" t="str">
+      <c r="W12" s="15" t="str">
         <f>IF(_tap_day_all!W7="","",ROUND(_tap_day_all!W7*100,4))</f>
         <v/>
       </c>
-      <c r="X12" s="24" t="str">
+      <c r="X12" s="15" t="str">
         <f>IF(_tap_day_all!X7="","",ROUND(_tap_day_all!X7*100,4))</f>
         <v/>
       </c>
-      <c r="Y12" s="24" t="str">
+      <c r="Y12" s="15" t="str">
         <f>IF(_tap_day_all!Y7="","",ROUND(_tap_day_all!Y7*100,4))</f>
         <v/>
       </c>
-      <c r="Z12" s="24" t="str">
+      <c r="Z12" s="15" t="str">
         <f>IF(_tap_day_all!Z7="","",ROUND(_tap_day_all!Z7,4))</f>
         <v/>
       </c>
-      <c r="AA12" s="42" t="str">
+      <c r="AA12" s="22" t="str">
         <f>IF(_tap_day_all!AA7="","",ROUND(_tap_day_all!AA7,4))</f>
         <v/>
       </c>
-      <c r="AB12" s="42" t="str">
+      <c r="AB12" s="22" t="str">
         <f>IF(_tap_day_all!AB7="","",ROUND(_tap_day_all!AB7,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="str">
+      <c r="AC12" s="22" t="str">
+        <f>IF(_tap_day_all!AC7="","",ROUND(_tap_day_all!AC7,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="str">
         <f>IF(_tap_day_all!A8="","",_tap_day_all!A8)</f>
         <v/>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="15" t="str">
         <f>IF(_tap_day_all!B8="","",_tap_day_all!B8)</f>
         <v/>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(_tap_day_all!C8="","",_tap_day_all!C8)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="18" t="str">
         <f>IF(_tap_day_all!D8="","",_tap_day_all!D8)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="18" t="str">
         <f>IF(_tap_day_all!E8="","",_tap_day_all!E8)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="15" t="str">
         <f>IF(_tap_day_all!F8="","",_tap_day_all!F8)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(_tap_day_all!G8="","",_tap_day_all!G8)</f>
         <v/>
       </c>
-      <c r="H13" s="32" t="str">
+      <c r="H13" s="20" t="str">
         <f>IF(_tap_day_all!H8="","",_tap_day_all!H8)</f>
         <v/>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="20" t="str">
         <f>IF(_tap_day_all!I8="","",_tap_day_all!I8)</f>
         <v/>
       </c>
-      <c r="J13" s="32" t="str">
+      <c r="J13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="21" t="str">
         <f>IF(_tap_day_all!K8="","",_tap_day_all!K8)</f>
         <v/>
       </c>
-      <c r="L13" s="32" t="str">
+      <c r="L13" s="20" t="str">
         <f>IF(_tap_day_all!L8="","",_tap_day_all!L8)</f>
         <v/>
       </c>
-      <c r="M13" s="24" t="str">
+      <c r="M13" s="15" t="str">
         <f>IF(_tap_day_all!M8="","",ROUND(_tap_day_all!M8*100,4))</f>
         <v/>
       </c>
-      <c r="N13" s="24" t="str">
+      <c r="N13" s="15" t="str">
         <f>IF(_tap_day_all!N8="","",ROUND(_tap_day_all!N8*100,4))</f>
         <v/>
       </c>
-      <c r="O13" s="24" t="str">
+      <c r="O13" s="15" t="str">
         <f>IF(_tap_day_all!O8="","",ROUND(_tap_day_all!O8*100,4))</f>
         <v/>
       </c>
-      <c r="P13" s="24" t="str">
+      <c r="P13" s="15" t="str">
         <f>IF(_tap_day_all!P8="","",ROUND(_tap_day_all!P8*100,4))</f>
         <v/>
       </c>
-      <c r="Q13" s="24" t="str">
+      <c r="Q13" s="15" t="str">
         <f>IF(_tap_day_all!Q8="","",ROUND(_tap_day_all!Q8*100,4))</f>
         <v/>
       </c>
-      <c r="R13" s="24" t="str">
+      <c r="R13" s="15" t="str">
         <f>IF(_tap_day_all!R8="","",ROUND(_tap_day_all!R8*100,4))</f>
         <v/>
       </c>
-      <c r="S13" s="24" t="str">
+      <c r="S13" s="15" t="str">
         <f>IF(_tap_day_all!S8="","",ROUND(_tap_day_all!S8*100,4))</f>
         <v/>
       </c>
-      <c r="T13" s="24" t="str">
+      <c r="T13" s="15" t="str">
         <f>IF(_tap_day_all!T8="","",ROUND(_tap_day_all!T8*100,4))</f>
         <v/>
       </c>
-      <c r="U13" s="24" t="str">
+      <c r="U13" s="15" t="str">
         <f>IF(_tap_day_all!U8="","",ROUND(_tap_day_all!U8*100,4))</f>
         <v/>
       </c>
-      <c r="V13" s="24" t="str">
+      <c r="V13" s="15" t="str">
         <f>IF(_tap_day_all!V8="","",ROUND(_tap_day_all!V8*100,4))</f>
         <v/>
       </c>
-      <c r="W13" s="24" t="str">
+      <c r="W13" s="15" t="str">
         <f>IF(_tap_day_all!W8="","",ROUND(_tap_day_all!W8*100,4))</f>
         <v/>
       </c>
-      <c r="X13" s="24" t="str">
+      <c r="X13" s="15" t="str">
         <f>IF(_tap_day_all!X8="","",ROUND(_tap_day_all!X8*100,4))</f>
         <v/>
       </c>
-      <c r="Y13" s="24" t="str">
+      <c r="Y13" s="15" t="str">
         <f>IF(_tap_day_all!Y8="","",ROUND(_tap_day_all!Y8*100,4))</f>
         <v/>
       </c>
-      <c r="Z13" s="24" t="str">
+      <c r="Z13" s="15" t="str">
         <f>IF(_tap_day_all!Z8="","",ROUND(_tap_day_all!Z8,4))</f>
         <v/>
       </c>
-      <c r="AA13" s="42" t="str">
+      <c r="AA13" s="22" t="str">
         <f>IF(_tap_day_all!AA8="","",ROUND(_tap_day_all!AA8,4))</f>
         <v/>
       </c>
-      <c r="AB13" s="42" t="str">
+      <c r="AB13" s="22" t="str">
         <f>IF(_tap_day_all!AB8="","",ROUND(_tap_day_all!AB8,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="str">
+      <c r="AC13" s="22" t="str">
+        <f>IF(_tap_day_all!AC8="","",ROUND(_tap_day_all!AC8,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="str">
         <f>IF(_tap_day_all!A9="","",_tap_day_all!A9)</f>
         <v/>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="15" t="str">
         <f>IF(_tap_day_all!B9="","",_tap_day_all!B9)</f>
         <v/>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="15" t="str">
         <f>IF(_tap_day_all!C9="","",_tap_day_all!C9)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="18" t="str">
         <f>IF(_tap_day_all!D9="","",_tap_day_all!D9)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="18" t="str">
         <f>IF(_tap_day_all!E9="","",_tap_day_all!E9)</f>
         <v/>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="15" t="str">
         <f>IF(_tap_day_all!F9="","",_tap_day_all!F9)</f>
         <v/>
       </c>
-      <c r="G14" s="24" t="str">
+      <c r="G14" s="15" t="str">
         <f>IF(_tap_day_all!G9="","",_tap_day_all!G9)</f>
         <v/>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="20" t="str">
         <f>IF(_tap_day_all!H9="","",_tap_day_all!H9)</f>
         <v/>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="20" t="str">
         <f>IF(_tap_day_all!I9="","",_tap_day_all!I9)</f>
         <v/>
       </c>
-      <c r="J14" s="32" t="str">
+      <c r="J14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="38" t="str">
+      <c r="K14" s="21" t="str">
         <f>IF(_tap_day_all!K9="","",_tap_day_all!K9)</f>
         <v/>
       </c>
-      <c r="L14" s="32" t="str">
+      <c r="L14" s="20" t="str">
         <f>IF(_tap_day_all!L9="","",_tap_day_all!L9)</f>
         <v/>
       </c>
-      <c r="M14" s="24" t="str">
+      <c r="M14" s="15" t="str">
         <f>IF(_tap_day_all!M9="","",ROUND(_tap_day_all!M9*100,4))</f>
         <v/>
       </c>
-      <c r="N14" s="24" t="str">
+      <c r="N14" s="15" t="str">
         <f>IF(_tap_day_all!N9="","",ROUND(_tap_day_all!N9*100,4))</f>
         <v/>
       </c>
-      <c r="O14" s="24" t="str">
+      <c r="O14" s="15" t="str">
         <f>IF(_tap_day_all!O9="","",ROUND(_tap_day_all!O9*100,4))</f>
         <v/>
       </c>
-      <c r="P14" s="24" t="str">
+      <c r="P14" s="15" t="str">
         <f>IF(_tap_day_all!P9="","",ROUND(_tap_day_all!P9*100,4))</f>
         <v/>
       </c>
-      <c r="Q14" s="24" t="str">
+      <c r="Q14" s="15" t="str">
         <f>IF(_tap_day_all!Q9="","",ROUND(_tap_day_all!Q9*100,4))</f>
         <v/>
       </c>
-      <c r="R14" s="24" t="str">
+      <c r="R14" s="15" t="str">
         <f>IF(_tap_day_all!R9="","",ROUND(_tap_day_all!R9*100,4))</f>
         <v/>
       </c>
-      <c r="S14" s="24" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF(_tap_day_all!S9="","",ROUND(_tap_day_all!S9*100,4))</f>
         <v/>
       </c>
-      <c r="T14" s="24" t="str">
+      <c r="T14" s="15" t="str">
         <f>IF(_tap_day_all!T9="","",ROUND(_tap_day_all!T9*100,4))</f>
         <v/>
       </c>
-      <c r="U14" s="24" t="str">
+      <c r="U14" s="15" t="str">
         <f>IF(_tap_day_all!U9="","",ROUND(_tap_day_all!U9*100,4))</f>
         <v/>
       </c>
-      <c r="V14" s="24" t="str">
+      <c r="V14" s="15" t="str">
         <f>IF(_tap_day_all!V9="","",ROUND(_tap_day_all!V9*100,4))</f>
         <v/>
       </c>
-      <c r="W14" s="24" t="str">
+      <c r="W14" s="15" t="str">
         <f>IF(_tap_day_all!W9="","",ROUND(_tap_day_all!W9*100,4))</f>
         <v/>
       </c>
-      <c r="X14" s="24" t="str">
+      <c r="X14" s="15" t="str">
         <f>IF(_tap_day_all!X9="","",ROUND(_tap_day_all!X9*100,4))</f>
         <v/>
       </c>
-      <c r="Y14" s="24" t="str">
+      <c r="Y14" s="15" t="str">
         <f>IF(_tap_day_all!Y9="","",ROUND(_tap_day_all!Y9*100,4))</f>
         <v/>
       </c>
-      <c r="Z14" s="24" t="str">
+      <c r="Z14" s="15" t="str">
         <f>IF(_tap_day_all!Z9="","",ROUND(_tap_day_all!Z9,4))</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="22" t="str">
         <f>IF(_tap_day_all!AA9="","",ROUND(_tap_day_all!AA9,4))</f>
         <v/>
       </c>
-      <c r="AB14" s="42" t="str">
+      <c r="AB14" s="22" t="str">
         <f>IF(_tap_day_all!AB9="","",ROUND(_tap_day_all!AB9,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="str">
+      <c r="AC14" s="22" t="str">
+        <f>IF(_tap_day_all!AC9="","",ROUND(_tap_day_all!AC9,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="str">
         <f>IF(_tap_day_all!A10="","",_tap_day_all!A10)</f>
         <v/>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(_tap_day_all!B10="","",_tap_day_all!B10)</f>
         <v/>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="15" t="str">
         <f>IF(_tap_day_all!C10="","",_tap_day_all!C10)</f>
         <v/>
       </c>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_tap_day_all!D10="","",_tap_day_all!D10)</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_tap_day_all!E10="","",_tap_day_all!E10)</f>
         <v/>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="F15" s="15" t="str">
         <f>IF(_tap_day_all!F10="","",_tap_day_all!F10)</f>
         <v/>
       </c>
-      <c r="G15" s="24" t="str">
+      <c r="G15" s="15" t="str">
         <f>IF(_tap_day_all!G10="","",_tap_day_all!G10)</f>
         <v/>
       </c>
-      <c r="H15" s="32" t="str">
+      <c r="H15" s="20" t="str">
         <f>IF(_tap_day_all!H10="","",_tap_day_all!H10)</f>
         <v/>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="20" t="str">
         <f>IF(_tap_day_all!I10="","",_tap_day_all!I10)</f>
         <v/>
       </c>
-      <c r="J15" s="32" t="str">
+      <c r="J15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="38" t="str">
+      <c r="K15" s="21" t="str">
         <f>IF(_tap_day_all!K10="","",_tap_day_all!K10)</f>
         <v/>
       </c>
-      <c r="L15" s="32" t="str">
+      <c r="L15" s="20" t="str">
         <f>IF(_tap_day_all!L10="","",_tap_day_all!L10)</f>
         <v/>
       </c>
-      <c r="M15" s="24" t="str">
+      <c r="M15" s="15" t="str">
         <f>IF(_tap_day_all!M10="","",ROUND(_tap_day_all!M10*100,4))</f>
         <v/>
       </c>
-      <c r="N15" s="24" t="str">
+      <c r="N15" s="15" t="str">
         <f>IF(_tap_day_all!N10="","",ROUND(_tap_day_all!N10*100,4))</f>
         <v/>
       </c>
-      <c r="O15" s="24" t="str">
+      <c r="O15" s="15" t="str">
         <f>IF(_tap_day_all!O10="","",ROUND(_tap_day_all!O10*100,4))</f>
         <v/>
       </c>
-      <c r="P15" s="24" t="str">
+      <c r="P15" s="15" t="str">
         <f>IF(_tap_day_all!P10="","",ROUND(_tap_day_all!P10*100,4))</f>
         <v/>
       </c>
-      <c r="Q15" s="24" t="str">
+      <c r="Q15" s="15" t="str">
         <f>IF(_tap_day_all!Q10="","",ROUND(_tap_day_all!Q10*100,4))</f>
         <v/>
       </c>
-      <c r="R15" s="24" t="str">
+      <c r="R15" s="15" t="str">
         <f>IF(_tap_day_all!R10="","",ROUND(_tap_day_all!R10*100,4))</f>
         <v/>
       </c>
-      <c r="S15" s="24" t="str">
+      <c r="S15" s="15" t="str">
         <f>IF(_tap_day_all!S10="","",ROUND(_tap_day_all!S10*100,4))</f>
         <v/>
       </c>
-      <c r="T15" s="24" t="str">
+      <c r="T15" s="15" t="str">
         <f>IF(_tap_day_all!T10="","",ROUND(_tap_day_all!T10*100,4))</f>
         <v/>
       </c>
-      <c r="U15" s="24" t="str">
+      <c r="U15" s="15" t="str">
         <f>IF(_tap_day_all!U10="","",ROUND(_tap_day_all!U10*100,4))</f>
         <v/>
       </c>
-      <c r="V15" s="24" t="str">
+      <c r="V15" s="15" t="str">
         <f>IF(_tap_day_all!V10="","",ROUND(_tap_day_all!V10*100,4))</f>
         <v/>
       </c>
-      <c r="W15" s="24" t="str">
+      <c r="W15" s="15" t="str">
         <f>IF(_tap_day_all!W10="","",ROUND(_tap_day_all!W10*100,4))</f>
         <v/>
       </c>
-      <c r="X15" s="24" t="str">
+      <c r="X15" s="15" t="str">
         <f>IF(_tap_day_all!X10="","",ROUND(_tap_day_all!X10*100,4))</f>
         <v/>
       </c>
-      <c r="Y15" s="24" t="str">
+      <c r="Y15" s="15" t="str">
         <f>IF(_tap_day_all!Y10="","",ROUND(_tap_day_all!Y10*100,4))</f>
         <v/>
       </c>
-      <c r="Z15" s="24" t="str">
+      <c r="Z15" s="15" t="str">
         <f>IF(_tap_day_all!Z10="","",ROUND(_tap_day_all!Z10,4))</f>
         <v/>
       </c>
-      <c r="AA15" s="42" t="str">
+      <c r="AA15" s="22" t="str">
         <f>IF(_tap_day_all!AA10="","",ROUND(_tap_day_all!AA10,4))</f>
         <v/>
       </c>
-      <c r="AB15" s="42" t="str">
+      <c r="AB15" s="22" t="str">
         <f>IF(_tap_day_all!AB10="","",ROUND(_tap_day_all!AB10,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="str">
+      <c r="AC15" s="22" t="str">
+        <f>IF(_tap_day_all!AC10="","",ROUND(_tap_day_all!AC10,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="str">
         <f>IF(_tap_day_all!A11="","",_tap_day_all!A11)</f>
         <v/>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(_tap_day_all!B11="","",_tap_day_all!B11)</f>
         <v/>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C16" s="15" t="str">
         <f>IF(_tap_day_all!C11="","",_tap_day_all!C11)</f>
         <v/>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="18" t="str">
         <f>IF(_tap_day_all!D11="","",_tap_day_all!D11)</f>
         <v/>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="18" t="str">
         <f>IF(_tap_day_all!E11="","",_tap_day_all!E11)</f>
         <v/>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F16" s="15" t="str">
         <f>IF(_tap_day_all!F11="","",_tap_day_all!F11)</f>
         <v/>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="15" t="str">
         <f>IF(_tap_day_all!G11="","",_tap_day_all!G11)</f>
         <v/>
       </c>
-      <c r="H16" s="32" t="str">
+      <c r="H16" s="20" t="str">
         <f>IF(_tap_day_all!H11="","",_tap_day_all!H11)</f>
         <v/>
       </c>
-      <c r="I16" s="32" t="str">
+      <c r="I16" s="20" t="str">
         <f>IF(_tap_day_all!I11="","",_tap_day_all!I11)</f>
         <v/>
       </c>
-      <c r="J16" s="32" t="str">
+      <c r="J16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="38" t="str">
+      <c r="K16" s="21" t="str">
         <f>IF(_tap_day_all!K11="","",_tap_day_all!K11)</f>
         <v/>
       </c>
-      <c r="L16" s="32" t="str">
+      <c r="L16" s="20" t="str">
         <f>IF(_tap_day_all!L11="","",_tap_day_all!L11)</f>
         <v/>
       </c>
-      <c r="M16" s="24" t="str">
+      <c r="M16" s="15" t="str">
         <f>IF(_tap_day_all!M11="","",ROUND(_tap_day_all!M11*100,4))</f>
         <v/>
       </c>
-      <c r="N16" s="24" t="str">
+      <c r="N16" s="15" t="str">
         <f>IF(_tap_day_all!N11="","",ROUND(_tap_day_all!N11*100,4))</f>
         <v/>
       </c>
-      <c r="O16" s="24" t="str">
+      <c r="O16" s="15" t="str">
         <f>IF(_tap_day_all!O11="","",ROUND(_tap_day_all!O11*100,4))</f>
         <v/>
       </c>
-      <c r="P16" s="24" t="str">
+      <c r="P16" s="15" t="str">
         <f>IF(_tap_day_all!P11="","",ROUND(_tap_day_all!P11*100,4))</f>
         <v/>
       </c>
-      <c r="Q16" s="24" t="str">
+      <c r="Q16" s="15" t="str">
         <f>IF(_tap_day_all!Q11="","",ROUND(_tap_day_all!Q11*100,4))</f>
         <v/>
       </c>
-      <c r="R16" s="24" t="str">
+      <c r="R16" s="15" t="str">
         <f>IF(_tap_day_all!R11="","",ROUND(_tap_day_all!R11*100,4))</f>
         <v/>
       </c>
-      <c r="S16" s="24" t="str">
+      <c r="S16" s="15" t="str">
         <f>IF(_tap_day_all!S11="","",ROUND(_tap_day_all!S11*100,4))</f>
         <v/>
       </c>
-      <c r="T16" s="24" t="str">
+      <c r="T16" s="15" t="str">
         <f>IF(_tap_day_all!T11="","",ROUND(_tap_day_all!T11*100,4))</f>
         <v/>
       </c>
-      <c r="U16" s="24" t="str">
+      <c r="U16" s="15" t="str">
         <f>IF(_tap_day_all!U11="","",ROUND(_tap_day_all!U11*100,4))</f>
         <v/>
       </c>
-      <c r="V16" s="24" t="str">
+      <c r="V16" s="15" t="str">
         <f>IF(_tap_day_all!V11="","",ROUND(_tap_day_all!V11*100,4))</f>
         <v/>
       </c>
-      <c r="W16" s="24" t="str">
+      <c r="W16" s="15" t="str">
         <f>IF(_tap_day_all!W11="","",ROUND(_tap_day_all!W11*100,4))</f>
         <v/>
       </c>
-      <c r="X16" s="24" t="str">
+      <c r="X16" s="15" t="str">
         <f>IF(_tap_day_all!X11="","",ROUND(_tap_day_all!X11*100,4))</f>
         <v/>
       </c>
-      <c r="Y16" s="24" t="str">
+      <c r="Y16" s="15" t="str">
         <f>IF(_tap_day_all!Y11="","",ROUND(_tap_day_all!Y11*100,4))</f>
         <v/>
       </c>
-      <c r="Z16" s="24" t="str">
+      <c r="Z16" s="15" t="str">
         <f>IF(_tap_day_all!Z11="","",ROUND(_tap_day_all!Z11,4))</f>
         <v/>
       </c>
-      <c r="AA16" s="42" t="str">
+      <c r="AA16" s="22" t="str">
         <f>IF(_tap_day_all!AA11="","",ROUND(_tap_day_all!AA11,4))</f>
         <v/>
       </c>
-      <c r="AB16" s="42" t="str">
+      <c r="AB16" s="22" t="str">
         <f>IF(_tap_day_all!AB11="","",ROUND(_tap_day_all!AB11,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="str">
+      <c r="AC16" s="22" t="str">
+        <f>IF(_tap_day_all!AC11="","",ROUND(_tap_day_all!AC11,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="str">
         <f>IF(_tap_day_all!A12="","",_tap_day_all!A12)</f>
         <v/>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="15" t="str">
         <f>IF(_tap_day_all!B12="","",_tap_day_all!B12)</f>
         <v/>
       </c>
-      <c r="C17" s="24" t="str">
+      <c r="C17" s="15" t="str">
         <f>IF(_tap_day_all!C12="","",_tap_day_all!C12)</f>
         <v/>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="18" t="str">
         <f>IF(_tap_day_all!D12="","",_tap_day_all!D12)</f>
         <v/>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="18" t="str">
         <f>IF(_tap_day_all!E12="","",_tap_day_all!E12)</f>
         <v/>
       </c>
-      <c r="F17" s="24" t="str">
+      <c r="F17" s="15" t="str">
         <f>IF(_tap_day_all!F12="","",_tap_day_all!F12)</f>
         <v/>
       </c>
-      <c r="G17" s="24" t="str">
+      <c r="G17" s="15" t="str">
         <f>IF(_tap_day_all!G12="","",_tap_day_all!G12)</f>
         <v/>
       </c>
-      <c r="H17" s="32" t="str">
+      <c r="H17" s="20" t="str">
         <f>IF(_tap_day_all!H12="","",_tap_day_all!H12)</f>
         <v/>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="20" t="str">
         <f>IF(_tap_day_all!I12="","",_tap_day_all!I12)</f>
         <v/>
       </c>
-      <c r="J17" s="32" t="str">
+      <c r="J17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="38" t="str">
+      <c r="K17" s="21" t="str">
         <f>IF(_tap_day_all!K12="","",_tap_day_all!K12)</f>
         <v/>
       </c>
-      <c r="L17" s="32" t="str">
+      <c r="L17" s="20" t="str">
         <f>IF(_tap_day_all!L12="","",_tap_day_all!L12)</f>
         <v/>
       </c>
-      <c r="M17" s="24" t="str">
+      <c r="M17" s="15" t="str">
         <f>IF(_tap_day_all!M12="","",ROUND(_tap_day_all!M12*100,4))</f>
         <v/>
       </c>
-      <c r="N17" s="24" t="str">
+      <c r="N17" s="15" t="str">
         <f>IF(_tap_day_all!N12="","",ROUND(_tap_day_all!N12*100,4))</f>
         <v/>
       </c>
-      <c r="O17" s="24" t="str">
+      <c r="O17" s="15" t="str">
         <f>IF(_tap_day_all!O12="","",ROUND(_tap_day_all!O12*100,4))</f>
         <v/>
       </c>
-      <c r="P17" s="24" t="str">
+      <c r="P17" s="15" t="str">
         <f>IF(_tap_day_all!P12="","",ROUND(_tap_day_all!P12*100,4))</f>
         <v/>
       </c>
-      <c r="Q17" s="24" t="str">
+      <c r="Q17" s="15" t="str">
         <f>IF(_tap_day_all!Q12="","",ROUND(_tap_day_all!Q12*100,4))</f>
         <v/>
       </c>
-      <c r="R17" s="24" t="str">
+      <c r="R17" s="15" t="str">
         <f>IF(_tap_day_all!R12="","",ROUND(_tap_day_all!R12*100,4))</f>
         <v/>
       </c>
-      <c r="S17" s="24" t="str">
+      <c r="S17" s="15" t="str">
         <f>IF(_tap_day_all!S12="","",ROUND(_tap_day_all!S12*100,4))</f>
         <v/>
       </c>
-      <c r="T17" s="24" t="str">
+      <c r="T17" s="15" t="str">
         <f>IF(_tap_day_all!T12="","",ROUND(_tap_day_all!T12*100,4))</f>
         <v/>
       </c>
-      <c r="U17" s="24" t="str">
+      <c r="U17" s="15" t="str">
         <f>IF(_tap_day_all!U12="","",ROUND(_tap_day_all!U12*100,4))</f>
         <v/>
       </c>
-      <c r="V17" s="24" t="str">
+      <c r="V17" s="15" t="str">
         <f>IF(_tap_day_all!V12="","",ROUND(_tap_day_all!V12*100,4))</f>
         <v/>
       </c>
-      <c r="W17" s="24" t="str">
+      <c r="W17" s="15" t="str">
         <f>IF(_tap_day_all!W12="","",ROUND(_tap_day_all!W12*100,4))</f>
         <v/>
       </c>
-      <c r="X17" s="24" t="str">
+      <c r="X17" s="15" t="str">
         <f>IF(_tap_day_all!X12="","",ROUND(_tap_day_all!X12*100,4))</f>
         <v/>
       </c>
-      <c r="Y17" s="24" t="str">
+      <c r="Y17" s="15" t="str">
         <f>IF(_tap_day_all!Y12="","",ROUND(_tap_day_all!Y12*100,4))</f>
         <v/>
       </c>
-      <c r="Z17" s="24" t="str">
+      <c r="Z17" s="15" t="str">
         <f>IF(_tap_day_all!Z12="","",ROUND(_tap_day_all!Z12,4))</f>
         <v/>
       </c>
-      <c r="AA17" s="42" t="str">
+      <c r="AA17" s="22" t="str">
         <f>IF(_tap_day_all!AA12="","",ROUND(_tap_day_all!AA12,4))</f>
         <v/>
       </c>
-      <c r="AB17" s="42" t="str">
+      <c r="AB17" s="22" t="str">
         <f>IF(_tap_day_all!AB12="","",ROUND(_tap_day_all!AB12,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="str">
+      <c r="AC17" s="22" t="str">
+        <f>IF(_tap_day_all!AC12="","",ROUND(_tap_day_all!AC12,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="str">
         <f>IF(_tap_day_all!A13="","",_tap_day_all!A13)</f>
         <v/>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="15" t="str">
         <f>IF(_tap_day_all!B13="","",_tap_day_all!B13)</f>
         <v/>
       </c>
-      <c r="C18" s="24" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(_tap_day_all!C13="","",_tap_day_all!C13)</f>
         <v/>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="18" t="str">
         <f>IF(_tap_day_all!D13="","",_tap_day_all!D13)</f>
         <v/>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="18" t="str">
         <f>IF(_tap_day_all!E13="","",_tap_day_all!E13)</f>
         <v/>
       </c>
-      <c r="F18" s="24" t="str">
+      <c r="F18" s="15" t="str">
         <f>IF(_tap_day_all!F13="","",_tap_day_all!F13)</f>
         <v/>
       </c>
-      <c r="G18" s="24" t="str">
+      <c r="G18" s="15" t="str">
         <f>IF(_tap_day_all!G13="","",_tap_day_all!G13)</f>
         <v/>
       </c>
-      <c r="H18" s="32" t="str">
+      <c r="H18" s="20" t="str">
         <f>IF(_tap_day_all!H13="","",_tap_day_all!H13)</f>
         <v/>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="20" t="str">
         <f>IF(_tap_day_all!I13="","",_tap_day_all!I13)</f>
         <v/>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="38" t="str">
+      <c r="K18" s="21" t="str">
         <f>IF(_tap_day_all!K13="","",_tap_day_all!K13)</f>
         <v/>
       </c>
-      <c r="L18" s="32" t="str">
+      <c r="L18" s="20" t="str">
         <f>IF(_tap_day_all!L13="","",_tap_day_all!L13)</f>
         <v/>
       </c>
-      <c r="M18" s="24" t="str">
+      <c r="M18" s="15" t="str">
         <f>IF(_tap_day_all!M13="","",ROUND(_tap_day_all!M13*100,4))</f>
         <v/>
       </c>
-      <c r="N18" s="24" t="str">
+      <c r="N18" s="15" t="str">
         <f>IF(_tap_day_all!N13="","",ROUND(_tap_day_all!N13*100,4))</f>
         <v/>
       </c>
-      <c r="O18" s="24" t="str">
+      <c r="O18" s="15" t="str">
         <f>IF(_tap_day_all!O13="","",ROUND(_tap_day_all!O13*100,4))</f>
         <v/>
       </c>
-      <c r="P18" s="24" t="str">
+      <c r="P18" s="15" t="str">
         <f>IF(_tap_day_all!P13="","",ROUND(_tap_day_all!P13*100,4))</f>
         <v/>
       </c>
-      <c r="Q18" s="24" t="str">
+      <c r="Q18" s="15" t="str">
         <f>IF(_tap_day_all!Q13="","",ROUND(_tap_day_all!Q13*100,4))</f>
         <v/>
       </c>
-      <c r="R18" s="24" t="str">
+      <c r="R18" s="15" t="str">
         <f>IF(_tap_day_all!R13="","",ROUND(_tap_day_all!R13*100,4))</f>
         <v/>
       </c>
-      <c r="S18" s="24" t="str">
+      <c r="S18" s="15" t="str">
         <f>IF(_tap_day_all!S13="","",ROUND(_tap_day_all!S13*100,4))</f>
         <v/>
       </c>
-      <c r="T18" s="24" t="str">
+      <c r="T18" s="15" t="str">
         <f>IF(_tap_day_all!T13="","",ROUND(_tap_day_all!T13*100,4))</f>
         <v/>
       </c>
-      <c r="U18" s="24" t="str">
+      <c r="U18" s="15" t="str">
         <f>IF(_tap_day_all!U13="","",ROUND(_tap_day_all!U13*100,4))</f>
         <v/>
       </c>
-      <c r="V18" s="24" t="str">
+      <c r="V18" s="15" t="str">
         <f>IF(_tap_day_all!V13="","",ROUND(_tap_day_all!V13*100,4))</f>
         <v/>
       </c>
-      <c r="W18" s="24" t="str">
+      <c r="W18" s="15" t="str">
         <f>IF(_tap_day_all!W13="","",ROUND(_tap_day_all!W13*100,4))</f>
         <v/>
       </c>
-      <c r="X18" s="24" t="str">
+      <c r="X18" s="15" t="str">
         <f>IF(_tap_day_all!X13="","",ROUND(_tap_day_all!X13*100,4))</f>
         <v/>
       </c>
-      <c r="Y18" s="24" t="str">
+      <c r="Y18" s="15" t="str">
         <f>IF(_tap_day_all!Y13="","",ROUND(_tap_day_all!Y13*100,4))</f>
         <v/>
       </c>
-      <c r="Z18" s="24" t="str">
+      <c r="Z18" s="15" t="str">
         <f>IF(_tap_day_all!Z13="","",ROUND(_tap_day_all!Z13,4))</f>
         <v/>
       </c>
-      <c r="AA18" s="42" t="str">
+      <c r="AA18" s="22" t="str">
         <f>IF(_tap_day_all!AA13="","",ROUND(_tap_day_all!AA13,4))</f>
         <v/>
       </c>
-      <c r="AB18" s="42" t="str">
+      <c r="AB18" s="22" t="str">
         <f>IF(_tap_day_all!AB13="","",ROUND(_tap_day_all!AB13,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="str">
+      <c r="AC18" s="22" t="str">
+        <f>IF(_tap_day_all!AC13="","",ROUND(_tap_day_all!AC13,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="str">
         <f>IF(_tap_day_all!A14="","",_tap_day_all!A14)</f>
         <v/>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="15" t="str">
         <f>IF(_tap_day_all!B14="","",_tap_day_all!B14)</f>
         <v/>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(_tap_day_all!C14="","",_tap_day_all!C14)</f>
         <v/>
       </c>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="18" t="str">
         <f>IF(_tap_day_all!D14="","",_tap_day_all!D14)</f>
         <v/>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="18" t="str">
         <f>IF(_tap_day_all!E14="","",_tap_day_all!E14)</f>
         <v/>
       </c>
-      <c r="F19" s="24" t="str">
+      <c r="F19" s="15" t="str">
         <f>IF(_tap_day_all!F14="","",_tap_day_all!F14)</f>
         <v/>
       </c>
-      <c r="G19" s="24" t="str">
+      <c r="G19" s="15" t="str">
         <f>IF(_tap_day_all!G14="","",_tap_day_all!G14)</f>
         <v/>
       </c>
-      <c r="H19" s="32" t="str">
+      <c r="H19" s="20" t="str">
         <f>IF(_tap_day_all!H14="","",_tap_day_all!H14)</f>
         <v/>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="20" t="str">
         <f>IF(_tap_day_all!I14="","",_tap_day_all!I14)</f>
         <v/>
       </c>
-      <c r="J19" s="32" t="str">
+      <c r="J19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="38" t="str">
+      <c r="K19" s="21" t="str">
         <f>IF(_tap_day_all!K14="","",_tap_day_all!K14)</f>
         <v/>
       </c>
-      <c r="L19" s="32" t="str">
+      <c r="L19" s="20" t="str">
         <f>IF(_tap_day_all!L14="","",_tap_day_all!L14)</f>
         <v/>
       </c>
-      <c r="M19" s="24" t="str">
+      <c r="M19" s="15" t="str">
         <f>IF(_tap_day_all!M14="","",ROUND(_tap_day_all!M14*100,4))</f>
         <v/>
       </c>
-      <c r="N19" s="24" t="str">
+      <c r="N19" s="15" t="str">
         <f>IF(_tap_day_all!N14="","",ROUND(_tap_day_all!N14*100,4))</f>
         <v/>
       </c>
-      <c r="O19" s="24" t="str">
+      <c r="O19" s="15" t="str">
         <f>IF(_tap_day_all!O14="","",ROUND(_tap_day_all!O14*100,4))</f>
         <v/>
       </c>
-      <c r="P19" s="24" t="str">
+      <c r="P19" s="15" t="str">
         <f>IF(_tap_day_all!P14="","",ROUND(_tap_day_all!P14*100,4))</f>
         <v/>
       </c>
-      <c r="Q19" s="24" t="str">
+      <c r="Q19" s="15" t="str">
         <f>IF(_tap_day_all!Q14="","",ROUND(_tap_day_all!Q14*100,4))</f>
         <v/>
       </c>
-      <c r="R19" s="24" t="str">
+      <c r="R19" s="15" t="str">
         <f>IF(_tap_day_all!R14="","",ROUND(_tap_day_all!R14*100,4))</f>
         <v/>
       </c>
-      <c r="S19" s="24" t="str">
+      <c r="S19" s="15" t="str">
         <f>IF(_tap_day_all!S14="","",ROUND(_tap_day_all!S14*100,4))</f>
         <v/>
       </c>
-      <c r="T19" s="24" t="str">
+      <c r="T19" s="15" t="str">
         <f>IF(_tap_day_all!T14="","",ROUND(_tap_day_all!T14*100,4))</f>
         <v/>
       </c>
-      <c r="U19" s="24" t="str">
+      <c r="U19" s="15" t="str">
         <f>IF(_tap_day_all!U14="","",ROUND(_tap_day_all!U14*100,4))</f>
         <v/>
       </c>
-      <c r="V19" s="24" t="str">
+      <c r="V19" s="15" t="str">
         <f>IF(_tap_day_all!V14="","",ROUND(_tap_day_all!V14*100,4))</f>
         <v/>
       </c>
-      <c r="W19" s="24" t="str">
+      <c r="W19" s="15" t="str">
         <f>IF(_tap_day_all!W14="","",ROUND(_tap_day_all!W14*100,4))</f>
         <v/>
       </c>
-      <c r="X19" s="24" t="str">
+      <c r="X19" s="15" t="str">
         <f>IF(_tap_day_all!X14="","",ROUND(_tap_day_all!X14*100,4))</f>
         <v/>
       </c>
-      <c r="Y19" s="24" t="str">
+      <c r="Y19" s="15" t="str">
         <f>IF(_tap_day_all!Y14="","",ROUND(_tap_day_all!Y14*100,4))</f>
         <v/>
       </c>
-      <c r="Z19" s="24" t="str">
+      <c r="Z19" s="15" t="str">
         <f>IF(_tap_day_all!Z14="","",ROUND(_tap_day_all!Z14,4))</f>
         <v/>
       </c>
-      <c r="AA19" s="42" t="str">
+      <c r="AA19" s="22" t="str">
         <f>IF(_tap_day_all!AA14="","",ROUND(_tap_day_all!AA14,4))</f>
         <v/>
       </c>
-      <c r="AB19" s="42" t="str">
+      <c r="AB19" s="22" t="str">
         <f>IF(_tap_day_all!AB14="","",ROUND(_tap_day_all!AB14,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="str">
+      <c r="AC19" s="22" t="str">
+        <f>IF(_tap_day_all!AC14="","",ROUND(_tap_day_all!AC14,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="str">
         <f>IF(_tap_day_all!A15="","",_tap_day_all!A15)</f>
         <v/>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="15" t="str">
         <f>IF(_tap_day_all!B15="","",_tap_day_all!B15)</f>
         <v/>
       </c>
-      <c r="C20" s="24" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_tap_day_all!C15="","",_tap_day_all!C15)</f>
         <v/>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="18" t="str">
         <f>IF(_tap_day_all!D15="","",_tap_day_all!D15)</f>
         <v/>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="18" t="str">
         <f>IF(_tap_day_all!E15="","",_tap_day_all!E15)</f>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="F20" s="15" t="str">
         <f>IF(_tap_day_all!F15="","",_tap_day_all!F15)</f>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="G20" s="15" t="str">
         <f>IF(_tap_day_all!G15="","",_tap_day_all!G15)</f>
         <v/>
       </c>
-      <c r="H20" s="32" t="str">
+      <c r="H20" s="20" t="str">
         <f>IF(_tap_day_all!H15="","",_tap_day_all!H15)</f>
         <v/>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="20" t="str">
         <f>IF(_tap_day_all!I15="","",_tap_day_all!I15)</f>
         <v/>
       </c>
-      <c r="J20" s="32" t="str">
+      <c r="J20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="38" t="str">
+      <c r="K20" s="21" t="str">
         <f>IF(_tap_day_all!K15="","",_tap_day_all!K15)</f>
         <v/>
       </c>
-      <c r="L20" s="32" t="str">
+      <c r="L20" s="20" t="str">
         <f>IF(_tap_day_all!L15="","",_tap_day_all!L15)</f>
         <v/>
       </c>
-      <c r="M20" s="24" t="str">
+      <c r="M20" s="15" t="str">
         <f>IF(_tap_day_all!M15="","",ROUND(_tap_day_all!M15*100,4))</f>
         <v/>
       </c>
-      <c r="N20" s="24" t="str">
+      <c r="N20" s="15" t="str">
         <f>IF(_tap_day_all!N15="","",ROUND(_tap_day_all!N15*100,4))</f>
         <v/>
       </c>
-      <c r="O20" s="24" t="str">
+      <c r="O20" s="15" t="str">
         <f>IF(_tap_day_all!O15="","",ROUND(_tap_day_all!O15*100,4))</f>
         <v/>
       </c>
-      <c r="P20" s="24" t="str">
+      <c r="P20" s="15" t="str">
         <f>IF(_tap_day_all!P15="","",ROUND(_tap_day_all!P15*100,4))</f>
         <v/>
       </c>
-      <c r="Q20" s="24" t="str">
+      <c r="Q20" s="15" t="str">
         <f>IF(_tap_day_all!Q15="","",ROUND(_tap_day_all!Q15*100,4))</f>
         <v/>
       </c>
-      <c r="R20" s="24" t="str">
+      <c r="R20" s="15" t="str">
         <f>IF(_tap_day_all!R15="","",ROUND(_tap_day_all!R15*100,4))</f>
         <v/>
       </c>
-      <c r="S20" s="24" t="str">
+      <c r="S20" s="15" t="str">
         <f>IF(_tap_day_all!S15="","",ROUND(_tap_day_all!S15*100,4))</f>
         <v/>
       </c>
-      <c r="T20" s="24" t="str">
+      <c r="T20" s="15" t="str">
         <f>IF(_tap_day_all!T15="","",ROUND(_tap_day_all!T15*100,4))</f>
         <v/>
       </c>
-      <c r="U20" s="24" t="str">
+      <c r="U20" s="15" t="str">
         <f>IF(_tap_day_all!U15="","",ROUND(_tap_day_all!U15*100,4))</f>
         <v/>
       </c>
-      <c r="V20" s="24" t="str">
+      <c r="V20" s="15" t="str">
         <f>IF(_tap_day_all!V15="","",ROUND(_tap_day_all!V15*100,4))</f>
         <v/>
       </c>
-      <c r="W20" s="24" t="str">
+      <c r="W20" s="15" t="str">
         <f>IF(_tap_day_all!W15="","",ROUND(_tap_day_all!W15*100,4))</f>
         <v/>
       </c>
-      <c r="X20" s="24" t="str">
+      <c r="X20" s="15" t="str">
         <f>IF(_tap_day_all!X15="","",ROUND(_tap_day_all!X15*100,4))</f>
         <v/>
       </c>
-      <c r="Y20" s="24" t="str">
+      <c r="Y20" s="15" t="str">
         <f>IF(_tap_day_all!Y15="","",ROUND(_tap_day_all!Y15*100,4))</f>
         <v/>
       </c>
-      <c r="Z20" s="24" t="str">
+      <c r="Z20" s="15" t="str">
         <f>IF(_tap_day_all!Z15="","",ROUND(_tap_day_all!Z15,4))</f>
         <v/>
       </c>
-      <c r="AA20" s="42" t="str">
+      <c r="AA20" s="22" t="str">
         <f>IF(_tap_day_all!AA15="","",ROUND(_tap_day_all!AA15,4))</f>
         <v/>
       </c>
-      <c r="AB20" s="42" t="str">
+      <c r="AB20" s="22" t="str">
         <f>IF(_tap_day_all!AB15="","",ROUND(_tap_day_all!AB15,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="str">
+      <c r="AC20" s="22" t="str">
+        <f>IF(_tap_day_all!AC15="","",ROUND(_tap_day_all!AC15,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
         <f>IF(_tap_day_all!A16="","",_tap_day_all!A16)</f>
         <v/>
       </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="15" t="str">
         <f>IF(_tap_day_all!B16="","",_tap_day_all!B16)</f>
         <v/>
       </c>
-      <c r="C21" s="24" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_tap_day_all!C16="","",_tap_day_all!C16)</f>
         <v/>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="18" t="str">
         <f>IF(_tap_day_all!D16="","",_tap_day_all!D16)</f>
         <v/>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="18" t="str">
         <f>IF(_tap_day_all!E16="","",_tap_day_all!E16)</f>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="F21" s="15" t="str">
         <f>IF(_tap_day_all!F16="","",_tap_day_all!F16)</f>
         <v/>
       </c>
-      <c r="G21" s="24" t="str">
+      <c r="G21" s="15" t="str">
         <f>IF(_tap_day_all!G16="","",_tap_day_all!G16)</f>
         <v/>
       </c>
-      <c r="H21" s="32" t="str">
+      <c r="H21" s="20" t="str">
         <f>IF(_tap_day_all!H16="","",_tap_day_all!H16)</f>
         <v/>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="20" t="str">
         <f>IF(_tap_day_all!I16="","",_tap_day_all!I16)</f>
         <v/>
       </c>
-      <c r="J21" s="32" t="str">
+      <c r="J21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="38" t="str">
+      <c r="K21" s="21" t="str">
         <f>IF(_tap_day_all!K16="","",_tap_day_all!K16)</f>
         <v/>
       </c>
-      <c r="L21" s="32" t="str">
+      <c r="L21" s="20" t="str">
         <f>IF(_tap_day_all!L16="","",_tap_day_all!L16)</f>
         <v/>
       </c>
-      <c r="M21" s="24" t="str">
+      <c r="M21" s="15" t="str">
         <f>IF(_tap_day_all!M16="","",ROUND(_tap_day_all!M16*100,4))</f>
         <v/>
       </c>
-      <c r="N21" s="24" t="str">
+      <c r="N21" s="15" t="str">
         <f>IF(_tap_day_all!N16="","",ROUND(_tap_day_all!N16*100,4))</f>
         <v/>
       </c>
-      <c r="O21" s="24" t="str">
+      <c r="O21" s="15" t="str">
         <f>IF(_tap_day_all!O16="","",ROUND(_tap_day_all!O16*100,4))</f>
         <v/>
       </c>
-      <c r="P21" s="24" t="str">
+      <c r="P21" s="15" t="str">
         <f>IF(_tap_day_all!P16="","",ROUND(_tap_day_all!P16*100,4))</f>
         <v/>
       </c>
-      <c r="Q21" s="24" t="str">
+      <c r="Q21" s="15" t="str">
         <f>IF(_tap_day_all!Q16="","",ROUND(_tap_day_all!Q16*100,4))</f>
         <v/>
       </c>
-      <c r="R21" s="24" t="str">
+      <c r="R21" s="15" t="str">
         <f>IF(_tap_day_all!R16="","",ROUND(_tap_day_all!R16*100,4))</f>
         <v/>
       </c>
-      <c r="S21" s="24" t="str">
+      <c r="S21" s="15" t="str">
         <f>IF(_tap_day_all!S16="","",ROUND(_tap_day_all!S16*100,4))</f>
         <v/>
       </c>
-      <c r="T21" s="24" t="str">
+      <c r="T21" s="15" t="str">
         <f>IF(_tap_day_all!T16="","",ROUND(_tap_day_all!T16*100,4))</f>
         <v/>
       </c>
-      <c r="U21" s="24" t="str">
+      <c r="U21" s="15" t="str">
         <f>IF(_tap_day_all!U16="","",ROUND(_tap_day_all!U16*100,4))</f>
         <v/>
       </c>
-      <c r="V21" s="24" t="str">
+      <c r="V21" s="15" t="str">
         <f>IF(_tap_day_all!V16="","",ROUND(_tap_day_all!V16*100,4))</f>
         <v/>
       </c>
-      <c r="W21" s="24" t="str">
+      <c r="W21" s="15" t="str">
         <f>IF(_tap_day_all!W16="","",ROUND(_tap_day_all!W16*100,4))</f>
         <v/>
       </c>
-      <c r="X21" s="24" t="str">
+      <c r="X21" s="15" t="str">
         <f>IF(_tap_day_all!X16="","",ROUND(_tap_day_all!X16*100,4))</f>
         <v/>
       </c>
-      <c r="Y21" s="24" t="str">
+      <c r="Y21" s="15" t="str">
         <f>IF(_tap_day_all!Y16="","",ROUND(_tap_day_all!Y16*100,4))</f>
         <v/>
       </c>
-      <c r="Z21" s="24" t="str">
+      <c r="Z21" s="15" t="str">
         <f>IF(_tap_day_all!Z16="","",ROUND(_tap_day_all!Z16,4))</f>
         <v/>
       </c>
-      <c r="AA21" s="42" t="str">
+      <c r="AA21" s="22" t="str">
         <f>IF(_tap_day_all!AA16="","",ROUND(_tap_day_all!AA16,4))</f>
         <v/>
       </c>
-      <c r="AB21" s="42" t="str">
+      <c r="AB21" s="22" t="str">
         <f>IF(_tap_day_all!AB16="","",ROUND(_tap_day_all!AB16,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="str">
+      <c r="AC21" s="22" t="str">
+        <f>IF(_tap_day_all!AC16="","",ROUND(_tap_day_all!AC16,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="str">
         <f>IF(_tap_day_all!A17="","",_tap_day_all!A17)</f>
         <v/>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="15" t="str">
         <f>IF(_tap_day_all!B17="","",_tap_day_all!B17)</f>
         <v/>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="15" t="str">
         <f>IF(_tap_day_all!C17="","",_tap_day_all!C17)</f>
         <v/>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="18" t="str">
         <f>IF(_tap_day_all!D17="","",_tap_day_all!D17)</f>
         <v/>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="18" t="str">
         <f>IF(_tap_day_all!E17="","",_tap_day_all!E17)</f>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="F22" s="15" t="str">
         <f>IF(_tap_day_all!F17="","",_tap_day_all!F17)</f>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
+      <c r="G22" s="15" t="str">
         <f>IF(_tap_day_all!G17="","",_tap_day_all!G17)</f>
         <v/>
       </c>
-      <c r="H22" s="32" t="str">
+      <c r="H22" s="20" t="str">
         <f>IF(_tap_day_all!H17="","",_tap_day_all!H17)</f>
         <v/>
       </c>
-      <c r="I22" s="32" t="str">
+      <c r="I22" s="20" t="str">
         <f>IF(_tap_day_all!I17="","",_tap_day_all!I17)</f>
         <v/>
       </c>
-      <c r="J22" s="32" t="str">
+      <c r="J22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="38" t="str">
+      <c r="K22" s="21" t="str">
         <f>IF(_tap_day_all!K17="","",_tap_day_all!K17)</f>
         <v/>
       </c>
-      <c r="L22" s="32" t="str">
+      <c r="L22" s="20" t="str">
         <f>IF(_tap_day_all!L17="","",_tap_day_all!L17)</f>
         <v/>
       </c>
-      <c r="M22" s="24" t="str">
+      <c r="M22" s="15" t="str">
         <f>IF(_tap_day_all!M17="","",ROUND(_tap_day_all!M17*100,4))</f>
         <v/>
       </c>
-      <c r="N22" s="24" t="str">
+      <c r="N22" s="15" t="str">
         <f>IF(_tap_day_all!N17="","",ROUND(_tap_day_all!N17*100,4))</f>
         <v/>
       </c>
-      <c r="O22" s="24" t="str">
+      <c r="O22" s="15" t="str">
         <f>IF(_tap_day_all!O17="","",ROUND(_tap_day_all!O17*100,4))</f>
         <v/>
       </c>
-      <c r="P22" s="24" t="str">
+      <c r="P22" s="15" t="str">
         <f>IF(_tap_day_all!P17="","",ROUND(_tap_day_all!P17*100,4))</f>
         <v/>
       </c>
-      <c r="Q22" s="24" t="str">
+      <c r="Q22" s="15" t="str">
         <f>IF(_tap_day_all!Q17="","",ROUND(_tap_day_all!Q17*100,4))</f>
         <v/>
       </c>
-      <c r="R22" s="24" t="str">
+      <c r="R22" s="15" t="str">
         <f>IF(_tap_day_all!R17="","",ROUND(_tap_day_all!R17*100,4))</f>
         <v/>
       </c>
-      <c r="S22" s="24" t="str">
+      <c r="S22" s="15" t="str">
         <f>IF(_tap_day_all!S17="","",ROUND(_tap_day_all!S17*100,4))</f>
         <v/>
       </c>
-      <c r="T22" s="24" t="str">
+      <c r="T22" s="15" t="str">
         <f>IF(_tap_day_all!T17="","",ROUND(_tap_day_all!T17*100,4))</f>
         <v/>
       </c>
-      <c r="U22" s="24" t="str">
+      <c r="U22" s="15" t="str">
         <f>IF(_tap_day_all!U17="","",ROUND(_tap_day_all!U17*100,4))</f>
         <v/>
       </c>
-      <c r="V22" s="24" t="str">
+      <c r="V22" s="15" t="str">
         <f>IF(_tap_day_all!V17="","",ROUND(_tap_day_all!V17*100,4))</f>
         <v/>
       </c>
-      <c r="W22" s="24" t="str">
+      <c r="W22" s="15" t="str">
         <f>IF(_tap_day_all!W17="","",ROUND(_tap_day_all!W17*100,4))</f>
         <v/>
       </c>
-      <c r="X22" s="24" t="str">
+      <c r="X22" s="15" t="str">
         <f>IF(_tap_day_all!X17="","",ROUND(_tap_day_all!X17*100,4))</f>
         <v/>
       </c>
-      <c r="Y22" s="24" t="str">
+      <c r="Y22" s="15" t="str">
         <f>IF(_tap_day_all!Y17="","",ROUND(_tap_day_all!Y17*100,4))</f>
         <v/>
       </c>
-      <c r="Z22" s="24" t="str">
+      <c r="Z22" s="15" t="str">
         <f>IF(_tap_day_all!Z17="","",ROUND(_tap_day_all!Z17,4))</f>
         <v/>
       </c>
-      <c r="AA22" s="42" t="str">
+      <c r="AA22" s="22" t="str">
         <f>IF(_tap_day_all!AA17="","",ROUND(_tap_day_all!AA17,4))</f>
         <v/>
       </c>
-      <c r="AB22" s="42" t="str">
+      <c r="AB22" s="22" t="str">
         <f>IF(_tap_day_all!AB17="","",ROUND(_tap_day_all!AB17,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="str">
+      <c r="AC22" s="22" t="str">
+        <f>IF(_tap_day_all!AC17="","",ROUND(_tap_day_all!AC17,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="str">
         <f>IF(_tap_day_all!A18="","",_tap_day_all!A18)</f>
         <v/>
       </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="15" t="str">
         <f>IF(_tap_day_all!B18="","",_tap_day_all!B18)</f>
         <v/>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="15" t="str">
         <f>IF(_tap_day_all!C18="","",_tap_day_all!C18)</f>
         <v/>
       </c>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="18" t="str">
         <f>IF(_tap_day_all!D18="","",_tap_day_all!D18)</f>
         <v/>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="18" t="str">
         <f>IF(_tap_day_all!E18="","",_tap_day_all!E18)</f>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="F23" s="15" t="str">
         <f>IF(_tap_day_all!F18="","",_tap_day_all!F18)</f>
         <v/>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="15" t="str">
         <f>IF(_tap_day_all!G18="","",_tap_day_all!G18)</f>
         <v/>
       </c>
-      <c r="H23" s="32" t="str">
+      <c r="H23" s="20" t="str">
         <f>IF(_tap_day_all!H18="","",_tap_day_all!H18)</f>
         <v/>
       </c>
-      <c r="I23" s="32" t="str">
+      <c r="I23" s="20" t="str">
         <f>IF(_tap_day_all!I18="","",_tap_day_all!I18)</f>
         <v/>
       </c>
-      <c r="J23" s="32" t="str">
+      <c r="J23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="38" t="str">
+      <c r="K23" s="21" t="str">
         <f>IF(_tap_day_all!K18="","",_tap_day_all!K18)</f>
         <v/>
       </c>
-      <c r="L23" s="32" t="str">
+      <c r="L23" s="20" t="str">
         <f>IF(_tap_day_all!L18="","",_tap_day_all!L18)</f>
         <v/>
       </c>
-      <c r="M23" s="24" t="str">
+      <c r="M23" s="15" t="str">
         <f>IF(_tap_day_all!M18="","",ROUND(_tap_day_all!M18*100,4))</f>
         <v/>
       </c>
-      <c r="N23" s="24" t="str">
+      <c r="N23" s="15" t="str">
         <f>IF(_tap_day_all!N18="","",ROUND(_tap_day_all!N18*100,4))</f>
         <v/>
       </c>
-      <c r="O23" s="24" t="str">
+      <c r="O23" s="15" t="str">
         <f>IF(_tap_day_all!O18="","",ROUND(_tap_day_all!O18*100,4))</f>
         <v/>
       </c>
-      <c r="P23" s="24" t="str">
+      <c r="P23" s="15" t="str">
         <f>IF(_tap_day_all!P18="","",ROUND(_tap_day_all!P18*100,4))</f>
         <v/>
       </c>
-      <c r="Q23" s="24" t="str">
+      <c r="Q23" s="15" t="str">
         <f>IF(_tap_day_all!Q18="","",ROUND(_tap_day_all!Q18*100,4))</f>
         <v/>
       </c>
-      <c r="R23" s="24" t="str">
+      <c r="R23" s="15" t="str">
         <f>IF(_tap_day_all!R18="","",ROUND(_tap_day_all!R18*100,4))</f>
         <v/>
       </c>
-      <c r="S23" s="24" t="str">
+      <c r="S23" s="15" t="str">
         <f>IF(_tap_day_all!S18="","",ROUND(_tap_day_all!S18*100,4))</f>
         <v/>
       </c>
-      <c r="T23" s="24" t="str">
+      <c r="T23" s="15" t="str">
         <f>IF(_tap_day_all!T18="","",ROUND(_tap_day_all!T18*100,4))</f>
         <v/>
       </c>
-      <c r="U23" s="24" t="str">
+      <c r="U23" s="15" t="str">
         <f>IF(_tap_day_all!U18="","",ROUND(_tap_day_all!U18*100,4))</f>
         <v/>
       </c>
-      <c r="V23" s="24" t="str">
+      <c r="V23" s="15" t="str">
         <f>IF(_tap_day_all!V18="","",ROUND(_tap_day_all!V18*100,4))</f>
         <v/>
       </c>
-      <c r="W23" s="24" t="str">
+      <c r="W23" s="15" t="str">
         <f>IF(_tap_day_all!W18="","",ROUND(_tap_day_all!W18*100,4))</f>
         <v/>
       </c>
-      <c r="X23" s="24" t="str">
+      <c r="X23" s="15" t="str">
         <f>IF(_tap_day_all!X18="","",ROUND(_tap_day_all!X18*100,4))</f>
         <v/>
       </c>
-      <c r="Y23" s="24" t="str">
+      <c r="Y23" s="15" t="str">
         <f>IF(_tap_day_all!Y18="","",ROUND(_tap_day_all!Y18*100,4))</f>
         <v/>
       </c>
-      <c r="Z23" s="24" t="str">
+      <c r="Z23" s="15" t="str">
         <f>IF(_tap_day_all!Z18="","",ROUND(_tap_day_all!Z18,4))</f>
         <v/>
       </c>
-      <c r="AA23" s="42" t="str">
+      <c r="AA23" s="22" t="str">
         <f>IF(_tap_day_all!AA18="","",ROUND(_tap_day_all!AA18,4))</f>
         <v/>
       </c>
-      <c r="AB23" s="42" t="str">
+      <c r="AB23" s="22" t="str">
         <f>IF(_tap_day_all!AB18="","",ROUND(_tap_day_all!AB18,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="str">
+      <c r="AC23" s="22" t="str">
+        <f>IF(_tap_day_all!AC18="","",ROUND(_tap_day_all!AC18,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="str">
         <f>IF(_tap_day_all!A19="","",_tap_day_all!A19)</f>
         <v/>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="15" t="str">
         <f>IF(_tap_day_all!B19="","",_tap_day_all!B19)</f>
         <v/>
       </c>
-      <c r="C24" s="24" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(_tap_day_all!C19="","",_tap_day_all!C19)</f>
         <v/>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="D24" s="18" t="str">
         <f>IF(_tap_day_all!D19="","",_tap_day_all!D19)</f>
         <v/>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E24" s="18" t="str">
         <f>IF(_tap_day_all!E19="","",_tap_day_all!E19)</f>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="F24" s="15" t="str">
         <f>IF(_tap_day_all!F19="","",_tap_day_all!F19)</f>
         <v/>
       </c>
-      <c r="G24" s="24" t="str">
+      <c r="G24" s="15" t="str">
         <f>IF(_tap_day_all!G19="","",_tap_day_all!G19)</f>
         <v/>
       </c>
-      <c r="H24" s="32" t="str">
+      <c r="H24" s="20" t="str">
         <f>IF(_tap_day_all!H19="","",_tap_day_all!H19)</f>
         <v/>
       </c>
-      <c r="I24" s="32" t="str">
+      <c r="I24" s="20" t="str">
         <f>IF(_tap_day_all!I19="","",_tap_day_all!I19)</f>
         <v/>
       </c>
-      <c r="J24" s="32" t="str">
+      <c r="J24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="38" t="str">
+      <c r="K24" s="21" t="str">
         <f>IF(_tap_day_all!K19="","",_tap_day_all!K19)</f>
         <v/>
       </c>
-      <c r="L24" s="32" t="str">
+      <c r="L24" s="20" t="str">
         <f>IF(_tap_day_all!L19="","",_tap_day_all!L19)</f>
         <v/>
       </c>
-      <c r="M24" s="24" t="str">
+      <c r="M24" s="15" t="str">
         <f>IF(_tap_day_all!M19="","",ROUND(_tap_day_all!M19*100,4))</f>
         <v/>
       </c>
-      <c r="N24" s="24" t="str">
+      <c r="N24" s="15" t="str">
         <f>IF(_tap_day_all!N19="","",ROUND(_tap_day_all!N19*100,4))</f>
         <v/>
       </c>
-      <c r="O24" s="24" t="str">
+      <c r="O24" s="15" t="str">
         <f>IF(_tap_day_all!O19="","",ROUND(_tap_day_all!O19*100,4))</f>
         <v/>
       </c>
-      <c r="P24" s="24" t="str">
+      <c r="P24" s="15" t="str">
         <f>IF(_tap_day_all!P19="","",ROUND(_tap_day_all!P19*100,4))</f>
         <v/>
       </c>
-      <c r="Q24" s="24" t="str">
+      <c r="Q24" s="15" t="str">
         <f>IF(_tap_day_all!Q19="","",ROUND(_tap_day_all!Q19*100,4))</f>
         <v/>
       </c>
-      <c r="R24" s="24" t="str">
+      <c r="R24" s="15" t="str">
         <f>IF(_tap_day_all!R19="","",ROUND(_tap_day_all!R19*100,4))</f>
         <v/>
       </c>
-      <c r="S24" s="24" t="str">
+      <c r="S24" s="15" t="str">
         <f>IF(_tap_day_all!S19="","",ROUND(_tap_day_all!S19*100,4))</f>
         <v/>
       </c>
-      <c r="T24" s="24" t="str">
+      <c r="T24" s="15" t="str">
         <f>IF(_tap_day_all!T19="","",ROUND(_tap_day_all!T19*100,4))</f>
         <v/>
       </c>
-      <c r="U24" s="24" t="str">
+      <c r="U24" s="15" t="str">
         <f>IF(_tap_day_all!U19="","",ROUND(_tap_day_all!U19*100,4))</f>
         <v/>
       </c>
-      <c r="V24" s="24" t="str">
+      <c r="V24" s="15" t="str">
         <f>IF(_tap_day_all!V19="","",ROUND(_tap_day_all!V19*100,4))</f>
         <v/>
       </c>
-      <c r="W24" s="24" t="str">
+      <c r="W24" s="15" t="str">
         <f>IF(_tap_day_all!W19="","",ROUND(_tap_day_all!W19*100,4))</f>
         <v/>
       </c>
-      <c r="X24" s="24" t="str">
+      <c r="X24" s="15" t="str">
         <f>IF(_tap_day_all!X19="","",ROUND(_tap_day_all!X19*100,4))</f>
         <v/>
       </c>
-      <c r="Y24" s="24" t="str">
+      <c r="Y24" s="15" t="str">
         <f>IF(_tap_day_all!Y19="","",ROUND(_tap_day_all!Y19*100,4))</f>
         <v/>
       </c>
-      <c r="Z24" s="24" t="str">
+      <c r="Z24" s="15" t="str">
         <f>IF(_tap_day_all!Z19="","",ROUND(_tap_day_all!Z19,4))</f>
         <v/>
       </c>
-      <c r="AA24" s="42" t="str">
+      <c r="AA24" s="22" t="str">
         <f>IF(_tap_day_all!AA19="","",ROUND(_tap_day_all!AA19,4))</f>
         <v/>
       </c>
-      <c r="AB24" s="42" t="str">
+      <c r="AB24" s="22" t="str">
         <f>IF(_tap_day_all!AB19="","",ROUND(_tap_day_all!AB19,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="str">
+      <c r="AC24" s="22" t="str">
+        <f>IF(_tap_day_all!AC19="","",ROUND(_tap_day_all!AC19,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="str">
         <f>IF(_tap_day_all!A20="","",_tap_day_all!A20)</f>
         <v/>
       </c>
-      <c r="B25" s="24" t="str">
+      <c r="B25" s="15" t="str">
         <f>IF(_tap_day_all!B20="","",_tap_day_all!B20)</f>
         <v/>
       </c>
-      <c r="C25" s="24" t="str">
+      <c r="C25" s="15" t="str">
         <f>IF(_tap_day_all!C20="","",_tap_day_all!C20)</f>
         <v/>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="18" t="str">
         <f>IF(_tap_day_all!D20="","",_tap_day_all!D20)</f>
         <v/>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="18" t="str">
         <f>IF(_tap_day_all!E20="","",_tap_day_all!E20)</f>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="F25" s="15" t="str">
         <f>IF(_tap_day_all!F20="","",_tap_day_all!F20)</f>
         <v/>
       </c>
-      <c r="G25" s="24" t="str">
+      <c r="G25" s="15" t="str">
         <f>IF(_tap_day_all!G20="","",_tap_day_all!G20)</f>
         <v/>
       </c>
-      <c r="H25" s="32" t="str">
+      <c r="H25" s="20" t="str">
         <f>IF(_tap_day_all!H20="","",_tap_day_all!H20)</f>
         <v/>
       </c>
-      <c r="I25" s="32" t="str">
+      <c r="I25" s="20" t="str">
         <f>IF(_tap_day_all!I20="","",_tap_day_all!I20)</f>
         <v/>
       </c>
-      <c r="J25" s="32" t="str">
+      <c r="J25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="38" t="str">
+      <c r="K25" s="21" t="str">
         <f>IF(_tap_day_all!K20="","",_tap_day_all!K20)</f>
         <v/>
       </c>
-      <c r="L25" s="32" t="str">
+      <c r="L25" s="20" t="str">
         <f>IF(_tap_day_all!L20="","",_tap_day_all!L20)</f>
         <v/>
       </c>
-      <c r="M25" s="24" t="str">
+      <c r="M25" s="15" t="str">
         <f>IF(_tap_day_all!M20="","",ROUND(_tap_day_all!M20*100,4))</f>
         <v/>
       </c>
-      <c r="N25" s="24" t="str">
+      <c r="N25" s="15" t="str">
         <f>IF(_tap_day_all!N20="","",ROUND(_tap_day_all!N20*100,4))</f>
         <v/>
       </c>
-      <c r="O25" s="24" t="str">
+      <c r="O25" s="15" t="str">
         <f>IF(_tap_day_all!O20="","",ROUND(_tap_day_all!O20*100,4))</f>
         <v/>
       </c>
-      <c r="P25" s="24" t="str">
+      <c r="P25" s="15" t="str">
         <f>IF(_tap_day_all!P20="","",ROUND(_tap_day_all!P20*100,4))</f>
         <v/>
       </c>
-      <c r="Q25" s="24" t="str">
+      <c r="Q25" s="15" t="str">
         <f>IF(_tap_day_all!Q20="","",ROUND(_tap_day_all!Q20*100,4))</f>
         <v/>
       </c>
-      <c r="R25" s="24" t="str">
+      <c r="R25" s="15" t="str">
         <f>IF(_tap_day_all!R20="","",ROUND(_tap_day_all!R20*100,4))</f>
         <v/>
       </c>
-      <c r="S25" s="24" t="str">
+      <c r="S25" s="15" t="str">
         <f>IF(_tap_day_all!S20="","",ROUND(_tap_day_all!S20*100,4))</f>
         <v/>
       </c>
-      <c r="T25" s="24" t="str">
+      <c r="T25" s="15" t="str">
         <f>IF(_tap_day_all!T20="","",ROUND(_tap_day_all!T20*100,4))</f>
         <v/>
       </c>
-      <c r="U25" s="24" t="str">
+      <c r="U25" s="15" t="str">
         <f>IF(_tap_day_all!U20="","",ROUND(_tap_day_all!U20*100,4))</f>
         <v/>
       </c>
-      <c r="V25" s="24" t="str">
+      <c r="V25" s="15" t="str">
         <f>IF(_tap_day_all!V20="","",ROUND(_tap_day_all!V20*100,4))</f>
         <v/>
       </c>
-      <c r="W25" s="24" t="str">
+      <c r="W25" s="15" t="str">
         <f>IF(_tap_day_all!W20="","",ROUND(_tap_day_all!W20*100,4))</f>
         <v/>
       </c>
-      <c r="X25" s="24" t="str">
+      <c r="X25" s="15" t="str">
         <f>IF(_tap_day_all!X20="","",ROUND(_tap_day_all!X20*100,4))</f>
         <v/>
       </c>
-      <c r="Y25" s="24" t="str">
+      <c r="Y25" s="15" t="str">
         <f>IF(_tap_day_all!Y20="","",ROUND(_tap_day_all!Y20*100,4))</f>
         <v/>
       </c>
-      <c r="Z25" s="24" t="str">
+      <c r="Z25" s="15" t="str">
         <f>IF(_tap_day_all!Z20="","",ROUND(_tap_day_all!Z20,4))</f>
         <v/>
       </c>
-      <c r="AA25" s="42" t="str">
+      <c r="AA25" s="22" t="str">
         <f>IF(_tap_day_all!AA20="","",ROUND(_tap_day_all!AA20,4))</f>
         <v/>
       </c>
-      <c r="AB25" s="42" t="str">
+      <c r="AB25" s="22" t="str">
         <f>IF(_tap_day_all!AB20="","",ROUND(_tap_day_all!AB20,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="str">
+      <c r="AC25" s="22" t="str">
+        <f>IF(_tap_day_all!AC20="","",ROUND(_tap_day_all!AC20,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="str">
         <f>IF(_tap_day_all!A21="","",_tap_day_all!A21)</f>
         <v/>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="15" t="str">
         <f>IF(_tap_day_all!B21="","",_tap_day_all!B21)</f>
         <v/>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="15" t="str">
         <f>IF(_tap_day_all!C21="","",_tap_day_all!C21)</f>
         <v/>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="18" t="str">
         <f>IF(_tap_day_all!D21="","",_tap_day_all!D21)</f>
         <v/>
       </c>
-      <c r="E26" s="30" t="str">
+      <c r="E26" s="18" t="str">
         <f>IF(_tap_day_all!E21="","",_tap_day_all!E21)</f>
         <v/>
       </c>
-      <c r="F26" s="26" t="str">
+      <c r="F26" s="15" t="str">
         <f>IF(_tap_day_all!F21="","",_tap_day_all!F21)</f>
         <v/>
       </c>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="15" t="str">
         <f>IF(_tap_day_all!G21="","",_tap_day_all!G21)</f>
         <v/>
       </c>
-      <c r="H26" s="33" t="str">
+      <c r="H26" s="20" t="str">
         <f>IF(_tap_day_all!H21="","",_tap_day_all!H21)</f>
         <v/>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="20" t="str">
         <f>IF(_tap_day_all!I21="","",_tap_day_all!I21)</f>
         <v/>
       </c>
-      <c r="J26" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K26" s="39" t="str">
+      <c r="J26" s="20" t="str">
+        <f t="shared" ref="J26:J49" si="1">IFERROR(I26-H26,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="21" t="str">
         <f>IF(_tap_day_all!K21="","",_tap_day_all!K21)</f>
         <v/>
       </c>
-      <c r="L26" s="33" t="str">
+      <c r="L26" s="20" t="str">
         <f>IF(_tap_day_all!L21="","",_tap_day_all!L21)</f>
         <v/>
       </c>
-      <c r="M26" s="24" t="str">
+      <c r="M26" s="15" t="str">
         <f>IF(_tap_day_all!M21="","",ROUND(_tap_day_all!M21*100,4))</f>
         <v/>
       </c>
-      <c r="N26" s="24" t="str">
+      <c r="N26" s="15" t="str">
         <f>IF(_tap_day_all!N21="","",ROUND(_tap_day_all!N21*100,4))</f>
         <v/>
       </c>
-      <c r="O26" s="24" t="str">
+      <c r="O26" s="15" t="str">
         <f>IF(_tap_day_all!O21="","",ROUND(_tap_day_all!O21*100,4))</f>
         <v/>
       </c>
-      <c r="P26" s="24" t="str">
+      <c r="P26" s="15" t="str">
         <f>IF(_tap_day_all!P21="","",ROUND(_tap_day_all!P21*100,4))</f>
         <v/>
       </c>
-      <c r="Q26" s="24" t="str">
+      <c r="Q26" s="15" t="str">
         <f>IF(_tap_day_all!Q21="","",ROUND(_tap_day_all!Q21*100,4))</f>
         <v/>
       </c>
-      <c r="R26" s="24" t="str">
+      <c r="R26" s="15" t="str">
         <f>IF(_tap_day_all!R21="","",ROUND(_tap_day_all!R21*100,4))</f>
         <v/>
       </c>
-      <c r="S26" s="24" t="str">
+      <c r="S26" s="15" t="str">
         <f>IF(_tap_day_all!S21="","",ROUND(_tap_day_all!S21*100,4))</f>
         <v/>
       </c>
-      <c r="T26" s="24" t="str">
+      <c r="T26" s="15" t="str">
         <f>IF(_tap_day_all!T21="","",ROUND(_tap_day_all!T21*100,4))</f>
         <v/>
       </c>
-      <c r="U26" s="24" t="str">
+      <c r="U26" s="15" t="str">
         <f>IF(_tap_day_all!U21="","",ROUND(_tap_day_all!U21*100,4))</f>
         <v/>
       </c>
-      <c r="V26" s="24" t="str">
+      <c r="V26" s="15" t="str">
         <f>IF(_tap_day_all!V21="","",ROUND(_tap_day_all!V21*100,4))</f>
         <v/>
       </c>
-      <c r="W26" s="24" t="str">
+      <c r="W26" s="15" t="str">
         <f>IF(_tap_day_all!W21="","",ROUND(_tap_day_all!W21*100,4))</f>
         <v/>
       </c>
-      <c r="X26" s="24" t="str">
+      <c r="X26" s="15" t="str">
         <f>IF(_tap_day_all!X21="","",ROUND(_tap_day_all!X21*100,4))</f>
         <v/>
       </c>
-      <c r="Y26" s="24" t="str">
+      <c r="Y26" s="15" t="str">
         <f>IF(_tap_day_all!Y21="","",ROUND(_tap_day_all!Y21*100,4))</f>
         <v/>
       </c>
-      <c r="Z26" s="24" t="str">
+      <c r="Z26" s="15" t="str">
         <f>IF(_tap_day_all!Z21="","",ROUND(_tap_day_all!Z21,4))</f>
         <v/>
       </c>
-      <c r="AA26" s="42" t="str">
+      <c r="AA26" s="22" t="str">
         <f>IF(_tap_day_all!AA21="","",ROUND(_tap_day_all!AA21,4))</f>
         <v/>
       </c>
-      <c r="AB26" s="42" t="str">
+      <c r="AB26" s="22" t="str">
         <f>IF(_tap_day_all!AB21="","",ROUND(_tap_day_all!AB21,4))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="13">
-        <f t="shared" ref="C27" si="1">IFERROR(SUM(C7:C26),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="13">
-        <f t="shared" ref="F27:AB27" si="2">IFERROR(SUM(F7:F26),"")</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="35">
-        <f>IFERROR(SUM(M7:M26),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="35">
-        <f t="shared" ref="N27:Y27" si="3">IFERROR(SUM(N7:N26),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="62"/>
+      <c r="AC26" s="22" t="str">
+        <f>IF(_tap_day_all!AC21="","",ROUND(_tap_day_all!AC21,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="str">
+        <f>IF(_tap_day_all!A22="","",_tap_day_all!A22)</f>
+        <v/>
+      </c>
+      <c r="B27" s="15" t="str">
+        <f>IF(_tap_day_all!B22="","",_tap_day_all!B22)</f>
+        <v/>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>IF(_tap_day_all!C22="","",_tap_day_all!C22)</f>
+        <v/>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f>IF(_tap_day_all!D22="","",_tap_day_all!D22)</f>
+        <v/>
+      </c>
+      <c r="E27" s="18" t="str">
+        <f>IF(_tap_day_all!E22="","",_tap_day_all!E22)</f>
+        <v/>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f>IF(_tap_day_all!F22="","",_tap_day_all!F22)</f>
+        <v/>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f>IF(_tap_day_all!G22="","",_tap_day_all!G22)</f>
+        <v/>
+      </c>
+      <c r="H27" s="20" t="str">
+        <f>IF(_tap_day_all!H22="","",_tap_day_all!H22)</f>
+        <v/>
+      </c>
+      <c r="I27" s="20" t="str">
+        <f>IF(_tap_day_all!I22="","",_tap_day_all!I22)</f>
+        <v/>
+      </c>
+      <c r="J27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="21" t="str">
+        <f>IF(_tap_day_all!K22="","",_tap_day_all!K22)</f>
+        <v/>
+      </c>
+      <c r="L27" s="20" t="str">
+        <f>IF(_tap_day_all!L22="","",_tap_day_all!L22)</f>
+        <v/>
+      </c>
+      <c r="M27" s="15" t="str">
+        <f>IF(_tap_day_all!M22="","",ROUND(_tap_day_all!M22*100,4))</f>
+        <v/>
+      </c>
+      <c r="N27" s="15" t="str">
+        <f>IF(_tap_day_all!N22="","",ROUND(_tap_day_all!N22*100,4))</f>
+        <v/>
+      </c>
+      <c r="O27" s="15" t="str">
+        <f>IF(_tap_day_all!O22="","",ROUND(_tap_day_all!O22*100,4))</f>
+        <v/>
+      </c>
+      <c r="P27" s="15" t="str">
+        <f>IF(_tap_day_all!P22="","",ROUND(_tap_day_all!P22*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q27" s="15" t="str">
+        <f>IF(_tap_day_all!Q22="","",ROUND(_tap_day_all!Q22*100,4))</f>
+        <v/>
+      </c>
+      <c r="R27" s="15" t="str">
+        <f>IF(_tap_day_all!R22="","",ROUND(_tap_day_all!R22*100,4))</f>
+        <v/>
+      </c>
+      <c r="S27" s="15" t="str">
+        <f>IF(_tap_day_all!S22="","",ROUND(_tap_day_all!S22*100,4))</f>
+        <v/>
+      </c>
+      <c r="T27" s="15" t="str">
+        <f>IF(_tap_day_all!T22="","",ROUND(_tap_day_all!T22*100,4))</f>
+        <v/>
+      </c>
+      <c r="U27" s="15" t="str">
+        <f>IF(_tap_day_all!U22="","",ROUND(_tap_day_all!U22*100,4))</f>
+        <v/>
+      </c>
+      <c r="V27" s="15" t="str">
+        <f>IF(_tap_day_all!V22="","",ROUND(_tap_day_all!V22*100,4))</f>
+        <v/>
+      </c>
+      <c r="W27" s="15" t="str">
+        <f>IF(_tap_day_all!W22="","",ROUND(_tap_day_all!W22*100,4))</f>
+        <v/>
+      </c>
+      <c r="X27" s="15" t="str">
+        <f>IF(_tap_day_all!X22="","",ROUND(_tap_day_all!X22*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y27" s="15" t="str">
+        <f>IF(_tap_day_all!Y22="","",ROUND(_tap_day_all!Y22*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z27" s="15" t="str">
+        <f>IF(_tap_day_all!Z22="","",ROUND(_tap_day_all!Z22,4))</f>
+        <v/>
+      </c>
+      <c r="AA27" s="22" t="str">
+        <f>IF(_tap_day_all!AA22="","",ROUND(_tap_day_all!AA22,4))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="22" t="str">
+        <f>IF(_tap_day_all!AB22="","",ROUND(_tap_day_all!AB22,4))</f>
+        <v/>
+      </c>
+      <c r="AC27" s="22" t="str">
+        <f>IF(_tap_day_all!AC22="","",ROUND(_tap_day_all!AC22,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="str">
+        <f>IF(_tap_day_all!A23="","",_tap_day_all!A23)</f>
+        <v/>
+      </c>
+      <c r="B28" s="15" t="str">
+        <f>IF(_tap_day_all!B23="","",_tap_day_all!B23)</f>
+        <v/>
+      </c>
       <c r="C28" s="15" t="str">
-        <f t="shared" ref="C28:F28" si="4">IFERROR(AVERAGE(C7:C26),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+        <f>IF(_tap_day_all!C23="","",_tap_day_all!C23)</f>
+        <v/>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f>IF(_tap_day_all!D23="","",_tap_day_all!D23)</f>
+        <v/>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f>IF(_tap_day_all!E23="","",_tap_day_all!E23)</f>
+        <v/>
+      </c>
       <c r="F28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(_tap_day_all!F23="","",_tap_day_all!F23)</f>
         <v/>
       </c>
       <c r="G28" s="15" t="str">
-        <f>IFERROR(AVERAGE(G7:G26),"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="15" t="str">
-        <f t="shared" ref="H28:L28" si="5">IFERROR(AVERAGE(H7:H26),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J28" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K28" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L28" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="str">
-        <f>IFERROR(ROUND(AVERAGE(M7:M26),4),"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="37" t="str">
-        <f t="shared" ref="N28:Y28" si="6">IFERROR(ROUND(AVERAGE(N7:N26),4),"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Y28" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z28" s="36" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!Z2:'_tap_day_all'!Z21),2),"")</f>
-        <v/>
-      </c>
-      <c r="AA28" s="36" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AA2:'_tap_day_all'!AA21),2),"")</f>
-        <v/>
-      </c>
-      <c r="AB28" s="36" t="str">
-        <f>IFERROR(ROUND(AVERAGE(_tap_day_all!AB2:'_tap_day_all'!AB21),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="43">
-        <f>SUMIF(C7:C26,1,I7:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-    </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="19">
-        <v>2</v>
-      </c>
-      <c r="D30" s="44">
-        <f>SUMIF(C7:C26,2,I7:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="1"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-    </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="19">
-        <v>3</v>
-      </c>
-      <c r="D31" s="44">
-        <f>SUMIF(C7:C26,3,I7:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="S31" s="1"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-    </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="14">
-        <v>4</v>
-      </c>
-      <c r="D32" s="45">
-        <f>SUMIF(C7:C26,4,I7:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="1"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-    </row>
-    <row r="33" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S34" s="1"/>
+        <f>IF(_tap_day_all!G23="","",_tap_day_all!G23)</f>
+        <v/>
+      </c>
+      <c r="H28" s="20" t="str">
+        <f>IF(_tap_day_all!H23="","",_tap_day_all!H23)</f>
+        <v/>
+      </c>
+      <c r="I28" s="20" t="str">
+        <f>IF(_tap_day_all!I23="","",_tap_day_all!I23)</f>
+        <v/>
+      </c>
+      <c r="J28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="21" t="str">
+        <f>IF(_tap_day_all!K23="","",_tap_day_all!K23)</f>
+        <v/>
+      </c>
+      <c r="L28" s="20" t="str">
+        <f>IF(_tap_day_all!L23="","",_tap_day_all!L23)</f>
+        <v/>
+      </c>
+      <c r="M28" s="15" t="str">
+        <f>IF(_tap_day_all!M23="","",ROUND(_tap_day_all!M23*100,4))</f>
+        <v/>
+      </c>
+      <c r="N28" s="15" t="str">
+        <f>IF(_tap_day_all!N23="","",ROUND(_tap_day_all!N23*100,4))</f>
+        <v/>
+      </c>
+      <c r="O28" s="15" t="str">
+        <f>IF(_tap_day_all!O23="","",ROUND(_tap_day_all!O23*100,4))</f>
+        <v/>
+      </c>
+      <c r="P28" s="15" t="str">
+        <f>IF(_tap_day_all!P23="","",ROUND(_tap_day_all!P23*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q28" s="15" t="str">
+        <f>IF(_tap_day_all!Q23="","",ROUND(_tap_day_all!Q23*100,4))</f>
+        <v/>
+      </c>
+      <c r="R28" s="15" t="str">
+        <f>IF(_tap_day_all!R23="","",ROUND(_tap_day_all!R23*100,4))</f>
+        <v/>
+      </c>
+      <c r="S28" s="15" t="str">
+        <f>IF(_tap_day_all!S23="","",ROUND(_tap_day_all!S23*100,4))</f>
+        <v/>
+      </c>
+      <c r="T28" s="15" t="str">
+        <f>IF(_tap_day_all!T23="","",ROUND(_tap_day_all!T23*100,4))</f>
+        <v/>
+      </c>
+      <c r="U28" s="15" t="str">
+        <f>IF(_tap_day_all!U23="","",ROUND(_tap_day_all!U23*100,4))</f>
+        <v/>
+      </c>
+      <c r="V28" s="15" t="str">
+        <f>IF(_tap_day_all!V23="","",ROUND(_tap_day_all!V23*100,4))</f>
+        <v/>
+      </c>
+      <c r="W28" s="15" t="str">
+        <f>IF(_tap_day_all!W23="","",ROUND(_tap_day_all!W23*100,4))</f>
+        <v/>
+      </c>
+      <c r="X28" s="15" t="str">
+        <f>IF(_tap_day_all!X23="","",ROUND(_tap_day_all!X23*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y28" s="15" t="str">
+        <f>IF(_tap_day_all!Y23="","",ROUND(_tap_day_all!Y23*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z28" s="15" t="str">
+        <f>IF(_tap_day_all!Z23="","",ROUND(_tap_day_all!Z23,4))</f>
+        <v/>
+      </c>
+      <c r="AA28" s="22" t="str">
+        <f>IF(_tap_day_all!AA23="","",ROUND(_tap_day_all!AA23,4))</f>
+        <v/>
+      </c>
+      <c r="AB28" s="22" t="str">
+        <f>IF(_tap_day_all!AB23="","",ROUND(_tap_day_all!AB23,4))</f>
+        <v/>
+      </c>
+      <c r="AC28" s="22" t="str">
+        <f>IF(_tap_day_all!AC23="","",ROUND(_tap_day_all!AC23,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="str">
+        <f>IF(_tap_day_all!A24="","",_tap_day_all!A24)</f>
+        <v/>
+      </c>
+      <c r="B29" s="15" t="str">
+        <f>IF(_tap_day_all!B24="","",_tap_day_all!B24)</f>
+        <v/>
+      </c>
+      <c r="C29" s="15" t="str">
+        <f>IF(_tap_day_all!C24="","",_tap_day_all!C24)</f>
+        <v/>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f>IF(_tap_day_all!D24="","",_tap_day_all!D24)</f>
+        <v/>
+      </c>
+      <c r="E29" s="18" t="str">
+        <f>IF(_tap_day_all!E24="","",_tap_day_all!E24)</f>
+        <v/>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f>IF(_tap_day_all!F24="","",_tap_day_all!F24)</f>
+        <v/>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f>IF(_tap_day_all!G24="","",_tap_day_all!G24)</f>
+        <v/>
+      </c>
+      <c r="H29" s="20" t="str">
+        <f>IF(_tap_day_all!H24="","",_tap_day_all!H24)</f>
+        <v/>
+      </c>
+      <c r="I29" s="20" t="str">
+        <f>IF(_tap_day_all!I24="","",_tap_day_all!I24)</f>
+        <v/>
+      </c>
+      <c r="J29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="21" t="str">
+        <f>IF(_tap_day_all!K24="","",_tap_day_all!K24)</f>
+        <v/>
+      </c>
+      <c r="L29" s="20" t="str">
+        <f>IF(_tap_day_all!L24="","",_tap_day_all!L24)</f>
+        <v/>
+      </c>
+      <c r="M29" s="15" t="str">
+        <f>IF(_tap_day_all!M24="","",ROUND(_tap_day_all!M24*100,4))</f>
+        <v/>
+      </c>
+      <c r="N29" s="15" t="str">
+        <f>IF(_tap_day_all!N24="","",ROUND(_tap_day_all!N24*100,4))</f>
+        <v/>
+      </c>
+      <c r="O29" s="15" t="str">
+        <f>IF(_tap_day_all!O24="","",ROUND(_tap_day_all!O24*100,4))</f>
+        <v/>
+      </c>
+      <c r="P29" s="15" t="str">
+        <f>IF(_tap_day_all!P24="","",ROUND(_tap_day_all!P24*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q29" s="15" t="str">
+        <f>IF(_tap_day_all!Q24="","",ROUND(_tap_day_all!Q24*100,4))</f>
+        <v/>
+      </c>
+      <c r="R29" s="15" t="str">
+        <f>IF(_tap_day_all!R24="","",ROUND(_tap_day_all!R24*100,4))</f>
+        <v/>
+      </c>
+      <c r="S29" s="15" t="str">
+        <f>IF(_tap_day_all!S24="","",ROUND(_tap_day_all!S24*100,4))</f>
+        <v/>
+      </c>
+      <c r="T29" s="15" t="str">
+        <f>IF(_tap_day_all!T24="","",ROUND(_tap_day_all!T24*100,4))</f>
+        <v/>
+      </c>
+      <c r="U29" s="15" t="str">
+        <f>IF(_tap_day_all!U24="","",ROUND(_tap_day_all!U24*100,4))</f>
+        <v/>
+      </c>
+      <c r="V29" s="15" t="str">
+        <f>IF(_tap_day_all!V24="","",ROUND(_tap_day_all!V24*100,4))</f>
+        <v/>
+      </c>
+      <c r="W29" s="15" t="str">
+        <f>IF(_tap_day_all!W24="","",ROUND(_tap_day_all!W24*100,4))</f>
+        <v/>
+      </c>
+      <c r="X29" s="15" t="str">
+        <f>IF(_tap_day_all!X24="","",ROUND(_tap_day_all!X24*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y29" s="15" t="str">
+        <f>IF(_tap_day_all!Y24="","",ROUND(_tap_day_all!Y24*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z29" s="15" t="str">
+        <f>IF(_tap_day_all!Z24="","",ROUND(_tap_day_all!Z24,4))</f>
+        <v/>
+      </c>
+      <c r="AA29" s="22" t="str">
+        <f>IF(_tap_day_all!AA24="","",ROUND(_tap_day_all!AA24,4))</f>
+        <v/>
+      </c>
+      <c r="AB29" s="22" t="str">
+        <f>IF(_tap_day_all!AB24="","",ROUND(_tap_day_all!AB24,4))</f>
+        <v/>
+      </c>
+      <c r="AC29" s="22" t="str">
+        <f>IF(_tap_day_all!AC24="","",ROUND(_tap_day_all!AC24,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="str">
+        <f>IF(_tap_day_all!A25="","",_tap_day_all!A25)</f>
+        <v/>
+      </c>
+      <c r="B30" s="15" t="str">
+        <f>IF(_tap_day_all!B25="","",_tap_day_all!B25)</f>
+        <v/>
+      </c>
+      <c r="C30" s="15" t="str">
+        <f>IF(_tap_day_all!C25="","",_tap_day_all!C25)</f>
+        <v/>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>IF(_tap_day_all!D25="","",_tap_day_all!D25)</f>
+        <v/>
+      </c>
+      <c r="E30" s="18" t="str">
+        <f>IF(_tap_day_all!E25="","",_tap_day_all!E25)</f>
+        <v/>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f>IF(_tap_day_all!F25="","",_tap_day_all!F25)</f>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f>IF(_tap_day_all!G25="","",_tap_day_all!G25)</f>
+        <v/>
+      </c>
+      <c r="H30" s="20" t="str">
+        <f>IF(_tap_day_all!H25="","",_tap_day_all!H25)</f>
+        <v/>
+      </c>
+      <c r="I30" s="20" t="str">
+        <f>IF(_tap_day_all!I25="","",_tap_day_all!I25)</f>
+        <v/>
+      </c>
+      <c r="J30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30" s="21" t="str">
+        <f>IF(_tap_day_all!K25="","",_tap_day_all!K25)</f>
+        <v/>
+      </c>
+      <c r="L30" s="20" t="str">
+        <f>IF(_tap_day_all!L25="","",_tap_day_all!L25)</f>
+        <v/>
+      </c>
+      <c r="M30" s="15" t="str">
+        <f>IF(_tap_day_all!M25="","",ROUND(_tap_day_all!M25*100,4))</f>
+        <v/>
+      </c>
+      <c r="N30" s="15" t="str">
+        <f>IF(_tap_day_all!N25="","",ROUND(_tap_day_all!N25*100,4))</f>
+        <v/>
+      </c>
+      <c r="O30" s="15" t="str">
+        <f>IF(_tap_day_all!O25="","",ROUND(_tap_day_all!O25*100,4))</f>
+        <v/>
+      </c>
+      <c r="P30" s="15" t="str">
+        <f>IF(_tap_day_all!P25="","",ROUND(_tap_day_all!P25*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q30" s="15" t="str">
+        <f>IF(_tap_day_all!Q25="","",ROUND(_tap_day_all!Q25*100,4))</f>
+        <v/>
+      </c>
+      <c r="R30" s="15" t="str">
+        <f>IF(_tap_day_all!R25="","",ROUND(_tap_day_all!R25*100,4))</f>
+        <v/>
+      </c>
+      <c r="S30" s="15" t="str">
+        <f>IF(_tap_day_all!S25="","",ROUND(_tap_day_all!S25*100,4))</f>
+        <v/>
+      </c>
+      <c r="T30" s="15" t="str">
+        <f>IF(_tap_day_all!T25="","",ROUND(_tap_day_all!T25*100,4))</f>
+        <v/>
+      </c>
+      <c r="U30" s="15" t="str">
+        <f>IF(_tap_day_all!U25="","",ROUND(_tap_day_all!U25*100,4))</f>
+        <v/>
+      </c>
+      <c r="V30" s="15" t="str">
+        <f>IF(_tap_day_all!V25="","",ROUND(_tap_day_all!V25*100,4))</f>
+        <v/>
+      </c>
+      <c r="W30" s="15" t="str">
+        <f>IF(_tap_day_all!W25="","",ROUND(_tap_day_all!W25*100,4))</f>
+        <v/>
+      </c>
+      <c r="X30" s="15" t="str">
+        <f>IF(_tap_day_all!X25="","",ROUND(_tap_day_all!X25*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y30" s="15" t="str">
+        <f>IF(_tap_day_all!Y25="","",ROUND(_tap_day_all!Y25*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="15" t="str">
+        <f>IF(_tap_day_all!Z25="","",ROUND(_tap_day_all!Z25,4))</f>
+        <v/>
+      </c>
+      <c r="AA30" s="22" t="str">
+        <f>IF(_tap_day_all!AA25="","",ROUND(_tap_day_all!AA25,4))</f>
+        <v/>
+      </c>
+      <c r="AB30" s="22" t="str">
+        <f>IF(_tap_day_all!AB25="","",ROUND(_tap_day_all!AB25,4))</f>
+        <v/>
+      </c>
+      <c r="AC30" s="22" t="str">
+        <f>IF(_tap_day_all!AC25="","",ROUND(_tap_day_all!AC25,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="str">
+        <f>IF(_tap_day_all!A26="","",_tap_day_all!A26)</f>
+        <v/>
+      </c>
+      <c r="B31" s="15" t="str">
+        <f>IF(_tap_day_all!B26="","",_tap_day_all!B26)</f>
+        <v/>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f>IF(_tap_day_all!C26="","",_tap_day_all!C26)</f>
+        <v/>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>IF(_tap_day_all!D26="","",_tap_day_all!D26)</f>
+        <v/>
+      </c>
+      <c r="E31" s="18" t="str">
+        <f>IF(_tap_day_all!E26="","",_tap_day_all!E26)</f>
+        <v/>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>IF(_tap_day_all!F26="","",_tap_day_all!F26)</f>
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f>IF(_tap_day_all!G26="","",_tap_day_all!G26)</f>
+        <v/>
+      </c>
+      <c r="H31" s="20" t="str">
+        <f>IF(_tap_day_all!H26="","",_tap_day_all!H26)</f>
+        <v/>
+      </c>
+      <c r="I31" s="20" t="str">
+        <f>IF(_tap_day_all!I26="","",_tap_day_all!I26)</f>
+        <v/>
+      </c>
+      <c r="J31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K31" s="21" t="str">
+        <f>IF(_tap_day_all!K26="","",_tap_day_all!K26)</f>
+        <v/>
+      </c>
+      <c r="L31" s="20" t="str">
+        <f>IF(_tap_day_all!L26="","",_tap_day_all!L26)</f>
+        <v/>
+      </c>
+      <c r="M31" s="15" t="str">
+        <f>IF(_tap_day_all!M26="","",ROUND(_tap_day_all!M26*100,4))</f>
+        <v/>
+      </c>
+      <c r="N31" s="15" t="str">
+        <f>IF(_tap_day_all!N26="","",ROUND(_tap_day_all!N26*100,4))</f>
+        <v/>
+      </c>
+      <c r="O31" s="15" t="str">
+        <f>IF(_tap_day_all!O26="","",ROUND(_tap_day_all!O26*100,4))</f>
+        <v/>
+      </c>
+      <c r="P31" s="15" t="str">
+        <f>IF(_tap_day_all!P26="","",ROUND(_tap_day_all!P26*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q31" s="15" t="str">
+        <f>IF(_tap_day_all!Q26="","",ROUND(_tap_day_all!Q26*100,4))</f>
+        <v/>
+      </c>
+      <c r="R31" s="15" t="str">
+        <f>IF(_tap_day_all!R26="","",ROUND(_tap_day_all!R26*100,4))</f>
+        <v/>
+      </c>
+      <c r="S31" s="15" t="str">
+        <f>IF(_tap_day_all!S26="","",ROUND(_tap_day_all!S26*100,4))</f>
+        <v/>
+      </c>
+      <c r="T31" s="15" t="str">
+        <f>IF(_tap_day_all!T26="","",ROUND(_tap_day_all!T26*100,4))</f>
+        <v/>
+      </c>
+      <c r="U31" s="15" t="str">
+        <f>IF(_tap_day_all!U26="","",ROUND(_tap_day_all!U26*100,4))</f>
+        <v/>
+      </c>
+      <c r="V31" s="15" t="str">
+        <f>IF(_tap_day_all!V26="","",ROUND(_tap_day_all!V26*100,4))</f>
+        <v/>
+      </c>
+      <c r="W31" s="15" t="str">
+        <f>IF(_tap_day_all!W26="","",ROUND(_tap_day_all!W26*100,4))</f>
+        <v/>
+      </c>
+      <c r="X31" s="15" t="str">
+        <f>IF(_tap_day_all!X26="","",ROUND(_tap_day_all!X26*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y31" s="15" t="str">
+        <f>IF(_tap_day_all!Y26="","",ROUND(_tap_day_all!Y26*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="15" t="str">
+        <f>IF(_tap_day_all!Z26="","",ROUND(_tap_day_all!Z26,4))</f>
+        <v/>
+      </c>
+      <c r="AA31" s="22" t="str">
+        <f>IF(_tap_day_all!AA26="","",ROUND(_tap_day_all!AA26,4))</f>
+        <v/>
+      </c>
+      <c r="AB31" s="22" t="str">
+        <f>IF(_tap_day_all!AB26="","",ROUND(_tap_day_all!AB26,4))</f>
+        <v/>
+      </c>
+      <c r="AC31" s="22" t="str">
+        <f>IF(_tap_day_all!AC26="","",ROUND(_tap_day_all!AC26,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="str">
+        <f>IF(_tap_day_all!A27="","",_tap_day_all!A27)</f>
+        <v/>
+      </c>
+      <c r="B32" s="15" t="str">
+        <f>IF(_tap_day_all!B27="","",_tap_day_all!B27)</f>
+        <v/>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f>IF(_tap_day_all!C27="","",_tap_day_all!C27)</f>
+        <v/>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f>IF(_tap_day_all!D27="","",_tap_day_all!D27)</f>
+        <v/>
+      </c>
+      <c r="E32" s="18" t="str">
+        <f>IF(_tap_day_all!E27="","",_tap_day_all!E27)</f>
+        <v/>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f>IF(_tap_day_all!F27="","",_tap_day_all!F27)</f>
+        <v/>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f>IF(_tap_day_all!G27="","",_tap_day_all!G27)</f>
+        <v/>
+      </c>
+      <c r="H32" s="20" t="str">
+        <f>IF(_tap_day_all!H27="","",_tap_day_all!H27)</f>
+        <v/>
+      </c>
+      <c r="I32" s="20" t="str">
+        <f>IF(_tap_day_all!I27="","",_tap_day_all!I27)</f>
+        <v/>
+      </c>
+      <c r="J32" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" s="21" t="str">
+        <f>IF(_tap_day_all!K27="","",_tap_day_all!K27)</f>
+        <v/>
+      </c>
+      <c r="L32" s="20" t="str">
+        <f>IF(_tap_day_all!L27="","",_tap_day_all!L27)</f>
+        <v/>
+      </c>
+      <c r="M32" s="15" t="str">
+        <f>IF(_tap_day_all!M27="","",ROUND(_tap_day_all!M27*100,4))</f>
+        <v/>
+      </c>
+      <c r="N32" s="15" t="str">
+        <f>IF(_tap_day_all!N27="","",ROUND(_tap_day_all!N27*100,4))</f>
+        <v/>
+      </c>
+      <c r="O32" s="15" t="str">
+        <f>IF(_tap_day_all!O27="","",ROUND(_tap_day_all!O27*100,4))</f>
+        <v/>
+      </c>
+      <c r="P32" s="15" t="str">
+        <f>IF(_tap_day_all!P27="","",ROUND(_tap_day_all!P27*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q32" s="15" t="str">
+        <f>IF(_tap_day_all!Q27="","",ROUND(_tap_day_all!Q27*100,4))</f>
+        <v/>
+      </c>
+      <c r="R32" s="15" t="str">
+        <f>IF(_tap_day_all!R27="","",ROUND(_tap_day_all!R27*100,4))</f>
+        <v/>
+      </c>
+      <c r="S32" s="15" t="str">
+        <f>IF(_tap_day_all!S27="","",ROUND(_tap_day_all!S27*100,4))</f>
+        <v/>
+      </c>
+      <c r="T32" s="15" t="str">
+        <f>IF(_tap_day_all!T27="","",ROUND(_tap_day_all!T27*100,4))</f>
+        <v/>
+      </c>
+      <c r="U32" s="15" t="str">
+        <f>IF(_tap_day_all!U27="","",ROUND(_tap_day_all!U27*100,4))</f>
+        <v/>
+      </c>
+      <c r="V32" s="15" t="str">
+        <f>IF(_tap_day_all!V27="","",ROUND(_tap_day_all!V27*100,4))</f>
+        <v/>
+      </c>
+      <c r="W32" s="15" t="str">
+        <f>IF(_tap_day_all!W27="","",ROUND(_tap_day_all!W27*100,4))</f>
+        <v/>
+      </c>
+      <c r="X32" s="15" t="str">
+        <f>IF(_tap_day_all!X27="","",ROUND(_tap_day_all!X27*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y32" s="15" t="str">
+        <f>IF(_tap_day_all!Y27="","",ROUND(_tap_day_all!Y27*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="15" t="str">
+        <f>IF(_tap_day_all!Z27="","",ROUND(_tap_day_all!Z27,4))</f>
+        <v/>
+      </c>
+      <c r="AA32" s="22" t="str">
+        <f>IF(_tap_day_all!AA27="","",ROUND(_tap_day_all!AA27,4))</f>
+        <v/>
+      </c>
+      <c r="AB32" s="22" t="str">
+        <f>IF(_tap_day_all!AB27="","",ROUND(_tap_day_all!AB27,4))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="22" t="str">
+        <f>IF(_tap_day_all!AC27="","",ROUND(_tap_day_all!AC27,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="str">
+        <f>IF(_tap_day_all!A28="","",_tap_day_all!A28)</f>
+        <v/>
+      </c>
+      <c r="B33" s="15" t="str">
+        <f>IF(_tap_day_all!B28="","",_tap_day_all!B28)</f>
+        <v/>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f>IF(_tap_day_all!C28="","",_tap_day_all!C28)</f>
+        <v/>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>IF(_tap_day_all!D28="","",_tap_day_all!D28)</f>
+        <v/>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f>IF(_tap_day_all!E28="","",_tap_day_all!E28)</f>
+        <v/>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f>IF(_tap_day_all!F28="","",_tap_day_all!F28)</f>
+        <v/>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f>IF(_tap_day_all!G28="","",_tap_day_all!G28)</f>
+        <v/>
+      </c>
+      <c r="H33" s="20" t="str">
+        <f>IF(_tap_day_all!H28="","",_tap_day_all!H28)</f>
+        <v/>
+      </c>
+      <c r="I33" s="20" t="str">
+        <f>IF(_tap_day_all!I28="","",_tap_day_all!I28)</f>
+        <v/>
+      </c>
+      <c r="J33" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" s="21" t="str">
+        <f>IF(_tap_day_all!K28="","",_tap_day_all!K28)</f>
+        <v/>
+      </c>
+      <c r="L33" s="20" t="str">
+        <f>IF(_tap_day_all!L28="","",_tap_day_all!L28)</f>
+        <v/>
+      </c>
+      <c r="M33" s="15" t="str">
+        <f>IF(_tap_day_all!M28="","",ROUND(_tap_day_all!M28*100,4))</f>
+        <v/>
+      </c>
+      <c r="N33" s="15" t="str">
+        <f>IF(_tap_day_all!N28="","",ROUND(_tap_day_all!N28*100,4))</f>
+        <v/>
+      </c>
+      <c r="O33" s="15" t="str">
+        <f>IF(_tap_day_all!O28="","",ROUND(_tap_day_all!O28*100,4))</f>
+        <v/>
+      </c>
+      <c r="P33" s="15" t="str">
+        <f>IF(_tap_day_all!P28="","",ROUND(_tap_day_all!P28*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q33" s="15" t="str">
+        <f>IF(_tap_day_all!Q28="","",ROUND(_tap_day_all!Q28*100,4))</f>
+        <v/>
+      </c>
+      <c r="R33" s="15" t="str">
+        <f>IF(_tap_day_all!R28="","",ROUND(_tap_day_all!R28*100,4))</f>
+        <v/>
+      </c>
+      <c r="S33" s="15" t="str">
+        <f>IF(_tap_day_all!S28="","",ROUND(_tap_day_all!S28*100,4))</f>
+        <v/>
+      </c>
+      <c r="T33" s="15" t="str">
+        <f>IF(_tap_day_all!T28="","",ROUND(_tap_day_all!T28*100,4))</f>
+        <v/>
+      </c>
+      <c r="U33" s="15" t="str">
+        <f>IF(_tap_day_all!U28="","",ROUND(_tap_day_all!U28*100,4))</f>
+        <v/>
+      </c>
+      <c r="V33" s="15" t="str">
+        <f>IF(_tap_day_all!V28="","",ROUND(_tap_day_all!V28*100,4))</f>
+        <v/>
+      </c>
+      <c r="W33" s="15" t="str">
+        <f>IF(_tap_day_all!W28="","",ROUND(_tap_day_all!W28*100,4))</f>
+        <v/>
+      </c>
+      <c r="X33" s="15" t="str">
+        <f>IF(_tap_day_all!X28="","",ROUND(_tap_day_all!X28*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y33" s="15" t="str">
+        <f>IF(_tap_day_all!Y28="","",ROUND(_tap_day_all!Y28*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="15" t="str">
+        <f>IF(_tap_day_all!Z28="","",ROUND(_tap_day_all!Z28,4))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="22" t="str">
+        <f>IF(_tap_day_all!AA28="","",ROUND(_tap_day_all!AA28,4))</f>
+        <v/>
+      </c>
+      <c r="AB33" s="22" t="str">
+        <f>IF(_tap_day_all!AB28="","",ROUND(_tap_day_all!AB28,4))</f>
+        <v/>
+      </c>
+      <c r="AC33" s="22" t="str">
+        <f>IF(_tap_day_all!AC28="","",ROUND(_tap_day_all!AC28,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="str">
+        <f>IF(_tap_day_all!A29="","",_tap_day_all!A29)</f>
+        <v/>
+      </c>
+      <c r="B34" s="15" t="str">
+        <f>IF(_tap_day_all!B29="","",_tap_day_all!B29)</f>
+        <v/>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f>IF(_tap_day_all!C29="","",_tap_day_all!C29)</f>
+        <v/>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f>IF(_tap_day_all!D29="","",_tap_day_all!D29)</f>
+        <v/>
+      </c>
+      <c r="E34" s="18" t="str">
+        <f>IF(_tap_day_all!E29="","",_tap_day_all!E29)</f>
+        <v/>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f>IF(_tap_day_all!F29="","",_tap_day_all!F29)</f>
+        <v/>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f>IF(_tap_day_all!G29="","",_tap_day_all!G29)</f>
+        <v/>
+      </c>
+      <c r="H34" s="20" t="str">
+        <f>IF(_tap_day_all!H29="","",_tap_day_all!H29)</f>
+        <v/>
+      </c>
+      <c r="I34" s="20" t="str">
+        <f>IF(_tap_day_all!I29="","",_tap_day_all!I29)</f>
+        <v/>
+      </c>
+      <c r="J34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K34" s="21" t="str">
+        <f>IF(_tap_day_all!K29="","",_tap_day_all!K29)</f>
+        <v/>
+      </c>
+      <c r="L34" s="20" t="str">
+        <f>IF(_tap_day_all!L29="","",_tap_day_all!L29)</f>
+        <v/>
+      </c>
+      <c r="M34" s="15" t="str">
+        <f>IF(_tap_day_all!M29="","",ROUND(_tap_day_all!M29*100,4))</f>
+        <v/>
+      </c>
+      <c r="N34" s="15" t="str">
+        <f>IF(_tap_day_all!N29="","",ROUND(_tap_day_all!N29*100,4))</f>
+        <v/>
+      </c>
+      <c r="O34" s="15" t="str">
+        <f>IF(_tap_day_all!O29="","",ROUND(_tap_day_all!O29*100,4))</f>
+        <v/>
+      </c>
+      <c r="P34" s="15" t="str">
+        <f>IF(_tap_day_all!P29="","",ROUND(_tap_day_all!P29*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q34" s="15" t="str">
+        <f>IF(_tap_day_all!Q29="","",ROUND(_tap_day_all!Q29*100,4))</f>
+        <v/>
+      </c>
+      <c r="R34" s="15" t="str">
+        <f>IF(_tap_day_all!R29="","",ROUND(_tap_day_all!R29*100,4))</f>
+        <v/>
+      </c>
+      <c r="S34" s="15" t="str">
+        <f>IF(_tap_day_all!S29="","",ROUND(_tap_day_all!S29*100,4))</f>
+        <v/>
+      </c>
+      <c r="T34" s="15" t="str">
+        <f>IF(_tap_day_all!T29="","",ROUND(_tap_day_all!T29*100,4))</f>
+        <v/>
+      </c>
+      <c r="U34" s="15" t="str">
+        <f>IF(_tap_day_all!U29="","",ROUND(_tap_day_all!U29*100,4))</f>
+        <v/>
+      </c>
+      <c r="V34" s="15" t="str">
+        <f>IF(_tap_day_all!V29="","",ROUND(_tap_day_all!V29*100,4))</f>
+        <v/>
+      </c>
+      <c r="W34" s="15" t="str">
+        <f>IF(_tap_day_all!W29="","",ROUND(_tap_day_all!W29*100,4))</f>
+        <v/>
+      </c>
+      <c r="X34" s="15" t="str">
+        <f>IF(_tap_day_all!X29="","",ROUND(_tap_day_all!X29*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y34" s="15" t="str">
+        <f>IF(_tap_day_all!Y29="","",ROUND(_tap_day_all!Y29*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z34" s="15" t="str">
+        <f>IF(_tap_day_all!Z29="","",ROUND(_tap_day_all!Z29,4))</f>
+        <v/>
+      </c>
+      <c r="AA34" s="22" t="str">
+        <f>IF(_tap_day_all!AA29="","",ROUND(_tap_day_all!AA29,4))</f>
+        <v/>
+      </c>
+      <c r="AB34" s="22" t="str">
+        <f>IF(_tap_day_all!AB29="","",ROUND(_tap_day_all!AB29,4))</f>
+        <v/>
+      </c>
+      <c r="AC34" s="22" t="str">
+        <f>IF(_tap_day_all!AC29="","",ROUND(_tap_day_all!AC29,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="str">
+        <f>IF(_tap_day_all!A30="","",_tap_day_all!A30)</f>
+        <v/>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f>IF(_tap_day_all!B30="","",_tap_day_all!B30)</f>
+        <v/>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f>IF(_tap_day_all!C30="","",_tap_day_all!C30)</f>
+        <v/>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f>IF(_tap_day_all!D30="","",_tap_day_all!D30)</f>
+        <v/>
+      </c>
+      <c r="E35" s="18" t="str">
+        <f>IF(_tap_day_all!E30="","",_tap_day_all!E30)</f>
+        <v/>
+      </c>
+      <c r="F35" s="15" t="str">
+        <f>IF(_tap_day_all!F30="","",_tap_day_all!F30)</f>
+        <v/>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f>IF(_tap_day_all!G30="","",_tap_day_all!G30)</f>
+        <v/>
+      </c>
+      <c r="H35" s="20" t="str">
+        <f>IF(_tap_day_all!H30="","",_tap_day_all!H30)</f>
+        <v/>
+      </c>
+      <c r="I35" s="20" t="str">
+        <f>IF(_tap_day_all!I30="","",_tap_day_all!I30)</f>
+        <v/>
+      </c>
+      <c r="J35" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="21" t="str">
+        <f>IF(_tap_day_all!K30="","",_tap_day_all!K30)</f>
+        <v/>
+      </c>
+      <c r="L35" s="20" t="str">
+        <f>IF(_tap_day_all!L30="","",_tap_day_all!L30)</f>
+        <v/>
+      </c>
+      <c r="M35" s="15" t="str">
+        <f>IF(_tap_day_all!M30="","",ROUND(_tap_day_all!M30*100,4))</f>
+        <v/>
+      </c>
+      <c r="N35" s="15" t="str">
+        <f>IF(_tap_day_all!N30="","",ROUND(_tap_day_all!N30*100,4))</f>
+        <v/>
+      </c>
+      <c r="O35" s="15" t="str">
+        <f>IF(_tap_day_all!O30="","",ROUND(_tap_day_all!O30*100,4))</f>
+        <v/>
+      </c>
+      <c r="P35" s="15" t="str">
+        <f>IF(_tap_day_all!P30="","",ROUND(_tap_day_all!P30*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="15" t="str">
+        <f>IF(_tap_day_all!Q30="","",ROUND(_tap_day_all!Q30*100,4))</f>
+        <v/>
+      </c>
+      <c r="R35" s="15" t="str">
+        <f>IF(_tap_day_all!R30="","",ROUND(_tap_day_all!R30*100,4))</f>
+        <v/>
+      </c>
+      <c r="S35" s="15" t="str">
+        <f>IF(_tap_day_all!S30="","",ROUND(_tap_day_all!S30*100,4))</f>
+        <v/>
+      </c>
+      <c r="T35" s="15" t="str">
+        <f>IF(_tap_day_all!T30="","",ROUND(_tap_day_all!T30*100,4))</f>
+        <v/>
+      </c>
+      <c r="U35" s="15" t="str">
+        <f>IF(_tap_day_all!U30="","",ROUND(_tap_day_all!U30*100,4))</f>
+        <v/>
+      </c>
+      <c r="V35" s="15" t="str">
+        <f>IF(_tap_day_all!V30="","",ROUND(_tap_day_all!V30*100,4))</f>
+        <v/>
+      </c>
+      <c r="W35" s="15" t="str">
+        <f>IF(_tap_day_all!W30="","",ROUND(_tap_day_all!W30*100,4))</f>
+        <v/>
+      </c>
+      <c r="X35" s="15" t="str">
+        <f>IF(_tap_day_all!X30="","",ROUND(_tap_day_all!X30*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="15" t="str">
+        <f>IF(_tap_day_all!Y30="","",ROUND(_tap_day_all!Y30*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="15" t="str">
+        <f>IF(_tap_day_all!Z30="","",ROUND(_tap_day_all!Z30,4))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="22" t="str">
+        <f>IF(_tap_day_all!AA30="","",ROUND(_tap_day_all!AA30,4))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="22" t="str">
+        <f>IF(_tap_day_all!AB30="","",ROUND(_tap_day_all!AB30,4))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="22" t="str">
+        <f>IF(_tap_day_all!AC30="","",ROUND(_tap_day_all!AC30,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="str">
+        <f>IF(_tap_day_all!A31="","",_tap_day_all!A31)</f>
+        <v/>
+      </c>
+      <c r="B36" s="15" t="str">
+        <f>IF(_tap_day_all!B31="","",_tap_day_all!B31)</f>
+        <v/>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f>IF(_tap_day_all!C31="","",_tap_day_all!C31)</f>
+        <v/>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>IF(_tap_day_all!D31="","",_tap_day_all!D31)</f>
+        <v/>
+      </c>
+      <c r="E36" s="18" t="str">
+        <f>IF(_tap_day_all!E31="","",_tap_day_all!E31)</f>
+        <v/>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f>IF(_tap_day_all!F31="","",_tap_day_all!F31)</f>
+        <v/>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f>IF(_tap_day_all!G31="","",_tap_day_all!G31)</f>
+        <v/>
+      </c>
+      <c r="H36" s="20" t="str">
+        <f>IF(_tap_day_all!H31="","",_tap_day_all!H31)</f>
+        <v/>
+      </c>
+      <c r="I36" s="20" t="str">
+        <f>IF(_tap_day_all!I31="","",_tap_day_all!I31)</f>
+        <v/>
+      </c>
+      <c r="J36" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="21" t="str">
+        <f>IF(_tap_day_all!K31="","",_tap_day_all!K31)</f>
+        <v/>
+      </c>
+      <c r="L36" s="20" t="str">
+        <f>IF(_tap_day_all!L31="","",_tap_day_all!L31)</f>
+        <v/>
+      </c>
+      <c r="M36" s="15" t="str">
+        <f>IF(_tap_day_all!M31="","",ROUND(_tap_day_all!M31*100,4))</f>
+        <v/>
+      </c>
+      <c r="N36" s="15" t="str">
+        <f>IF(_tap_day_all!N31="","",ROUND(_tap_day_all!N31*100,4))</f>
+        <v/>
+      </c>
+      <c r="O36" s="15" t="str">
+        <f>IF(_tap_day_all!O31="","",ROUND(_tap_day_all!O31*100,4))</f>
+        <v/>
+      </c>
+      <c r="P36" s="15" t="str">
+        <f>IF(_tap_day_all!P31="","",ROUND(_tap_day_all!P31*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="15" t="str">
+        <f>IF(_tap_day_all!Q31="","",ROUND(_tap_day_all!Q31*100,4))</f>
+        <v/>
+      </c>
+      <c r="R36" s="15" t="str">
+        <f>IF(_tap_day_all!R31="","",ROUND(_tap_day_all!R31*100,4))</f>
+        <v/>
+      </c>
+      <c r="S36" s="15" t="str">
+        <f>IF(_tap_day_all!S31="","",ROUND(_tap_day_all!S31*100,4))</f>
+        <v/>
+      </c>
+      <c r="T36" s="15" t="str">
+        <f>IF(_tap_day_all!T31="","",ROUND(_tap_day_all!T31*100,4))</f>
+        <v/>
+      </c>
+      <c r="U36" s="15" t="str">
+        <f>IF(_tap_day_all!U31="","",ROUND(_tap_day_all!U31*100,4))</f>
+        <v/>
+      </c>
+      <c r="V36" s="15" t="str">
+        <f>IF(_tap_day_all!V31="","",ROUND(_tap_day_all!V31*100,4))</f>
+        <v/>
+      </c>
+      <c r="W36" s="15" t="str">
+        <f>IF(_tap_day_all!W31="","",ROUND(_tap_day_all!W31*100,4))</f>
+        <v/>
+      </c>
+      <c r="X36" s="15" t="str">
+        <f>IF(_tap_day_all!X31="","",ROUND(_tap_day_all!X31*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y36" s="15" t="str">
+        <f>IF(_tap_day_all!Y31="","",ROUND(_tap_day_all!Y31*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="15" t="str">
+        <f>IF(_tap_day_all!Z31="","",ROUND(_tap_day_all!Z31,4))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="22" t="str">
+        <f>IF(_tap_day_all!AA31="","",ROUND(_tap_day_all!AA31,4))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="22" t="str">
+        <f>IF(_tap_day_all!AB31="","",ROUND(_tap_day_all!AB31,4))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="22" t="str">
+        <f>IF(_tap_day_all!AC31="","",ROUND(_tap_day_all!AC31,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="str">
+        <f>IF(_tap_day_all!A32="","",_tap_day_all!A32)</f>
+        <v/>
+      </c>
+      <c r="B37" s="15" t="str">
+        <f>IF(_tap_day_all!B32="","",_tap_day_all!B32)</f>
+        <v/>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f>IF(_tap_day_all!C32="","",_tap_day_all!C32)</f>
+        <v/>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f>IF(_tap_day_all!D32="","",_tap_day_all!D32)</f>
+        <v/>
+      </c>
+      <c r="E37" s="18" t="str">
+        <f>IF(_tap_day_all!E32="","",_tap_day_all!E32)</f>
+        <v/>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>IF(_tap_day_all!F32="","",_tap_day_all!F32)</f>
+        <v/>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f>IF(_tap_day_all!G32="","",_tap_day_all!G32)</f>
+        <v/>
+      </c>
+      <c r="H37" s="20" t="str">
+        <f>IF(_tap_day_all!H32="","",_tap_day_all!H32)</f>
+        <v/>
+      </c>
+      <c r="I37" s="20" t="str">
+        <f>IF(_tap_day_all!I32="","",_tap_day_all!I32)</f>
+        <v/>
+      </c>
+      <c r="J37" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K37" s="21" t="str">
+        <f>IF(_tap_day_all!K32="","",_tap_day_all!K32)</f>
+        <v/>
+      </c>
+      <c r="L37" s="20" t="str">
+        <f>IF(_tap_day_all!L32="","",_tap_day_all!L32)</f>
+        <v/>
+      </c>
+      <c r="M37" s="15" t="str">
+        <f>IF(_tap_day_all!M32="","",ROUND(_tap_day_all!M32*100,4))</f>
+        <v/>
+      </c>
+      <c r="N37" s="15" t="str">
+        <f>IF(_tap_day_all!N32="","",ROUND(_tap_day_all!N32*100,4))</f>
+        <v/>
+      </c>
+      <c r="O37" s="15" t="str">
+        <f>IF(_tap_day_all!O32="","",ROUND(_tap_day_all!O32*100,4))</f>
+        <v/>
+      </c>
+      <c r="P37" s="15" t="str">
+        <f>IF(_tap_day_all!P32="","",ROUND(_tap_day_all!P32*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="15" t="str">
+        <f>IF(_tap_day_all!Q32="","",ROUND(_tap_day_all!Q32*100,4))</f>
+        <v/>
+      </c>
+      <c r="R37" s="15" t="str">
+        <f>IF(_tap_day_all!R32="","",ROUND(_tap_day_all!R32*100,4))</f>
+        <v/>
+      </c>
+      <c r="S37" s="15" t="str">
+        <f>IF(_tap_day_all!S32="","",ROUND(_tap_day_all!S32*100,4))</f>
+        <v/>
+      </c>
+      <c r="T37" s="15" t="str">
+        <f>IF(_tap_day_all!T32="","",ROUND(_tap_day_all!T32*100,4))</f>
+        <v/>
+      </c>
+      <c r="U37" s="15" t="str">
+        <f>IF(_tap_day_all!U32="","",ROUND(_tap_day_all!U32*100,4))</f>
+        <v/>
+      </c>
+      <c r="V37" s="15" t="str">
+        <f>IF(_tap_day_all!V32="","",ROUND(_tap_day_all!V32*100,4))</f>
+        <v/>
+      </c>
+      <c r="W37" s="15" t="str">
+        <f>IF(_tap_day_all!W32="","",ROUND(_tap_day_all!W32*100,4))</f>
+        <v/>
+      </c>
+      <c r="X37" s="15" t="str">
+        <f>IF(_tap_day_all!X32="","",ROUND(_tap_day_all!X32*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="15" t="str">
+        <f>IF(_tap_day_all!Y32="","",ROUND(_tap_day_all!Y32*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="15" t="str">
+        <f>IF(_tap_day_all!Z32="","",ROUND(_tap_day_all!Z32,4))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="22" t="str">
+        <f>IF(_tap_day_all!AA32="","",ROUND(_tap_day_all!AA32,4))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="22" t="str">
+        <f>IF(_tap_day_all!AB32="","",ROUND(_tap_day_all!AB32,4))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="22" t="str">
+        <f>IF(_tap_day_all!AC32="","",ROUND(_tap_day_all!AC32,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="str">
+        <f>IF(_tap_day_all!A33="","",_tap_day_all!A33)</f>
+        <v/>
+      </c>
+      <c r="B38" s="15" t="str">
+        <f>IF(_tap_day_all!B33="","",_tap_day_all!B33)</f>
+        <v/>
+      </c>
+      <c r="C38" s="15" t="str">
+        <f>IF(_tap_day_all!C33="","",_tap_day_all!C33)</f>
+        <v/>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f>IF(_tap_day_all!D33="","",_tap_day_all!D33)</f>
+        <v/>
+      </c>
+      <c r="E38" s="18" t="str">
+        <f>IF(_tap_day_all!E33="","",_tap_day_all!E33)</f>
+        <v/>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f>IF(_tap_day_all!F33="","",_tap_day_all!F33)</f>
+        <v/>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f>IF(_tap_day_all!G33="","",_tap_day_all!G33)</f>
+        <v/>
+      </c>
+      <c r="H38" s="20" t="str">
+        <f>IF(_tap_day_all!H33="","",_tap_day_all!H33)</f>
+        <v/>
+      </c>
+      <c r="I38" s="20" t="str">
+        <f>IF(_tap_day_all!I33="","",_tap_day_all!I33)</f>
+        <v/>
+      </c>
+      <c r="J38" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K38" s="21" t="str">
+        <f>IF(_tap_day_all!K33="","",_tap_day_all!K33)</f>
+        <v/>
+      </c>
+      <c r="L38" s="20" t="str">
+        <f>IF(_tap_day_all!L33="","",_tap_day_all!L33)</f>
+        <v/>
+      </c>
+      <c r="M38" s="15" t="str">
+        <f>IF(_tap_day_all!M33="","",ROUND(_tap_day_all!M33*100,4))</f>
+        <v/>
+      </c>
+      <c r="N38" s="15" t="str">
+        <f>IF(_tap_day_all!N33="","",ROUND(_tap_day_all!N33*100,4))</f>
+        <v/>
+      </c>
+      <c r="O38" s="15" t="str">
+        <f>IF(_tap_day_all!O33="","",ROUND(_tap_day_all!O33*100,4))</f>
+        <v/>
+      </c>
+      <c r="P38" s="15" t="str">
+        <f>IF(_tap_day_all!P33="","",ROUND(_tap_day_all!P33*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q38" s="15" t="str">
+        <f>IF(_tap_day_all!Q33="","",ROUND(_tap_day_all!Q33*100,4))</f>
+        <v/>
+      </c>
+      <c r="R38" s="15" t="str">
+        <f>IF(_tap_day_all!R33="","",ROUND(_tap_day_all!R33*100,4))</f>
+        <v/>
+      </c>
+      <c r="S38" s="15" t="str">
+        <f>IF(_tap_day_all!S33="","",ROUND(_tap_day_all!S33*100,4))</f>
+        <v/>
+      </c>
+      <c r="T38" s="15" t="str">
+        <f>IF(_tap_day_all!T33="","",ROUND(_tap_day_all!T33*100,4))</f>
+        <v/>
+      </c>
+      <c r="U38" s="15" t="str">
+        <f>IF(_tap_day_all!U33="","",ROUND(_tap_day_all!U33*100,4))</f>
+        <v/>
+      </c>
+      <c r="V38" s="15" t="str">
+        <f>IF(_tap_day_all!V33="","",ROUND(_tap_day_all!V33*100,4))</f>
+        <v/>
+      </c>
+      <c r="W38" s="15" t="str">
+        <f>IF(_tap_day_all!W33="","",ROUND(_tap_day_all!W33*100,4))</f>
+        <v/>
+      </c>
+      <c r="X38" s="15" t="str">
+        <f>IF(_tap_day_all!X33="","",ROUND(_tap_day_all!X33*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="15" t="str">
+        <f>IF(_tap_day_all!Y33="","",ROUND(_tap_day_all!Y33*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="15" t="str">
+        <f>IF(_tap_day_all!Z33="","",ROUND(_tap_day_all!Z33,4))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="22" t="str">
+        <f>IF(_tap_day_all!AA33="","",ROUND(_tap_day_all!AA33,4))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="22" t="str">
+        <f>IF(_tap_day_all!AB33="","",ROUND(_tap_day_all!AB33,4))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="22" t="str">
+        <f>IF(_tap_day_all!AC33="","",ROUND(_tap_day_all!AC33,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
+        <f>IF(_tap_day_all!A34="","",_tap_day_all!A34)</f>
+        <v/>
+      </c>
+      <c r="B39" s="15" t="str">
+        <f>IF(_tap_day_all!B34="","",_tap_day_all!B34)</f>
+        <v/>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f>IF(_tap_day_all!C34="","",_tap_day_all!C34)</f>
+        <v/>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>IF(_tap_day_all!D34="","",_tap_day_all!D34)</f>
+        <v/>
+      </c>
+      <c r="E39" s="18" t="str">
+        <f>IF(_tap_day_all!E34="","",_tap_day_all!E34)</f>
+        <v/>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f>IF(_tap_day_all!F34="","",_tap_day_all!F34)</f>
+        <v/>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f>IF(_tap_day_all!G34="","",_tap_day_all!G34)</f>
+        <v/>
+      </c>
+      <c r="H39" s="20" t="str">
+        <f>IF(_tap_day_all!H34="","",_tap_day_all!H34)</f>
+        <v/>
+      </c>
+      <c r="I39" s="20" t="str">
+        <f>IF(_tap_day_all!I34="","",_tap_day_all!I34)</f>
+        <v/>
+      </c>
+      <c r="J39" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K39" s="21" t="str">
+        <f>IF(_tap_day_all!K34="","",_tap_day_all!K34)</f>
+        <v/>
+      </c>
+      <c r="L39" s="20" t="str">
+        <f>IF(_tap_day_all!L34="","",_tap_day_all!L34)</f>
+        <v/>
+      </c>
+      <c r="M39" s="15" t="str">
+        <f>IF(_tap_day_all!M34="","",ROUND(_tap_day_all!M34*100,4))</f>
+        <v/>
+      </c>
+      <c r="N39" s="15" t="str">
+        <f>IF(_tap_day_all!N34="","",ROUND(_tap_day_all!N34*100,4))</f>
+        <v/>
+      </c>
+      <c r="O39" s="15" t="str">
+        <f>IF(_tap_day_all!O34="","",ROUND(_tap_day_all!O34*100,4))</f>
+        <v/>
+      </c>
+      <c r="P39" s="15" t="str">
+        <f>IF(_tap_day_all!P34="","",ROUND(_tap_day_all!P34*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q39" s="15" t="str">
+        <f>IF(_tap_day_all!Q34="","",ROUND(_tap_day_all!Q34*100,4))</f>
+        <v/>
+      </c>
+      <c r="R39" s="15" t="str">
+        <f>IF(_tap_day_all!R34="","",ROUND(_tap_day_all!R34*100,4))</f>
+        <v/>
+      </c>
+      <c r="S39" s="15" t="str">
+        <f>IF(_tap_day_all!S34="","",ROUND(_tap_day_all!S34*100,4))</f>
+        <v/>
+      </c>
+      <c r="T39" s="15" t="str">
+        <f>IF(_tap_day_all!T34="","",ROUND(_tap_day_all!T34*100,4))</f>
+        <v/>
+      </c>
+      <c r="U39" s="15" t="str">
+        <f>IF(_tap_day_all!U34="","",ROUND(_tap_day_all!U34*100,4))</f>
+        <v/>
+      </c>
+      <c r="V39" s="15" t="str">
+        <f>IF(_tap_day_all!V34="","",ROUND(_tap_day_all!V34*100,4))</f>
+        <v/>
+      </c>
+      <c r="W39" s="15" t="str">
+        <f>IF(_tap_day_all!W34="","",ROUND(_tap_day_all!W34*100,4))</f>
+        <v/>
+      </c>
+      <c r="X39" s="15" t="str">
+        <f>IF(_tap_day_all!X34="","",ROUND(_tap_day_all!X34*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y39" s="15" t="str">
+        <f>IF(_tap_day_all!Y34="","",ROUND(_tap_day_all!Y34*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="15" t="str">
+        <f>IF(_tap_day_all!Z34="","",ROUND(_tap_day_all!Z34,4))</f>
+        <v/>
+      </c>
+      <c r="AA39" s="22" t="str">
+        <f>IF(_tap_day_all!AA34="","",ROUND(_tap_day_all!AA34,4))</f>
+        <v/>
+      </c>
+      <c r="AB39" s="22" t="str">
+        <f>IF(_tap_day_all!AB34="","",ROUND(_tap_day_all!AB34,4))</f>
+        <v/>
+      </c>
+      <c r="AC39" s="22" t="str">
+        <f>IF(_tap_day_all!AC34="","",ROUND(_tap_day_all!AC34,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="str">
+        <f>IF(_tap_day_all!A35="","",_tap_day_all!A35)</f>
+        <v/>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f>IF(_tap_day_all!B35="","",_tap_day_all!B35)</f>
+        <v/>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f>IF(_tap_day_all!C35="","",_tap_day_all!C35)</f>
+        <v/>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f>IF(_tap_day_all!D35="","",_tap_day_all!D35)</f>
+        <v/>
+      </c>
+      <c r="E40" s="18" t="str">
+        <f>IF(_tap_day_all!E35="","",_tap_day_all!E35)</f>
+        <v/>
+      </c>
+      <c r="F40" s="15" t="str">
+        <f>IF(_tap_day_all!F35="","",_tap_day_all!F35)</f>
+        <v/>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f>IF(_tap_day_all!G35="","",_tap_day_all!G35)</f>
+        <v/>
+      </c>
+      <c r="H40" s="20" t="str">
+        <f>IF(_tap_day_all!H35="","",_tap_day_all!H35)</f>
+        <v/>
+      </c>
+      <c r="I40" s="20" t="str">
+        <f>IF(_tap_day_all!I35="","",_tap_day_all!I35)</f>
+        <v/>
+      </c>
+      <c r="J40" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="21" t="str">
+        <f>IF(_tap_day_all!K35="","",_tap_day_all!K35)</f>
+        <v/>
+      </c>
+      <c r="L40" s="20" t="str">
+        <f>IF(_tap_day_all!L35="","",_tap_day_all!L35)</f>
+        <v/>
+      </c>
+      <c r="M40" s="15" t="str">
+        <f>IF(_tap_day_all!M35="","",ROUND(_tap_day_all!M35*100,4))</f>
+        <v/>
+      </c>
+      <c r="N40" s="15" t="str">
+        <f>IF(_tap_day_all!N35="","",ROUND(_tap_day_all!N35*100,4))</f>
+        <v/>
+      </c>
+      <c r="O40" s="15" t="str">
+        <f>IF(_tap_day_all!O35="","",ROUND(_tap_day_all!O35*100,4))</f>
+        <v/>
+      </c>
+      <c r="P40" s="15" t="str">
+        <f>IF(_tap_day_all!P35="","",ROUND(_tap_day_all!P35*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q40" s="15" t="str">
+        <f>IF(_tap_day_all!Q35="","",ROUND(_tap_day_all!Q35*100,4))</f>
+        <v/>
+      </c>
+      <c r="R40" s="15" t="str">
+        <f>IF(_tap_day_all!R35="","",ROUND(_tap_day_all!R35*100,4))</f>
+        <v/>
+      </c>
+      <c r="S40" s="15" t="str">
+        <f>IF(_tap_day_all!S35="","",ROUND(_tap_day_all!S35*100,4))</f>
+        <v/>
+      </c>
+      <c r="T40" s="15" t="str">
+        <f>IF(_tap_day_all!T35="","",ROUND(_tap_day_all!T35*100,4))</f>
+        <v/>
+      </c>
+      <c r="U40" s="15" t="str">
+        <f>IF(_tap_day_all!U35="","",ROUND(_tap_day_all!U35*100,4))</f>
+        <v/>
+      </c>
+      <c r="V40" s="15" t="str">
+        <f>IF(_tap_day_all!V35="","",ROUND(_tap_day_all!V35*100,4))</f>
+        <v/>
+      </c>
+      <c r="W40" s="15" t="str">
+        <f>IF(_tap_day_all!W35="","",ROUND(_tap_day_all!W35*100,4))</f>
+        <v/>
+      </c>
+      <c r="X40" s="15" t="str">
+        <f>IF(_tap_day_all!X35="","",ROUND(_tap_day_all!X35*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y40" s="15" t="str">
+        <f>IF(_tap_day_all!Y35="","",ROUND(_tap_day_all!Y35*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="15" t="str">
+        <f>IF(_tap_day_all!Z35="","",ROUND(_tap_day_all!Z35,4))</f>
+        <v/>
+      </c>
+      <c r="AA40" s="22" t="str">
+        <f>IF(_tap_day_all!AA35="","",ROUND(_tap_day_all!AA35,4))</f>
+        <v/>
+      </c>
+      <c r="AB40" s="22" t="str">
+        <f>IF(_tap_day_all!AB35="","",ROUND(_tap_day_all!AB35,4))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="22" t="str">
+        <f>IF(_tap_day_all!AC35="","",ROUND(_tap_day_all!AC35,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="str">
+        <f>IF(_tap_day_all!A36="","",_tap_day_all!A36)</f>
+        <v/>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f>IF(_tap_day_all!B36="","",_tap_day_all!B36)</f>
+        <v/>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f>IF(_tap_day_all!C36="","",_tap_day_all!C36)</f>
+        <v/>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f>IF(_tap_day_all!D36="","",_tap_day_all!D36)</f>
+        <v/>
+      </c>
+      <c r="E41" s="18" t="str">
+        <f>IF(_tap_day_all!E36="","",_tap_day_all!E36)</f>
+        <v/>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f>IF(_tap_day_all!F36="","",_tap_day_all!F36)</f>
+        <v/>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f>IF(_tap_day_all!G36="","",_tap_day_all!G36)</f>
+        <v/>
+      </c>
+      <c r="H41" s="20" t="str">
+        <f>IF(_tap_day_all!H36="","",_tap_day_all!H36)</f>
+        <v/>
+      </c>
+      <c r="I41" s="20" t="str">
+        <f>IF(_tap_day_all!I36="","",_tap_day_all!I36)</f>
+        <v/>
+      </c>
+      <c r="J41" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K41" s="21" t="str">
+        <f>IF(_tap_day_all!K36="","",_tap_day_all!K36)</f>
+        <v/>
+      </c>
+      <c r="L41" s="20" t="str">
+        <f>IF(_tap_day_all!L36="","",_tap_day_all!L36)</f>
+        <v/>
+      </c>
+      <c r="M41" s="15" t="str">
+        <f>IF(_tap_day_all!M36="","",ROUND(_tap_day_all!M36*100,4))</f>
+        <v/>
+      </c>
+      <c r="N41" s="15" t="str">
+        <f>IF(_tap_day_all!N36="","",ROUND(_tap_day_all!N36*100,4))</f>
+        <v/>
+      </c>
+      <c r="O41" s="15" t="str">
+        <f>IF(_tap_day_all!O36="","",ROUND(_tap_day_all!O36*100,4))</f>
+        <v/>
+      </c>
+      <c r="P41" s="15" t="str">
+        <f>IF(_tap_day_all!P36="","",ROUND(_tap_day_all!P36*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q41" s="15" t="str">
+        <f>IF(_tap_day_all!Q36="","",ROUND(_tap_day_all!Q36*100,4))</f>
+        <v/>
+      </c>
+      <c r="R41" s="15" t="str">
+        <f>IF(_tap_day_all!R36="","",ROUND(_tap_day_all!R36*100,4))</f>
+        <v/>
+      </c>
+      <c r="S41" s="15" t="str">
+        <f>IF(_tap_day_all!S36="","",ROUND(_tap_day_all!S36*100,4))</f>
+        <v/>
+      </c>
+      <c r="T41" s="15" t="str">
+        <f>IF(_tap_day_all!T36="","",ROUND(_tap_day_all!T36*100,4))</f>
+        <v/>
+      </c>
+      <c r="U41" s="15" t="str">
+        <f>IF(_tap_day_all!U36="","",ROUND(_tap_day_all!U36*100,4))</f>
+        <v/>
+      </c>
+      <c r="V41" s="15" t="str">
+        <f>IF(_tap_day_all!V36="","",ROUND(_tap_day_all!V36*100,4))</f>
+        <v/>
+      </c>
+      <c r="W41" s="15" t="str">
+        <f>IF(_tap_day_all!W36="","",ROUND(_tap_day_all!W36*100,4))</f>
+        <v/>
+      </c>
+      <c r="X41" s="15" t="str">
+        <f>IF(_tap_day_all!X36="","",ROUND(_tap_day_all!X36*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y41" s="15" t="str">
+        <f>IF(_tap_day_all!Y36="","",ROUND(_tap_day_all!Y36*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="15" t="str">
+        <f>IF(_tap_day_all!Z36="","",ROUND(_tap_day_all!Z36,4))</f>
+        <v/>
+      </c>
+      <c r="AA41" s="22" t="str">
+        <f>IF(_tap_day_all!AA36="","",ROUND(_tap_day_all!AA36,4))</f>
+        <v/>
+      </c>
+      <c r="AB41" s="22" t="str">
+        <f>IF(_tap_day_all!AB36="","",ROUND(_tap_day_all!AB36,4))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="22" t="str">
+        <f>IF(_tap_day_all!AC36="","",ROUND(_tap_day_all!AC36,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="str">
+        <f>IF(_tap_day_all!A37="","",_tap_day_all!A37)</f>
+        <v/>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f>IF(_tap_day_all!B37="","",_tap_day_all!B37)</f>
+        <v/>
+      </c>
+      <c r="C42" s="15" t="str">
+        <f>IF(_tap_day_all!C37="","",_tap_day_all!C37)</f>
+        <v/>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f>IF(_tap_day_all!D37="","",_tap_day_all!D37)</f>
+        <v/>
+      </c>
+      <c r="E42" s="18" t="str">
+        <f>IF(_tap_day_all!E37="","",_tap_day_all!E37)</f>
+        <v/>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f>IF(_tap_day_all!F37="","",_tap_day_all!F37)</f>
+        <v/>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f>IF(_tap_day_all!G37="","",_tap_day_all!G37)</f>
+        <v/>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f>IF(_tap_day_all!H37="","",_tap_day_all!H37)</f>
+        <v/>
+      </c>
+      <c r="I42" s="20" t="str">
+        <f>IF(_tap_day_all!I37="","",_tap_day_all!I37)</f>
+        <v/>
+      </c>
+      <c r="J42" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K42" s="21" t="str">
+        <f>IF(_tap_day_all!K37="","",_tap_day_all!K37)</f>
+        <v/>
+      </c>
+      <c r="L42" s="20" t="str">
+        <f>IF(_tap_day_all!L37="","",_tap_day_all!L37)</f>
+        <v/>
+      </c>
+      <c r="M42" s="15" t="str">
+        <f>IF(_tap_day_all!M37="","",ROUND(_tap_day_all!M37*100,4))</f>
+        <v/>
+      </c>
+      <c r="N42" s="15" t="str">
+        <f>IF(_tap_day_all!N37="","",ROUND(_tap_day_all!N37*100,4))</f>
+        <v/>
+      </c>
+      <c r="O42" s="15" t="str">
+        <f>IF(_tap_day_all!O37="","",ROUND(_tap_day_all!O37*100,4))</f>
+        <v/>
+      </c>
+      <c r="P42" s="15" t="str">
+        <f>IF(_tap_day_all!P37="","",ROUND(_tap_day_all!P37*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q42" s="15" t="str">
+        <f>IF(_tap_day_all!Q37="","",ROUND(_tap_day_all!Q37*100,4))</f>
+        <v/>
+      </c>
+      <c r="R42" s="15" t="str">
+        <f>IF(_tap_day_all!R37="","",ROUND(_tap_day_all!R37*100,4))</f>
+        <v/>
+      </c>
+      <c r="S42" s="15" t="str">
+        <f>IF(_tap_day_all!S37="","",ROUND(_tap_day_all!S37*100,4))</f>
+        <v/>
+      </c>
+      <c r="T42" s="15" t="str">
+        <f>IF(_tap_day_all!T37="","",ROUND(_tap_day_all!T37*100,4))</f>
+        <v/>
+      </c>
+      <c r="U42" s="15" t="str">
+        <f>IF(_tap_day_all!U37="","",ROUND(_tap_day_all!U37*100,4))</f>
+        <v/>
+      </c>
+      <c r="V42" s="15" t="str">
+        <f>IF(_tap_day_all!V37="","",ROUND(_tap_day_all!V37*100,4))</f>
+        <v/>
+      </c>
+      <c r="W42" s="15" t="str">
+        <f>IF(_tap_day_all!W37="","",ROUND(_tap_day_all!W37*100,4))</f>
+        <v/>
+      </c>
+      <c r="X42" s="15" t="str">
+        <f>IF(_tap_day_all!X37="","",ROUND(_tap_day_all!X37*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y42" s="15" t="str">
+        <f>IF(_tap_day_all!Y37="","",ROUND(_tap_day_all!Y37*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="15" t="str">
+        <f>IF(_tap_day_all!Z37="","",ROUND(_tap_day_all!Z37,4))</f>
+        <v/>
+      </c>
+      <c r="AA42" s="22" t="str">
+        <f>IF(_tap_day_all!AA37="","",ROUND(_tap_day_all!AA37,4))</f>
+        <v/>
+      </c>
+      <c r="AB42" s="22" t="str">
+        <f>IF(_tap_day_all!AB37="","",ROUND(_tap_day_all!AB37,4))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="22" t="str">
+        <f>IF(_tap_day_all!AC37="","",ROUND(_tap_day_all!AC37,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="str">
+        <f>IF(_tap_day_all!A38="","",_tap_day_all!A38)</f>
+        <v/>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f>IF(_tap_day_all!B38="","",_tap_day_all!B38)</f>
+        <v/>
+      </c>
+      <c r="C43" s="15" t="str">
+        <f>IF(_tap_day_all!C38="","",_tap_day_all!C38)</f>
+        <v/>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f>IF(_tap_day_all!D38="","",_tap_day_all!D38)</f>
+        <v/>
+      </c>
+      <c r="E43" s="18" t="str">
+        <f>IF(_tap_day_all!E38="","",_tap_day_all!E38)</f>
+        <v/>
+      </c>
+      <c r="F43" s="15" t="str">
+        <f>IF(_tap_day_all!F38="","",_tap_day_all!F38)</f>
+        <v/>
+      </c>
+      <c r="G43" s="15" t="str">
+        <f>IF(_tap_day_all!G38="","",_tap_day_all!G38)</f>
+        <v/>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f>IF(_tap_day_all!H38="","",_tap_day_all!H38)</f>
+        <v/>
+      </c>
+      <c r="I43" s="20" t="str">
+        <f>IF(_tap_day_all!I38="","",_tap_day_all!I38)</f>
+        <v/>
+      </c>
+      <c r="J43" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K43" s="21" t="str">
+        <f>IF(_tap_day_all!K38="","",_tap_day_all!K38)</f>
+        <v/>
+      </c>
+      <c r="L43" s="20" t="str">
+        <f>IF(_tap_day_all!L38="","",_tap_day_all!L38)</f>
+        <v/>
+      </c>
+      <c r="M43" s="15" t="str">
+        <f>IF(_tap_day_all!M38="","",ROUND(_tap_day_all!M38*100,4))</f>
+        <v/>
+      </c>
+      <c r="N43" s="15" t="str">
+        <f>IF(_tap_day_all!N38="","",ROUND(_tap_day_all!N38*100,4))</f>
+        <v/>
+      </c>
+      <c r="O43" s="15" t="str">
+        <f>IF(_tap_day_all!O38="","",ROUND(_tap_day_all!O38*100,4))</f>
+        <v/>
+      </c>
+      <c r="P43" s="15" t="str">
+        <f>IF(_tap_day_all!P38="","",ROUND(_tap_day_all!P38*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q43" s="15" t="str">
+        <f>IF(_tap_day_all!Q38="","",ROUND(_tap_day_all!Q38*100,4))</f>
+        <v/>
+      </c>
+      <c r="R43" s="15" t="str">
+        <f>IF(_tap_day_all!R38="","",ROUND(_tap_day_all!R38*100,4))</f>
+        <v/>
+      </c>
+      <c r="S43" s="15" t="str">
+        <f>IF(_tap_day_all!S38="","",ROUND(_tap_day_all!S38*100,4))</f>
+        <v/>
+      </c>
+      <c r="T43" s="15" t="str">
+        <f>IF(_tap_day_all!T38="","",ROUND(_tap_day_all!T38*100,4))</f>
+        <v/>
+      </c>
+      <c r="U43" s="15" t="str">
+        <f>IF(_tap_day_all!U38="","",ROUND(_tap_day_all!U38*100,4))</f>
+        <v/>
+      </c>
+      <c r="V43" s="15" t="str">
+        <f>IF(_tap_day_all!V38="","",ROUND(_tap_day_all!V38*100,4))</f>
+        <v/>
+      </c>
+      <c r="W43" s="15" t="str">
+        <f>IF(_tap_day_all!W38="","",ROUND(_tap_day_all!W38*100,4))</f>
+        <v/>
+      </c>
+      <c r="X43" s="15" t="str">
+        <f>IF(_tap_day_all!X38="","",ROUND(_tap_day_all!X38*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y43" s="15" t="str">
+        <f>IF(_tap_day_all!Y38="","",ROUND(_tap_day_all!Y38*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z43" s="15" t="str">
+        <f>IF(_tap_day_all!Z38="","",ROUND(_tap_day_all!Z38,4))</f>
+        <v/>
+      </c>
+      <c r="AA43" s="22" t="str">
+        <f>IF(_tap_day_all!AA38="","",ROUND(_tap_day_all!AA38,4))</f>
+        <v/>
+      </c>
+      <c r="AB43" s="22" t="str">
+        <f>IF(_tap_day_all!AB38="","",ROUND(_tap_day_all!AB38,4))</f>
+        <v/>
+      </c>
+      <c r="AC43" s="22" t="str">
+        <f>IF(_tap_day_all!AC38="","",ROUND(_tap_day_all!AC38,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="str">
+        <f>IF(_tap_day_all!A39="","",_tap_day_all!A39)</f>
+        <v/>
+      </c>
+      <c r="B44" s="15" t="str">
+        <f>IF(_tap_day_all!B39="","",_tap_day_all!B39)</f>
+        <v/>
+      </c>
+      <c r="C44" s="15" t="str">
+        <f>IF(_tap_day_all!C39="","",_tap_day_all!C39)</f>
+        <v/>
+      </c>
+      <c r="D44" s="18" t="str">
+        <f>IF(_tap_day_all!D39="","",_tap_day_all!D39)</f>
+        <v/>
+      </c>
+      <c r="E44" s="18" t="str">
+        <f>IF(_tap_day_all!E39="","",_tap_day_all!E39)</f>
+        <v/>
+      </c>
+      <c r="F44" s="15" t="str">
+        <f>IF(_tap_day_all!F39="","",_tap_day_all!F39)</f>
+        <v/>
+      </c>
+      <c r="G44" s="15" t="str">
+        <f>IF(_tap_day_all!G39="","",_tap_day_all!G39)</f>
+        <v/>
+      </c>
+      <c r="H44" s="20" t="str">
+        <f>IF(_tap_day_all!H39="","",_tap_day_all!H39)</f>
+        <v/>
+      </c>
+      <c r="I44" s="20" t="str">
+        <f>IF(_tap_day_all!I39="","",_tap_day_all!I39)</f>
+        <v/>
+      </c>
+      <c r="J44" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K44" s="21" t="str">
+        <f>IF(_tap_day_all!K39="","",_tap_day_all!K39)</f>
+        <v/>
+      </c>
+      <c r="L44" s="20" t="str">
+        <f>IF(_tap_day_all!L39="","",_tap_day_all!L39)</f>
+        <v/>
+      </c>
+      <c r="M44" s="15" t="str">
+        <f>IF(_tap_day_all!M39="","",ROUND(_tap_day_all!M39*100,4))</f>
+        <v/>
+      </c>
+      <c r="N44" s="15" t="str">
+        <f>IF(_tap_day_all!N39="","",ROUND(_tap_day_all!N39*100,4))</f>
+        <v/>
+      </c>
+      <c r="O44" s="15" t="str">
+        <f>IF(_tap_day_all!O39="","",ROUND(_tap_day_all!O39*100,4))</f>
+        <v/>
+      </c>
+      <c r="P44" s="15" t="str">
+        <f>IF(_tap_day_all!P39="","",ROUND(_tap_day_all!P39*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q44" s="15" t="str">
+        <f>IF(_tap_day_all!Q39="","",ROUND(_tap_day_all!Q39*100,4))</f>
+        <v/>
+      </c>
+      <c r="R44" s="15" t="str">
+        <f>IF(_tap_day_all!R39="","",ROUND(_tap_day_all!R39*100,4))</f>
+        <v/>
+      </c>
+      <c r="S44" s="15" t="str">
+        <f>IF(_tap_day_all!S39="","",ROUND(_tap_day_all!S39*100,4))</f>
+        <v/>
+      </c>
+      <c r="T44" s="15" t="str">
+        <f>IF(_tap_day_all!T39="","",ROUND(_tap_day_all!T39*100,4))</f>
+        <v/>
+      </c>
+      <c r="U44" s="15" t="str">
+        <f>IF(_tap_day_all!U39="","",ROUND(_tap_day_all!U39*100,4))</f>
+        <v/>
+      </c>
+      <c r="V44" s="15" t="str">
+        <f>IF(_tap_day_all!V39="","",ROUND(_tap_day_all!V39*100,4))</f>
+        <v/>
+      </c>
+      <c r="W44" s="15" t="str">
+        <f>IF(_tap_day_all!W39="","",ROUND(_tap_day_all!W39*100,4))</f>
+        <v/>
+      </c>
+      <c r="X44" s="15" t="str">
+        <f>IF(_tap_day_all!X39="","",ROUND(_tap_day_all!X39*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y44" s="15" t="str">
+        <f>IF(_tap_day_all!Y39="","",ROUND(_tap_day_all!Y39*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="15" t="str">
+        <f>IF(_tap_day_all!Z39="","",ROUND(_tap_day_all!Z39,4))</f>
+        <v/>
+      </c>
+      <c r="AA44" s="22" t="str">
+        <f>IF(_tap_day_all!AA39="","",ROUND(_tap_day_all!AA39,4))</f>
+        <v/>
+      </c>
+      <c r="AB44" s="22" t="str">
+        <f>IF(_tap_day_all!AB39="","",ROUND(_tap_day_all!AB39,4))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="22" t="str">
+        <f>IF(_tap_day_all!AC39="","",ROUND(_tap_day_all!AC39,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="str">
+        <f>IF(_tap_day_all!A40="","",_tap_day_all!A40)</f>
+        <v/>
+      </c>
+      <c r="B45" s="15" t="str">
+        <f>IF(_tap_day_all!B40="","",_tap_day_all!B40)</f>
+        <v/>
+      </c>
+      <c r="C45" s="15" t="str">
+        <f>IF(_tap_day_all!C40="","",_tap_day_all!C40)</f>
+        <v/>
+      </c>
+      <c r="D45" s="18" t="str">
+        <f>IF(_tap_day_all!D40="","",_tap_day_all!D40)</f>
+        <v/>
+      </c>
+      <c r="E45" s="18" t="str">
+        <f>IF(_tap_day_all!E40="","",_tap_day_all!E40)</f>
+        <v/>
+      </c>
+      <c r="F45" s="15" t="str">
+        <f>IF(_tap_day_all!F40="","",_tap_day_all!F40)</f>
+        <v/>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f>IF(_tap_day_all!G40="","",_tap_day_all!G40)</f>
+        <v/>
+      </c>
+      <c r="H45" s="20" t="str">
+        <f>IF(_tap_day_all!H40="","",_tap_day_all!H40)</f>
+        <v/>
+      </c>
+      <c r="I45" s="20" t="str">
+        <f>IF(_tap_day_all!I40="","",_tap_day_all!I40)</f>
+        <v/>
+      </c>
+      <c r="J45" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K45" s="21" t="str">
+        <f>IF(_tap_day_all!K40="","",_tap_day_all!K40)</f>
+        <v/>
+      </c>
+      <c r="L45" s="20" t="str">
+        <f>IF(_tap_day_all!L40="","",_tap_day_all!L40)</f>
+        <v/>
+      </c>
+      <c r="M45" s="15" t="str">
+        <f>IF(_tap_day_all!M40="","",ROUND(_tap_day_all!M40*100,4))</f>
+        <v/>
+      </c>
+      <c r="N45" s="15" t="str">
+        <f>IF(_tap_day_all!N40="","",ROUND(_tap_day_all!N40*100,4))</f>
+        <v/>
+      </c>
+      <c r="O45" s="15" t="str">
+        <f>IF(_tap_day_all!O40="","",ROUND(_tap_day_all!O40*100,4))</f>
+        <v/>
+      </c>
+      <c r="P45" s="15" t="str">
+        <f>IF(_tap_day_all!P40="","",ROUND(_tap_day_all!P40*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q45" s="15" t="str">
+        <f>IF(_tap_day_all!Q40="","",ROUND(_tap_day_all!Q40*100,4))</f>
+        <v/>
+      </c>
+      <c r="R45" s="15" t="str">
+        <f>IF(_tap_day_all!R40="","",ROUND(_tap_day_all!R40*100,4))</f>
+        <v/>
+      </c>
+      <c r="S45" s="15" t="str">
+        <f>IF(_tap_day_all!S40="","",ROUND(_tap_day_all!S40*100,4))</f>
+        <v/>
+      </c>
+      <c r="T45" s="15" t="str">
+        <f>IF(_tap_day_all!T40="","",ROUND(_tap_day_all!T40*100,4))</f>
+        <v/>
+      </c>
+      <c r="U45" s="15" t="str">
+        <f>IF(_tap_day_all!U40="","",ROUND(_tap_day_all!U40*100,4))</f>
+        <v/>
+      </c>
+      <c r="V45" s="15" t="str">
+        <f>IF(_tap_day_all!V40="","",ROUND(_tap_day_all!V40*100,4))</f>
+        <v/>
+      </c>
+      <c r="W45" s="15" t="str">
+        <f>IF(_tap_day_all!W40="","",ROUND(_tap_day_all!W40*100,4))</f>
+        <v/>
+      </c>
+      <c r="X45" s="15" t="str">
+        <f>IF(_tap_day_all!X40="","",ROUND(_tap_day_all!X40*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y45" s="15" t="str">
+        <f>IF(_tap_day_all!Y40="","",ROUND(_tap_day_all!Y40*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z45" s="15" t="str">
+        <f>IF(_tap_day_all!Z40="","",ROUND(_tap_day_all!Z40,4))</f>
+        <v/>
+      </c>
+      <c r="AA45" s="22" t="str">
+        <f>IF(_tap_day_all!AA40="","",ROUND(_tap_day_all!AA40,4))</f>
+        <v/>
+      </c>
+      <c r="AB45" s="22" t="str">
+        <f>IF(_tap_day_all!AB40="","",ROUND(_tap_day_all!AB40,4))</f>
+        <v/>
+      </c>
+      <c r="AC45" s="22" t="str">
+        <f>IF(_tap_day_all!AC40="","",ROUND(_tap_day_all!AC40,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="str">
+        <f>IF(_tap_day_all!A41="","",_tap_day_all!A41)</f>
+        <v/>
+      </c>
+      <c r="B46" s="15" t="str">
+        <f>IF(_tap_day_all!B41="","",_tap_day_all!B41)</f>
+        <v/>
+      </c>
+      <c r="C46" s="15" t="str">
+        <f>IF(_tap_day_all!C41="","",_tap_day_all!C41)</f>
+        <v/>
+      </c>
+      <c r="D46" s="18" t="str">
+        <f>IF(_tap_day_all!D41="","",_tap_day_all!D41)</f>
+        <v/>
+      </c>
+      <c r="E46" s="18" t="str">
+        <f>IF(_tap_day_all!E41="","",_tap_day_all!E41)</f>
+        <v/>
+      </c>
+      <c r="F46" s="15" t="str">
+        <f>IF(_tap_day_all!F41="","",_tap_day_all!F41)</f>
+        <v/>
+      </c>
+      <c r="G46" s="15" t="str">
+        <f>IF(_tap_day_all!G41="","",_tap_day_all!G41)</f>
+        <v/>
+      </c>
+      <c r="H46" s="20" t="str">
+        <f>IF(_tap_day_all!H41="","",_tap_day_all!H41)</f>
+        <v/>
+      </c>
+      <c r="I46" s="20" t="str">
+        <f>IF(_tap_day_all!I41="","",_tap_day_all!I41)</f>
+        <v/>
+      </c>
+      <c r="J46" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K46" s="21" t="str">
+        <f>IF(_tap_day_all!K41="","",_tap_day_all!K41)</f>
+        <v/>
+      </c>
+      <c r="L46" s="20" t="str">
+        <f>IF(_tap_day_all!L41="","",_tap_day_all!L41)</f>
+        <v/>
+      </c>
+      <c r="M46" s="15" t="str">
+        <f>IF(_tap_day_all!M41="","",ROUND(_tap_day_all!M41*100,4))</f>
+        <v/>
+      </c>
+      <c r="N46" s="15" t="str">
+        <f>IF(_tap_day_all!N41="","",ROUND(_tap_day_all!N41*100,4))</f>
+        <v/>
+      </c>
+      <c r="O46" s="15" t="str">
+        <f>IF(_tap_day_all!O41="","",ROUND(_tap_day_all!O41*100,4))</f>
+        <v/>
+      </c>
+      <c r="P46" s="15" t="str">
+        <f>IF(_tap_day_all!P41="","",ROUND(_tap_day_all!P41*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q46" s="15" t="str">
+        <f>IF(_tap_day_all!Q41="","",ROUND(_tap_day_all!Q41*100,4))</f>
+        <v/>
+      </c>
+      <c r="R46" s="15" t="str">
+        <f>IF(_tap_day_all!R41="","",ROUND(_tap_day_all!R41*100,4))</f>
+        <v/>
+      </c>
+      <c r="S46" s="15" t="str">
+        <f>IF(_tap_day_all!S41="","",ROUND(_tap_day_all!S41*100,4))</f>
+        <v/>
+      </c>
+      <c r="T46" s="15" t="str">
+        <f>IF(_tap_day_all!T41="","",ROUND(_tap_day_all!T41*100,4))</f>
+        <v/>
+      </c>
+      <c r="U46" s="15" t="str">
+        <f>IF(_tap_day_all!U41="","",ROUND(_tap_day_all!U41*100,4))</f>
+        <v/>
+      </c>
+      <c r="V46" s="15" t="str">
+        <f>IF(_tap_day_all!V41="","",ROUND(_tap_day_all!V41*100,4))</f>
+        <v/>
+      </c>
+      <c r="W46" s="15" t="str">
+        <f>IF(_tap_day_all!W41="","",ROUND(_tap_day_all!W41*100,4))</f>
+        <v/>
+      </c>
+      <c r="X46" s="15" t="str">
+        <f>IF(_tap_day_all!X41="","",ROUND(_tap_day_all!X41*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y46" s="15" t="str">
+        <f>IF(_tap_day_all!Y41="","",ROUND(_tap_day_all!Y41*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z46" s="15" t="str">
+        <f>IF(_tap_day_all!Z41="","",ROUND(_tap_day_all!Z41,4))</f>
+        <v/>
+      </c>
+      <c r="AA46" s="22" t="str">
+        <f>IF(_tap_day_all!AA41="","",ROUND(_tap_day_all!AA41,4))</f>
+        <v/>
+      </c>
+      <c r="AB46" s="22" t="str">
+        <f>IF(_tap_day_all!AB41="","",ROUND(_tap_day_all!AB41,4))</f>
+        <v/>
+      </c>
+      <c r="AC46" s="22" t="str">
+        <f>IF(_tap_day_all!AC41="","",ROUND(_tap_day_all!AC41,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="str">
+        <f>IF(_tap_day_all!A42="","",_tap_day_all!A42)</f>
+        <v/>
+      </c>
+      <c r="B47" s="15" t="str">
+        <f>IF(_tap_day_all!B42="","",_tap_day_all!B42)</f>
+        <v/>
+      </c>
+      <c r="C47" s="15" t="str">
+        <f>IF(_tap_day_all!C42="","",_tap_day_all!C42)</f>
+        <v/>
+      </c>
+      <c r="D47" s="18" t="str">
+        <f>IF(_tap_day_all!D42="","",_tap_day_all!D42)</f>
+        <v/>
+      </c>
+      <c r="E47" s="18" t="str">
+        <f>IF(_tap_day_all!E42="","",_tap_day_all!E42)</f>
+        <v/>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f>IF(_tap_day_all!F42="","",_tap_day_all!F42)</f>
+        <v/>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f>IF(_tap_day_all!G42="","",_tap_day_all!G42)</f>
+        <v/>
+      </c>
+      <c r="H47" s="20" t="str">
+        <f>IF(_tap_day_all!H42="","",_tap_day_all!H42)</f>
+        <v/>
+      </c>
+      <c r="I47" s="20" t="str">
+        <f>IF(_tap_day_all!I42="","",_tap_day_all!I42)</f>
+        <v/>
+      </c>
+      <c r="J47" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K47" s="21" t="str">
+        <f>IF(_tap_day_all!K42="","",_tap_day_all!K42)</f>
+        <v/>
+      </c>
+      <c r="L47" s="20" t="str">
+        <f>IF(_tap_day_all!L42="","",_tap_day_all!L42)</f>
+        <v/>
+      </c>
+      <c r="M47" s="15" t="str">
+        <f>IF(_tap_day_all!M42="","",ROUND(_tap_day_all!M42*100,4))</f>
+        <v/>
+      </c>
+      <c r="N47" s="15" t="str">
+        <f>IF(_tap_day_all!N42="","",ROUND(_tap_day_all!N42*100,4))</f>
+        <v/>
+      </c>
+      <c r="O47" s="15" t="str">
+        <f>IF(_tap_day_all!O42="","",ROUND(_tap_day_all!O42*100,4))</f>
+        <v/>
+      </c>
+      <c r="P47" s="15" t="str">
+        <f>IF(_tap_day_all!P42="","",ROUND(_tap_day_all!P42*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q47" s="15" t="str">
+        <f>IF(_tap_day_all!Q42="","",ROUND(_tap_day_all!Q42*100,4))</f>
+        <v/>
+      </c>
+      <c r="R47" s="15" t="str">
+        <f>IF(_tap_day_all!R42="","",ROUND(_tap_day_all!R42*100,4))</f>
+        <v/>
+      </c>
+      <c r="S47" s="15" t="str">
+        <f>IF(_tap_day_all!S42="","",ROUND(_tap_day_all!S42*100,4))</f>
+        <v/>
+      </c>
+      <c r="T47" s="15" t="str">
+        <f>IF(_tap_day_all!T42="","",ROUND(_tap_day_all!T42*100,4))</f>
+        <v/>
+      </c>
+      <c r="U47" s="15" t="str">
+        <f>IF(_tap_day_all!U42="","",ROUND(_tap_day_all!U42*100,4))</f>
+        <v/>
+      </c>
+      <c r="V47" s="15" t="str">
+        <f>IF(_tap_day_all!V42="","",ROUND(_tap_day_all!V42*100,4))</f>
+        <v/>
+      </c>
+      <c r="W47" s="15" t="str">
+        <f>IF(_tap_day_all!W42="","",ROUND(_tap_day_all!W42*100,4))</f>
+        <v/>
+      </c>
+      <c r="X47" s="15" t="str">
+        <f>IF(_tap_day_all!X42="","",ROUND(_tap_day_all!X42*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y47" s="15" t="str">
+        <f>IF(_tap_day_all!Y42="","",ROUND(_tap_day_all!Y42*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z47" s="15" t="str">
+        <f>IF(_tap_day_all!Z42="","",ROUND(_tap_day_all!Z42,4))</f>
+        <v/>
+      </c>
+      <c r="AA47" s="22" t="str">
+        <f>IF(_tap_day_all!AA42="","",ROUND(_tap_day_all!AA42,4))</f>
+        <v/>
+      </c>
+      <c r="AB47" s="22" t="str">
+        <f>IF(_tap_day_all!AB42="","",ROUND(_tap_day_all!AB42,4))</f>
+        <v/>
+      </c>
+      <c r="AC47" s="22" t="str">
+        <f>IF(_tap_day_all!AC42="","",ROUND(_tap_day_all!AC42,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="str">
+        <f>IF(_tap_day_all!A43="","",_tap_day_all!A43)</f>
+        <v/>
+      </c>
+      <c r="B48" s="15" t="str">
+        <f>IF(_tap_day_all!B43="","",_tap_day_all!B43)</f>
+        <v/>
+      </c>
+      <c r="C48" s="15" t="str">
+        <f>IF(_tap_day_all!C43="","",_tap_day_all!C43)</f>
+        <v/>
+      </c>
+      <c r="D48" s="18" t="str">
+        <f>IF(_tap_day_all!D43="","",_tap_day_all!D43)</f>
+        <v/>
+      </c>
+      <c r="E48" s="18" t="str">
+        <f>IF(_tap_day_all!E43="","",_tap_day_all!E43)</f>
+        <v/>
+      </c>
+      <c r="F48" s="15" t="str">
+        <f>IF(_tap_day_all!F43="","",_tap_day_all!F43)</f>
+        <v/>
+      </c>
+      <c r="G48" s="15" t="str">
+        <f>IF(_tap_day_all!G43="","",_tap_day_all!G43)</f>
+        <v/>
+      </c>
+      <c r="H48" s="20" t="str">
+        <f>IF(_tap_day_all!H43="","",_tap_day_all!H43)</f>
+        <v/>
+      </c>
+      <c r="I48" s="20" t="str">
+        <f>IF(_tap_day_all!I43="","",_tap_day_all!I43)</f>
+        <v/>
+      </c>
+      <c r="J48" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K48" s="21" t="str">
+        <f>IF(_tap_day_all!K43="","",_tap_day_all!K43)</f>
+        <v/>
+      </c>
+      <c r="L48" s="20" t="str">
+        <f>IF(_tap_day_all!L43="","",_tap_day_all!L43)</f>
+        <v/>
+      </c>
+      <c r="M48" s="15" t="str">
+        <f>IF(_tap_day_all!M43="","",ROUND(_tap_day_all!M43*100,4))</f>
+        <v/>
+      </c>
+      <c r="N48" s="15" t="str">
+        <f>IF(_tap_day_all!N43="","",ROUND(_tap_day_all!N43*100,4))</f>
+        <v/>
+      </c>
+      <c r="O48" s="15" t="str">
+        <f>IF(_tap_day_all!O43="","",ROUND(_tap_day_all!O43*100,4))</f>
+        <v/>
+      </c>
+      <c r="P48" s="15" t="str">
+        <f>IF(_tap_day_all!P43="","",ROUND(_tap_day_all!P43*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q48" s="15" t="str">
+        <f>IF(_tap_day_all!Q43="","",ROUND(_tap_day_all!Q43*100,4))</f>
+        <v/>
+      </c>
+      <c r="R48" s="15" t="str">
+        <f>IF(_tap_day_all!R43="","",ROUND(_tap_day_all!R43*100,4))</f>
+        <v/>
+      </c>
+      <c r="S48" s="15" t="str">
+        <f>IF(_tap_day_all!S43="","",ROUND(_tap_day_all!S43*100,4))</f>
+        <v/>
+      </c>
+      <c r="T48" s="15" t="str">
+        <f>IF(_tap_day_all!T43="","",ROUND(_tap_day_all!T43*100,4))</f>
+        <v/>
+      </c>
+      <c r="U48" s="15" t="str">
+        <f>IF(_tap_day_all!U43="","",ROUND(_tap_day_all!U43*100,4))</f>
+        <v/>
+      </c>
+      <c r="V48" s="15" t="str">
+        <f>IF(_tap_day_all!V43="","",ROUND(_tap_day_all!V43*100,4))</f>
+        <v/>
+      </c>
+      <c r="W48" s="15" t="str">
+        <f>IF(_tap_day_all!W43="","",ROUND(_tap_day_all!W43*100,4))</f>
+        <v/>
+      </c>
+      <c r="X48" s="15" t="str">
+        <f>IF(_tap_day_all!X43="","",ROUND(_tap_day_all!X43*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y48" s="15" t="str">
+        <f>IF(_tap_day_all!Y43="","",ROUND(_tap_day_all!Y43*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="15" t="str">
+        <f>IF(_tap_day_all!Z43="","",ROUND(_tap_day_all!Z43,4))</f>
+        <v/>
+      </c>
+      <c r="AA48" s="22" t="str">
+        <f>IF(_tap_day_all!AA43="","",ROUND(_tap_day_all!AA43,4))</f>
+        <v/>
+      </c>
+      <c r="AB48" s="22" t="str">
+        <f>IF(_tap_day_all!AB43="","",ROUND(_tap_day_all!AB43,4))</f>
+        <v/>
+      </c>
+      <c r="AC48" s="22" t="str">
+        <f>IF(_tap_day_all!AC43="","",ROUND(_tap_day_all!AC43,4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="str">
+        <f>IF(_tap_day_all!A44="","",_tap_day_all!A44)</f>
+        <v/>
+      </c>
+      <c r="B49" s="15" t="str">
+        <f>IF(_tap_day_all!B44="","",_tap_day_all!B44)</f>
+        <v/>
+      </c>
+      <c r="C49" s="15" t="str">
+        <f>IF(_tap_day_all!C44="","",_tap_day_all!C44)</f>
+        <v/>
+      </c>
+      <c r="D49" s="18" t="str">
+        <f>IF(_tap_day_all!D44="","",_tap_day_all!D44)</f>
+        <v/>
+      </c>
+      <c r="E49" s="18" t="str">
+        <f>IF(_tap_day_all!E44="","",_tap_day_all!E44)</f>
+        <v/>
+      </c>
+      <c r="F49" s="15" t="str">
+        <f>IF(_tap_day_all!F44="","",_tap_day_all!F44)</f>
+        <v/>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f>IF(_tap_day_all!G44="","",_tap_day_all!G44)</f>
+        <v/>
+      </c>
+      <c r="H49" s="20" t="str">
+        <f>IF(_tap_day_all!H44="","",_tap_day_all!H44)</f>
+        <v/>
+      </c>
+      <c r="I49" s="20" t="str">
+        <f>IF(_tap_day_all!I44="","",_tap_day_all!I44)</f>
+        <v/>
+      </c>
+      <c r="J49" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K49" s="21" t="str">
+        <f>IF(_tap_day_all!K44="","",_tap_day_all!K44)</f>
+        <v/>
+      </c>
+      <c r="L49" s="20" t="str">
+        <f>IF(_tap_day_all!L44="","",_tap_day_all!L44)</f>
+        <v/>
+      </c>
+      <c r="M49" s="15" t="str">
+        <f>IF(_tap_day_all!M44="","",ROUND(_tap_day_all!M44*100,4))</f>
+        <v/>
+      </c>
+      <c r="N49" s="15" t="str">
+        <f>IF(_tap_day_all!N44="","",ROUND(_tap_day_all!N44*100,4))</f>
+        <v/>
+      </c>
+      <c r="O49" s="15" t="str">
+        <f>IF(_tap_day_all!O44="","",ROUND(_tap_day_all!O44*100,4))</f>
+        <v/>
+      </c>
+      <c r="P49" s="15" t="str">
+        <f>IF(_tap_day_all!P44="","",ROUND(_tap_day_all!P44*100,4))</f>
+        <v/>
+      </c>
+      <c r="Q49" s="15" t="str">
+        <f>IF(_tap_day_all!Q44="","",ROUND(_tap_day_all!Q44*100,4))</f>
+        <v/>
+      </c>
+      <c r="R49" s="15" t="str">
+        <f>IF(_tap_day_all!R44="","",ROUND(_tap_day_all!R44*100,4))</f>
+        <v/>
+      </c>
+      <c r="S49" s="15" t="str">
+        <f>IF(_tap_day_all!S44="","",ROUND(_tap_day_all!S44*100,4))</f>
+        <v/>
+      </c>
+      <c r="T49" s="15" t="str">
+        <f>IF(_tap_day_all!T44="","",ROUND(_tap_day_all!T44*100,4))</f>
+        <v/>
+      </c>
+      <c r="U49" s="15" t="str">
+        <f>IF(_tap_day_all!U44="","",ROUND(_tap_day_all!U44*100,4))</f>
+        <v/>
+      </c>
+      <c r="V49" s="15" t="str">
+        <f>IF(_tap_day_all!V44="","",ROUND(_tap_day_all!V44*100,4))</f>
+        <v/>
+      </c>
+      <c r="W49" s="15" t="str">
+        <f>IF(_tap_day_all!W44="","",ROUND(_tap_day_all!W44*100,4))</f>
+        <v/>
+      </c>
+      <c r="X49" s="15" t="str">
+        <f>IF(_tap_day_all!X44="","",ROUND(_tap_day_all!X44*100,4))</f>
+        <v/>
+      </c>
+      <c r="Y49" s="15" t="str">
+        <f>IF(_tap_day_all!Y44="","",ROUND(_tap_day_all!Y44*100,4))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="15" t="str">
+        <f>IF(_tap_day_all!Z44="","",ROUND(_tap_day_all!Z44,4))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="22" t="str">
+        <f>IF(_tap_day_all!AA44="","",ROUND(_tap_day_all!AA44,4))</f>
+        <v/>
+      </c>
+      <c r="AB49" s="22" t="str">
+        <f>IF(_tap_day_all!AB44="","",ROUND(_tap_day_all!AB44,4))</f>
+        <v/>
+      </c>
+      <c r="AC49" s="22" t="str">
+        <f>IF(_tap_day_all!AC44="","",ROUND(_tap_day_all!AC44,4))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="20">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="C2:L2"/>
@@ -4328,23 +6492,28 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="T3:AB3"/>
+    <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A29:B32"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D27:E28"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AC1048576">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$AC1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$AC1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$AC1=3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4352,10 +6521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4368,40 +6537,40 @@
     <col min="6" max="6" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>48</v>
@@ -4451,207 +6620,210 @@
       <c r="AB1" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="28"/>
+      <c r="AC1" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="28"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="28"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="28"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="28"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="28"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="28"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="28"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="28"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="27"/>
+      <c r="E41" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4667,7 +6839,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4684,14 +6856,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>